--- a/metadata/excel/projects/sinclair/testproj/metadata.xlsx
+++ b/metadata/excel/projects/sinclair/testproj/metadata.xlsx
@@ -16,10 +16,10 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Microsoft Office User - Personal View" guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Me - Personal View" guid="{22DA4066-82A0-D143-AA10-416CFBE3149D}" mergeInterval="0" personalView="1" xWindow="46" yWindow="23" windowWidth="1436" windowHeight="854" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
+    <customWorkbookView name="Kemal - Personal View" guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" mergeInterval="0" personalView="1" xWindow="184" yWindow="84" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
     <customWorkbookView name="LS - Personal View" guid="{06B92370-743D-804F-912C-658BE37B1274}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Kemal - Personal View" guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" mergeInterval="0" personalView="1" xWindow="184" yWindow="84" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Me - Personal View" guid="{22DA4066-82A0-D143-AA10-416CFBE3149D}" mergeInterval="0" personalView="1" xWindow="46" yWindow="23" windowWidth="1436" windowHeight="854" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
-    <customWorkbookView name="Microsoft Office User - Personal View" guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="307">
   <si>
     <t>Country</t>
   </si>
@@ -971,6 +971,84 @@
   <si>
     <t>Testproj project</t>
   </si>
+  <si>
+    <t>TGTGTGTG</t>
+  </si>
+  <si>
+    <t>CACACGTG</t>
+  </si>
+  <si>
+    <t>CGCATCTG</t>
+  </si>
+  <si>
+    <t>TCGCACTG</t>
+  </si>
+  <si>
+    <t>CGTGCTAG</t>
+  </si>
+  <si>
+    <t>TCTATGAG</t>
+  </si>
+  <si>
+    <t>CAGATCAG</t>
+  </si>
+  <si>
+    <t>CAGCTCTC</t>
+  </si>
+  <si>
+    <t>TCGATCTC</t>
+  </si>
+  <si>
+    <t>TGTCACTC</t>
+  </si>
+  <si>
+    <t>TACGCTGC</t>
+  </si>
+  <si>
+    <t>CATCATGC</t>
+  </si>
+  <si>
+    <t>CACATCGC</t>
+  </si>
+  <si>
+    <t>TGCGACGC</t>
+  </si>
+  <si>
+    <t>TAGCACGC</t>
+  </si>
+  <si>
+    <t>CACACTAC</t>
+  </si>
+  <si>
+    <t>TCGCAGAC</t>
+  </si>
+  <si>
+    <t>TACGTCAC</t>
+  </si>
+  <si>
+    <t>CGTGACAC</t>
+  </si>
+  <si>
+    <t>TATACGTA</t>
+  </si>
+  <si>
+    <t>CAGCAGTA</t>
+  </si>
+  <si>
+    <t>TCTGTCTA</t>
+  </si>
+  <si>
+    <t>CACGACTA</t>
+  </si>
+  <si>
+    <t>CGCACTGA</t>
+  </si>
+  <si>
+    <t>TGTCATGA</t>
+  </si>
+  <si>
+    <t>TGTATCGA</t>
+  </si>
 </sst>
 </file>
 
@@ -980,7 +1058,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1038,11 +1116,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1" tint="0.34998626667073579"/>
-      <name val="Menlo Regular"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1466,7 +1539,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1491,7 +1564,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1522,14 +1595,11 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1539,31 +1609,31 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1581,40 +1651,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="11" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="290"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2311,40 +2381,40 @@
   </sheetPr>
   <dimension ref="A1:BZ51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="X1" sqref="X1"/>
-      <selection pane="bottomLeft" activeCell="U32" sqref="U32"/>
+      <selection pane="bottomLeft" activeCell="AE37" sqref="AE37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="12" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" style="29" customWidth="1"/>
-    <col min="4" max="4" width="27" style="29" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" style="28" customWidth="1"/>
+    <col min="4" max="4" width="27" style="28" customWidth="1"/>
     <col min="5" max="5" width="27.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.5" style="12" customWidth="1"/>
-    <col min="7" max="7" width="15" style="32" customWidth="1"/>
-    <col min="8" max="8" width="33.1640625" style="32" customWidth="1"/>
-    <col min="9" max="9" width="13.1640625" style="33" customWidth="1"/>
-    <col min="10" max="10" width="16.1640625" style="32" customWidth="1"/>
-    <col min="11" max="11" width="20.5" style="32" customWidth="1"/>
-    <col min="12" max="13" width="22" style="32" customWidth="1"/>
+    <col min="7" max="7" width="15" style="31" customWidth="1"/>
+    <col min="8" max="8" width="33.1640625" style="31" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" style="32" customWidth="1"/>
+    <col min="10" max="10" width="16.1640625" style="31" customWidth="1"/>
+    <col min="11" max="11" width="20.5" style="31" customWidth="1"/>
+    <col min="12" max="13" width="22" style="31" customWidth="1"/>
     <col min="14" max="14" width="11.5" customWidth="1"/>
-    <col min="15" max="15" width="15.83203125" style="40" customWidth="1"/>
-    <col min="16" max="16" width="14" style="43" customWidth="1"/>
+    <col min="15" max="15" width="15.83203125" style="39" customWidth="1"/>
+    <col min="16" max="16" width="14" style="42" customWidth="1"/>
     <col min="17" max="18" width="16.83203125" customWidth="1"/>
     <col min="19" max="19" width="11.5" customWidth="1"/>
-    <col min="20" max="20" width="33" style="17" customWidth="1"/>
-    <col min="21" max="21" width="32.5" style="17" customWidth="1"/>
+    <col min="20" max="20" width="33" style="16" customWidth="1"/>
+    <col min="21" max="21" width="32.5" style="16" customWidth="1"/>
     <col min="22" max="22" width="9.83203125" customWidth="1"/>
-    <col min="23" max="23" width="25.5" style="35" customWidth="1"/>
-    <col min="24" max="24" width="20.1640625" style="17" customWidth="1"/>
-    <col min="25" max="25" width="22" style="20" customWidth="1"/>
-    <col min="26" max="26" width="17.83203125" style="35" customWidth="1"/>
-    <col min="27" max="27" width="21.5" style="17" customWidth="1"/>
-    <col min="28" max="28" width="27.6640625" style="21" customWidth="1"/>
+    <col min="23" max="23" width="25.5" style="34" customWidth="1"/>
+    <col min="24" max="24" width="20.1640625" style="16" customWidth="1"/>
+    <col min="25" max="25" width="22" style="19" customWidth="1"/>
+    <col min="26" max="26" width="17.83203125" style="34" customWidth="1"/>
+    <col min="27" max="27" width="21.5" style="16" customWidth="1"/>
+    <col min="28" max="28" width="27.6640625" style="20" customWidth="1"/>
     <col min="29" max="29" width="9.83203125" customWidth="1"/>
     <col min="30" max="30" width="11" customWidth="1"/>
     <col min="31" max="31" width="13.5" style="2" customWidth="1"/>
@@ -2356,9 +2426,9 @@
     <col min="37" max="37" width="10.33203125" customWidth="1"/>
     <col min="38" max="38" width="11.5" customWidth="1"/>
     <col min="39" max="39" width="28.33203125" customWidth="1"/>
-    <col min="40" max="40" width="12.1640625" style="44" customWidth="1"/>
+    <col min="40" max="40" width="12.1640625" style="43" customWidth="1"/>
     <col min="41" max="41" width="32.83203125" style="1" customWidth="1"/>
-    <col min="42" max="42" width="12.83203125" style="44" customWidth="1"/>
+    <col min="42" max="42" width="12.83203125" style="43" customWidth="1"/>
     <col min="43" max="43" width="35.6640625" style="1" customWidth="1"/>
     <col min="44" max="44" width="10.1640625" customWidth="1"/>
     <col min="45" max="45" width="12.5" customWidth="1"/>
@@ -2377,21 +2447,21 @@
     <col min="60" max="60" width="15.5" customWidth="1"/>
     <col min="61" max="61" width="13.6640625" style="11" customWidth="1"/>
     <col min="62" max="62" width="13.1640625" style="11" customWidth="1"/>
-    <col min="63" max="63" width="12.5" style="17" customWidth="1"/>
-    <col min="64" max="64" width="26" style="17" customWidth="1"/>
-    <col min="65" max="65" width="31.33203125" style="17" customWidth="1"/>
+    <col min="63" max="63" width="12.5" style="16" customWidth="1"/>
+    <col min="64" max="64" width="26" style="16" customWidth="1"/>
+    <col min="65" max="65" width="31.33203125" style="16" customWidth="1"/>
     <col min="66" max="66" width="9" customWidth="1"/>
     <col min="67" max="67" width="16.5" customWidth="1"/>
     <col min="68" max="68" width="16" customWidth="1"/>
     <col min="69" max="69" width="9.5" customWidth="1"/>
-    <col min="70" max="70" width="11" style="23" customWidth="1"/>
-    <col min="71" max="71" width="11.6640625" style="23" customWidth="1"/>
-    <col min="72" max="72" width="14.33203125" style="23" customWidth="1"/>
-    <col min="73" max="73" width="12.6640625" style="23" customWidth="1"/>
-    <col min="74" max="74" width="13.6640625" style="23" customWidth="1"/>
-    <col min="75" max="75" width="15.33203125" style="23" customWidth="1"/>
-    <col min="76" max="76" width="15.5" style="23" customWidth="1"/>
-    <col min="77" max="77" width="14.6640625" style="23" customWidth="1"/>
+    <col min="70" max="70" width="11" style="22" customWidth="1"/>
+    <col min="71" max="71" width="11.6640625" style="22" customWidth="1"/>
+    <col min="72" max="72" width="14.33203125" style="22" customWidth="1"/>
+    <col min="73" max="73" width="12.6640625" style="22" customWidth="1"/>
+    <col min="74" max="74" width="13.6640625" style="22" customWidth="1"/>
+    <col min="75" max="75" width="15.33203125" style="22" customWidth="1"/>
+    <col min="76" max="76" width="15.5" style="22" customWidth="1"/>
+    <col min="77" max="77" width="14.6640625" style="22" customWidth="1"/>
     <col min="78" max="78" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2400,27 +2470,27 @@
         <v>49</v>
       </c>
       <c r="B1" s="3"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
       <c r="E1" s="9"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="41"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="40"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="6"/>
       <c r="T1" s="6"/>
-      <c r="U1" s="18"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="18"/>
+      <c r="U1" s="17"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="17"/>
       <c r="AB1" s="3"/>
       <c r="AD1" s="3"/>
       <c r="AE1" s="5"/>
@@ -2431,9 +2501,9 @@
       <c r="AJ1" s="14"/>
       <c r="AK1" s="3"/>
       <c r="AM1" s="8"/>
-      <c r="AN1" s="28"/>
+      <c r="AN1" s="27"/>
       <c r="AO1" s="9"/>
-      <c r="AP1" s="28"/>
+      <c r="AP1" s="27"/>
       <c r="AQ1" s="7"/>
       <c r="AS1" s="3"/>
       <c r="AT1" s="3"/>
@@ -2444,350 +2514,352 @@
       <c r="AY1" s="3"/>
       <c r="AZ1" s="3"/>
       <c r="BA1" s="10"/>
-      <c r="BC1" s="63" t="s">
+      <c r="BC1" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="BD1" s="63"/>
-      <c r="BE1" s="63"/>
-      <c r="BF1" s="63"/>
-      <c r="BH1" s="63" t="s">
+      <c r="BD1" s="62"/>
+      <c r="BE1" s="62"/>
+      <c r="BF1" s="62"/>
+      <c r="BH1" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="BI1" s="63"/>
-      <c r="BJ1" s="63"/>
-      <c r="BK1" s="63"/>
-      <c r="BL1" s="63"/>
-      <c r="BM1" s="63"/>
-      <c r="BO1" s="63" t="s">
+      <c r="BI1" s="62"/>
+      <c r="BJ1" s="62"/>
+      <c r="BK1" s="62"/>
+      <c r="BL1" s="62"/>
+      <c r="BM1" s="62"/>
+      <c r="BO1" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="63"/>
+      <c r="BP1" s="62"/>
       <c r="BR1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="BS1" s="22"/>
-      <c r="BT1" s="22"/>
-      <c r="BU1" s="22"/>
-      <c r="BV1" s="22"/>
-      <c r="BW1" s="22"/>
-      <c r="BX1" s="22"/>
-      <c r="BY1" s="22"/>
+      <c r="BS1" s="21"/>
+      <c r="BT1" s="21"/>
+      <c r="BU1" s="21"/>
+      <c r="BV1" s="21"/>
+      <c r="BW1" s="21"/>
+      <c r="BX1" s="21"/>
+      <c r="BY1" s="21"/>
     </row>
-    <row r="2" spans="1:78" s="55" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="45" t="s">
+    <row r="2" spans="1:78" s="54" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="46"/>
-      <c r="G2" s="45" t="s">
+      <c r="F2" s="45"/>
+      <c r="G2" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="H2" s="45" t="s">
+      <c r="H2" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="I2" s="45" t="s">
+      <c r="I2" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="J2" s="45" t="s">
+      <c r="J2" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="K2" s="45" t="s">
+      <c r="K2" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="L2" s="45" t="s">
+      <c r="L2" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="M2" s="45" t="s">
+      <c r="M2" s="44" t="s">
         <v>272</v>
       </c>
-      <c r="N2" s="47"/>
-      <c r="O2" s="48" t="s">
+      <c r="N2" s="46"/>
+      <c r="O2" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="P2" s="48" t="s">
+      <c r="P2" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="Q2" s="45" t="s">
+      <c r="Q2" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="45" t="s">
+      <c r="R2" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="47"/>
-      <c r="T2" s="45" t="s">
+      <c r="S2" s="46"/>
+      <c r="T2" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="U2" s="45" t="s">
+      <c r="U2" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="V2" s="47"/>
-      <c r="W2" s="45" t="s">
+      <c r="V2" s="46"/>
+      <c r="W2" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="X2" s="45" t="s">
+      <c r="X2" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="Y2" s="45" t="s">
+      <c r="Y2" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="Z2" s="45" t="s">
+      <c r="Z2" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="AA2" s="45" t="s">
+      <c r="AA2" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="45" t="s">
+      <c r="AB2" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="AC2" s="47"/>
-      <c r="AD2" s="45" t="s">
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="45" t="s">
+      <c r="AE2" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="AF2" s="45" t="s">
+      <c r="AF2" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="AG2" s="45" t="s">
+      <c r="AG2" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="AH2" s="45" t="s">
+      <c r="AH2" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="AI2" s="45" t="s">
+      <c r="AI2" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="AJ2" s="49" t="s">
+      <c r="AJ2" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="AK2" s="45" t="s">
+      <c r="AK2" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="AL2" s="47"/>
-      <c r="AM2" s="45" t="s">
+      <c r="AL2" s="46"/>
+      <c r="AM2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="AN2" s="45" t="s">
+      <c r="AN2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="AO2" s="45" t="s">
+      <c r="AO2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="AP2" s="45" t="s">
+      <c r="AP2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="AQ2" s="45" t="s">
+      <c r="AQ2" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="AR2" s="50"/>
-      <c r="AS2" s="45" t="s">
+      <c r="AR2" s="49"/>
+      <c r="AS2" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="AT2" s="45" t="s">
+      <c r="AT2" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="AU2" s="45" t="s">
+      <c r="AU2" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="AV2" s="45" t="s">
+      <c r="AV2" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="AW2" s="45" t="s">
+      <c r="AW2" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="AX2" s="45" t="s">
+      <c r="AX2" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="AY2" s="45" t="s">
+      <c r="AY2" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="AZ2" s="45" t="s">
+      <c r="AZ2" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="BA2" s="45" t="s">
+      <c r="BA2" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="BB2" s="50"/>
-      <c r="BC2" s="51" t="s">
+      <c r="BB2" s="49"/>
+      <c r="BC2" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="BD2" s="51" t="s">
+      <c r="BD2" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="BE2" s="51" t="s">
+      <c r="BE2" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="BF2" s="51" t="s">
+      <c r="BF2" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="BG2" s="50"/>
-      <c r="BH2" s="52" t="s">
+      <c r="BG2" s="49"/>
+      <c r="BH2" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="BI2" s="52" t="s">
+      <c r="BI2" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="BJ2" s="52" t="s">
+      <c r="BJ2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="BK2" s="52" t="s">
+      <c r="BK2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="BL2" s="52" t="s">
+      <c r="BL2" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="BM2" s="52" t="s">
+      <c r="BM2" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="BN2" s="50"/>
-      <c r="BO2" s="53" t="s">
+      <c r="BN2" s="49"/>
+      <c r="BO2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="BP2" s="53" t="s">
+      <c r="BP2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="BQ2" s="50"/>
-      <c r="BR2" s="54" t="s">
+      <c r="BQ2" s="49"/>
+      <c r="BR2" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="BS2" s="54" t="s">
+      <c r="BS2" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="BT2" s="54" t="s">
+      <c r="BT2" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="BU2" s="54" t="s">
+      <c r="BU2" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="BV2" s="54" t="s">
+      <c r="BV2" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="BW2" s="54" t="s">
+      <c r="BW2" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="BX2" s="54" t="s">
+      <c r="BX2" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="BY2" s="54" t="s">
+      <c r="BY2" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="BZ2" s="50"/>
+      <c r="BZ2" s="49"/>
     </row>
     <row r="3" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <f t="shared" ref="A3:A29" si="0">COUNTIF(D3,"&lt;&gt;"&amp;"")+COUNTIF(BM3,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="23">
         <v>1</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="28" t="s">
         <v>82</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="31" t="s">
         <v>277</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="I3" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="K3" s="32" t="s">
+      <c r="K3" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="L3" s="32" t="s">
+      <c r="L3" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="M3" s="32" t="s">
+      <c r="M3" s="31" t="s">
         <v>271</v>
       </c>
-      <c r="N3" s="32" t="s">
+      <c r="N3" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="O3" s="39"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="20"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="19"/>
       <c r="S3" t="s">
         <v>49</v>
       </c>
-      <c r="T3" s="17" t="s">
+      <c r="T3" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="U3" s="17" t="s">
+      <c r="U3" s="16" t="s">
         <v>280</v>
       </c>
       <c r="V3" s="1"/>
-      <c r="W3" s="35" t="s">
+      <c r="W3" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X3" s="17" t="s">
+      <c r="X3" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y3" s="59" t="s">
+      <c r="Y3" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="Z3" s="35" t="s">
+      <c r="Z3" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA3" s="17" t="s">
+      <c r="AA3" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB3" s="59" t="s">
+      <c r="AB3" s="58" t="s">
         <v>81</v>
       </c>
       <c r="AC3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD3" s="20" t="s">
+      <c r="AD3" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="AE3" s="20" t="s">
+      <c r="AE3" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="AF3" s="20" t="s">
+      <c r="AF3" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="AG3" s="20" t="s">
+      <c r="AG3" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="AH3" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="AH3" s="16"/>
-      <c r="AI3" s="62" t="s">
+      <c r="AI3" s="61" t="s">
         <v>216</v>
       </c>
-      <c r="AJ3" s="58"/>
+      <c r="AJ3" s="57"/>
       <c r="AK3" s="13">
         <v>0.01</v>
       </c>
       <c r="AM3" t="s">
         <v>275</v>
       </c>
-      <c r="AN3" s="44" t="s">
+      <c r="AN3" s="43" t="s">
         <v>273</v>
       </c>
       <c r="AO3" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="AP3" s="44" t="s">
+      <c r="AP3" s="43" t="s">
         <v>274</v>
       </c>
       <c r="AQ3" s="1" t="s">
@@ -2820,16 +2892,16 @@
       <c r="BA3">
         <v>250</v>
       </c>
-      <c r="BC3" s="60"/>
-      <c r="BD3" s="60"/>
-      <c r="BE3" s="60"/>
-      <c r="BF3" s="60"/>
-      <c r="BH3" s="26"/>
-      <c r="BI3" s="27"/>
-      <c r="BJ3" s="27"/>
+      <c r="BC3" s="59"/>
+      <c r="BD3" s="59"/>
+      <c r="BE3" s="59"/>
+      <c r="BF3" s="59"/>
+      <c r="BH3" s="25"/>
+      <c r="BI3" s="26"/>
+      <c r="BJ3" s="26"/>
       <c r="BK3"/>
       <c r="BL3"/>
-      <c r="BM3" s="27"/>
+      <c r="BM3" s="26"/>
       <c r="BR3"/>
       <c r="BS3"/>
       <c r="BT3"/>
@@ -2844,104 +2916,106 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="23">
         <v>2</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="28" t="s">
         <v>83</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="31" t="s">
         <v>277</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="I4" s="33" t="s">
+      <c r="I4" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="K4" s="32" t="s">
+      <c r="K4" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="L4" s="32" t="s">
+      <c r="L4" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="M4" s="32" t="s">
+      <c r="M4" s="31" t="s">
         <v>271</v>
       </c>
-      <c r="N4" s="32" t="s">
+      <c r="N4" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="O4" s="39"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="20"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="19"/>
       <c r="S4" t="s">
         <v>49</v>
       </c>
-      <c r="T4" s="17" t="s">
+      <c r="T4" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="U4" s="17" t="s">
+      <c r="U4" s="16" t="s">
         <v>280</v>
       </c>
       <c r="V4" s="1"/>
-      <c r="W4" s="35" t="s">
+      <c r="W4" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X4" s="17" t="s">
+      <c r="X4" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y4" s="59" t="s">
+      <c r="Y4" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="Z4" s="35" t="s">
+      <c r="Z4" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA4" s="17" t="s">
+      <c r="AA4" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB4" s="59" t="s">
+      <c r="AB4" s="58" t="s">
         <v>81</v>
       </c>
       <c r="AC4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD4" s="20" t="s">
+      <c r="AD4" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="AE4" s="20" t="s">
+      <c r="AE4" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="AF4" s="20" t="s">
+      <c r="AF4" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="AG4" s="20" t="s">
+      <c r="AG4" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="AH4" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="AH4" s="16"/>
-      <c r="AI4" s="62" t="s">
+      <c r="AI4" s="61" t="s">
         <v>217</v>
       </c>
-      <c r="AJ4" s="58"/>
+      <c r="AJ4" s="57"/>
       <c r="AK4" s="13">
         <v>0.01</v>
       </c>
       <c r="AM4" t="s">
         <v>275</v>
       </c>
-      <c r="AN4" s="44" t="s">
+      <c r="AN4" s="43" t="s">
         <v>273</v>
       </c>
       <c r="AO4" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="AP4" s="44" t="s">
+      <c r="AP4" s="43" t="s">
         <v>274</v>
       </c>
       <c r="AQ4" s="1" t="s">
@@ -2974,16 +3048,16 @@
       <c r="BA4">
         <v>250</v>
       </c>
-      <c r="BC4" s="60"/>
-      <c r="BD4" s="60"/>
-      <c r="BE4" s="60"/>
-      <c r="BF4" s="60"/>
-      <c r="BH4" s="26"/>
-      <c r="BI4" s="27"/>
-      <c r="BJ4" s="27"/>
+      <c r="BC4" s="59"/>
+      <c r="BD4" s="59"/>
+      <c r="BE4" s="59"/>
+      <c r="BF4" s="59"/>
+      <c r="BH4" s="25"/>
+      <c r="BI4" s="26"/>
+      <c r="BJ4" s="26"/>
       <c r="BK4"/>
       <c r="BL4"/>
-      <c r="BM4" s="27"/>
+      <c r="BM4" s="26"/>
       <c r="BR4"/>
       <c r="BS4"/>
       <c r="BT4"/>
@@ -2998,88 +3072,90 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="23">
         <v>3</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="28" t="s">
         <v>84</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="31" t="s">
         <v>277</v>
       </c>
-      <c r="H5" s="32" t="s">
+      <c r="H5" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="I5" s="33" t="s">
+      <c r="I5" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="K5" s="32" t="s">
+      <c r="K5" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="L5" s="32" t="s">
+      <c r="L5" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="M5" s="32" t="s">
+      <c r="M5" s="31" t="s">
         <v>271</v>
       </c>
-      <c r="N5" s="32" t="s">
+      <c r="N5" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="O5" s="39"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="25"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="24"/>
       <c r="S5" t="s">
         <v>49</v>
       </c>
-      <c r="T5" s="17" t="s">
+      <c r="T5" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="U5" s="17" t="s">
+      <c r="U5" s="16" t="s">
         <v>280</v>
       </c>
       <c r="V5" s="1"/>
-      <c r="W5" s="35" t="s">
+      <c r="W5" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X5" s="17" t="s">
+      <c r="X5" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y5" s="59" t="s">
+      <c r="Y5" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="Z5" s="35" t="s">
+      <c r="Z5" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA5" s="17" t="s">
+      <c r="AA5" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB5" s="59" t="s">
+      <c r="AB5" s="58" t="s">
         <v>81</v>
       </c>
       <c r="AC5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD5" s="20" t="s">
+      <c r="AD5" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="AE5" s="20" t="s">
+      <c r="AE5" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="AF5" s="20" t="s">
+      <c r="AF5" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="AG5" s="20" t="s">
+      <c r="AG5" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="AH5" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="AH5" s="16"/>
-      <c r="AI5" s="62" t="s">
+      <c r="AI5" s="61" t="s">
         <v>218</v>
       </c>
       <c r="AJ5"/>
@@ -3089,13 +3165,13 @@
       <c r="AM5" t="s">
         <v>275</v>
       </c>
-      <c r="AN5" s="44" t="s">
+      <c r="AN5" s="43" t="s">
         <v>273</v>
       </c>
       <c r="AO5" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="AP5" s="44" t="s">
+      <c r="AP5" s="43" t="s">
         <v>274</v>
       </c>
       <c r="AQ5" s="1" t="s">
@@ -3128,16 +3204,16 @@
       <c r="BA5">
         <v>250</v>
       </c>
-      <c r="BC5" s="60"/>
-      <c r="BD5" s="60"/>
-      <c r="BE5" s="60"/>
-      <c r="BF5" s="60"/>
-      <c r="BH5" s="26"/>
-      <c r="BI5" s="27"/>
-      <c r="BJ5" s="27"/>
+      <c r="BC5" s="59"/>
+      <c r="BD5" s="59"/>
+      <c r="BE5" s="59"/>
+      <c r="BF5" s="59"/>
+      <c r="BH5" s="25"/>
+      <c r="BI5" s="26"/>
+      <c r="BJ5" s="26"/>
       <c r="BK5"/>
       <c r="BL5"/>
-      <c r="BM5" s="27"/>
+      <c r="BM5" s="26"/>
       <c r="BR5"/>
       <c r="BS5"/>
       <c r="BT5"/>
@@ -3152,104 +3228,106 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="23">
         <v>4</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="28" t="s">
         <v>85</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="G6" s="32" t="s">
+      <c r="G6" s="31" t="s">
         <v>277</v>
       </c>
-      <c r="H6" s="32" t="s">
+      <c r="H6" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="I6" s="33" t="s">
+      <c r="I6" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="K6" s="32" t="s">
+      <c r="K6" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="L6" s="32" t="s">
+      <c r="L6" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="M6" s="32" t="s">
+      <c r="M6" s="31" t="s">
         <v>271</v>
       </c>
-      <c r="N6" s="32" t="s">
+      <c r="N6" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="O6" s="39"/>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="57"/>
-      <c r="R6" s="20"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="19"/>
       <c r="S6" t="s">
         <v>49</v>
       </c>
-      <c r="T6" s="17" t="s">
+      <c r="T6" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="U6" s="17" t="s">
+      <c r="U6" s="16" t="s">
         <v>280</v>
       </c>
       <c r="V6" s="1"/>
-      <c r="W6" s="35" t="s">
+      <c r="W6" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X6" s="17" t="s">
+      <c r="X6" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y6" s="59" t="s">
+      <c r="Y6" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="Z6" s="35" t="s">
+      <c r="Z6" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA6" s="17" t="s">
+      <c r="AA6" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB6" s="59" t="s">
+      <c r="AB6" s="58" t="s">
         <v>81</v>
       </c>
       <c r="AC6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD6" s="20" t="s">
+      <c r="AD6" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="AE6" s="20" t="s">
+      <c r="AE6" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="AF6" s="20" t="s">
+      <c r="AF6" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="AG6" s="20" t="s">
+      <c r="AG6" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="AH6" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="AH6" s="16"/>
-      <c r="AI6" s="62" t="s">
+      <c r="AI6" s="61" t="s">
         <v>219</v>
       </c>
-      <c r="AJ6" s="58"/>
+      <c r="AJ6" s="57"/>
       <c r="AK6" s="13">
         <v>0.01</v>
       </c>
       <c r="AM6" t="s">
         <v>275</v>
       </c>
-      <c r="AN6" s="44" t="s">
+      <c r="AN6" s="43" t="s">
         <v>273</v>
       </c>
       <c r="AO6" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="AP6" s="44" t="s">
+      <c r="AP6" s="43" t="s">
         <v>274</v>
       </c>
       <c r="AQ6" s="1" t="s">
@@ -3282,16 +3360,16 @@
       <c r="BA6">
         <v>250</v>
       </c>
-      <c r="BC6" s="60"/>
-      <c r="BD6" s="60"/>
-      <c r="BE6" s="60"/>
-      <c r="BF6" s="60"/>
-      <c r="BH6" s="26"/>
-      <c r="BI6" s="27"/>
-      <c r="BJ6" s="27"/>
+      <c r="BC6" s="59"/>
+      <c r="BD6" s="59"/>
+      <c r="BE6" s="59"/>
+      <c r="BF6" s="59"/>
+      <c r="BH6" s="25"/>
+      <c r="BI6" s="26"/>
+      <c r="BJ6" s="26"/>
       <c r="BK6"/>
       <c r="BL6"/>
-      <c r="BM6" s="27"/>
+      <c r="BM6" s="26"/>
       <c r="BR6"/>
       <c r="BS6"/>
       <c r="BT6"/>
@@ -3306,104 +3384,106 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="23">
         <v>5</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="28" t="s">
         <v>86</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="G7" s="31" t="s">
         <v>277</v>
       </c>
-      <c r="H7" s="32" t="s">
+      <c r="H7" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="I7" s="33" t="s">
+      <c r="I7" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="K7" s="32" t="s">
+      <c r="K7" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="L7" s="32" t="s">
+      <c r="L7" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="M7" s="32" t="s">
+      <c r="M7" s="31" t="s">
         <v>271</v>
       </c>
-      <c r="N7" s="32" t="s">
+      <c r="N7" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="O7" s="39"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="20"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="55"/>
+      <c r="R7" s="19"/>
       <c r="S7" t="s">
         <v>49</v>
       </c>
-      <c r="T7" s="17" t="s">
+      <c r="T7" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="U7" s="17" t="s">
+      <c r="U7" s="16" t="s">
         <v>280</v>
       </c>
       <c r="V7" s="1"/>
-      <c r="W7" s="35" t="s">
+      <c r="W7" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X7" s="17" t="s">
+      <c r="X7" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y7" s="59" t="s">
+      <c r="Y7" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="Z7" s="35" t="s">
+      <c r="Z7" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA7" s="17" t="s">
+      <c r="AA7" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB7" s="59" t="s">
+      <c r="AB7" s="58" t="s">
         <v>81</v>
       </c>
       <c r="AC7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD7" s="20" t="s">
+      <c r="AD7" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="AE7" s="20" t="s">
+      <c r="AE7" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="AF7" s="20" t="s">
+      <c r="AF7" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="AG7" s="20" t="s">
+      <c r="AG7" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="AH7" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="AH7" s="16"/>
-      <c r="AI7" s="62" t="s">
+      <c r="AI7" s="61" t="s">
         <v>220</v>
       </c>
-      <c r="AJ7" s="58"/>
+      <c r="AJ7" s="57"/>
       <c r="AK7" s="13">
         <v>0.01</v>
       </c>
       <c r="AM7" t="s">
         <v>275</v>
       </c>
-      <c r="AN7" s="44" t="s">
+      <c r="AN7" s="43" t="s">
         <v>273</v>
       </c>
       <c r="AO7" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="AP7" s="44" t="s">
+      <c r="AP7" s="43" t="s">
         <v>274</v>
       </c>
       <c r="AQ7" s="1" t="s">
@@ -3436,16 +3516,16 @@
       <c r="BA7">
         <v>250</v>
       </c>
-      <c r="BC7" s="60"/>
-      <c r="BD7" s="60"/>
-      <c r="BE7" s="60"/>
-      <c r="BF7" s="60"/>
-      <c r="BH7" s="26"/>
-      <c r="BI7" s="27"/>
-      <c r="BJ7" s="27"/>
+      <c r="BC7" s="59"/>
+      <c r="BD7" s="59"/>
+      <c r="BE7" s="59"/>
+      <c r="BF7" s="59"/>
+      <c r="BH7" s="25"/>
+      <c r="BI7" s="26"/>
+      <c r="BJ7" s="26"/>
       <c r="BK7"/>
       <c r="BL7"/>
-      <c r="BM7" s="27"/>
+      <c r="BM7" s="26"/>
       <c r="BR7"/>
       <c r="BS7"/>
       <c r="BT7"/>
@@ -3460,104 +3540,106 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="23">
         <v>6</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="28" t="s">
         <v>87</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="G8" s="32" t="s">
+      <c r="G8" s="31" t="s">
         <v>277</v>
       </c>
-      <c r="H8" s="32" t="s">
+      <c r="H8" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="I8" s="33" t="s">
+      <c r="I8" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="K8" s="32" t="s">
+      <c r="K8" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="L8" s="32" t="s">
+      <c r="L8" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="M8" s="32" t="s">
+      <c r="M8" s="31" t="s">
         <v>271</v>
       </c>
-      <c r="N8" s="32" t="s">
+      <c r="N8" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="O8" s="39"/>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="56"/>
-      <c r="R8" s="25"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="24"/>
       <c r="S8" t="s">
         <v>49</v>
       </c>
-      <c r="T8" s="17" t="s">
+      <c r="T8" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="U8" s="17" t="s">
+      <c r="U8" s="16" t="s">
         <v>280</v>
       </c>
       <c r="V8" s="1"/>
-      <c r="W8" s="35" t="s">
+      <c r="W8" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X8" s="17" t="s">
+      <c r="X8" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y8" s="59" t="s">
+      <c r="Y8" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="Z8" s="35" t="s">
+      <c r="Z8" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA8" s="17" t="s">
+      <c r="AA8" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB8" s="59" t="s">
+      <c r="AB8" s="58" t="s">
         <v>81</v>
       </c>
       <c r="AC8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD8" s="20" t="s">
+      <c r="AD8" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="AE8" s="20" t="s">
+      <c r="AE8" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="AF8" s="20" t="s">
+      <c r="AF8" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="AG8" s="20" t="s">
+      <c r="AG8" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH8" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="AH8" s="16"/>
-      <c r="AI8" s="62" t="s">
+      <c r="AI8" s="61" t="s">
         <v>221</v>
       </c>
-      <c r="AJ8" s="58"/>
+      <c r="AJ8" s="57"/>
       <c r="AK8" s="13">
         <v>0.01</v>
       </c>
       <c r="AM8" t="s">
         <v>275</v>
       </c>
-      <c r="AN8" s="44" t="s">
+      <c r="AN8" s="43" t="s">
         <v>273</v>
       </c>
       <c r="AO8" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="AP8" s="44" t="s">
+      <c r="AP8" s="43" t="s">
         <v>274</v>
       </c>
       <c r="AQ8" s="1" t="s">
@@ -3590,16 +3672,16 @@
       <c r="BA8">
         <v>250</v>
       </c>
-      <c r="BC8" s="60"/>
-      <c r="BD8" s="60"/>
-      <c r="BE8" s="60"/>
-      <c r="BF8" s="60"/>
-      <c r="BH8" s="26"/>
-      <c r="BI8" s="27"/>
-      <c r="BJ8" s="27"/>
+      <c r="BC8" s="59"/>
+      <c r="BD8" s="59"/>
+      <c r="BE8" s="59"/>
+      <c r="BF8" s="59"/>
+      <c r="BH8" s="25"/>
+      <c r="BI8" s="26"/>
+      <c r="BJ8" s="26"/>
       <c r="BK8"/>
       <c r="BL8"/>
-      <c r="BM8" s="27"/>
+      <c r="BM8" s="26"/>
       <c r="BR8"/>
       <c r="BS8"/>
       <c r="BT8"/>
@@ -3614,104 +3696,106 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="23">
         <v>7</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="28" t="s">
         <v>88</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="G9" s="32" t="s">
+      <c r="G9" s="31" t="s">
         <v>277</v>
       </c>
-      <c r="H9" s="32" t="s">
+      <c r="H9" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="I9" s="33" t="s">
+      <c r="I9" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="K9" s="32" t="s">
+      <c r="K9" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="L9" s="32" t="s">
+      <c r="L9" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="M9" s="32" t="s">
+      <c r="M9" s="31" t="s">
         <v>271</v>
       </c>
-      <c r="N9" s="32" t="s">
+      <c r="N9" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="O9" s="39"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="20"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="19"/>
       <c r="S9" t="s">
         <v>49</v>
       </c>
-      <c r="T9" s="17" t="s">
+      <c r="T9" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="U9" s="17" t="s">
+      <c r="U9" s="16" t="s">
         <v>280</v>
       </c>
       <c r="V9" s="1"/>
-      <c r="W9" s="35" t="s">
+      <c r="W9" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X9" s="17" t="s">
+      <c r="X9" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y9" s="59" t="s">
+      <c r="Y9" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="Z9" s="35" t="s">
+      <c r="Z9" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA9" s="17" t="s">
+      <c r="AA9" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB9" s="59" t="s">
+      <c r="AB9" s="58" t="s">
         <v>81</v>
       </c>
       <c r="AC9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD9" s="20" t="s">
+      <c r="AD9" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="AE9" s="20" t="s">
+      <c r="AE9" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="AF9" s="20" t="s">
+      <c r="AF9" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="AG9" s="20" t="s">
+      <c r="AG9" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="AH9" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="AH9" s="16"/>
-      <c r="AI9" s="62" t="s">
+      <c r="AI9" s="61" t="s">
         <v>222</v>
       </c>
-      <c r="AJ9" s="58"/>
+      <c r="AJ9" s="57"/>
       <c r="AK9" s="13">
         <v>0.01</v>
       </c>
       <c r="AM9" t="s">
         <v>275</v>
       </c>
-      <c r="AN9" s="44" t="s">
+      <c r="AN9" s="43" t="s">
         <v>273</v>
       </c>
       <c r="AO9" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="AP9" s="44" t="s">
+      <c r="AP9" s="43" t="s">
         <v>274</v>
       </c>
       <c r="AQ9" s="1" t="s">
@@ -3744,16 +3828,16 @@
       <c r="BA9">
         <v>250</v>
       </c>
-      <c r="BC9" s="60"/>
-      <c r="BD9" s="60"/>
-      <c r="BE9" s="60"/>
-      <c r="BF9" s="60"/>
-      <c r="BH9" s="26"/>
-      <c r="BI9" s="27"/>
-      <c r="BJ9" s="27"/>
+      <c r="BC9" s="59"/>
+      <c r="BD9" s="59"/>
+      <c r="BE9" s="59"/>
+      <c r="BF9" s="59"/>
+      <c r="BH9" s="25"/>
+      <c r="BI9" s="26"/>
+      <c r="BJ9" s="26"/>
       <c r="BK9"/>
       <c r="BL9"/>
-      <c r="BM9" s="27"/>
+      <c r="BM9" s="26"/>
       <c r="BR9"/>
       <c r="BS9"/>
       <c r="BT9"/>
@@ -3768,104 +3852,106 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="23">
         <v>8</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="28" t="s">
         <v>89</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="G10" s="32" t="s">
+      <c r="G10" s="31" t="s">
         <v>277</v>
       </c>
-      <c r="H10" s="32" t="s">
+      <c r="H10" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="I10" s="33" t="s">
+      <c r="I10" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="K10" s="32" t="s">
+      <c r="K10" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="L10" s="32" t="s">
+      <c r="L10" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="M10" s="32" t="s">
+      <c r="M10" s="31" t="s">
         <v>271</v>
       </c>
-      <c r="N10" s="32" t="s">
+      <c r="N10" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="O10" s="39"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="20"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="19"/>
       <c r="S10" t="s">
         <v>49</v>
       </c>
-      <c r="T10" s="17" t="s">
+      <c r="T10" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="U10" s="17" t="s">
+      <c r="U10" s="16" t="s">
         <v>280</v>
       </c>
       <c r="V10" s="1"/>
-      <c r="W10" s="35" t="s">
+      <c r="W10" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X10" s="17" t="s">
+      <c r="X10" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y10" s="59" t="s">
+      <c r="Y10" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="Z10" s="35" t="s">
+      <c r="Z10" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA10" s="17" t="s">
+      <c r="AA10" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB10" s="59" t="s">
+      <c r="AB10" s="58" t="s">
         <v>81</v>
       </c>
       <c r="AC10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD10" s="20" t="s">
+      <c r="AD10" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="AE10" s="20" t="s">
+      <c r="AE10" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="AF10" s="20" t="s">
+      <c r="AF10" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="AG10" s="20" t="s">
+      <c r="AG10" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="AH10" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="AH10" s="16"/>
-      <c r="AI10" s="62" t="s">
+      <c r="AI10" s="61" t="s">
         <v>223</v>
       </c>
-      <c r="AJ10" s="58"/>
+      <c r="AJ10" s="57"/>
       <c r="AK10" s="13">
         <v>0.01</v>
       </c>
       <c r="AM10" t="s">
         <v>275</v>
       </c>
-      <c r="AN10" s="44" t="s">
+      <c r="AN10" s="43" t="s">
         <v>273</v>
       </c>
       <c r="AO10" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="AP10" s="44" t="s">
+      <c r="AP10" s="43" t="s">
         <v>274</v>
       </c>
       <c r="AQ10" s="1" t="s">
@@ -3898,16 +3984,16 @@
       <c r="BA10">
         <v>250</v>
       </c>
-      <c r="BC10" s="60"/>
-      <c r="BD10" s="60"/>
-      <c r="BE10" s="60"/>
-      <c r="BF10" s="60"/>
-      <c r="BH10" s="26"/>
-      <c r="BI10" s="27"/>
-      <c r="BJ10" s="27"/>
+      <c r="BC10" s="59"/>
+      <c r="BD10" s="59"/>
+      <c r="BE10" s="59"/>
+      <c r="BF10" s="59"/>
+      <c r="BH10" s="25"/>
+      <c r="BI10" s="26"/>
+      <c r="BJ10" s="26"/>
       <c r="BK10"/>
       <c r="BL10"/>
-      <c r="BM10" s="27"/>
+      <c r="BM10" s="26"/>
       <c r="BR10"/>
       <c r="BS10"/>
       <c r="BT10"/>
@@ -3922,104 +4008,106 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="23">
         <v>9</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="28" t="s">
         <v>90</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="G11" s="32" t="s">
+      <c r="G11" s="31" t="s">
         <v>277</v>
       </c>
-      <c r="H11" s="32" t="s">
+      <c r="H11" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="I11" s="33" t="s">
+      <c r="I11" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="K11" s="32" t="s">
+      <c r="K11" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="L11" s="32" t="s">
+      <c r="L11" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="M11" s="32" t="s">
+      <c r="M11" s="31" t="s">
         <v>271</v>
       </c>
-      <c r="N11" s="32" t="s">
+      <c r="N11" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="O11" s="39"/>
-      <c r="P11" s="42"/>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="20"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="19"/>
       <c r="S11" t="s">
         <v>49</v>
       </c>
-      <c r="T11" s="17" t="s">
+      <c r="T11" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="U11" s="17" t="s">
+      <c r="U11" s="16" t="s">
         <v>280</v>
       </c>
       <c r="V11" s="1"/>
-      <c r="W11" s="35" t="s">
+      <c r="W11" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X11" s="17" t="s">
+      <c r="X11" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y11" s="59" t="s">
+      <c r="Y11" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="Z11" s="35" t="s">
+      <c r="Z11" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA11" s="17" t="s">
+      <c r="AA11" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB11" s="59" t="s">
+      <c r="AB11" s="58" t="s">
         <v>81</v>
       </c>
       <c r="AC11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD11" s="20" t="s">
+      <c r="AD11" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="AE11" s="20" t="s">
+      <c r="AE11" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="AF11" s="20" t="s">
+      <c r="AF11" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="AG11" s="20" t="s">
+      <c r="AG11" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="AH11" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="AH11" s="16"/>
-      <c r="AI11" s="62" t="s">
+      <c r="AI11" s="61" t="s">
         <v>224</v>
       </c>
-      <c r="AJ11" s="58"/>
+      <c r="AJ11" s="57"/>
       <c r="AK11" s="13">
         <v>0.01</v>
       </c>
       <c r="AM11" t="s">
         <v>275</v>
       </c>
-      <c r="AN11" s="44" t="s">
+      <c r="AN11" s="43" t="s">
         <v>273</v>
       </c>
       <c r="AO11" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="AP11" s="44" t="s">
+      <c r="AP11" s="43" t="s">
         <v>274</v>
       </c>
       <c r="AQ11" s="1" t="s">
@@ -4052,16 +4140,16 @@
       <c r="BA11">
         <v>250</v>
       </c>
-      <c r="BC11" s="60"/>
-      <c r="BD11" s="60"/>
-      <c r="BE11" s="60"/>
-      <c r="BF11" s="60"/>
-      <c r="BH11" s="26"/>
-      <c r="BI11" s="27"/>
-      <c r="BJ11" s="27"/>
+      <c r="BC11" s="59"/>
+      <c r="BD11" s="59"/>
+      <c r="BE11" s="59"/>
+      <c r="BF11" s="59"/>
+      <c r="BH11" s="25"/>
+      <c r="BI11" s="26"/>
+      <c r="BJ11" s="26"/>
       <c r="BK11"/>
-      <c r="BL11" s="61"/>
-      <c r="BM11" s="27"/>
+      <c r="BL11" s="60"/>
+      <c r="BM11" s="26"/>
       <c r="BR11"/>
       <c r="BS11"/>
       <c r="BT11"/>
@@ -4076,104 +4164,106 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B12" s="23">
         <v>10</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="28" t="s">
         <v>91</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="G12" s="32" t="s">
+      <c r="G12" s="31" t="s">
         <v>277</v>
       </c>
-      <c r="H12" s="32" t="s">
+      <c r="H12" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="I12" s="33" t="s">
+      <c r="I12" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="K12" s="32" t="s">
+      <c r="K12" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="L12" s="32" t="s">
+      <c r="L12" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="M12" s="32" t="s">
+      <c r="M12" s="31" t="s">
         <v>271</v>
       </c>
-      <c r="N12" s="32" t="s">
+      <c r="N12" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="O12" s="39"/>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="25"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="24"/>
       <c r="S12" t="s">
         <v>49</v>
       </c>
-      <c r="T12" s="17" t="s">
+      <c r="T12" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="U12" s="17" t="s">
+      <c r="U12" s="16" t="s">
         <v>280</v>
       </c>
       <c r="V12" s="1"/>
-      <c r="W12" s="35" t="s">
+      <c r="W12" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X12" s="17" t="s">
+      <c r="X12" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y12" s="59" t="s">
+      <c r="Y12" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="Z12" s="35" t="s">
+      <c r="Z12" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA12" s="17" t="s">
+      <c r="AA12" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB12" s="59" t="s">
+      <c r="AB12" s="58" t="s">
         <v>81</v>
       </c>
       <c r="AC12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD12" s="20" t="s">
+      <c r="AD12" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="AE12" s="20" t="s">
+      <c r="AE12" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="AF12" s="20" t="s">
+      <c r="AF12" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="AG12" s="20" t="s">
+      <c r="AG12" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="AH12" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="AH12" s="16"/>
-      <c r="AI12" s="62" t="s">
+      <c r="AI12" s="61" t="s">
         <v>225</v>
       </c>
-      <c r="AJ12" s="58"/>
+      <c r="AJ12" s="57"/>
       <c r="AK12" s="13">
         <v>0.01</v>
       </c>
       <c r="AM12" t="s">
         <v>275</v>
       </c>
-      <c r="AN12" s="44" t="s">
+      <c r="AN12" s="43" t="s">
         <v>273</v>
       </c>
       <c r="AO12" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="AP12" s="44" t="s">
+      <c r="AP12" s="43" t="s">
         <v>274</v>
       </c>
       <c r="AQ12" s="1" t="s">
@@ -4206,16 +4296,16 @@
       <c r="BA12">
         <v>250</v>
       </c>
-      <c r="BC12" s="60"/>
-      <c r="BD12" s="60"/>
-      <c r="BE12" s="60"/>
-      <c r="BF12" s="60"/>
-      <c r="BH12" s="26"/>
-      <c r="BI12" s="27"/>
-      <c r="BJ12" s="27"/>
+      <c r="BC12" s="59"/>
+      <c r="BD12" s="59"/>
+      <c r="BE12" s="59"/>
+      <c r="BF12" s="59"/>
+      <c r="BH12" s="25"/>
+      <c r="BI12" s="26"/>
+      <c r="BJ12" s="26"/>
       <c r="BK12"/>
-      <c r="BL12" s="61"/>
-      <c r="BM12" s="27"/>
+      <c r="BL12" s="60"/>
+      <c r="BM12" s="26"/>
       <c r="BR12"/>
       <c r="BS12"/>
       <c r="BT12"/>
@@ -4230,104 +4320,106 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B13" s="23">
         <v>11</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="28" t="s">
         <v>92</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="G13" s="32" t="s">
+      <c r="G13" s="31" t="s">
         <v>277</v>
       </c>
-      <c r="H13" s="32" t="s">
+      <c r="H13" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="I13" s="33" t="s">
+      <c r="I13" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="K13" s="32" t="s">
+      <c r="K13" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="L13" s="32" t="s">
+      <c r="L13" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="M13" s="32" t="s">
+      <c r="M13" s="31" t="s">
         <v>271</v>
       </c>
-      <c r="N13" s="32" t="s">
+      <c r="N13" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="O13" s="39"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="56"/>
-      <c r="R13" s="20"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="19"/>
       <c r="S13" t="s">
         <v>49</v>
       </c>
-      <c r="T13" s="17" t="s">
+      <c r="T13" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="U13" s="17" t="s">
+      <c r="U13" s="16" t="s">
         <v>280</v>
       </c>
       <c r="V13" s="1"/>
-      <c r="W13" s="35" t="s">
+      <c r="W13" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X13" s="17" t="s">
+      <c r="X13" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y13" s="59" t="s">
+      <c r="Y13" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="Z13" s="35" t="s">
+      <c r="Z13" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA13" s="17" t="s">
+      <c r="AA13" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB13" s="59" t="s">
+      <c r="AB13" s="58" t="s">
         <v>81</v>
       </c>
       <c r="AC13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD13" s="20" t="s">
+      <c r="AD13" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="AE13" s="20" t="s">
+      <c r="AE13" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="AF13" s="20" t="s">
+      <c r="AF13" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="AG13" s="20" t="s">
+      <c r="AG13" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="AH13" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="AH13" s="16"/>
-      <c r="AI13" s="62" t="s">
+      <c r="AI13" s="61" t="s">
         <v>226</v>
       </c>
-      <c r="AJ13" s="58"/>
+      <c r="AJ13" s="57"/>
       <c r="AK13" s="13">
         <v>0.01</v>
       </c>
       <c r="AM13" t="s">
         <v>275</v>
       </c>
-      <c r="AN13" s="44" t="s">
+      <c r="AN13" s="43" t="s">
         <v>273</v>
       </c>
       <c r="AO13" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="AP13" s="44" t="s">
+      <c r="AP13" s="43" t="s">
         <v>274</v>
       </c>
       <c r="AQ13" s="1" t="s">
@@ -4360,16 +4452,16 @@
       <c r="BA13">
         <v>250</v>
       </c>
-      <c r="BC13" s="60"/>
-      <c r="BD13" s="60"/>
-      <c r="BE13" s="60"/>
-      <c r="BF13" s="60"/>
-      <c r="BH13" s="26"/>
-      <c r="BI13" s="27"/>
-      <c r="BJ13" s="27"/>
+      <c r="BC13" s="59"/>
+      <c r="BD13" s="59"/>
+      <c r="BE13" s="59"/>
+      <c r="BF13" s="59"/>
+      <c r="BH13" s="25"/>
+      <c r="BI13" s="26"/>
+      <c r="BJ13" s="26"/>
       <c r="BK13"/>
-      <c r="BL13" s="61"/>
-      <c r="BM13" s="27"/>
+      <c r="BL13" s="60"/>
+      <c r="BM13" s="26"/>
       <c r="BR13"/>
       <c r="BS13"/>
       <c r="BT13"/>
@@ -4384,104 +4476,106 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="23">
         <v>12</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="28" t="s">
         <v>93</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="G14" s="32" t="s">
+      <c r="G14" s="31" t="s">
         <v>277</v>
       </c>
-      <c r="H14" s="32" t="s">
+      <c r="H14" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="I14" s="33" t="s">
+      <c r="I14" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="K14" s="32" t="s">
+      <c r="K14" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="L14" s="32" t="s">
+      <c r="L14" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="M14" s="32" t="s">
+      <c r="M14" s="31" t="s">
         <v>271</v>
       </c>
-      <c r="N14" s="32" t="s">
+      <c r="N14" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="O14" s="39"/>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="57"/>
-      <c r="R14" s="20"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="19"/>
       <c r="S14" t="s">
         <v>49</v>
       </c>
-      <c r="T14" s="17" t="s">
+      <c r="T14" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="U14" s="17" t="s">
+      <c r="U14" s="16" t="s">
         <v>280</v>
       </c>
       <c r="V14" s="1"/>
-      <c r="W14" s="35" t="s">
+      <c r="W14" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X14" s="17" t="s">
+      <c r="X14" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y14" s="59" t="s">
+      <c r="Y14" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="Z14" s="35" t="s">
+      <c r="Z14" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA14" s="17" t="s">
+      <c r="AA14" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB14" s="59" t="s">
+      <c r="AB14" s="58" t="s">
         <v>81</v>
       </c>
       <c r="AC14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD14" s="20" t="s">
+      <c r="AD14" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="AE14" s="20" t="s">
+      <c r="AE14" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="AF14" s="20" t="s">
+      <c r="AF14" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="AG14" s="20" t="s">
+      <c r="AG14" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="AH14" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="AH14" s="16"/>
-      <c r="AI14" s="62" t="s">
+      <c r="AI14" s="61" t="s">
         <v>227</v>
       </c>
-      <c r="AJ14" s="58"/>
+      <c r="AJ14" s="57"/>
       <c r="AK14" s="13">
         <v>0.01</v>
       </c>
       <c r="AM14" t="s">
         <v>275</v>
       </c>
-      <c r="AN14" s="44" t="s">
+      <c r="AN14" s="43" t="s">
         <v>273</v>
       </c>
       <c r="AO14" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="AP14" s="44" t="s">
+      <c r="AP14" s="43" t="s">
         <v>274</v>
       </c>
       <c r="AQ14" s="1" t="s">
@@ -4514,16 +4608,16 @@
       <c r="BA14">
         <v>250</v>
       </c>
-      <c r="BC14" s="60"/>
-      <c r="BD14" s="60"/>
-      <c r="BE14" s="60"/>
-      <c r="BF14" s="60"/>
-      <c r="BH14" s="26"/>
-      <c r="BI14" s="27"/>
-      <c r="BJ14" s="27"/>
+      <c r="BC14" s="59"/>
+      <c r="BD14" s="59"/>
+      <c r="BE14" s="59"/>
+      <c r="BF14" s="59"/>
+      <c r="BH14" s="25"/>
+      <c r="BI14" s="26"/>
+      <c r="BJ14" s="26"/>
       <c r="BK14"/>
-      <c r="BL14" s="61"/>
-      <c r="BM14" s="27"/>
+      <c r="BL14" s="60"/>
+      <c r="BM14" s="26"/>
       <c r="BR14"/>
       <c r="BS14"/>
       <c r="BT14"/>
@@ -4538,104 +4632,106 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B15" s="24">
+      <c r="B15" s="23">
         <v>13</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="28" t="s">
         <v>94</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="G15" s="32" t="s">
+      <c r="G15" s="31" t="s">
         <v>277</v>
       </c>
-      <c r="H15" s="32" t="s">
+      <c r="H15" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="I15" s="33" t="s">
+      <c r="I15" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="K15" s="32" t="s">
+      <c r="K15" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="L15" s="32" t="s">
+      <c r="L15" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="M15" s="32" t="s">
+      <c r="M15" s="31" t="s">
         <v>271</v>
       </c>
-      <c r="N15" s="32" t="s">
+      <c r="N15" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="O15" s="39"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="20"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="19"/>
       <c r="S15" t="s">
         <v>49</v>
       </c>
-      <c r="T15" s="17" t="s">
+      <c r="T15" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="U15" s="17" t="s">
+      <c r="U15" s="16" t="s">
         <v>280</v>
       </c>
       <c r="V15" s="1"/>
-      <c r="W15" s="35" t="s">
+      <c r="W15" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X15" s="17" t="s">
+      <c r="X15" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y15" s="59" t="s">
+      <c r="Y15" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="Z15" s="35" t="s">
+      <c r="Z15" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA15" s="17" t="s">
+      <c r="AA15" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB15" s="59" t="s">
+      <c r="AB15" s="58" t="s">
         <v>81</v>
       </c>
       <c r="AC15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD15" s="20" t="s">
+      <c r="AD15" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="AE15" s="20" t="s">
+      <c r="AE15" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="AF15" s="20" t="s">
+      <c r="AF15" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="AG15" s="20" t="s">
+      <c r="AG15" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="AH15" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="AH15" s="16"/>
-      <c r="AI15" s="62" t="s">
+      <c r="AI15" s="61" t="s">
         <v>228</v>
       </c>
-      <c r="AJ15" s="58"/>
+      <c r="AJ15" s="57"/>
       <c r="AK15" s="13">
         <v>0.01</v>
       </c>
       <c r="AM15" t="s">
         <v>275</v>
       </c>
-      <c r="AN15" s="44" t="s">
+      <c r="AN15" s="43" t="s">
         <v>273</v>
       </c>
       <c r="AO15" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="AP15" s="44" t="s">
+      <c r="AP15" s="43" t="s">
         <v>274</v>
       </c>
       <c r="AQ15" s="1" t="s">
@@ -4668,16 +4764,16 @@
       <c r="BA15">
         <v>250</v>
       </c>
-      <c r="BC15" s="60"/>
-      <c r="BD15" s="60"/>
-      <c r="BE15" s="60"/>
-      <c r="BF15" s="60"/>
-      <c r="BH15" s="26"/>
-      <c r="BI15" s="27"/>
-      <c r="BJ15" s="27"/>
+      <c r="BC15" s="59"/>
+      <c r="BD15" s="59"/>
+      <c r="BE15" s="59"/>
+      <c r="BF15" s="59"/>
+      <c r="BH15" s="25"/>
+      <c r="BI15" s="26"/>
+      <c r="BJ15" s="26"/>
       <c r="BK15"/>
-      <c r="BL15" s="61"/>
-      <c r="BM15" s="27"/>
+      <c r="BL15" s="60"/>
+      <c r="BM15" s="26"/>
       <c r="BR15"/>
       <c r="BS15"/>
       <c r="BT15"/>
@@ -4692,97 +4788,99 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B16" s="24">
+      <c r="B16" s="23">
         <v>14</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="28" t="s">
         <v>95</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="G16" s="32" t="s">
+      <c r="G16" s="31" t="s">
         <v>277</v>
       </c>
-      <c r="H16" s="32" t="s">
+      <c r="H16" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="I16" s="33" t="s">
+      <c r="I16" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="K16" s="32" t="s">
+      <c r="K16" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="L16" s="32" t="s">
+      <c r="L16" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="M16" s="32" t="s">
+      <c r="M16" s="31" t="s">
         <v>271</v>
       </c>
-      <c r="N16" s="32"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="20"/>
-      <c r="T16" s="17" t="s">
+      <c r="N16" s="31"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="19"/>
+      <c r="T16" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="U16" s="17" t="s">
+      <c r="U16" s="16" t="s">
         <v>280</v>
       </c>
       <c r="V16" s="1"/>
-      <c r="W16" s="35" t="s">
+      <c r="W16" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X16" s="17" t="s">
+      <c r="X16" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y16" s="59" t="s">
+      <c r="Y16" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="Z16" s="35" t="s">
+      <c r="Z16" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA16" s="17" t="s">
+      <c r="AA16" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB16" s="59" t="s">
+      <c r="AB16" s="58" t="s">
         <v>81</v>
       </c>
       <c r="AC16" s="1"/>
-      <c r="AD16" s="20" t="s">
+      <c r="AD16" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="AE16" s="20" t="s">
+      <c r="AE16" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="AF16" s="20" t="s">
+      <c r="AF16" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="AG16" s="20" t="s">
+      <c r="AG16" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="AH16" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="AH16" s="16"/>
-      <c r="AI16" s="62" t="s">
+      <c r="AI16" s="61" t="s">
         <v>229</v>
       </c>
-      <c r="AJ16" s="58"/>
+      <c r="AJ16" s="57"/>
       <c r="AK16" s="13">
         <v>0.01</v>
       </c>
       <c r="AM16" t="s">
         <v>275</v>
       </c>
-      <c r="AN16" s="44" t="s">
+      <c r="AN16" s="43" t="s">
         <v>273</v>
       </c>
       <c r="AO16" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="AP16" s="44" t="s">
+      <c r="AP16" s="43" t="s">
         <v>274</v>
       </c>
       <c r="AQ16" s="1" t="s">
@@ -4812,16 +4910,16 @@
       <c r="BA16">
         <v>250</v>
       </c>
-      <c r="BC16" s="60"/>
-      <c r="BD16" s="60"/>
-      <c r="BE16" s="60"/>
-      <c r="BF16" s="60"/>
-      <c r="BH16" s="26"/>
-      <c r="BI16" s="27"/>
-      <c r="BJ16" s="27"/>
+      <c r="BC16" s="59"/>
+      <c r="BD16" s="59"/>
+      <c r="BE16" s="59"/>
+      <c r="BF16" s="59"/>
+      <c r="BH16" s="25"/>
+      <c r="BI16" s="26"/>
+      <c r="BJ16" s="26"/>
       <c r="BK16"/>
-      <c r="BL16" s="61"/>
-      <c r="BM16" s="27"/>
+      <c r="BL16" s="60"/>
+      <c r="BM16" s="26"/>
       <c r="BR16"/>
       <c r="BS16"/>
       <c r="BT16"/>
@@ -4836,97 +4934,99 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B17" s="24">
+      <c r="B17" s="23">
         <v>15</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="28" t="s">
         <v>96</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="G17" s="32" t="s">
+      <c r="G17" s="31" t="s">
         <v>277</v>
       </c>
-      <c r="H17" s="32" t="s">
+      <c r="H17" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="I17" s="33" t="s">
+      <c r="I17" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="K17" s="32" t="s">
+      <c r="K17" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="L17" s="32" t="s">
+      <c r="L17" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="M17" s="32" t="s">
+      <c r="M17" s="31" t="s">
         <v>271</v>
       </c>
-      <c r="N17" s="32"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="57"/>
-      <c r="R17" s="20"/>
-      <c r="T17" s="17" t="s">
+      <c r="N17" s="31"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="19"/>
+      <c r="T17" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="U17" s="17" t="s">
+      <c r="U17" s="16" t="s">
         <v>280</v>
       </c>
       <c r="V17" s="1"/>
-      <c r="W17" s="35" t="s">
+      <c r="W17" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X17" s="17" t="s">
+      <c r="X17" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y17" s="59" t="s">
+      <c r="Y17" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="Z17" s="35" t="s">
+      <c r="Z17" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA17" s="17" t="s">
+      <c r="AA17" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB17" s="59" t="s">
+      <c r="AB17" s="58" t="s">
         <v>81</v>
       </c>
       <c r="AC17" s="1"/>
-      <c r="AD17" s="20" t="s">
+      <c r="AD17" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="AE17" s="20" t="s">
+      <c r="AE17" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="AF17" s="20" t="s">
+      <c r="AF17" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="AG17" s="20" t="s">
+      <c r="AG17" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="AH17" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="AH17" s="16"/>
-      <c r="AI17" s="62" t="s">
+      <c r="AI17" s="61" t="s">
         <v>230</v>
       </c>
-      <c r="AJ17" s="58"/>
+      <c r="AJ17" s="57"/>
       <c r="AK17" s="13">
         <v>0.01</v>
       </c>
       <c r="AM17" t="s">
         <v>275</v>
       </c>
-      <c r="AN17" s="44" t="s">
+      <c r="AN17" s="43" t="s">
         <v>273</v>
       </c>
       <c r="AO17" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="AP17" s="44" t="s">
+      <c r="AP17" s="43" t="s">
         <v>274</v>
       </c>
       <c r="AQ17" s="1" t="s">
@@ -4956,16 +5056,16 @@
       <c r="BA17">
         <v>250</v>
       </c>
-      <c r="BC17" s="60"/>
-      <c r="BD17" s="60"/>
-      <c r="BE17" s="60"/>
-      <c r="BF17" s="60"/>
-      <c r="BH17" s="26"/>
-      <c r="BI17" s="27"/>
-      <c r="BJ17" s="27"/>
+      <c r="BC17" s="59"/>
+      <c r="BD17" s="59"/>
+      <c r="BE17" s="59"/>
+      <c r="BF17" s="59"/>
+      <c r="BH17" s="25"/>
+      <c r="BI17" s="26"/>
+      <c r="BJ17" s="26"/>
       <c r="BK17"/>
-      <c r="BL17" s="61"/>
-      <c r="BM17" s="27"/>
+      <c r="BL17" s="60"/>
+      <c r="BM17" s="26"/>
       <c r="BR17"/>
       <c r="BS17"/>
       <c r="BT17"/>
@@ -4980,97 +5080,99 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B18" s="24">
+      <c r="B18" s="23">
         <v>16</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="28" t="s">
         <v>97</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="G18" s="32" t="s">
+      <c r="G18" s="31" t="s">
         <v>277</v>
       </c>
-      <c r="H18" s="32" t="s">
+      <c r="H18" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="I18" s="33" t="s">
+      <c r="I18" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="K18" s="32" t="s">
+      <c r="K18" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="L18" s="32" t="s">
+      <c r="L18" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="M18" s="32" t="s">
+      <c r="M18" s="31" t="s">
         <v>271</v>
       </c>
-      <c r="N18" s="32"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="56"/>
-      <c r="R18" s="20"/>
-      <c r="T18" s="17" t="s">
+      <c r="N18" s="31"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="19"/>
+      <c r="T18" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="U18" s="17" t="s">
+      <c r="U18" s="16" t="s">
         <v>280</v>
       </c>
       <c r="V18" s="1"/>
-      <c r="W18" s="35" t="s">
+      <c r="W18" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X18" s="17" t="s">
+      <c r="X18" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y18" s="59" t="s">
+      <c r="Y18" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="Z18" s="35" t="s">
+      <c r="Z18" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA18" s="17" t="s">
+      <c r="AA18" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB18" s="59" t="s">
+      <c r="AB18" s="58" t="s">
         <v>81</v>
       </c>
       <c r="AC18" s="1"/>
-      <c r="AD18" s="20" t="s">
+      <c r="AD18" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="AE18" s="20" t="s">
+      <c r="AE18" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="AF18" s="20" t="s">
+      <c r="AF18" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="AG18" s="20" t="s">
+      <c r="AG18" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="AH18" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="AH18" s="16"/>
-      <c r="AI18" s="62" t="s">
+      <c r="AI18" s="61" t="s">
         <v>231</v>
       </c>
-      <c r="AJ18" s="58"/>
+      <c r="AJ18" s="57"/>
       <c r="AK18" s="13">
         <v>0.01</v>
       </c>
       <c r="AM18" t="s">
         <v>275</v>
       </c>
-      <c r="AN18" s="44" t="s">
+      <c r="AN18" s="43" t="s">
         <v>273</v>
       </c>
       <c r="AO18" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="AP18" s="44" t="s">
+      <c r="AP18" s="43" t="s">
         <v>274</v>
       </c>
       <c r="AQ18" s="1" t="s">
@@ -5100,16 +5202,16 @@
       <c r="BA18">
         <v>250</v>
       </c>
-      <c r="BC18" s="60"/>
-      <c r="BD18" s="60"/>
-      <c r="BE18" s="60"/>
-      <c r="BF18" s="60"/>
-      <c r="BH18" s="26"/>
-      <c r="BI18" s="27"/>
-      <c r="BJ18" s="27"/>
+      <c r="BC18" s="59"/>
+      <c r="BD18" s="59"/>
+      <c r="BE18" s="59"/>
+      <c r="BF18" s="59"/>
+      <c r="BH18" s="25"/>
+      <c r="BI18" s="26"/>
+      <c r="BJ18" s="26"/>
       <c r="BK18"/>
-      <c r="BL18" s="61"/>
-      <c r="BM18" s="27"/>
+      <c r="BL18" s="60"/>
+      <c r="BM18" s="26"/>
       <c r="BR18"/>
       <c r="BS18"/>
       <c r="BT18"/>
@@ -5124,97 +5226,99 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B19" s="24">
+      <c r="B19" s="23">
         <v>17</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="D19" s="28" t="s">
         <v>98</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="G19" s="32" t="s">
+      <c r="G19" s="31" t="s">
         <v>277</v>
       </c>
-      <c r="H19" s="32" t="s">
+      <c r="H19" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="I19" s="33" t="s">
+      <c r="I19" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="K19" s="32" t="s">
+      <c r="K19" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="L19" s="32" t="s">
+      <c r="L19" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="M19" s="32" t="s">
+      <c r="M19" s="31" t="s">
         <v>271</v>
       </c>
-      <c r="N19" s="32"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="20"/>
-      <c r="T19" s="17" t="s">
+      <c r="N19" s="31"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="55"/>
+      <c r="R19" s="19"/>
+      <c r="T19" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="U19" s="17" t="s">
+      <c r="U19" s="16" t="s">
         <v>280</v>
       </c>
       <c r="V19" s="1"/>
-      <c r="W19" s="35" t="s">
+      <c r="W19" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X19" s="17" t="s">
+      <c r="X19" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y19" s="59" t="s">
+      <c r="Y19" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="Z19" s="35" t="s">
+      <c r="Z19" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA19" s="17" t="s">
+      <c r="AA19" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB19" s="59" t="s">
+      <c r="AB19" s="58" t="s">
         <v>81</v>
       </c>
       <c r="AC19" s="1"/>
-      <c r="AD19" s="20" t="s">
+      <c r="AD19" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="AE19" s="20" t="s">
+      <c r="AE19" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="AF19" s="20" t="s">
+      <c r="AF19" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="AG19" s="20" t="s">
+      <c r="AG19" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="AH19" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="AH19" s="16"/>
-      <c r="AI19" s="62" t="s">
+      <c r="AI19" s="61" t="s">
         <v>232</v>
       </c>
-      <c r="AJ19" s="58"/>
+      <c r="AJ19" s="57"/>
       <c r="AK19" s="13">
         <v>0.01</v>
       </c>
       <c r="AM19" t="s">
         <v>275</v>
       </c>
-      <c r="AN19" s="44" t="s">
+      <c r="AN19" s="43" t="s">
         <v>273</v>
       </c>
       <c r="AO19" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="AP19" s="44" t="s">
+      <c r="AP19" s="43" t="s">
         <v>274</v>
       </c>
       <c r="AQ19" s="1" t="s">
@@ -5244,16 +5348,16 @@
       <c r="BA19">
         <v>250</v>
       </c>
-      <c r="BC19" s="60"/>
-      <c r="BD19" s="60"/>
-      <c r="BE19" s="60"/>
-      <c r="BF19" s="60"/>
-      <c r="BH19" s="26"/>
-      <c r="BI19" s="27"/>
-      <c r="BJ19" s="27"/>
+      <c r="BC19" s="59"/>
+      <c r="BD19" s="59"/>
+      <c r="BE19" s="59"/>
+      <c r="BF19" s="59"/>
+      <c r="BH19" s="25"/>
+      <c r="BI19" s="26"/>
+      <c r="BJ19" s="26"/>
       <c r="BK19"/>
       <c r="BL19"/>
-      <c r="BM19" s="27"/>
+      <c r="BM19" s="26"/>
       <c r="BR19"/>
       <c r="BS19"/>
       <c r="BT19"/>
@@ -5268,97 +5372,99 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B20" s="24">
+      <c r="B20" s="23">
         <v>18</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="D20" s="28" t="s">
         <v>99</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="G20" s="32" t="s">
+      <c r="G20" s="31" t="s">
         <v>277</v>
       </c>
-      <c r="H20" s="32" t="s">
+      <c r="H20" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="I20" s="33" t="s">
+      <c r="I20" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="K20" s="32" t="s">
+      <c r="K20" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="L20" s="32" t="s">
+      <c r="L20" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="M20" s="32" t="s">
+      <c r="M20" s="31" t="s">
         <v>271</v>
       </c>
-      <c r="N20" s="32"/>
-      <c r="O20" s="39"/>
-      <c r="P20" s="42"/>
-      <c r="Q20" s="56"/>
-      <c r="R20" s="20"/>
-      <c r="T20" s="17" t="s">
+      <c r="N20" s="31"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="55"/>
+      <c r="R20" s="19"/>
+      <c r="T20" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="U20" s="17" t="s">
+      <c r="U20" s="16" t="s">
         <v>280</v>
       </c>
       <c r="V20" s="1"/>
-      <c r="W20" s="35" t="s">
+      <c r="W20" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X20" s="17" t="s">
+      <c r="X20" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y20" s="59" t="s">
+      <c r="Y20" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="Z20" s="35" t="s">
+      <c r="Z20" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA20" s="17" t="s">
+      <c r="AA20" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB20" s="59" t="s">
+      <c r="AB20" s="58" t="s">
         <v>81</v>
       </c>
       <c r="AC20" s="1"/>
-      <c r="AD20" s="20" t="s">
+      <c r="AD20" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="AE20" s="20" t="s">
+      <c r="AE20" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="AF20" s="20" t="s">
+      <c r="AF20" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="AG20" s="20" t="s">
+      <c r="AG20" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="AH20" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="AH20" s="16"/>
-      <c r="AI20" s="62" t="s">
+      <c r="AI20" s="61" t="s">
         <v>233</v>
       </c>
-      <c r="AJ20" s="58"/>
+      <c r="AJ20" s="57"/>
       <c r="AK20" s="13">
         <v>0.01</v>
       </c>
       <c r="AM20" t="s">
         <v>275</v>
       </c>
-      <c r="AN20" s="44" t="s">
+      <c r="AN20" s="43" t="s">
         <v>273</v>
       </c>
       <c r="AO20" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="AP20" s="44" t="s">
+      <c r="AP20" s="43" t="s">
         <v>274</v>
       </c>
       <c r="AQ20" s="1" t="s">
@@ -5388,16 +5494,16 @@
       <c r="BA20">
         <v>250</v>
       </c>
-      <c r="BC20" s="60"/>
-      <c r="BD20" s="60"/>
-      <c r="BE20" s="60"/>
-      <c r="BF20" s="60"/>
-      <c r="BH20" s="26"/>
-      <c r="BI20" s="27"/>
-      <c r="BJ20" s="27"/>
+      <c r="BC20" s="59"/>
+      <c r="BD20" s="59"/>
+      <c r="BE20" s="59"/>
+      <c r="BF20" s="59"/>
+      <c r="BH20" s="25"/>
+      <c r="BI20" s="26"/>
+      <c r="BJ20" s="26"/>
       <c r="BK20"/>
       <c r="BL20"/>
-      <c r="BM20" s="27"/>
+      <c r="BM20" s="26"/>
       <c r="BR20"/>
       <c r="BS20"/>
       <c r="BT20"/>
@@ -5412,97 +5518,99 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B21" s="24">
+      <c r="B21" s="23">
         <v>19</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="D21" s="29" t="s">
+      <c r="D21" s="28" t="s">
         <v>100</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="G21" s="32" t="s">
+      <c r="G21" s="31" t="s">
         <v>277</v>
       </c>
-      <c r="H21" s="32" t="s">
+      <c r="H21" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="I21" s="33" t="s">
+      <c r="I21" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="K21" s="32" t="s">
+      <c r="K21" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="L21" s="32" t="s">
+      <c r="L21" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="M21" s="32" t="s">
+      <c r="M21" s="31" t="s">
         <v>271</v>
       </c>
-      <c r="N21" s="32"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="42"/>
-      <c r="Q21" s="56"/>
-      <c r="R21" s="20"/>
-      <c r="T21" s="17" t="s">
+      <c r="N21" s="31"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="55"/>
+      <c r="R21" s="19"/>
+      <c r="T21" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="U21" s="17" t="s">
+      <c r="U21" s="16" t="s">
         <v>280</v>
       </c>
       <c r="V21" s="1"/>
-      <c r="W21" s="35" t="s">
+      <c r="W21" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X21" s="17" t="s">
+      <c r="X21" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y21" s="59" t="s">
+      <c r="Y21" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="Z21" s="35" t="s">
+      <c r="Z21" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA21" s="17" t="s">
+      <c r="AA21" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB21" s="59" t="s">
+      <c r="AB21" s="58" t="s">
         <v>81</v>
       </c>
       <c r="AC21" s="1"/>
-      <c r="AD21" s="20" t="s">
+      <c r="AD21" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="AE21" s="20" t="s">
+      <c r="AE21" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="AF21" s="20" t="s">
+      <c r="AF21" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="AG21" s="20" t="s">
+      <c r="AG21" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="AH21" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="AH21" s="16"/>
-      <c r="AI21" s="62" t="s">
+      <c r="AI21" s="61" t="s">
         <v>234</v>
       </c>
-      <c r="AJ21" s="58"/>
+      <c r="AJ21" s="57"/>
       <c r="AK21" s="13">
         <v>0.01</v>
       </c>
       <c r="AM21" t="s">
         <v>275</v>
       </c>
-      <c r="AN21" s="44" t="s">
+      <c r="AN21" s="43" t="s">
         <v>273</v>
       </c>
       <c r="AO21" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="AP21" s="44" t="s">
+      <c r="AP21" s="43" t="s">
         <v>274</v>
       </c>
       <c r="AQ21" s="1" t="s">
@@ -5532,16 +5640,16 @@
       <c r="BA21">
         <v>250</v>
       </c>
-      <c r="BC21" s="60"/>
-      <c r="BD21" s="60"/>
-      <c r="BE21" s="60"/>
-      <c r="BF21" s="60"/>
-      <c r="BH21" s="26"/>
-      <c r="BI21" s="27"/>
-      <c r="BJ21" s="27"/>
+      <c r="BC21" s="59"/>
+      <c r="BD21" s="59"/>
+      <c r="BE21" s="59"/>
+      <c r="BF21" s="59"/>
+      <c r="BH21" s="25"/>
+      <c r="BI21" s="26"/>
+      <c r="BJ21" s="26"/>
       <c r="BK21"/>
       <c r="BL21"/>
-      <c r="BM21" s="27"/>
+      <c r="BM21" s="26"/>
       <c r="BR21"/>
       <c r="BS21"/>
       <c r="BT21"/>
@@ -5556,97 +5664,99 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B22" s="24">
+      <c r="B22" s="23">
         <v>20</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="29" t="s">
+      <c r="D22" s="28" t="s">
         <v>101</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="G22" s="32" t="s">
+      <c r="G22" s="31" t="s">
         <v>277</v>
       </c>
-      <c r="H22" s="32" t="s">
+      <c r="H22" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="I22" s="33" t="s">
+      <c r="I22" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="K22" s="32" t="s">
+      <c r="K22" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="L22" s="32" t="s">
+      <c r="L22" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="M22" s="32" t="s">
+      <c r="M22" s="31" t="s">
         <v>271</v>
       </c>
-      <c r="N22" s="32"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="42"/>
-      <c r="Q22" s="56"/>
-      <c r="R22" s="20"/>
-      <c r="T22" s="17" t="s">
+      <c r="N22" s="31"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="55"/>
+      <c r="R22" s="19"/>
+      <c r="T22" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="U22" s="17" t="s">
+      <c r="U22" s="16" t="s">
         <v>280</v>
       </c>
       <c r="V22" s="1"/>
-      <c r="W22" s="35" t="s">
+      <c r="W22" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X22" s="17" t="s">
+      <c r="X22" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y22" s="59" t="s">
+      <c r="Y22" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="Z22" s="35" t="s">
+      <c r="Z22" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA22" s="17" t="s">
+      <c r="AA22" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB22" s="59" t="s">
+      <c r="AB22" s="58" t="s">
         <v>81</v>
       </c>
       <c r="AC22" s="1"/>
-      <c r="AD22" s="20" t="s">
+      <c r="AD22" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="AE22" s="20" t="s">
+      <c r="AE22" s="19" t="s">
         <v>264</v>
       </c>
-      <c r="AF22" s="20" t="s">
+      <c r="AF22" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="AG22" s="20" t="s">
+      <c r="AG22" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="AH22" s="19" t="s">
         <v>264</v>
       </c>
-      <c r="AH22" s="16"/>
-      <c r="AI22" s="62" t="s">
+      <c r="AI22" s="61" t="s">
         <v>235</v>
       </c>
-      <c r="AJ22" s="58"/>
+      <c r="AJ22" s="57"/>
       <c r="AK22" s="13">
         <v>0.01</v>
       </c>
       <c r="AM22" t="s">
         <v>275</v>
       </c>
-      <c r="AN22" s="44" t="s">
+      <c r="AN22" s="43" t="s">
         <v>273</v>
       </c>
       <c r="AO22" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="AP22" s="44" t="s">
+      <c r="AP22" s="43" t="s">
         <v>274</v>
       </c>
       <c r="AQ22" s="1" t="s">
@@ -5676,16 +5786,16 @@
       <c r="BA22">
         <v>250</v>
       </c>
-      <c r="BC22" s="60"/>
-      <c r="BD22" s="60"/>
-      <c r="BE22" s="60"/>
-      <c r="BF22" s="60"/>
-      <c r="BH22" s="26"/>
-      <c r="BI22" s="27"/>
-      <c r="BJ22" s="27"/>
+      <c r="BC22" s="59"/>
+      <c r="BD22" s="59"/>
+      <c r="BE22" s="59"/>
+      <c r="BF22" s="59"/>
+      <c r="BH22" s="25"/>
+      <c r="BI22" s="26"/>
+      <c r="BJ22" s="26"/>
       <c r="BK22"/>
       <c r="BL22"/>
-      <c r="BM22" s="27"/>
+      <c r="BM22" s="26"/>
       <c r="BR22"/>
       <c r="BS22"/>
       <c r="BT22"/>
@@ -5700,97 +5810,99 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B23" s="24">
+      <c r="B23" s="23">
         <v>21</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="29" t="s">
+      <c r="D23" s="28" t="s">
         <v>102</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="G23" s="32" t="s">
+      <c r="G23" s="31" t="s">
         <v>277</v>
       </c>
-      <c r="H23" s="32" t="s">
+      <c r="H23" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="I23" s="33" t="s">
+      <c r="I23" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="K23" s="32" t="s">
+      <c r="K23" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="L23" s="32" t="s">
+      <c r="L23" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="M23" s="32" t="s">
+      <c r="M23" s="31" t="s">
         <v>271</v>
       </c>
-      <c r="N23" s="32"/>
-      <c r="O23" s="39"/>
-      <c r="P23" s="42"/>
-      <c r="Q23" s="56"/>
-      <c r="R23" s="20"/>
-      <c r="T23" s="17" t="s">
+      <c r="N23" s="31"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="55"/>
+      <c r="R23" s="19"/>
+      <c r="T23" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="U23" s="17" t="s">
+      <c r="U23" s="16" t="s">
         <v>280</v>
       </c>
       <c r="V23" s="1"/>
-      <c r="W23" s="35" t="s">
+      <c r="W23" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X23" s="17" t="s">
+      <c r="X23" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y23" s="59" t="s">
+      <c r="Y23" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="Z23" s="35" t="s">
+      <c r="Z23" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA23" s="17" t="s">
+      <c r="AA23" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB23" s="59" t="s">
+      <c r="AB23" s="58" t="s">
         <v>81</v>
       </c>
       <c r="AC23" s="1"/>
-      <c r="AD23" s="20" t="s">
+      <c r="AD23" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="AE23" s="20" t="s">
+      <c r="AE23" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="AF23" s="20" t="s">
+      <c r="AF23" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="AG23" s="20" t="s">
+      <c r="AG23" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="AH23" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="AH23" s="16"/>
-      <c r="AI23" s="62" t="s">
+      <c r="AI23" s="61" t="s">
         <v>236</v>
       </c>
-      <c r="AJ23" s="58"/>
+      <c r="AJ23" s="57"/>
       <c r="AK23" s="13">
         <v>0.01</v>
       </c>
       <c r="AM23" t="s">
         <v>275</v>
       </c>
-      <c r="AN23" s="44" t="s">
+      <c r="AN23" s="43" t="s">
         <v>273</v>
       </c>
       <c r="AO23" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="AP23" s="44" t="s">
+      <c r="AP23" s="43" t="s">
         <v>274</v>
       </c>
       <c r="AQ23" s="1" t="s">
@@ -5820,16 +5932,16 @@
       <c r="BA23">
         <v>250</v>
       </c>
-      <c r="BC23" s="60"/>
-      <c r="BD23" s="60"/>
-      <c r="BE23" s="60"/>
-      <c r="BF23" s="60"/>
-      <c r="BH23" s="26"/>
-      <c r="BI23" s="27"/>
-      <c r="BJ23" s="27"/>
+      <c r="BC23" s="59"/>
+      <c r="BD23" s="59"/>
+      <c r="BE23" s="59"/>
+      <c r="BF23" s="59"/>
+      <c r="BH23" s="25"/>
+      <c r="BI23" s="26"/>
+      <c r="BJ23" s="26"/>
       <c r="BK23"/>
       <c r="BL23"/>
-      <c r="BM23" s="27"/>
+      <c r="BM23" s="26"/>
       <c r="BR23"/>
       <c r="BS23"/>
       <c r="BT23"/>
@@ -5844,97 +5956,99 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B24" s="24">
+      <c r="B24" s="23">
         <v>22</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="29" t="s">
+      <c r="D24" s="28" t="s">
         <v>103</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="G24" s="32" t="s">
+      <c r="G24" s="31" t="s">
         <v>277</v>
       </c>
-      <c r="H24" s="32" t="s">
+      <c r="H24" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="I24" s="33" t="s">
+      <c r="I24" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="K24" s="32" t="s">
+      <c r="K24" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="L24" s="32" t="s">
+      <c r="L24" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="M24" s="32" t="s">
+      <c r="M24" s="31" t="s">
         <v>271</v>
       </c>
-      <c r="N24" s="32"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="56"/>
-      <c r="R24" s="20"/>
-      <c r="T24" s="17" t="s">
+      <c r="N24" s="31"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="55"/>
+      <c r="R24" s="19"/>
+      <c r="T24" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="U24" s="17" t="s">
+      <c r="U24" s="16" t="s">
         <v>280</v>
       </c>
       <c r="V24" s="1"/>
-      <c r="W24" s="35" t="s">
+      <c r="W24" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X24" s="17" t="s">
+      <c r="X24" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y24" s="59" t="s">
+      <c r="Y24" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="Z24" s="35" t="s">
+      <c r="Z24" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA24" s="17" t="s">
+      <c r="AA24" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB24" s="59" t="s">
+      <c r="AB24" s="58" t="s">
         <v>81</v>
       </c>
       <c r="AC24" s="1"/>
-      <c r="AD24" s="20" t="s">
+      <c r="AD24" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="AE24" s="20" t="s">
+      <c r="AE24" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="AF24" s="20" t="s">
+      <c r="AF24" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="AG24" s="20" t="s">
+      <c r="AG24" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="AH24" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="AH24" s="16"/>
-      <c r="AI24" s="62" t="s">
+      <c r="AI24" s="61" t="s">
         <v>237</v>
       </c>
-      <c r="AJ24" s="58"/>
+      <c r="AJ24" s="57"/>
       <c r="AK24" s="13">
         <v>0.01</v>
       </c>
       <c r="AM24" t="s">
         <v>275</v>
       </c>
-      <c r="AN24" s="44" t="s">
+      <c r="AN24" s="43" t="s">
         <v>273</v>
       </c>
       <c r="AO24" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="AP24" s="44" t="s">
+      <c r="AP24" s="43" t="s">
         <v>274</v>
       </c>
       <c r="AQ24" s="1" t="s">
@@ -5964,16 +6078,16 @@
       <c r="BA24">
         <v>250</v>
       </c>
-      <c r="BC24" s="60"/>
-      <c r="BD24" s="60"/>
-      <c r="BE24" s="60"/>
-      <c r="BF24" s="60"/>
-      <c r="BH24" s="26"/>
-      <c r="BI24" s="27"/>
-      <c r="BJ24" s="27"/>
+      <c r="BC24" s="59"/>
+      <c r="BD24" s="59"/>
+      <c r="BE24" s="59"/>
+      <c r="BF24" s="59"/>
+      <c r="BH24" s="25"/>
+      <c r="BI24" s="26"/>
+      <c r="BJ24" s="26"/>
       <c r="BK24"/>
       <c r="BL24"/>
-      <c r="BM24" s="27"/>
+      <c r="BM24" s="26"/>
       <c r="BR24"/>
       <c r="BS24"/>
       <c r="BT24"/>
@@ -5988,97 +6102,99 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B25" s="24">
+      <c r="B25" s="23">
         <v>23</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="D25" s="29" t="s">
+      <c r="D25" s="28" t="s">
         <v>104</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="G25" s="32" t="s">
+      <c r="G25" s="31" t="s">
         <v>277</v>
       </c>
-      <c r="H25" s="32" t="s">
+      <c r="H25" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="I25" s="33" t="s">
+      <c r="I25" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="K25" s="32" t="s">
+      <c r="K25" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="L25" s="32" t="s">
+      <c r="L25" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="M25" s="32" t="s">
+      <c r="M25" s="31" t="s">
         <v>271</v>
       </c>
-      <c r="N25" s="32"/>
-      <c r="O25" s="39"/>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="56"/>
-      <c r="R25" s="20"/>
-      <c r="T25" s="17" t="s">
+      <c r="N25" s="31"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="55"/>
+      <c r="R25" s="19"/>
+      <c r="T25" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="U25" s="17" t="s">
+      <c r="U25" s="16" t="s">
         <v>280</v>
       </c>
       <c r="V25" s="1"/>
-      <c r="W25" s="35" t="s">
+      <c r="W25" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X25" s="17" t="s">
+      <c r="X25" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y25" s="59" t="s">
+      <c r="Y25" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="Z25" s="35" t="s">
+      <c r="Z25" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA25" s="17" t="s">
+      <c r="AA25" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB25" s="59" t="s">
+      <c r="AB25" s="58" t="s">
         <v>81</v>
       </c>
       <c r="AC25" s="1"/>
-      <c r="AD25" s="20" t="s">
+      <c r="AD25" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="AE25" s="20" t="s">
+      <c r="AE25" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="AF25" s="20" t="s">
+      <c r="AF25" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="AG25" s="20" t="s">
+      <c r="AG25" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="AH25" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="AH25" s="16"/>
-      <c r="AI25" s="62" t="s">
+      <c r="AI25" s="61" t="s">
         <v>238</v>
       </c>
-      <c r="AJ25" s="58"/>
+      <c r="AJ25" s="57"/>
       <c r="AK25" s="13">
         <v>0.01</v>
       </c>
       <c r="AM25" t="s">
         <v>275</v>
       </c>
-      <c r="AN25" s="44" t="s">
+      <c r="AN25" s="43" t="s">
         <v>273</v>
       </c>
       <c r="AO25" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="AP25" s="44" t="s">
+      <c r="AP25" s="43" t="s">
         <v>274</v>
       </c>
       <c r="AQ25" s="1" t="s">
@@ -6108,16 +6224,16 @@
       <c r="BA25">
         <v>250</v>
       </c>
-      <c r="BC25" s="60"/>
-      <c r="BD25" s="60"/>
-      <c r="BE25" s="60"/>
-      <c r="BF25" s="60"/>
-      <c r="BH25" s="26"/>
-      <c r="BI25" s="27"/>
-      <c r="BJ25" s="27"/>
+      <c r="BC25" s="59"/>
+      <c r="BD25" s="59"/>
+      <c r="BE25" s="59"/>
+      <c r="BF25" s="59"/>
+      <c r="BH25" s="25"/>
+      <c r="BI25" s="26"/>
+      <c r="BJ25" s="26"/>
       <c r="BK25"/>
       <c r="BL25"/>
-      <c r="BM25" s="27"/>
+      <c r="BM25" s="26"/>
       <c r="BR25"/>
       <c r="BS25"/>
       <c r="BT25"/>
@@ -6132,97 +6248,99 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B26" s="24">
+      <c r="B26" s="23">
         <v>24</v>
       </c>
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="29" t="s">
+      <c r="D26" s="28" t="s">
         <v>105</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="G26" s="32" t="s">
+      <c r="G26" s="31" t="s">
         <v>277</v>
       </c>
-      <c r="H26" s="32" t="s">
+      <c r="H26" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="I26" s="33" t="s">
+      <c r="I26" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="K26" s="32" t="s">
+      <c r="K26" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="L26" s="32" t="s">
+      <c r="L26" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="M26" s="32" t="s">
+      <c r="M26" s="31" t="s">
         <v>271</v>
       </c>
-      <c r="N26" s="32"/>
-      <c r="O26" s="39"/>
-      <c r="P26" s="42"/>
-      <c r="Q26" s="56"/>
-      <c r="R26" s="20"/>
-      <c r="T26" s="17" t="s">
+      <c r="N26" s="31"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="55"/>
+      <c r="R26" s="19"/>
+      <c r="T26" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="U26" s="17" t="s">
+      <c r="U26" s="16" t="s">
         <v>280</v>
       </c>
       <c r="V26" s="1"/>
-      <c r="W26" s="35" t="s">
+      <c r="W26" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X26" s="17" t="s">
+      <c r="X26" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y26" s="59" t="s">
+      <c r="Y26" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="Z26" s="35" t="s">
+      <c r="Z26" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA26" s="17" t="s">
+      <c r="AA26" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB26" s="59" t="s">
+      <c r="AB26" s="58" t="s">
         <v>81</v>
       </c>
       <c r="AC26" s="1"/>
-      <c r="AD26" s="20" t="s">
+      <c r="AD26" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="AE26" s="20" t="s">
+      <c r="AE26" s="19" t="s">
         <v>268</v>
       </c>
-      <c r="AF26" s="20" t="s">
+      <c r="AF26" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="AG26" s="20" t="s">
+      <c r="AG26" s="19" t="s">
+        <v>304</v>
+      </c>
+      <c r="AH26" s="19" t="s">
         <v>268</v>
       </c>
-      <c r="AH26" s="16"/>
-      <c r="AI26" s="62" t="s">
+      <c r="AI26" s="61" t="s">
         <v>239</v>
       </c>
-      <c r="AJ26" s="58"/>
+      <c r="AJ26" s="57"/>
       <c r="AK26" s="13">
         <v>0.01</v>
       </c>
       <c r="AM26" t="s">
         <v>275</v>
       </c>
-      <c r="AN26" s="44" t="s">
+      <c r="AN26" s="43" t="s">
         <v>273</v>
       </c>
       <c r="AO26" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="AP26" s="44" t="s">
+      <c r="AP26" s="43" t="s">
         <v>274</v>
       </c>
       <c r="AQ26" s="1" t="s">
@@ -6252,16 +6370,16 @@
       <c r="BA26">
         <v>250</v>
       </c>
-      <c r="BC26" s="60"/>
-      <c r="BD26" s="60"/>
-      <c r="BE26" s="60"/>
-      <c r="BF26" s="60"/>
-      <c r="BH26" s="26"/>
-      <c r="BI26" s="27"/>
-      <c r="BJ26" s="27"/>
+      <c r="BC26" s="59"/>
+      <c r="BD26" s="59"/>
+      <c r="BE26" s="59"/>
+      <c r="BF26" s="59"/>
+      <c r="BH26" s="25"/>
+      <c r="BI26" s="26"/>
+      <c r="BJ26" s="26"/>
       <c r="BK26"/>
       <c r="BL26"/>
-      <c r="BM26" s="27"/>
+      <c r="BM26" s="26"/>
       <c r="BR26"/>
       <c r="BS26"/>
       <c r="BT26"/>
@@ -6276,97 +6394,99 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B27" s="24">
+      <c r="B27" s="23">
         <v>25</v>
       </c>
-      <c r="C27" s="29" t="s">
+      <c r="C27" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="D27" s="29" t="s">
+      <c r="D27" s="28" t="s">
         <v>106</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="G27" s="32" t="s">
+      <c r="G27" s="31" t="s">
         <v>277</v>
       </c>
-      <c r="H27" s="32" t="s">
+      <c r="H27" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="I27" s="33" t="s">
+      <c r="I27" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="K27" s="32" t="s">
+      <c r="K27" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="L27" s="32" t="s">
+      <c r="L27" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="M27" s="32" t="s">
+      <c r="M27" s="31" t="s">
         <v>271</v>
       </c>
-      <c r="N27" s="32"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="56"/>
-      <c r="R27" s="20"/>
-      <c r="T27" s="17" t="s">
+      <c r="N27" s="31"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="55"/>
+      <c r="R27" s="19"/>
+      <c r="T27" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="U27" s="17" t="s">
+      <c r="U27" s="16" t="s">
         <v>280</v>
       </c>
       <c r="V27" s="1"/>
-      <c r="W27" s="35" t="s">
+      <c r="W27" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X27" s="17" t="s">
+      <c r="X27" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y27" s="59" t="s">
+      <c r="Y27" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="Z27" s="35" t="s">
+      <c r="Z27" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA27" s="17" t="s">
+      <c r="AA27" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB27" s="59" t="s">
+      <c r="AB27" s="58" t="s">
         <v>81</v>
       </c>
       <c r="AC27" s="1"/>
-      <c r="AD27" s="20" t="s">
+      <c r="AD27" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="AE27" s="20" t="s">
+      <c r="AE27" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="AF27" s="20" t="s">
+      <c r="AF27" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="AG27" s="20" t="s">
+      <c r="AG27" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="AH27" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="AH27" s="16"/>
-      <c r="AI27" s="62" t="s">
+      <c r="AI27" s="61" t="s">
         <v>240</v>
       </c>
-      <c r="AJ27" s="58"/>
+      <c r="AJ27" s="57"/>
       <c r="AK27" s="13">
         <v>0.01</v>
       </c>
       <c r="AM27" t="s">
         <v>275</v>
       </c>
-      <c r="AN27" s="44" t="s">
+      <c r="AN27" s="43" t="s">
         <v>273</v>
       </c>
       <c r="AO27" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="AP27" s="44" t="s">
+      <c r="AP27" s="43" t="s">
         <v>274</v>
       </c>
       <c r="AQ27" s="1" t="s">
@@ -6396,16 +6516,16 @@
       <c r="BA27">
         <v>250</v>
       </c>
-      <c r="BC27" s="60"/>
-      <c r="BD27" s="60"/>
-      <c r="BE27" s="60"/>
-      <c r="BF27" s="60"/>
-      <c r="BH27" s="26"/>
-      <c r="BI27" s="27"/>
-      <c r="BJ27" s="27"/>
+      <c r="BC27" s="59"/>
+      <c r="BD27" s="59"/>
+      <c r="BE27" s="59"/>
+      <c r="BF27" s="59"/>
+      <c r="BH27" s="25"/>
+      <c r="BI27" s="26"/>
+      <c r="BJ27" s="26"/>
       <c r="BK27"/>
       <c r="BL27"/>
-      <c r="BM27" s="27"/>
+      <c r="BM27" s="26"/>
       <c r="BR27"/>
       <c r="BS27"/>
       <c r="BT27"/>
@@ -6420,97 +6540,99 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B28" s="24">
+      <c r="B28" s="23">
         <v>26</v>
       </c>
-      <c r="C28" s="29" t="s">
+      <c r="C28" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="D28" s="29" t="s">
+      <c r="D28" s="28" t="s">
         <v>107</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="G28" s="32" t="s">
+      <c r="G28" s="31" t="s">
         <v>277</v>
       </c>
-      <c r="H28" s="32" t="s">
+      <c r="H28" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="I28" s="33" t="s">
+      <c r="I28" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="K28" s="32" t="s">
+      <c r="K28" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="L28" s="32" t="s">
+      <c r="L28" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="M28" s="32" t="s">
+      <c r="M28" s="31" t="s">
         <v>271</v>
       </c>
-      <c r="N28" s="32"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="42"/>
-      <c r="Q28" s="56"/>
-      <c r="R28" s="20"/>
-      <c r="T28" s="17" t="s">
+      <c r="N28" s="31"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="55"/>
+      <c r="R28" s="19"/>
+      <c r="T28" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="U28" s="17" t="s">
+      <c r="U28" s="16" t="s">
         <v>280</v>
       </c>
       <c r="V28" s="1"/>
-      <c r="W28" s="35" t="s">
+      <c r="W28" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X28" s="17" t="s">
+      <c r="X28" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y28" s="59" t="s">
+      <c r="Y28" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="Z28" s="35" t="s">
+      <c r="Z28" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA28" s="17" t="s">
+      <c r="AA28" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB28" s="59" t="s">
+      <c r="AB28" s="58" t="s">
         <v>81</v>
       </c>
       <c r="AC28" s="1"/>
-      <c r="AD28" s="20" t="s">
+      <c r="AD28" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="AE28" s="20" t="s">
+      <c r="AE28" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="AF28" s="20" t="s">
+      <c r="AF28" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="AG28" s="20" t="s">
+      <c r="AG28" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="AH28" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="AH28" s="16"/>
-      <c r="AI28" s="62" t="s">
+      <c r="AI28" s="61" t="s">
         <v>241</v>
       </c>
-      <c r="AJ28" s="58"/>
+      <c r="AJ28" s="57"/>
       <c r="AK28" s="13">
         <v>0.01</v>
       </c>
       <c r="AM28" t="s">
         <v>275</v>
       </c>
-      <c r="AN28" s="44" t="s">
+      <c r="AN28" s="43" t="s">
         <v>273</v>
       </c>
       <c r="AO28" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="AP28" s="44" t="s">
+      <c r="AP28" s="43" t="s">
         <v>274</v>
       </c>
       <c r="AQ28" s="1" t="s">
@@ -6540,16 +6662,16 @@
       <c r="BA28">
         <v>250</v>
       </c>
-      <c r="BC28" s="60"/>
-      <c r="BD28" s="60"/>
-      <c r="BE28" s="60"/>
-      <c r="BF28" s="60"/>
-      <c r="BH28" s="26"/>
-      <c r="BI28" s="27"/>
-      <c r="BJ28" s="27"/>
+      <c r="BC28" s="59"/>
+      <c r="BD28" s="59"/>
+      <c r="BE28" s="59"/>
+      <c r="BF28" s="59"/>
+      <c r="BH28" s="25"/>
+      <c r="BI28" s="26"/>
+      <c r="BJ28" s="26"/>
       <c r="BK28"/>
       <c r="BL28"/>
-      <c r="BM28" s="27"/>
+      <c r="BM28" s="26"/>
       <c r="BR28"/>
       <c r="BS28"/>
       <c r="BT28"/>
@@ -6564,97 +6686,99 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B29" s="24">
+      <c r="B29" s="23">
         <v>27</v>
       </c>
-      <c r="C29" s="29" t="s">
+      <c r="C29" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="29" t="s">
+      <c r="D29" s="28" t="s">
         <v>108</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="G29" s="32" t="s">
+      <c r="G29" s="31" t="s">
         <v>277</v>
       </c>
-      <c r="H29" s="32" t="s">
+      <c r="H29" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="I29" s="33" t="s">
+      <c r="I29" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="K29" s="32" t="s">
+      <c r="K29" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="L29" s="32" t="s">
+      <c r="L29" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="M29" s="32" t="s">
+      <c r="M29" s="31" t="s">
         <v>271</v>
       </c>
-      <c r="N29" s="32"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="42"/>
-      <c r="Q29" s="56"/>
-      <c r="R29" s="20"/>
-      <c r="T29" s="17" t="s">
+      <c r="N29" s="31"/>
+      <c r="O29" s="38"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="55"/>
+      <c r="R29" s="19"/>
+      <c r="T29" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="U29" s="17" t="s">
+      <c r="U29" s="16" t="s">
         <v>280</v>
       </c>
       <c r="V29" s="1"/>
-      <c r="W29" s="35" t="s">
+      <c r="W29" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X29" s="17" t="s">
+      <c r="X29" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y29" s="59" t="s">
+      <c r="Y29" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="Z29" s="35" t="s">
+      <c r="Z29" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA29" s="17" t="s">
+      <c r="AA29" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB29" s="59" t="s">
+      <c r="AB29" s="58" t="s">
         <v>81</v>
       </c>
       <c r="AC29" s="1"/>
-      <c r="AD29" s="20" t="s">
+      <c r="AD29" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="AE29" s="20" t="s">
+      <c r="AE29" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="AF29" s="20" t="s">
+      <c r="AF29" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="AG29" s="20" t="s">
+      <c r="AG29" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="AH29" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="AH29" s="16"/>
-      <c r="AI29" s="62" t="s">
+      <c r="AI29" s="61" t="s">
         <v>242</v>
       </c>
-      <c r="AJ29" s="58"/>
+      <c r="AJ29" s="57"/>
       <c r="AK29" s="13">
         <v>0.01</v>
       </c>
       <c r="AM29" t="s">
         <v>275</v>
       </c>
-      <c r="AN29" s="44" t="s">
+      <c r="AN29" s="43" t="s">
         <v>273</v>
       </c>
       <c r="AO29" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="AP29" s="44" t="s">
+      <c r="AP29" s="43" t="s">
         <v>274</v>
       </c>
       <c r="AQ29" s="1" t="s">
@@ -6684,16 +6808,16 @@
       <c r="BA29">
         <v>250</v>
       </c>
-      <c r="BC29" s="60"/>
-      <c r="BD29" s="60"/>
-      <c r="BE29" s="60"/>
-      <c r="BF29" s="60"/>
-      <c r="BH29" s="26"/>
-      <c r="BI29" s="27"/>
-      <c r="BJ29" s="27"/>
+      <c r="BC29" s="59"/>
+      <c r="BD29" s="59"/>
+      <c r="BE29" s="59"/>
+      <c r="BF29" s="59"/>
+      <c r="BH29" s="25"/>
+      <c r="BI29" s="26"/>
+      <c r="BJ29" s="26"/>
       <c r="BK29"/>
       <c r="BL29"/>
-      <c r="BM29" s="27"/>
+      <c r="BM29" s="26"/>
       <c r="BR29"/>
       <c r="BS29"/>
       <c r="BT29"/>
@@ -6771,19 +6895,9 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{06B92370-743D-804F-912C-658BE37B1274}" topLeftCell="X1">
-      <pane ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="AD344" sqref="AD344"/>
-      <rowBreaks count="2" manualBreakCount="2">
-        <brk id="1" max="16383" man="1"/>
-        <brk id="325" max="16383" man="1"/>
-      </rowBreaks>
-      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-    </customSheetView>
-    <customSheetView guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" topLeftCell="AP1">
-      <pane ySplit="2.03125" topLeftCell="A342" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BA367" sqref="BA367"/>
+    <customSheetView guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" topLeftCell="BD1">
+      <pane ySplit="2" topLeftCell="A273" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BG334" sqref="BG334"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="1" max="16383" man="1"/>
         <brk id="325" max="16383" man="1"/>
@@ -6801,14 +6915,24 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" topLeftCell="BD1">
-      <pane ySplit="2" topLeftCell="A273" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BG334" sqref="BG334"/>
+    <customSheetView guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" topLeftCell="AP1">
+      <pane ySplit="2.03125" topLeftCell="A342" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BA367" sqref="BA367"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="1" max="16383" man="1"/>
         <brk id="325" max="16383" man="1"/>
       </rowBreaks>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+    </customSheetView>
+    <customSheetView guid="{06B92370-743D-804F-912C-658BE37B1274}" topLeftCell="X1">
+      <pane ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="AD344" sqref="AD344"/>
+      <rowBreaks count="2" manualBreakCount="2">
+        <brk id="1" max="16383" man="1"/>
+        <brk id="325" max="16383" man="1"/>
+      </rowBreaks>
+      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
   </customSheetViews>

--- a/metadata/excel/projects/sinclair/testproj/metadata.xlsx
+++ b/metadata/excel/projects/sinclair/testproj/metadata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="6960" windowWidth="36800" windowHeight="20260" tabRatio="500"/>
+    <workbookView xWindow="3140" yWindow="6940" windowWidth="36800" windowHeight="20260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="micans_v6_ex1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="333">
   <si>
     <t>Country</t>
   </si>
@@ -699,84 +699,6 @@
     <t>Desalt SAL-HAD3c (failed)</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Q</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
     <t>AA</t>
   </si>
   <si>
@@ -972,82 +894,238 @@
     <t>Testproj project</t>
   </si>
   <si>
-    <t>TGTGTGTG</t>
-  </si>
-  <si>
-    <t>CACACGTG</t>
-  </si>
-  <si>
-    <t>CGCATCTG</t>
-  </si>
-  <si>
-    <t>TCGCACTG</t>
-  </si>
-  <si>
-    <t>CGTGCTAG</t>
-  </si>
-  <si>
-    <t>TCTATGAG</t>
-  </si>
-  <si>
-    <t>CAGATCAG</t>
-  </si>
-  <si>
-    <t>CAGCTCTC</t>
-  </si>
-  <si>
-    <t>TCGATCTC</t>
-  </si>
-  <si>
-    <t>TGTCACTC</t>
-  </si>
-  <si>
-    <t>TACGCTGC</t>
-  </si>
-  <si>
-    <t>CATCATGC</t>
-  </si>
-  <si>
-    <t>CACATCGC</t>
-  </si>
-  <si>
-    <t>TGCGACGC</t>
-  </si>
-  <si>
-    <t>TAGCACGC</t>
-  </si>
-  <si>
-    <t>CACACTAC</t>
-  </si>
-  <si>
-    <t>TCGCAGAC</t>
-  </si>
-  <si>
-    <t>TACGTCAC</t>
-  </si>
-  <si>
-    <t>CGTGACAC</t>
-  </si>
-  <si>
-    <t>TATACGTA</t>
-  </si>
-  <si>
-    <t>CAGCAGTA</t>
-  </si>
-  <si>
-    <t>TCTGTCTA</t>
-  </si>
-  <si>
-    <t>CACGACTA</t>
-  </si>
-  <si>
-    <t>CGCACTGA</t>
-  </si>
-  <si>
-    <t>TGTCATGA</t>
-  </si>
-  <si>
-    <t>TGTATCGA</t>
+    <t>ACACACAC</t>
+  </si>
+  <si>
+    <t>ACACTCTA</t>
+  </si>
+  <si>
+    <t>ACGCTCGC</t>
+  </si>
+  <si>
+    <t>ACGTGAGT</t>
+  </si>
+  <si>
+    <t>AGACACGA</t>
+  </si>
+  <si>
+    <t>AGATGTGA</t>
+  </si>
+  <si>
+    <t>AGCTATGT</t>
+  </si>
+  <si>
+    <t>AGCTGCAT</t>
+  </si>
+  <si>
+    <t>CACTATGC</t>
+  </si>
+  <si>
+    <t>CACTGCTA</t>
+  </si>
+  <si>
+    <t>CAGCTCTA</t>
+  </si>
+  <si>
+    <t>CGACTATA</t>
+  </si>
+  <si>
+    <t>CGATACAC</t>
+  </si>
+  <si>
+    <t>CGATGAGC</t>
+  </si>
+  <si>
+    <t>GACTGAGT</t>
+  </si>
+  <si>
+    <t>GAGCACGT</t>
+  </si>
+  <si>
+    <t>GAGCGTGA</t>
+  </si>
+  <si>
+    <t>GAGTACTA</t>
+  </si>
+  <si>
+    <t>GAGTATAC</t>
+  </si>
+  <si>
+    <t>GCACGCGA</t>
+  </si>
+  <si>
+    <t>GCACTAGT</t>
+  </si>
+  <si>
+    <t>GCATGCTC</t>
+  </si>
+  <si>
+    <t>GCATGTAT</t>
+  </si>
+  <si>
+    <t>GCGCACTC</t>
+  </si>
+  <si>
+    <t>GCGCGATA</t>
+  </si>
+  <si>
+    <t>GCGTATGA</t>
+  </si>
+  <si>
+    <t>Af</t>
+  </si>
+  <si>
+    <t>Bf</t>
+  </si>
+  <si>
+    <t>Cf</t>
+  </si>
+  <si>
+    <t>Df</t>
+  </si>
+  <si>
+    <t>Ef</t>
+  </si>
+  <si>
+    <t>Ff</t>
+  </si>
+  <si>
+    <t>Gf</t>
+  </si>
+  <si>
+    <t>Hf</t>
+  </si>
+  <si>
+    <t>If</t>
+  </si>
+  <si>
+    <t>Jf</t>
+  </si>
+  <si>
+    <t>Kf</t>
+  </si>
+  <si>
+    <t>Lf</t>
+  </si>
+  <si>
+    <t>Mf</t>
+  </si>
+  <si>
+    <t>Nf</t>
+  </si>
+  <si>
+    <t>Of</t>
+  </si>
+  <si>
+    <t>Pf</t>
+  </si>
+  <si>
+    <t>Qf</t>
+  </si>
+  <si>
+    <t>Rf</t>
+  </si>
+  <si>
+    <t>Sf</t>
+  </si>
+  <si>
+    <t>Tf</t>
+  </si>
+  <si>
+    <t>Uf</t>
+  </si>
+  <si>
+    <t>Vf</t>
+  </si>
+  <si>
+    <t>Wf</t>
+  </si>
+  <si>
+    <t>Xf</t>
+  </si>
+  <si>
+    <t>Yf</t>
+  </si>
+  <si>
+    <t>Zf</t>
+  </si>
+  <si>
+    <t>Ar</t>
+  </si>
+  <si>
+    <t>Br</t>
+  </si>
+  <si>
+    <t>Cr</t>
+  </si>
+  <si>
+    <t>Dr</t>
+  </si>
+  <si>
+    <t>Er</t>
+  </si>
+  <si>
+    <t>Fr</t>
+  </si>
+  <si>
+    <t>Gr</t>
+  </si>
+  <si>
+    <t>Hr</t>
+  </si>
+  <si>
+    <t>Ir</t>
+  </si>
+  <si>
+    <t>Jr</t>
+  </si>
+  <si>
+    <t>Kr</t>
+  </si>
+  <si>
+    <t>Lr</t>
+  </si>
+  <si>
+    <t>Mr</t>
+  </si>
+  <si>
+    <t>Nr</t>
+  </si>
+  <si>
+    <t>Or</t>
+  </si>
+  <si>
+    <t>Pr</t>
+  </si>
+  <si>
+    <t>Qr</t>
+  </si>
+  <si>
+    <t>Rr</t>
+  </si>
+  <si>
+    <t>Sr</t>
+  </si>
+  <si>
+    <t>Tr</t>
+  </si>
+  <si>
+    <t>Ur</t>
+  </si>
+  <si>
+    <t>Vr</t>
+  </si>
+  <si>
+    <t>Wr</t>
+  </si>
+  <si>
+    <t>Xr</t>
+  </si>
+  <si>
+    <t>Yr</t>
+  </si>
+  <si>
+    <t>Zr</t>
   </si>
 </sst>
 </file>
@@ -2384,7 +2462,7 @@
     <sheetView tabSelected="1" topLeftCell="W1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="X1" sqref="X1"/>
-      <selection pane="bottomLeft" activeCell="AE37" sqref="AE37"/>
+      <selection pane="bottomLeft" activeCell="AH33" sqref="AH33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2579,7 +2657,7 @@
         <v>56</v>
       </c>
       <c r="M2" s="44" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="N2" s="46"/>
       <c r="O2" s="47" t="s">
@@ -2770,16 +2848,16 @@
         <v>82</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="H3" s="31" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="K3" s="31" t="s">
         <v>109</v>
@@ -2788,7 +2866,7 @@
         <v>136</v>
       </c>
       <c r="M3" s="31" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="N3" s="31" t="s">
         <v>49</v>
@@ -2804,7 +2882,7 @@
         <v>163</v>
       </c>
       <c r="U3" s="16" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="V3" s="1"/>
       <c r="W3" s="34" t="s">
@@ -2829,41 +2907,39 @@
         <v>49</v>
       </c>
       <c r="AD3" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="AE3" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="AF3" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="AG3" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="AH3" s="19"/>
+      <c r="AI3" s="61" t="s">
         <v>190</v>
-      </c>
-      <c r="AE3" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="AF3" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="AG3" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="AH3" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="AI3" s="61" t="s">
-        <v>216</v>
       </c>
       <c r="AJ3" s="57"/>
       <c r="AK3" s="13">
         <v>0.01</v>
       </c>
       <c r="AM3" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="AN3" s="43" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="AP3" s="43" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="AR3" t="s">
         <v>49</v>
@@ -2926,16 +3002,16 @@
         <v>83</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="H4" s="31" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="K4" s="31" t="s">
         <v>110</v>
@@ -2944,7 +3020,7 @@
         <v>137</v>
       </c>
       <c r="M4" s="31" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="N4" s="31" t="s">
         <v>49</v>
@@ -2960,7 +3036,7 @@
         <v>185</v>
       </c>
       <c r="U4" s="16" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="V4" s="1"/>
       <c r="W4" s="34" t="s">
@@ -2985,41 +3061,39 @@
         <v>49</v>
       </c>
       <c r="AD4" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="AE4" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="AF4" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="AG4" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="AH4" s="19"/>
+      <c r="AI4" s="61" t="s">
         <v>191</v>
-      </c>
-      <c r="AE4" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="AF4" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG4" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="AH4" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="AI4" s="61" t="s">
-        <v>217</v>
       </c>
       <c r="AJ4" s="57"/>
       <c r="AK4" s="13">
         <v>0.01</v>
       </c>
       <c r="AM4" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="AN4" s="43" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="AO4" s="1" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="AP4" s="43" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="AQ4" s="1" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="AR4" t="s">
         <v>49</v>
@@ -3082,16 +3156,16 @@
         <v>84</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="H5" s="31" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="I5" s="32" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="K5" s="31" t="s">
         <v>111</v>
@@ -3100,7 +3174,7 @@
         <v>138</v>
       </c>
       <c r="M5" s="31" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="N5" s="31" t="s">
         <v>49</v>
@@ -3116,7 +3190,7 @@
         <v>164</v>
       </c>
       <c r="U5" s="16" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="V5" s="1"/>
       <c r="W5" s="34" t="s">
@@ -3141,41 +3215,39 @@
         <v>49</v>
       </c>
       <c r="AD5" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="AE5" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="AF5" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="AG5" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="AH5" s="19"/>
+      <c r="AI5" s="61" t="s">
         <v>192</v>
-      </c>
-      <c r="AE5" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="AF5" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="AG5" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="AH5" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="AI5" s="61" t="s">
-        <v>218</v>
       </c>
       <c r="AJ5"/>
       <c r="AK5" s="13">
         <v>0.01</v>
       </c>
       <c r="AM5" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="AN5" s="43" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="AO5" s="1" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="AP5" s="43" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="AQ5" s="1" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="AR5" t="s">
         <v>49</v>
@@ -3238,16 +3310,16 @@
         <v>85</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="H6" s="31" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="I6" s="32" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="K6" s="31" t="s">
         <v>112</v>
@@ -3256,7 +3328,7 @@
         <v>139</v>
       </c>
       <c r="M6" s="31" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="N6" s="31" t="s">
         <v>49</v>
@@ -3272,7 +3344,7 @@
         <v>165</v>
       </c>
       <c r="U6" s="16" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="V6" s="1"/>
       <c r="W6" s="34" t="s">
@@ -3297,41 +3369,39 @@
         <v>49</v>
       </c>
       <c r="AD6" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="AE6" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="AF6" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="AG6" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="AH6" s="19"/>
+      <c r="AI6" s="61" t="s">
         <v>193</v>
-      </c>
-      <c r="AE6" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="AF6" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="AG6" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="AH6" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="AI6" s="61" t="s">
-        <v>219</v>
       </c>
       <c r="AJ6" s="57"/>
       <c r="AK6" s="13">
         <v>0.01</v>
       </c>
       <c r="AM6" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="AN6" s="43" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="AO6" s="1" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="AP6" s="43" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="AQ6" s="1" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="AR6" t="s">
         <v>49</v>
@@ -3394,16 +3464,16 @@
         <v>86</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="I7" s="32" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="K7" s="31" t="s">
         <v>113</v>
@@ -3412,7 +3482,7 @@
         <v>140</v>
       </c>
       <c r="M7" s="31" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="N7" s="31" t="s">
         <v>49</v>
@@ -3428,7 +3498,7 @@
         <v>166</v>
       </c>
       <c r="U7" s="16" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="V7" s="1"/>
       <c r="W7" s="34" t="s">
@@ -3453,41 +3523,39 @@
         <v>49</v>
       </c>
       <c r="AD7" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="AE7" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF7" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="AG7" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="AH7" s="19"/>
+      <c r="AI7" s="61" t="s">
         <v>194</v>
-      </c>
-      <c r="AE7" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="AF7" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="AG7" s="19" t="s">
-        <v>285</v>
-      </c>
-      <c r="AH7" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="AI7" s="61" t="s">
-        <v>220</v>
       </c>
       <c r="AJ7" s="57"/>
       <c r="AK7" s="13">
         <v>0.01</v>
       </c>
       <c r="AM7" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="AN7" s="43" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="AO7" s="1" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="AP7" s="43" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="AQ7" s="1" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="AR7" t="s">
         <v>49</v>
@@ -3550,16 +3618,16 @@
         <v>87</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="I8" s="32" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="K8" s="31" t="s">
         <v>114</v>
@@ -3568,7 +3636,7 @@
         <v>141</v>
       </c>
       <c r="M8" s="31" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="N8" s="31" t="s">
         <v>49</v>
@@ -3584,7 +3652,7 @@
         <v>167</v>
       </c>
       <c r="U8" s="16" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="V8" s="1"/>
       <c r="W8" s="34" t="s">
@@ -3609,41 +3677,39 @@
         <v>49</v>
       </c>
       <c r="AD8" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="AE8" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="AF8" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="AG8" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="AH8" s="19"/>
+      <c r="AI8" s="61" t="s">
         <v>195</v>
-      </c>
-      <c r="AE8" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="AF8" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="AG8" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="AH8" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="AI8" s="61" t="s">
-        <v>221</v>
       </c>
       <c r="AJ8" s="57"/>
       <c r="AK8" s="13">
         <v>0.01</v>
       </c>
       <c r="AM8" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="AN8" s="43" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="AO8" s="1" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="AP8" s="43" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="AQ8" s="1" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="AR8" t="s">
         <v>49</v>
@@ -3706,16 +3772,16 @@
         <v>88</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="H9" s="31" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="I9" s="32" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="K9" s="31" t="s">
         <v>115</v>
@@ -3724,7 +3790,7 @@
         <v>142</v>
       </c>
       <c r="M9" s="31" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="N9" s="31" t="s">
         <v>49</v>
@@ -3740,7 +3806,7 @@
         <v>168</v>
       </c>
       <c r="U9" s="16" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="V9" s="1"/>
       <c r="W9" s="34" t="s">
@@ -3765,41 +3831,39 @@
         <v>49</v>
       </c>
       <c r="AD9" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="AE9" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="AF9" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="AG9" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="AH9" s="19"/>
+      <c r="AI9" s="61" t="s">
         <v>196</v>
-      </c>
-      <c r="AE9" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="AF9" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="AG9" s="19" t="s">
-        <v>287</v>
-      </c>
-      <c r="AH9" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="AI9" s="61" t="s">
-        <v>222</v>
       </c>
       <c r="AJ9" s="57"/>
       <c r="AK9" s="13">
         <v>0.01</v>
       </c>
       <c r="AM9" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="AN9" s="43" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="AO9" s="1" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="AP9" s="43" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="AQ9" s="1" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="AR9" t="s">
         <v>49</v>
@@ -3862,16 +3926,16 @@
         <v>89</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="G10" s="31" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="H10" s="31" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="I10" s="32" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="K10" s="31" t="s">
         <v>116</v>
@@ -3880,7 +3944,7 @@
         <v>143</v>
       </c>
       <c r="M10" s="31" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="N10" s="31" t="s">
         <v>49</v>
@@ -3896,7 +3960,7 @@
         <v>169</v>
       </c>
       <c r="U10" s="16" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="V10" s="1"/>
       <c r="W10" s="34" t="s">
@@ -3921,41 +3985,39 @@
         <v>49</v>
       </c>
       <c r="AD10" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="AE10" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="AF10" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="AG10" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="AH10" s="19"/>
+      <c r="AI10" s="61" t="s">
         <v>197</v>
-      </c>
-      <c r="AE10" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="AF10" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="AG10" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="AH10" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="AI10" s="61" t="s">
-        <v>223</v>
       </c>
       <c r="AJ10" s="57"/>
       <c r="AK10" s="13">
         <v>0.01</v>
       </c>
       <c r="AM10" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="AN10" s="43" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="AO10" s="1" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="AP10" s="43" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="AQ10" s="1" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="AR10" t="s">
         <v>49</v>
@@ -4018,16 +4080,16 @@
         <v>90</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="I11" s="32" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="K11" s="31" t="s">
         <v>117</v>
@@ -4036,7 +4098,7 @@
         <v>144</v>
       </c>
       <c r="M11" s="31" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="N11" s="31" t="s">
         <v>49</v>
@@ -4052,7 +4114,7 @@
         <v>170</v>
       </c>
       <c r="U11" s="16" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="V11" s="1"/>
       <c r="W11" s="34" t="s">
@@ -4077,41 +4139,39 @@
         <v>49</v>
       </c>
       <c r="AD11" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="AE11" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="AF11" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="AG11" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="AH11" s="19"/>
+      <c r="AI11" s="61" t="s">
         <v>198</v>
-      </c>
-      <c r="AE11" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="AF11" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="AG11" s="19" t="s">
-        <v>289</v>
-      </c>
-      <c r="AH11" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="AI11" s="61" t="s">
-        <v>224</v>
       </c>
       <c r="AJ11" s="57"/>
       <c r="AK11" s="13">
         <v>0.01</v>
       </c>
       <c r="AM11" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="AN11" s="43" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="AO11" s="1" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="AP11" s="43" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="AQ11" s="1" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="AR11" t="s">
         <v>49</v>
@@ -4174,16 +4234,16 @@
         <v>91</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="I12" s="32" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="K12" s="31" t="s">
         <v>118</v>
@@ -4192,7 +4252,7 @@
         <v>145</v>
       </c>
       <c r="M12" s="31" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="N12" s="31" t="s">
         <v>49</v>
@@ -4208,7 +4268,7 @@
         <v>171</v>
       </c>
       <c r="U12" s="16" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="V12" s="1"/>
       <c r="W12" s="34" t="s">
@@ -4233,41 +4293,39 @@
         <v>49</v>
       </c>
       <c r="AD12" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="AE12" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="AF12" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="AG12" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="AH12" s="19"/>
+      <c r="AI12" s="61" t="s">
         <v>199</v>
-      </c>
-      <c r="AE12" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="AF12" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="AG12" s="19" t="s">
-        <v>290</v>
-      </c>
-      <c r="AH12" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="AI12" s="61" t="s">
-        <v>225</v>
       </c>
       <c r="AJ12" s="57"/>
       <c r="AK12" s="13">
         <v>0.01</v>
       </c>
       <c r="AM12" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="AN12" s="43" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="AO12" s="1" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="AP12" s="43" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="AQ12" s="1" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="AR12" t="s">
         <v>49</v>
@@ -4330,16 +4388,16 @@
         <v>92</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="H13" s="31" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="I13" s="32" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="K13" s="31" t="s">
         <v>119</v>
@@ -4348,7 +4406,7 @@
         <v>146</v>
       </c>
       <c r="M13" s="31" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="N13" s="31" t="s">
         <v>49</v>
@@ -4364,7 +4422,7 @@
         <v>172</v>
       </c>
       <c r="U13" s="16" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="V13" s="1"/>
       <c r="W13" s="34" t="s">
@@ -4389,41 +4447,39 @@
         <v>49</v>
       </c>
       <c r="AD13" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="AE13" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="AF13" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="AG13" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="AH13" s="19"/>
+      <c r="AI13" s="61" t="s">
         <v>200</v>
-      </c>
-      <c r="AE13" s="19" t="s">
-        <v>255</v>
-      </c>
-      <c r="AF13" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="AG13" s="19" t="s">
-        <v>291</v>
-      </c>
-      <c r="AH13" s="19" t="s">
-        <v>255</v>
-      </c>
-      <c r="AI13" s="61" t="s">
-        <v>226</v>
       </c>
       <c r="AJ13" s="57"/>
       <c r="AK13" s="13">
         <v>0.01</v>
       </c>
       <c r="AM13" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="AN13" s="43" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="AO13" s="1" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="AP13" s="43" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="AQ13" s="1" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="AR13" t="s">
         <v>49</v>
@@ -4486,16 +4542,16 @@
         <v>93</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="I14" s="32" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="K14" s="31" t="s">
         <v>120</v>
@@ -4504,7 +4560,7 @@
         <v>147</v>
       </c>
       <c r="M14" s="31" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="N14" s="31" t="s">
         <v>49</v>
@@ -4520,7 +4576,7 @@
         <v>173</v>
       </c>
       <c r="U14" s="16" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="V14" s="1"/>
       <c r="W14" s="34" t="s">
@@ -4545,41 +4601,39 @@
         <v>49</v>
       </c>
       <c r="AD14" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="AE14" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="AF14" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="AG14" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="AH14" s="19"/>
+      <c r="AI14" s="61" t="s">
         <v>201</v>
-      </c>
-      <c r="AE14" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="AF14" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="AG14" s="19" t="s">
-        <v>292</v>
-      </c>
-      <c r="AH14" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="AI14" s="61" t="s">
-        <v>227</v>
       </c>
       <c r="AJ14" s="57"/>
       <c r="AK14" s="13">
         <v>0.01</v>
       </c>
       <c r="AM14" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="AN14" s="43" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="AO14" s="1" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="AP14" s="43" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="AQ14" s="1" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="AR14" t="s">
         <v>49</v>
@@ -4642,16 +4696,16 @@
         <v>94</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="H15" s="31" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="I15" s="32" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="K15" s="31" t="s">
         <v>121</v>
@@ -4660,7 +4714,7 @@
         <v>148</v>
       </c>
       <c r="M15" s="31" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="N15" s="31" t="s">
         <v>49</v>
@@ -4676,7 +4730,7 @@
         <v>174</v>
       </c>
       <c r="U15" s="16" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="V15" s="1"/>
       <c r="W15" s="34" t="s">
@@ -4701,41 +4755,39 @@
         <v>49</v>
       </c>
       <c r="AD15" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="AE15" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="AF15" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="AG15" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="AH15" s="19"/>
+      <c r="AI15" s="61" t="s">
         <v>202</v>
-      </c>
-      <c r="AE15" s="19" t="s">
-        <v>257</v>
-      </c>
-      <c r="AF15" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="AG15" s="19" t="s">
-        <v>293</v>
-      </c>
-      <c r="AH15" s="19" t="s">
-        <v>257</v>
-      </c>
-      <c r="AI15" s="61" t="s">
-        <v>228</v>
       </c>
       <c r="AJ15" s="57"/>
       <c r="AK15" s="13">
         <v>0.01</v>
       </c>
       <c r="AM15" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="AN15" s="43" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="AO15" s="1" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="AP15" s="43" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="AQ15" s="1" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="AR15" t="s">
         <v>49</v>
@@ -4798,16 +4850,16 @@
         <v>95</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="I16" s="32" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="K16" s="31" t="s">
         <v>122</v>
@@ -4816,7 +4868,7 @@
         <v>149</v>
       </c>
       <c r="M16" s="31" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="N16" s="31"/>
       <c r="O16" s="38"/>
@@ -4827,7 +4879,7 @@
         <v>175</v>
       </c>
       <c r="U16" s="16" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="V16" s="1"/>
       <c r="W16" s="34" t="s">
@@ -4850,41 +4902,39 @@
       </c>
       <c r="AC16" s="1"/>
       <c r="AD16" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="AE16" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="AF16" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="AG16" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="AH16" s="19"/>
+      <c r="AI16" s="61" t="s">
         <v>203</v>
-      </c>
-      <c r="AE16" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="AF16" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="AG16" s="19" t="s">
-        <v>294</v>
-      </c>
-      <c r="AH16" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="AI16" s="61" t="s">
-        <v>229</v>
       </c>
       <c r="AJ16" s="57"/>
       <c r="AK16" s="13">
         <v>0.01</v>
       </c>
       <c r="AM16" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="AN16" s="43" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="AO16" s="1" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="AP16" s="43" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="AQ16" s="1" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="AS16" t="s">
         <v>8</v>
@@ -4944,16 +4994,16 @@
         <v>96</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="G17" s="31" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="I17" s="32" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="K17" s="31" t="s">
         <v>123</v>
@@ -4962,7 +5012,7 @@
         <v>150</v>
       </c>
       <c r="M17" s="31" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="N17" s="31"/>
       <c r="O17" s="38"/>
@@ -4973,7 +5023,7 @@
         <v>176</v>
       </c>
       <c r="U17" s="16" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="V17" s="1"/>
       <c r="W17" s="34" t="s">
@@ -4996,41 +5046,39 @@
       </c>
       <c r="AC17" s="1"/>
       <c r="AD17" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="AE17" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="AF17" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="AG17" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="AH17" s="19"/>
+      <c r="AI17" s="61" t="s">
         <v>204</v>
-      </c>
-      <c r="AE17" s="19" t="s">
-        <v>259</v>
-      </c>
-      <c r="AF17" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="AG17" s="19" t="s">
-        <v>295</v>
-      </c>
-      <c r="AH17" s="19" t="s">
-        <v>259</v>
-      </c>
-      <c r="AI17" s="61" t="s">
-        <v>230</v>
       </c>
       <c r="AJ17" s="57"/>
       <c r="AK17" s="13">
         <v>0.01</v>
       </c>
       <c r="AM17" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="AN17" s="43" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="AO17" s="1" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="AP17" s="43" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="AQ17" s="1" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="AS17" t="s">
         <v>8</v>
@@ -5090,16 +5138,16 @@
         <v>97</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="G18" s="31" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="H18" s="31" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="I18" s="32" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="K18" s="31" t="s">
         <v>124</v>
@@ -5108,7 +5156,7 @@
         <v>151</v>
       </c>
       <c r="M18" s="31" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="N18" s="31"/>
       <c r="O18" s="38"/>
@@ -5119,7 +5167,7 @@
         <v>177</v>
       </c>
       <c r="U18" s="16" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="V18" s="1"/>
       <c r="W18" s="34" t="s">
@@ -5142,41 +5190,39 @@
       </c>
       <c r="AC18" s="1"/>
       <c r="AD18" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="AE18" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="AF18" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="AG18" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="AH18" s="19"/>
+      <c r="AI18" s="61" t="s">
         <v>205</v>
-      </c>
-      <c r="AE18" s="19" t="s">
-        <v>260</v>
-      </c>
-      <c r="AF18" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="AG18" s="19" t="s">
-        <v>296</v>
-      </c>
-      <c r="AH18" s="19" t="s">
-        <v>260</v>
-      </c>
-      <c r="AI18" s="61" t="s">
-        <v>231</v>
       </c>
       <c r="AJ18" s="57"/>
       <c r="AK18" s="13">
         <v>0.01</v>
       </c>
       <c r="AM18" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="AN18" s="43" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="AO18" s="1" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="AP18" s="43" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="AQ18" s="1" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="AS18" t="s">
         <v>8</v>
@@ -5236,16 +5282,16 @@
         <v>98</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="I19" s="32" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="K19" s="31" t="s">
         <v>125</v>
@@ -5254,7 +5300,7 @@
         <v>152</v>
       </c>
       <c r="M19" s="31" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="N19" s="31"/>
       <c r="O19" s="38"/>
@@ -5265,7 +5311,7 @@
         <v>178</v>
       </c>
       <c r="U19" s="16" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="V19" s="1"/>
       <c r="W19" s="34" t="s">
@@ -5288,41 +5334,39 @@
       </c>
       <c r="AC19" s="1"/>
       <c r="AD19" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="AE19" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="AF19" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="AG19" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="AH19" s="19"/>
+      <c r="AI19" s="61" t="s">
         <v>206</v>
-      </c>
-      <c r="AE19" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="AF19" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="AG19" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="AH19" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="AI19" s="61" t="s">
-        <v>232</v>
       </c>
       <c r="AJ19" s="57"/>
       <c r="AK19" s="13">
         <v>0.01</v>
       </c>
       <c r="AM19" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="AN19" s="43" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="AO19" s="1" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="AP19" s="43" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="AQ19" s="1" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="AS19" t="s">
         <v>8</v>
@@ -5382,16 +5426,16 @@
         <v>99</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="G20" s="31" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="H20" s="31" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="I20" s="32" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="K20" s="31" t="s">
         <v>126</v>
@@ -5400,7 +5444,7 @@
         <v>153</v>
       </c>
       <c r="M20" s="31" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="N20" s="31"/>
       <c r="O20" s="38"/>
@@ -5411,7 +5455,7 @@
         <v>179</v>
       </c>
       <c r="U20" s="16" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="V20" s="1"/>
       <c r="W20" s="34" t="s">
@@ -5434,41 +5478,39 @@
       </c>
       <c r="AC20" s="1"/>
       <c r="AD20" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="AE20" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="AF20" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="AG20" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="AH20" s="19"/>
+      <c r="AI20" s="61" t="s">
         <v>207</v>
-      </c>
-      <c r="AE20" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="AF20" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="AG20" s="19" t="s">
-        <v>298</v>
-      </c>
-      <c r="AH20" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="AI20" s="61" t="s">
-        <v>233</v>
       </c>
       <c r="AJ20" s="57"/>
       <c r="AK20" s="13">
         <v>0.01</v>
       </c>
       <c r="AM20" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="AN20" s="43" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="AO20" s="1" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="AP20" s="43" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="AQ20" s="1" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="AS20" t="s">
         <v>8</v>
@@ -5528,16 +5570,16 @@
         <v>100</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="G21" s="31" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="H21" s="31" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="I21" s="32" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="K21" s="31" t="s">
         <v>127</v>
@@ -5546,7 +5588,7 @@
         <v>154</v>
       </c>
       <c r="M21" s="31" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="N21" s="31"/>
       <c r="O21" s="38"/>
@@ -5557,7 +5599,7 @@
         <v>186</v>
       </c>
       <c r="U21" s="16" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="V21" s="1"/>
       <c r="W21" s="34" t="s">
@@ -5580,41 +5622,39 @@
       </c>
       <c r="AC21" s="1"/>
       <c r="AD21" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="AE21" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="AF21" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="AG21" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="AH21" s="19"/>
+      <c r="AI21" s="61" t="s">
         <v>208</v>
-      </c>
-      <c r="AE21" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="AF21" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="AG21" s="19" t="s">
-        <v>299</v>
-      </c>
-      <c r="AH21" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="AI21" s="61" t="s">
-        <v>234</v>
       </c>
       <c r="AJ21" s="57"/>
       <c r="AK21" s="13">
         <v>0.01</v>
       </c>
       <c r="AM21" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="AN21" s="43" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="AO21" s="1" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="AP21" s="43" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="AQ21" s="1" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="AS21" t="s">
         <v>8</v>
@@ -5674,16 +5714,16 @@
         <v>101</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="G22" s="31" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="H22" s="31" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="I22" s="32" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="K22" s="31" t="s">
         <v>128</v>
@@ -5692,7 +5732,7 @@
         <v>155</v>
       </c>
       <c r="M22" s="31" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="N22" s="31"/>
       <c r="O22" s="38"/>
@@ -5703,7 +5743,7 @@
         <v>180</v>
       </c>
       <c r="U22" s="16" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="V22" s="1"/>
       <c r="W22" s="34" t="s">
@@ -5726,41 +5766,39 @@
       </c>
       <c r="AC22" s="1"/>
       <c r="AD22" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="AE22" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="AF22" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="AG22" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="AH22" s="19"/>
+      <c r="AI22" s="61" t="s">
         <v>209</v>
-      </c>
-      <c r="AE22" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="AF22" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="AG22" s="19" t="s">
-        <v>300</v>
-      </c>
-      <c r="AH22" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="AI22" s="61" t="s">
-        <v>235</v>
       </c>
       <c r="AJ22" s="57"/>
       <c r="AK22" s="13">
         <v>0.01</v>
       </c>
       <c r="AM22" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="AN22" s="43" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="AO22" s="1" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="AP22" s="43" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="AQ22" s="1" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="AS22" t="s">
         <v>8</v>
@@ -5820,16 +5858,16 @@
         <v>102</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="G23" s="31" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="H23" s="31" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="I23" s="32" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="K23" s="31" t="s">
         <v>129</v>
@@ -5838,7 +5876,7 @@
         <v>156</v>
       </c>
       <c r="M23" s="31" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="N23" s="31"/>
       <c r="O23" s="38"/>
@@ -5849,7 +5887,7 @@
         <v>181</v>
       </c>
       <c r="U23" s="16" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="V23" s="1"/>
       <c r="W23" s="34" t="s">
@@ -5872,41 +5910,39 @@
       </c>
       <c r="AC23" s="1"/>
       <c r="AD23" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="AE23" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="AF23" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="AG23" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="AH23" s="19"/>
+      <c r="AI23" s="61" t="s">
         <v>210</v>
-      </c>
-      <c r="AE23" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="AF23" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="AG23" s="19" t="s">
-        <v>301</v>
-      </c>
-      <c r="AH23" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="AI23" s="61" t="s">
-        <v>236</v>
       </c>
       <c r="AJ23" s="57"/>
       <c r="AK23" s="13">
         <v>0.01</v>
       </c>
       <c r="AM23" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="AN23" s="43" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="AO23" s="1" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="AP23" s="43" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="AQ23" s="1" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="AS23" t="s">
         <v>8</v>
@@ -5966,16 +6002,16 @@
         <v>103</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="G24" s="31" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="H24" s="31" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="I24" s="32" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="K24" s="31" t="s">
         <v>130</v>
@@ -5984,7 +6020,7 @@
         <v>157</v>
       </c>
       <c r="M24" s="31" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="N24" s="31"/>
       <c r="O24" s="38"/>
@@ -5995,7 +6031,7 @@
         <v>182</v>
       </c>
       <c r="U24" s="16" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="V24" s="1"/>
       <c r="W24" s="34" t="s">
@@ -6018,41 +6054,39 @@
       </c>
       <c r="AC24" s="1"/>
       <c r="AD24" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="AE24" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="AF24" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="AG24" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="AH24" s="19"/>
+      <c r="AI24" s="61" t="s">
         <v>211</v>
-      </c>
-      <c r="AE24" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="AF24" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="AG24" s="19" t="s">
-        <v>302</v>
-      </c>
-      <c r="AH24" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="AI24" s="61" t="s">
-        <v>237</v>
       </c>
       <c r="AJ24" s="57"/>
       <c r="AK24" s="13">
         <v>0.01</v>
       </c>
       <c r="AM24" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="AN24" s="43" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="AO24" s="1" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="AP24" s="43" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="AQ24" s="1" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="AS24" t="s">
         <v>8</v>
@@ -6112,16 +6146,16 @@
         <v>104</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="G25" s="31" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="H25" s="31" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="I25" s="32" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="K25" s="31" t="s">
         <v>131</v>
@@ -6130,7 +6164,7 @@
         <v>158</v>
       </c>
       <c r="M25" s="31" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="N25" s="31"/>
       <c r="O25" s="38"/>
@@ -6141,7 +6175,7 @@
         <v>183</v>
       </c>
       <c r="U25" s="16" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="V25" s="1"/>
       <c r="W25" s="34" t="s">
@@ -6164,41 +6198,39 @@
       </c>
       <c r="AC25" s="1"/>
       <c r="AD25" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="AE25" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="AF25" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="AG25" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="AH25" s="19"/>
+      <c r="AI25" s="61" t="s">
         <v>212</v>
-      </c>
-      <c r="AE25" s="19" t="s">
-        <v>267</v>
-      </c>
-      <c r="AF25" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="AG25" s="19" t="s">
-        <v>303</v>
-      </c>
-      <c r="AH25" s="19" t="s">
-        <v>267</v>
-      </c>
-      <c r="AI25" s="61" t="s">
-        <v>238</v>
       </c>
       <c r="AJ25" s="57"/>
       <c r="AK25" s="13">
         <v>0.01</v>
       </c>
       <c r="AM25" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="AN25" s="43" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="AO25" s="1" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="AP25" s="43" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="AQ25" s="1" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="AS25" t="s">
         <v>8</v>
@@ -6258,16 +6290,16 @@
         <v>105</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="G26" s="31" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="H26" s="31" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="I26" s="32" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="K26" s="31" t="s">
         <v>132</v>
@@ -6276,7 +6308,7 @@
         <v>159</v>
       </c>
       <c r="M26" s="31" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="N26" s="31"/>
       <c r="O26" s="38"/>
@@ -6287,7 +6319,7 @@
         <v>187</v>
       </c>
       <c r="U26" s="16" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="V26" s="1"/>
       <c r="W26" s="34" t="s">
@@ -6310,41 +6342,39 @@
       </c>
       <c r="AC26" s="1"/>
       <c r="AD26" s="19" t="s">
+        <v>304</v>
+      </c>
+      <c r="AE26" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="AF26" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="AG26" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="AH26" s="19"/>
+      <c r="AI26" s="61" t="s">
         <v>213</v>
-      </c>
-      <c r="AE26" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="AF26" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="AG26" s="19" t="s">
-        <v>304</v>
-      </c>
-      <c r="AH26" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="AI26" s="61" t="s">
-        <v>239</v>
       </c>
       <c r="AJ26" s="57"/>
       <c r="AK26" s="13">
         <v>0.01</v>
       </c>
       <c r="AM26" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="AN26" s="43" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="AO26" s="1" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="AP26" s="43" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="AQ26" s="1" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="AS26" t="s">
         <v>8</v>
@@ -6404,16 +6434,16 @@
         <v>106</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="G27" s="31" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="H27" s="31" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="I27" s="32" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="K27" s="31" t="s">
         <v>133</v>
@@ -6422,7 +6452,7 @@
         <v>160</v>
       </c>
       <c r="M27" s="31" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="N27" s="31"/>
       <c r="O27" s="38"/>
@@ -6433,7 +6463,7 @@
         <v>184</v>
       </c>
       <c r="U27" s="16" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="V27" s="1"/>
       <c r="W27" s="34" t="s">
@@ -6456,41 +6486,39 @@
       </c>
       <c r="AC27" s="1"/>
       <c r="AD27" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="AE27" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF27" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="AG27" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="AH27" s="19"/>
+      <c r="AI27" s="61" t="s">
         <v>214</v>
-      </c>
-      <c r="AE27" s="19" t="s">
-        <v>269</v>
-      </c>
-      <c r="AF27" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="AG27" s="19" t="s">
-        <v>305</v>
-      </c>
-      <c r="AH27" s="19" t="s">
-        <v>269</v>
-      </c>
-      <c r="AI27" s="61" t="s">
-        <v>240</v>
       </c>
       <c r="AJ27" s="57"/>
       <c r="AK27" s="13">
         <v>0.01</v>
       </c>
       <c r="AM27" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="AN27" s="43" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="AO27" s="1" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="AP27" s="43" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="AQ27" s="1" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="AS27" t="s">
         <v>8</v>
@@ -6550,16 +6578,16 @@
         <v>107</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="G28" s="31" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="H28" s="31" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="I28" s="32" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="K28" s="31" t="s">
         <v>134</v>
@@ -6568,7 +6596,7 @@
         <v>161</v>
       </c>
       <c r="M28" s="31" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="N28" s="31"/>
       <c r="O28" s="38"/>
@@ -6579,7 +6607,7 @@
         <v>188</v>
       </c>
       <c r="U28" s="16" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="V28" s="1"/>
       <c r="W28" s="34" t="s">
@@ -6602,41 +6630,39 @@
       </c>
       <c r="AC28" s="1"/>
       <c r="AD28" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="AE28" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="AF28" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="AG28" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="AH28" s="19"/>
+      <c r="AI28" s="61" t="s">
         <v>215</v>
-      </c>
-      <c r="AE28" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="AF28" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="AG28" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="AH28" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="AI28" s="61" t="s">
-        <v>241</v>
       </c>
       <c r="AJ28" s="57"/>
       <c r="AK28" s="13">
         <v>0.01</v>
       </c>
       <c r="AM28" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="AN28" s="43" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="AO28" s="1" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="AP28" s="43" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="AQ28" s="1" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="AS28" t="s">
         <v>8</v>
@@ -6696,16 +6722,16 @@
         <v>108</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="G29" s="31" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="H29" s="31" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="I29" s="32" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="K29" s="31" t="s">
         <v>135</v>
@@ -6714,7 +6740,7 @@
         <v>162</v>
       </c>
       <c r="M29" s="31" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="N29" s="31"/>
       <c r="O29" s="38"/>
@@ -6725,7 +6751,7 @@
         <v>189</v>
       </c>
       <c r="U29" s="16" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="V29" s="1"/>
       <c r="W29" s="34" t="s">
@@ -6748,41 +6774,39 @@
       </c>
       <c r="AC29" s="1"/>
       <c r="AD29" s="19" t="s">
-        <v>190</v>
+        <v>281</v>
       </c>
       <c r="AE29" s="19" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="AF29" s="19" t="s">
-        <v>215</v>
+        <v>332</v>
       </c>
       <c r="AG29" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="AH29" s="19" t="s">
-        <v>270</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="AH29" s="19"/>
       <c r="AI29" s="61" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="AJ29" s="57"/>
       <c r="AK29" s="13">
         <v>0.01</v>
       </c>
       <c r="AM29" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="AN29" s="43" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="AO29" s="1" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="AP29" s="43" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="AQ29" s="1" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="AS29" t="s">
         <v>8</v>

--- a/metadata/excel/projects/sinclair/testproj/metadata.xlsx
+++ b/metadata/excel/projects/sinclair/testproj/metadata.xlsx
@@ -9,17 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3140" yWindow="6940" windowWidth="36800" windowHeight="20260" tabRatio="500"/>
+    <workbookView xWindow="3140" yWindow="6940" windowWidth="31140" windowHeight="17620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="micans_v6_ex1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="LS - Personal View" guid="{06B92370-743D-804F-912C-658BE37B1274}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Kemal - Personal View" guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" mergeInterval="0" personalView="1" xWindow="184" yWindow="84" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Me - Personal View" guid="{22DA4066-82A0-D143-AA10-416CFBE3149D}" mergeInterval="0" personalView="1" xWindow="46" yWindow="23" windowWidth="1436" windowHeight="854" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
     <customWorkbookView name="Microsoft Office User - Personal View" guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Me - Personal View" guid="{22DA4066-82A0-D143-AA10-416CFBE3149D}" mergeInterval="0" personalView="1" xWindow="46" yWindow="23" windowWidth="1436" windowHeight="854" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
-    <customWorkbookView name="Kemal - Personal View" guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" mergeInterval="0" personalView="1" xWindow="184" yWindow="84" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="LS - Personal View" guid="{06B92370-743D-804F-912C-658BE37B1274}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="334">
   <si>
     <t>Country</t>
   </si>
@@ -1126,6 +1126,9 @@
   </si>
   <si>
     <t>Zr</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -2459,10 +2462,10 @@
   </sheetPr>
   <dimension ref="A1:BZ51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="X1" sqref="X1"/>
-      <selection pane="bottomLeft" activeCell="AH33" sqref="AH33"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2996,7 +2999,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>73</v>
+        <v>333</v>
       </c>
       <c r="D4" s="28" t="s">
         <v>83</v>
@@ -5564,7 +5567,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>73</v>
+        <v>333</v>
       </c>
       <c r="D21" s="28" t="s">
         <v>100</v>
@@ -6284,7 +6287,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>73</v>
+        <v>333</v>
       </c>
       <c r="D26" s="28" t="s">
         <v>105</v>
@@ -6572,7 +6575,7 @@
         <v>26</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>73</v>
+        <v>333</v>
       </c>
       <c r="D28" s="28" t="s">
         <v>107</v>
@@ -6716,7 +6719,7 @@
         <v>27</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>73</v>
+        <v>333</v>
       </c>
       <c r="D29" s="28" t="s">
         <v>108</v>
@@ -6919,9 +6922,19 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" topLeftCell="BD1">
-      <pane ySplit="2" topLeftCell="A273" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BG334" sqref="BG334"/>
+    <customSheetView guid="{06B92370-743D-804F-912C-658BE37B1274}" topLeftCell="X1">
+      <pane ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="AD344" sqref="AD344"/>
+      <rowBreaks count="2" manualBreakCount="2">
+        <brk id="1" max="16383" man="1"/>
+        <brk id="325" max="16383" man="1"/>
+      </rowBreaks>
+      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+    </customSheetView>
+    <customSheetView guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" topLeftCell="AP1">
+      <pane ySplit="2.03125" topLeftCell="A342" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BA367" sqref="BA367"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="1" max="16383" man="1"/>
         <brk id="325" max="16383" man="1"/>
@@ -6939,24 +6952,14 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" topLeftCell="AP1">
-      <pane ySplit="2.03125" topLeftCell="A342" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BA367" sqref="BA367"/>
+    <customSheetView guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" topLeftCell="BD1">
+      <pane ySplit="2" topLeftCell="A273" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BG334" sqref="BG334"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="1" max="16383" man="1"/>
         <brk id="325" max="16383" man="1"/>
       </rowBreaks>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-    </customSheetView>
-    <customSheetView guid="{06B92370-743D-804F-912C-658BE37B1274}" topLeftCell="X1">
-      <pane ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="AD344" sqref="AD344"/>
-      <rowBreaks count="2" manualBreakCount="2">
-        <brk id="1" max="16383" man="1"/>
-        <brk id="325" max="16383" man="1"/>
-      </rowBreaks>
-      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
   </customSheetViews>

--- a/metadata/excel/projects/sinclair/testproj/metadata.xlsx
+++ b/metadata/excel/projects/sinclair/testproj/metadata.xlsx
@@ -16,10 +16,10 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Microsoft Office User - Personal View" guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Me - Personal View" guid="{22DA4066-82A0-D143-AA10-416CFBE3149D}" mergeInterval="0" personalView="1" xWindow="46" yWindow="23" windowWidth="1436" windowHeight="854" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
+    <customWorkbookView name="Kemal - Personal View" guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" mergeInterval="0" personalView="1" xWindow="184" yWindow="84" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
     <customWorkbookView name="LS - Personal View" guid="{06B92370-743D-804F-912C-658BE37B1274}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Kemal - Personal View" guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" mergeInterval="0" personalView="1" xWindow="184" yWindow="84" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Me - Personal View" guid="{22DA4066-82A0-D143-AA10-416CFBE3149D}" mergeInterval="0" personalView="1" xWindow="46" yWindow="23" windowWidth="1436" windowHeight="854" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
-    <customWorkbookView name="Microsoft Office User - Personal View" guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="343">
   <si>
     <t>Country</t>
   </si>
@@ -1129,6 +1129,33 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>Custom grouping</t>
+  </si>
+  <si>
+    <t>Custom attribute</t>
+  </si>
+  <si>
+    <t>Replicate identification</t>
+  </si>
+  <si>
+    <t>Ashqelon</t>
+  </si>
+  <si>
+    <t>Proximal</t>
+  </si>
+  <si>
+    <t>Midway</t>
+  </si>
+  <si>
+    <t>Distant</t>
+  </si>
+  <si>
+    <t>Soreq</t>
+  </si>
+  <si>
+    <t>Hadera</t>
   </si>
 </sst>
 </file>
@@ -2460,12 +2487,12 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:BZ51"/>
+  <dimension ref="A1:CD51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="X1" sqref="X1"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3:C29"/>
+      <selection pane="bottomLeft" activeCell="V31" sqref="V31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2490,63 +2517,67 @@
     <col min="20" max="20" width="33" style="16" customWidth="1"/>
     <col min="21" max="21" width="32.5" style="16" customWidth="1"/>
     <col min="22" max="22" width="9.83203125" customWidth="1"/>
-    <col min="23" max="23" width="25.5" style="34" customWidth="1"/>
-    <col min="24" max="24" width="20.1640625" style="16" customWidth="1"/>
-    <col min="25" max="25" width="22" style="19" customWidth="1"/>
-    <col min="26" max="26" width="17.83203125" style="34" customWidth="1"/>
-    <col min="27" max="27" width="21.5" style="16" customWidth="1"/>
-    <col min="28" max="28" width="27.6640625" style="20" customWidth="1"/>
-    <col min="29" max="29" width="9.83203125" customWidth="1"/>
-    <col min="30" max="30" width="11" customWidth="1"/>
-    <col min="31" max="31" width="13.5" style="2" customWidth="1"/>
-    <col min="32" max="32" width="9.1640625" customWidth="1"/>
-    <col min="33" max="33" width="14.33203125" style="2" customWidth="1"/>
-    <col min="34" max="34" width="15.83203125" style="2" customWidth="1"/>
-    <col min="35" max="35" width="8.5" customWidth="1"/>
-    <col min="36" max="36" width="10.33203125" style="15" customWidth="1"/>
-    <col min="37" max="37" width="10.33203125" customWidth="1"/>
-    <col min="38" max="38" width="11.5" customWidth="1"/>
-    <col min="39" max="39" width="28.33203125" customWidth="1"/>
-    <col min="40" max="40" width="12.1640625" style="43" customWidth="1"/>
-    <col min="41" max="41" width="32.83203125" style="1" customWidth="1"/>
-    <col min="42" max="42" width="12.83203125" style="43" customWidth="1"/>
-    <col min="43" max="43" width="35.6640625" style="1" customWidth="1"/>
-    <col min="44" max="44" width="10.1640625" customWidth="1"/>
-    <col min="45" max="45" width="12.5" customWidth="1"/>
-    <col min="46" max="46" width="15" customWidth="1"/>
-    <col min="47" max="47" width="10.83203125" customWidth="1"/>
-    <col min="48" max="48" width="14" customWidth="1"/>
-    <col min="49" max="49" width="13.1640625" customWidth="1"/>
-    <col min="50" max="50" width="15.6640625" customWidth="1"/>
-    <col min="51" max="51" width="11.6640625" customWidth="1"/>
-    <col min="52" max="52" width="12.1640625" customWidth="1"/>
-    <col min="53" max="53" width="13" customWidth="1"/>
-    <col min="54" max="54" width="10.1640625" customWidth="1"/>
-    <col min="55" max="57" width="19.83203125" customWidth="1"/>
-    <col min="58" max="58" width="20.83203125" customWidth="1"/>
-    <col min="59" max="59" width="8.6640625" customWidth="1"/>
-    <col min="60" max="60" width="15.5" customWidth="1"/>
-    <col min="61" max="61" width="13.6640625" style="11" customWidth="1"/>
-    <col min="62" max="62" width="13.1640625" style="11" customWidth="1"/>
-    <col min="63" max="63" width="12.5" style="16" customWidth="1"/>
-    <col min="64" max="64" width="26" style="16" customWidth="1"/>
-    <col min="65" max="65" width="31.33203125" style="16" customWidth="1"/>
-    <col min="66" max="66" width="9" customWidth="1"/>
-    <col min="67" max="67" width="16.5" customWidth="1"/>
-    <col min="68" max="68" width="16" customWidth="1"/>
-    <col min="69" max="69" width="9.5" customWidth="1"/>
-    <col min="70" max="70" width="11" style="22" customWidth="1"/>
-    <col min="71" max="71" width="11.6640625" style="22" customWidth="1"/>
-    <col min="72" max="72" width="14.33203125" style="22" customWidth="1"/>
-    <col min="73" max="73" width="12.6640625" style="22" customWidth="1"/>
-    <col min="74" max="74" width="13.6640625" style="22" customWidth="1"/>
-    <col min="75" max="75" width="15.33203125" style="22" customWidth="1"/>
-    <col min="76" max="76" width="15.5" style="22" customWidth="1"/>
-    <col min="77" max="77" width="14.6640625" style="22" customWidth="1"/>
-    <col min="78" max="78" width="9.6640625" customWidth="1"/>
+    <col min="23" max="23" width="13.83203125" style="16" customWidth="1"/>
+    <col min="24" max="24" width="13.1640625" style="16" customWidth="1"/>
+    <col min="25" max="25" width="13.5" style="34" customWidth="1"/>
+    <col min="26" max="26" width="9.83203125" customWidth="1"/>
+    <col min="27" max="27" width="25.5" style="34" customWidth="1"/>
+    <col min="28" max="28" width="20.1640625" style="16" customWidth="1"/>
+    <col min="29" max="29" width="22" style="19" customWidth="1"/>
+    <col min="30" max="30" width="17.83203125" style="34" customWidth="1"/>
+    <col min="31" max="31" width="21.5" style="16" customWidth="1"/>
+    <col min="32" max="32" width="27.6640625" style="20" customWidth="1"/>
+    <col min="33" max="33" width="9.83203125" customWidth="1"/>
+    <col min="34" max="34" width="11" customWidth="1"/>
+    <col min="35" max="35" width="13.5" style="2" customWidth="1"/>
+    <col min="36" max="36" width="9.1640625" customWidth="1"/>
+    <col min="37" max="37" width="14.33203125" style="2" customWidth="1"/>
+    <col min="38" max="38" width="15.83203125" style="2" customWidth="1"/>
+    <col min="39" max="39" width="8.5" customWidth="1"/>
+    <col min="40" max="40" width="10.33203125" style="15" customWidth="1"/>
+    <col min="41" max="41" width="10.33203125" customWidth="1"/>
+    <col min="42" max="42" width="11.5" customWidth="1"/>
+    <col min="43" max="43" width="28.33203125" customWidth="1"/>
+    <col min="44" max="44" width="12.1640625" style="43" customWidth="1"/>
+    <col min="45" max="45" width="32.83203125" style="1" customWidth="1"/>
+    <col min="46" max="46" width="12.83203125" style="43" customWidth="1"/>
+    <col min="47" max="47" width="35.6640625" style="1" customWidth="1"/>
+    <col min="48" max="48" width="10.1640625" customWidth="1"/>
+    <col min="49" max="49" width="12.5" customWidth="1"/>
+    <col min="50" max="50" width="15" customWidth="1"/>
+    <col min="51" max="51" width="10.83203125" customWidth="1"/>
+    <col min="52" max="52" width="14" customWidth="1"/>
+    <col min="53" max="53" width="13.1640625" customWidth="1"/>
+    <col min="54" max="54" width="15.6640625" customWidth="1"/>
+    <col min="55" max="55" width="11.6640625" customWidth="1"/>
+    <col min="56" max="56" width="12.1640625" customWidth="1"/>
+    <col min="57" max="57" width="13" customWidth="1"/>
+    <col min="58" max="58" width="10.1640625" customWidth="1"/>
+    <col min="59" max="61" width="19.83203125" customWidth="1"/>
+    <col min="62" max="62" width="20.83203125" customWidth="1"/>
+    <col min="63" max="63" width="8.6640625" customWidth="1"/>
+    <col min="64" max="64" width="15.5" customWidth="1"/>
+    <col min="65" max="65" width="13.6640625" style="11" customWidth="1"/>
+    <col min="66" max="66" width="13.1640625" style="11" customWidth="1"/>
+    <col min="67" max="67" width="12.5" style="16" customWidth="1"/>
+    <col min="68" max="68" width="26" style="16" customWidth="1"/>
+    <col min="69" max="69" width="31.33203125" style="16" customWidth="1"/>
+    <col min="70" max="70" width="9" customWidth="1"/>
+    <col min="71" max="71" width="16.5" customWidth="1"/>
+    <col min="72" max="72" width="16" customWidth="1"/>
+    <col min="73" max="73" width="9.5" customWidth="1"/>
+    <col min="74" max="74" width="11" style="22" customWidth="1"/>
+    <col min="75" max="75" width="11.6640625" style="22" customWidth="1"/>
+    <col min="76" max="76" width="14.33203125" style="22" customWidth="1"/>
+    <col min="77" max="77" width="12.6640625" style="22" customWidth="1"/>
+    <col min="78" max="78" width="13.6640625" style="22" customWidth="1"/>
+    <col min="79" max="79" width="15.33203125" style="22" customWidth="1"/>
+    <col min="80" max="80" width="15.5" style="22" customWidth="1"/>
+    <col min="81" max="81" width="14.6640625" style="22" customWidth="1"/>
+    <col min="82" max="82" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>49</v>
       </c>
@@ -2567,64 +2598,67 @@
       <c r="R1" s="6"/>
       <c r="T1" s="6"/>
       <c r="U1" s="17"/>
-      <c r="W1" s="33"/>
+      <c r="W1" s="17"/>
       <c r="X1" s="17"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="3"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="5"/>
+      <c r="Y1" s="35"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="17"/>
       <c r="AF1" s="3"/>
-      <c r="AG1" s="5"/>
-      <c r="AH1" s="5"/>
-      <c r="AI1" s="3"/>
-      <c r="AJ1" s="14"/>
-      <c r="AK1" s="3"/>
-      <c r="AM1" s="8"/>
-      <c r="AN1" s="27"/>
-      <c r="AO1" s="9"/>
-      <c r="AP1" s="27"/>
-      <c r="AQ1" s="7"/>
-      <c r="AS1" s="3"/>
-      <c r="AT1" s="3"/>
-      <c r="AU1" s="3"/>
-      <c r="AV1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="5"/>
+      <c r="AL1" s="5"/>
+      <c r="AM1" s="3"/>
+      <c r="AN1" s="14"/>
+      <c r="AO1" s="3"/>
+      <c r="AQ1" s="8"/>
+      <c r="AR1" s="27"/>
+      <c r="AS1" s="9"/>
+      <c r="AT1" s="27"/>
+      <c r="AU1" s="7"/>
       <c r="AW1" s="3"/>
       <c r="AX1" s="3"/>
       <c r="AY1" s="3"/>
       <c r="AZ1" s="3"/>
-      <c r="BA1" s="10"/>
-      <c r="BC1" s="62" t="s">
+      <c r="BA1" s="3"/>
+      <c r="BB1" s="3"/>
+      <c r="BC1" s="3"/>
+      <c r="BD1" s="3"/>
+      <c r="BE1" s="10"/>
+      <c r="BG1" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="BD1" s="62"/>
-      <c r="BE1" s="62"/>
-      <c r="BF1" s="62"/>
-      <c r="BH1" s="62" t="s">
-        <v>52</v>
-      </c>
+      <c r="BH1" s="62"/>
       <c r="BI1" s="62"/>
       <c r="BJ1" s="62"/>
-      <c r="BK1" s="62"/>
-      <c r="BL1" s="62"/>
+      <c r="BL1" s="62" t="s">
+        <v>52</v>
+      </c>
       <c r="BM1" s="62"/>
-      <c r="BO1" s="62" t="s">
+      <c r="BN1" s="62"/>
+      <c r="BO1" s="62"/>
+      <c r="BP1" s="62"/>
+      <c r="BQ1" s="62"/>
+      <c r="BS1" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="62"/>
-      <c r="BR1" s="8" t="s">
+      <c r="BT1" s="62"/>
+      <c r="BV1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="BS1" s="21"/>
-      <c r="BT1" s="21"/>
-      <c r="BU1" s="21"/>
-      <c r="BV1" s="21"/>
       <c r="BW1" s="21"/>
       <c r="BX1" s="21"/>
       <c r="BY1" s="21"/>
+      <c r="BZ1" s="21"/>
+      <c r="CA1" s="21"/>
+      <c r="CB1" s="21"/>
+      <c r="CC1" s="21"/>
     </row>
-    <row r="2" spans="1:78" s="54" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:82" s="54" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="44" t="s">
         <v>49</v>
       </c>
@@ -2684,161 +2718,171 @@
       </c>
       <c r="V2" s="46"/>
       <c r="W2" s="44" t="s">
+        <v>334</v>
+      </c>
+      <c r="X2" s="44" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y2" s="44" t="s">
+        <v>336</v>
+      </c>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="X2" s="44" t="s">
+      <c r="AB2" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="Y2" s="44" t="s">
+      <c r="AC2" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="Z2" s="44" t="s">
+      <c r="AD2" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="AA2" s="44" t="s">
+      <c r="AE2" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="44" t="s">
+      <c r="AF2" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="44" t="s">
+      <c r="AG2" s="46"/>
+      <c r="AH2" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="44" t="s">
+      <c r="AI2" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="AF2" s="44" t="s">
+      <c r="AJ2" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="AG2" s="44" t="s">
+      <c r="AK2" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="AH2" s="44" t="s">
+      <c r="AL2" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="AI2" s="44" t="s">
+      <c r="AM2" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="AJ2" s="48" t="s">
+      <c r="AN2" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="AK2" s="44" t="s">
+      <c r="AO2" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="AL2" s="46"/>
-      <c r="AM2" s="44" t="s">
+      <c r="AP2" s="46"/>
+      <c r="AQ2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="AN2" s="44" t="s">
+      <c r="AR2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="AO2" s="44" t="s">
+      <c r="AS2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="AP2" s="44" t="s">
+      <c r="AT2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="AQ2" s="44" t="s">
+      <c r="AU2" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="AR2" s="49"/>
-      <c r="AS2" s="44" t="s">
+      <c r="AV2" s="49"/>
+      <c r="AW2" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="AT2" s="44" t="s">
+      <c r="AX2" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="AU2" s="44" t="s">
+      <c r="AY2" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="AV2" s="44" t="s">
+      <c r="AZ2" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="AW2" s="44" t="s">
+      <c r="BA2" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="AX2" s="44" t="s">
+      <c r="BB2" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="AY2" s="44" t="s">
+      <c r="BC2" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="AZ2" s="44" t="s">
+      <c r="BD2" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="BA2" s="44" t="s">
+      <c r="BE2" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="BB2" s="49"/>
-      <c r="BC2" s="50" t="s">
+      <c r="BF2" s="49"/>
+      <c r="BG2" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="BD2" s="50" t="s">
+      <c r="BH2" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="BE2" s="50" t="s">
+      <c r="BI2" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="BF2" s="50" t="s">
+      <c r="BJ2" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="BG2" s="49"/>
-      <c r="BH2" s="51" t="s">
+      <c r="BK2" s="49"/>
+      <c r="BL2" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="BI2" s="51" t="s">
+      <c r="BM2" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="BJ2" s="51" t="s">
+      <c r="BN2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="BK2" s="51" t="s">
+      <c r="BO2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="BL2" s="51" t="s">
+      <c r="BP2" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="BM2" s="51" t="s">
+      <c r="BQ2" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="BN2" s="49"/>
-      <c r="BO2" s="52" t="s">
+      <c r="BR2" s="49"/>
+      <c r="BS2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="BP2" s="52" t="s">
+      <c r="BT2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="BQ2" s="49"/>
-      <c r="BR2" s="53" t="s">
+      <c r="BU2" s="49"/>
+      <c r="BV2" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="BS2" s="53" t="s">
+      <c r="BW2" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="BT2" s="53" t="s">
+      <c r="BX2" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="BU2" s="53" t="s">
+      <c r="BY2" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="BV2" s="53" t="s">
+      <c r="BZ2" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="BW2" s="53" t="s">
+      <c r="CA2" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="BX2" s="53" t="s">
+      <c r="CB2" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="BY2" s="53" t="s">
+      <c r="CC2" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="BZ2" s="49"/>
+      <c r="CD2" s="49"/>
     </row>
-    <row r="3" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
-        <f t="shared" ref="A3:A29" si="0">COUNTIF(D3,"&lt;&gt;"&amp;"")+COUNTIF(BM3,"&lt;&gt;"&amp;"")</f>
+        <f>COUNTIF(D3,"&lt;&gt;"&amp;"")+COUNTIF(BQ3,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B3" s="23">
@@ -2888,111 +2932,121 @@
         <v>254</v>
       </c>
       <c r="V3" s="1"/>
-      <c r="W3" s="34" t="s">
+      <c r="W3" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="X3" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y3" s="34">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X3" s="16" t="s">
+      <c r="AB3" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y3" s="58" t="s">
+      <c r="AC3" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="Z3" s="34" t="s">
+      <c r="AD3" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA3" s="16" t="s">
+      <c r="AE3" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB3" s="58" t="s">
+      <c r="AF3" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AG3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD3" s="19" t="s">
+      <c r="AH3" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="AE3" s="19" t="s">
+      <c r="AI3" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="AF3" s="19" t="s">
+      <c r="AJ3" s="19" t="s">
         <v>307</v>
       </c>
-      <c r="AG3" s="19" t="s">
+      <c r="AK3" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="AH3" s="19"/>
-      <c r="AI3" s="61" t="s">
+      <c r="AL3" s="19"/>
+      <c r="AM3" s="61" t="s">
         <v>190</v>
       </c>
-      <c r="AJ3" s="57"/>
-      <c r="AK3" s="13">
+      <c r="AN3" s="57"/>
+      <c r="AO3" s="13">
         <v>0.01</v>
       </c>
-      <c r="AM3" t="s">
+      <c r="AQ3" t="s">
         <v>249</v>
       </c>
-      <c r="AN3" s="43" t="s">
+      <c r="AR3" s="43" t="s">
         <v>247</v>
       </c>
-      <c r="AO3" s="1" t="s">
+      <c r="AS3" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AP3" s="43" t="s">
+      <c r="AT3" s="43" t="s">
         <v>248</v>
       </c>
-      <c r="AQ3" s="1" t="s">
+      <c r="AU3" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="AR3" t="s">
+      <c r="AV3" t="s">
         <v>49</v>
       </c>
-      <c r="AS3" t="s">
+      <c r="AW3" t="s">
         <v>8</v>
       </c>
-      <c r="AT3" t="s">
+      <c r="AX3" t="s">
         <v>9</v>
       </c>
-      <c r="AU3" t="s">
+      <c r="AY3" t="s">
         <v>10</v>
       </c>
-      <c r="AV3" t="s">
+      <c r="AZ3" t="s">
         <v>67</v>
       </c>
-      <c r="AW3" t="s">
+      <c r="BA3" t="s">
         <v>11</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="BB3" t="s">
         <v>76</v>
       </c>
-      <c r="AZ3">
-        <v>250</v>
-      </c>
-      <c r="BA3">
-        <v>250</v>
-      </c>
-      <c r="BC3" s="59"/>
-      <c r="BD3" s="59"/>
-      <c r="BE3" s="59"/>
-      <c r="BF3" s="59"/>
-      <c r="BH3" s="25"/>
-      <c r="BI3" s="26"/>
-      <c r="BJ3" s="26"/>
-      <c r="BK3"/>
-      <c r="BL3"/>
+      <c r="BD3">
+        <v>250</v>
+      </c>
+      <c r="BE3">
+        <v>250</v>
+      </c>
+      <c r="BG3" s="59"/>
+      <c r="BH3" s="59"/>
+      <c r="BI3" s="59"/>
+      <c r="BJ3" s="59"/>
+      <c r="BL3" s="25"/>
       <c r="BM3" s="26"/>
-      <c r="BR3"/>
-      <c r="BS3"/>
-      <c r="BT3"/>
-      <c r="BU3"/>
+      <c r="BN3" s="26"/>
+      <c r="BO3"/>
+      <c r="BP3"/>
+      <c r="BQ3" s="26"/>
       <c r="BV3"/>
       <c r="BW3"/>
       <c r="BX3"/>
       <c r="BY3"/>
+      <c r="BZ3"/>
+      <c r="CA3"/>
+      <c r="CB3"/>
+      <c r="CC3"/>
     </row>
-    <row r="4" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D4,"&lt;&gt;"&amp;"")+COUNTIF(BQ4,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B4" s="23">
@@ -3042,111 +3096,121 @@
         <v>254</v>
       </c>
       <c r="V4" s="1"/>
-      <c r="W4" s="34" t="s">
+      <c r="W4" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="X4" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y4" s="34">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X4" s="16" t="s">
+      <c r="AB4" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y4" s="58" t="s">
+      <c r="AC4" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="Z4" s="34" t="s">
+      <c r="AD4" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA4" s="16" t="s">
+      <c r="AE4" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB4" s="58" t="s">
+      <c r="AF4" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="AC4" s="1" t="s">
+      <c r="AG4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD4" s="19" t="s">
+      <c r="AH4" s="19" t="s">
         <v>282</v>
       </c>
-      <c r="AE4" s="19" t="s">
+      <c r="AI4" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="AF4" s="19" t="s">
+      <c r="AJ4" s="19" t="s">
         <v>308</v>
       </c>
-      <c r="AG4" s="19" t="s">
+      <c r="AK4" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="AH4" s="19"/>
-      <c r="AI4" s="61" t="s">
+      <c r="AL4" s="19"/>
+      <c r="AM4" s="61" t="s">
         <v>191</v>
       </c>
-      <c r="AJ4" s="57"/>
-      <c r="AK4" s="13">
+      <c r="AN4" s="57"/>
+      <c r="AO4" s="13">
         <v>0.01</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AQ4" t="s">
         <v>249</v>
       </c>
-      <c r="AN4" s="43" t="s">
+      <c r="AR4" s="43" t="s">
         <v>247</v>
       </c>
-      <c r="AO4" s="1" t="s">
+      <c r="AS4" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AP4" s="43" t="s">
+      <c r="AT4" s="43" t="s">
         <v>248</v>
       </c>
-      <c r="AQ4" s="1" t="s">
+      <c r="AU4" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="AR4" t="s">
+      <c r="AV4" t="s">
         <v>49</v>
       </c>
-      <c r="AS4" t="s">
+      <c r="AW4" t="s">
         <v>8</v>
       </c>
-      <c r="AT4" t="s">
+      <c r="AX4" t="s">
         <v>9</v>
       </c>
-      <c r="AU4" t="s">
+      <c r="AY4" t="s">
         <v>10</v>
       </c>
-      <c r="AV4" t="s">
+      <c r="AZ4" t="s">
         <v>67</v>
       </c>
-      <c r="AW4" t="s">
+      <c r="BA4" t="s">
         <v>11</v>
       </c>
-      <c r="AX4" t="s">
+      <c r="BB4" t="s">
         <v>76</v>
       </c>
-      <c r="AZ4">
-        <v>250</v>
-      </c>
-      <c r="BA4">
-        <v>250</v>
-      </c>
-      <c r="BC4" s="59"/>
-      <c r="BD4" s="59"/>
-      <c r="BE4" s="59"/>
-      <c r="BF4" s="59"/>
-      <c r="BH4" s="25"/>
-      <c r="BI4" s="26"/>
-      <c r="BJ4" s="26"/>
-      <c r="BK4"/>
-      <c r="BL4"/>
+      <c r="BD4">
+        <v>250</v>
+      </c>
+      <c r="BE4">
+        <v>250</v>
+      </c>
+      <c r="BG4" s="59"/>
+      <c r="BH4" s="59"/>
+      <c r="BI4" s="59"/>
+      <c r="BJ4" s="59"/>
+      <c r="BL4" s="25"/>
       <c r="BM4" s="26"/>
-      <c r="BR4"/>
-      <c r="BS4"/>
-      <c r="BT4"/>
-      <c r="BU4"/>
+      <c r="BN4" s="26"/>
+      <c r="BO4"/>
+      <c r="BP4"/>
+      <c r="BQ4" s="26"/>
       <c r="BV4"/>
       <c r="BW4"/>
       <c r="BX4"/>
       <c r="BY4"/>
+      <c r="BZ4"/>
+      <c r="CA4"/>
+      <c r="CB4"/>
+      <c r="CC4"/>
     </row>
-    <row r="5" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D5,"&lt;&gt;"&amp;"")+COUNTIF(BQ5,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B5" s="23">
@@ -3196,111 +3260,121 @@
         <v>254</v>
       </c>
       <c r="V5" s="1"/>
-      <c r="W5" s="34" t="s">
+      <c r="W5" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="X5" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y5" s="34">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X5" s="16" t="s">
+      <c r="AB5" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y5" s="58" t="s">
+      <c r="AC5" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="Z5" s="34" t="s">
+      <c r="AD5" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA5" s="16" t="s">
+      <c r="AE5" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB5" s="58" t="s">
+      <c r="AF5" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="AC5" s="1" t="s">
+      <c r="AG5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD5" s="19" t="s">
+      <c r="AH5" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="AE5" s="19" t="s">
+      <c r="AI5" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="AF5" s="19" t="s">
+      <c r="AJ5" s="19" t="s">
         <v>309</v>
       </c>
-      <c r="AG5" s="19" t="s">
+      <c r="AK5" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="AH5" s="19"/>
-      <c r="AI5" s="61" t="s">
+      <c r="AL5" s="19"/>
+      <c r="AM5" s="61" t="s">
         <v>192</v>
       </c>
-      <c r="AJ5"/>
-      <c r="AK5" s="13">
+      <c r="AN5"/>
+      <c r="AO5" s="13">
         <v>0.01</v>
       </c>
-      <c r="AM5" t="s">
+      <c r="AQ5" t="s">
         <v>249</v>
       </c>
-      <c r="AN5" s="43" t="s">
+      <c r="AR5" s="43" t="s">
         <v>247</v>
       </c>
-      <c r="AO5" s="1" t="s">
+      <c r="AS5" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AP5" s="43" t="s">
+      <c r="AT5" s="43" t="s">
         <v>248</v>
       </c>
-      <c r="AQ5" s="1" t="s">
+      <c r="AU5" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="AR5" t="s">
+      <c r="AV5" t="s">
         <v>49</v>
       </c>
-      <c r="AS5" t="s">
+      <c r="AW5" t="s">
         <v>8</v>
       </c>
-      <c r="AT5" t="s">
+      <c r="AX5" t="s">
         <v>9</v>
       </c>
-      <c r="AU5" t="s">
+      <c r="AY5" t="s">
         <v>10</v>
       </c>
-      <c r="AV5" t="s">
+      <c r="AZ5" t="s">
         <v>67</v>
       </c>
-      <c r="AW5" t="s">
+      <c r="BA5" t="s">
         <v>11</v>
       </c>
-      <c r="AX5" t="s">
+      <c r="BB5" t="s">
         <v>76</v>
       </c>
-      <c r="AZ5">
-        <v>250</v>
-      </c>
-      <c r="BA5">
-        <v>250</v>
-      </c>
-      <c r="BC5" s="59"/>
-      <c r="BD5" s="59"/>
-      <c r="BE5" s="59"/>
-      <c r="BF5" s="59"/>
-      <c r="BH5" s="25"/>
-      <c r="BI5" s="26"/>
-      <c r="BJ5" s="26"/>
-      <c r="BK5"/>
-      <c r="BL5"/>
+      <c r="BD5">
+        <v>250</v>
+      </c>
+      <c r="BE5">
+        <v>250</v>
+      </c>
+      <c r="BG5" s="59"/>
+      <c r="BH5" s="59"/>
+      <c r="BI5" s="59"/>
+      <c r="BJ5" s="59"/>
+      <c r="BL5" s="25"/>
       <c r="BM5" s="26"/>
-      <c r="BR5"/>
-      <c r="BS5"/>
-      <c r="BT5"/>
-      <c r="BU5"/>
+      <c r="BN5" s="26"/>
+      <c r="BO5"/>
+      <c r="BP5"/>
+      <c r="BQ5" s="26"/>
       <c r="BV5"/>
       <c r="BW5"/>
       <c r="BX5"/>
       <c r="BY5"/>
+      <c r="BZ5"/>
+      <c r="CA5"/>
+      <c r="CB5"/>
+      <c r="CC5"/>
     </row>
-    <row r="6" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D6,"&lt;&gt;"&amp;"")+COUNTIF(BQ6,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B6" s="23">
@@ -3350,111 +3424,121 @@
         <v>254</v>
       </c>
       <c r="V6" s="1"/>
-      <c r="W6" s="34" t="s">
+      <c r="W6" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="X6" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y6" s="34">
+        <v>2</v>
+      </c>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X6" s="16" t="s">
+      <c r="AB6" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y6" s="58" t="s">
+      <c r="AC6" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="Z6" s="34" t="s">
+      <c r="AD6" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA6" s="16" t="s">
+      <c r="AE6" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB6" s="58" t="s">
+      <c r="AF6" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="AC6" s="1" t="s">
+      <c r="AG6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD6" s="19" t="s">
+      <c r="AH6" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="AE6" s="19" t="s">
+      <c r="AI6" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="AF6" s="19" t="s">
+      <c r="AJ6" s="19" t="s">
         <v>310</v>
       </c>
-      <c r="AG6" s="19" t="s">
+      <c r="AK6" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="AH6" s="19"/>
-      <c r="AI6" s="61" t="s">
+      <c r="AL6" s="19"/>
+      <c r="AM6" s="61" t="s">
         <v>193</v>
       </c>
-      <c r="AJ6" s="57"/>
-      <c r="AK6" s="13">
+      <c r="AN6" s="57"/>
+      <c r="AO6" s="13">
         <v>0.01</v>
       </c>
-      <c r="AM6" t="s">
+      <c r="AQ6" t="s">
         <v>249</v>
       </c>
-      <c r="AN6" s="43" t="s">
+      <c r="AR6" s="43" t="s">
         <v>247</v>
       </c>
-      <c r="AO6" s="1" t="s">
+      <c r="AS6" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AP6" s="43" t="s">
+      <c r="AT6" s="43" t="s">
         <v>248</v>
       </c>
-      <c r="AQ6" s="1" t="s">
+      <c r="AU6" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="AR6" t="s">
+      <c r="AV6" t="s">
         <v>49</v>
       </c>
-      <c r="AS6" t="s">
+      <c r="AW6" t="s">
         <v>8</v>
       </c>
-      <c r="AT6" t="s">
+      <c r="AX6" t="s">
         <v>9</v>
       </c>
-      <c r="AU6" t="s">
+      <c r="AY6" t="s">
         <v>10</v>
       </c>
-      <c r="AV6" t="s">
+      <c r="AZ6" t="s">
         <v>67</v>
       </c>
-      <c r="AW6" t="s">
+      <c r="BA6" t="s">
         <v>11</v>
       </c>
-      <c r="AX6" t="s">
+      <c r="BB6" t="s">
         <v>76</v>
       </c>
-      <c r="AZ6">
-        <v>250</v>
-      </c>
-      <c r="BA6">
-        <v>250</v>
-      </c>
-      <c r="BC6" s="59"/>
-      <c r="BD6" s="59"/>
-      <c r="BE6" s="59"/>
-      <c r="BF6" s="59"/>
-      <c r="BH6" s="25"/>
-      <c r="BI6" s="26"/>
-      <c r="BJ6" s="26"/>
-      <c r="BK6"/>
-      <c r="BL6"/>
+      <c r="BD6">
+        <v>250</v>
+      </c>
+      <c r="BE6">
+        <v>250</v>
+      </c>
+      <c r="BG6" s="59"/>
+      <c r="BH6" s="59"/>
+      <c r="BI6" s="59"/>
+      <c r="BJ6" s="59"/>
+      <c r="BL6" s="25"/>
       <c r="BM6" s="26"/>
-      <c r="BR6"/>
-      <c r="BS6"/>
-      <c r="BT6"/>
-      <c r="BU6"/>
+      <c r="BN6" s="26"/>
+      <c r="BO6"/>
+      <c r="BP6"/>
+      <c r="BQ6" s="26"/>
       <c r="BV6"/>
       <c r="BW6"/>
       <c r="BX6"/>
       <c r="BY6"/>
+      <c r="BZ6"/>
+      <c r="CA6"/>
+      <c r="CB6"/>
+      <c r="CC6"/>
     </row>
-    <row r="7" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D7,"&lt;&gt;"&amp;"")+COUNTIF(BQ7,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B7" s="23">
@@ -3504,111 +3588,121 @@
         <v>254</v>
       </c>
       <c r="V7" s="1"/>
-      <c r="W7" s="34" t="s">
+      <c r="W7" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="X7" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y7" s="34">
+        <v>2</v>
+      </c>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X7" s="16" t="s">
+      <c r="AB7" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y7" s="58" t="s">
+      <c r="AC7" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="Z7" s="34" t="s">
+      <c r="AD7" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA7" s="16" t="s">
+      <c r="AE7" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB7" s="58" t="s">
+      <c r="AF7" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="AC7" s="1" t="s">
+      <c r="AG7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD7" s="19" t="s">
+      <c r="AH7" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="AE7" s="19" t="s">
+      <c r="AI7" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="AF7" s="19" t="s">
+      <c r="AJ7" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="AG7" s="19" t="s">
+      <c r="AK7" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="AH7" s="19"/>
-      <c r="AI7" s="61" t="s">
+      <c r="AL7" s="19"/>
+      <c r="AM7" s="61" t="s">
         <v>194</v>
       </c>
-      <c r="AJ7" s="57"/>
-      <c r="AK7" s="13">
+      <c r="AN7" s="57"/>
+      <c r="AO7" s="13">
         <v>0.01</v>
       </c>
-      <c r="AM7" t="s">
+      <c r="AQ7" t="s">
         <v>249</v>
       </c>
-      <c r="AN7" s="43" t="s">
+      <c r="AR7" s="43" t="s">
         <v>247</v>
       </c>
-      <c r="AO7" s="1" t="s">
+      <c r="AS7" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AP7" s="43" t="s">
+      <c r="AT7" s="43" t="s">
         <v>248</v>
       </c>
-      <c r="AQ7" s="1" t="s">
+      <c r="AU7" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="AR7" t="s">
+      <c r="AV7" t="s">
         <v>49</v>
       </c>
-      <c r="AS7" t="s">
+      <c r="AW7" t="s">
         <v>8</v>
       </c>
-      <c r="AT7" t="s">
+      <c r="AX7" t="s">
         <v>9</v>
       </c>
-      <c r="AU7" t="s">
+      <c r="AY7" t="s">
         <v>10</v>
       </c>
-      <c r="AV7" t="s">
+      <c r="AZ7" t="s">
         <v>67</v>
       </c>
-      <c r="AW7" t="s">
+      <c r="BA7" t="s">
         <v>11</v>
       </c>
-      <c r="AX7" t="s">
+      <c r="BB7" t="s">
         <v>76</v>
       </c>
-      <c r="AZ7">
-        <v>250</v>
-      </c>
-      <c r="BA7">
-        <v>250</v>
-      </c>
-      <c r="BC7" s="59"/>
-      <c r="BD7" s="59"/>
-      <c r="BE7" s="59"/>
-      <c r="BF7" s="59"/>
-      <c r="BH7" s="25"/>
-      <c r="BI7" s="26"/>
-      <c r="BJ7" s="26"/>
-      <c r="BK7"/>
-      <c r="BL7"/>
+      <c r="BD7">
+        <v>250</v>
+      </c>
+      <c r="BE7">
+        <v>250</v>
+      </c>
+      <c r="BG7" s="59"/>
+      <c r="BH7" s="59"/>
+      <c r="BI7" s="59"/>
+      <c r="BJ7" s="59"/>
+      <c r="BL7" s="25"/>
       <c r="BM7" s="26"/>
-      <c r="BR7"/>
-      <c r="BS7"/>
-      <c r="BT7"/>
-      <c r="BU7"/>
+      <c r="BN7" s="26"/>
+      <c r="BO7"/>
+      <c r="BP7"/>
+      <c r="BQ7" s="26"/>
       <c r="BV7"/>
       <c r="BW7"/>
       <c r="BX7"/>
       <c r="BY7"/>
+      <c r="BZ7"/>
+      <c r="CA7"/>
+      <c r="CB7"/>
+      <c r="CC7"/>
     </row>
-    <row r="8" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D8,"&lt;&gt;"&amp;"")+COUNTIF(BQ8,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B8" s="23">
@@ -3658,111 +3752,121 @@
         <v>254</v>
       </c>
       <c r="V8" s="1"/>
-      <c r="W8" s="34" t="s">
+      <c r="W8" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="X8" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y8" s="34">
+        <v>2</v>
+      </c>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X8" s="16" t="s">
+      <c r="AB8" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y8" s="58" t="s">
+      <c r="AC8" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="Z8" s="34" t="s">
+      <c r="AD8" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA8" s="16" t="s">
+      <c r="AE8" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB8" s="58" t="s">
+      <c r="AF8" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="AC8" s="1" t="s">
+      <c r="AG8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD8" s="19" t="s">
+      <c r="AH8" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="AE8" s="19" t="s">
+      <c r="AI8" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="AF8" s="19" t="s">
+      <c r="AJ8" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="AG8" s="19" t="s">
+      <c r="AK8" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="AH8" s="19"/>
-      <c r="AI8" s="61" t="s">
+      <c r="AL8" s="19"/>
+      <c r="AM8" s="61" t="s">
         <v>195</v>
       </c>
-      <c r="AJ8" s="57"/>
-      <c r="AK8" s="13">
+      <c r="AN8" s="57"/>
+      <c r="AO8" s="13">
         <v>0.01</v>
       </c>
-      <c r="AM8" t="s">
+      <c r="AQ8" t="s">
         <v>249</v>
       </c>
-      <c r="AN8" s="43" t="s">
+      <c r="AR8" s="43" t="s">
         <v>247</v>
       </c>
-      <c r="AO8" s="1" t="s">
+      <c r="AS8" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AP8" s="43" t="s">
+      <c r="AT8" s="43" t="s">
         <v>248</v>
       </c>
-      <c r="AQ8" s="1" t="s">
+      <c r="AU8" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="AR8" t="s">
+      <c r="AV8" t="s">
         <v>49</v>
       </c>
-      <c r="AS8" t="s">
+      <c r="AW8" t="s">
         <v>8</v>
       </c>
-      <c r="AT8" t="s">
+      <c r="AX8" t="s">
         <v>9</v>
       </c>
-      <c r="AU8" t="s">
+      <c r="AY8" t="s">
         <v>10</v>
       </c>
-      <c r="AV8" t="s">
+      <c r="AZ8" t="s">
         <v>67</v>
       </c>
-      <c r="AW8" t="s">
+      <c r="BA8" t="s">
         <v>11</v>
       </c>
-      <c r="AX8" t="s">
+      <c r="BB8" t="s">
         <v>76</v>
       </c>
-      <c r="AZ8">
-        <v>250</v>
-      </c>
-      <c r="BA8">
-        <v>250</v>
-      </c>
-      <c r="BC8" s="59"/>
-      <c r="BD8" s="59"/>
-      <c r="BE8" s="59"/>
-      <c r="BF8" s="59"/>
-      <c r="BH8" s="25"/>
-      <c r="BI8" s="26"/>
-      <c r="BJ8" s="26"/>
-      <c r="BK8"/>
-      <c r="BL8"/>
+      <c r="BD8">
+        <v>250</v>
+      </c>
+      <c r="BE8">
+        <v>250</v>
+      </c>
+      <c r="BG8" s="59"/>
+      <c r="BH8" s="59"/>
+      <c r="BI8" s="59"/>
+      <c r="BJ8" s="59"/>
+      <c r="BL8" s="25"/>
       <c r="BM8" s="26"/>
-      <c r="BR8"/>
-      <c r="BS8"/>
-      <c r="BT8"/>
-      <c r="BU8"/>
+      <c r="BN8" s="26"/>
+      <c r="BO8"/>
+      <c r="BP8"/>
+      <c r="BQ8" s="26"/>
       <c r="BV8"/>
       <c r="BW8"/>
       <c r="BX8"/>
       <c r="BY8"/>
+      <c r="BZ8"/>
+      <c r="CA8"/>
+      <c r="CB8"/>
+      <c r="CC8"/>
     </row>
-    <row r="9" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D9,"&lt;&gt;"&amp;"")+COUNTIF(BQ9,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B9" s="23">
@@ -3812,111 +3916,121 @@
         <v>254</v>
       </c>
       <c r="V9" s="1"/>
-      <c r="W9" s="34" t="s">
+      <c r="W9" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="X9" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y9" s="34">
+        <v>3</v>
+      </c>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X9" s="16" t="s">
+      <c r="AB9" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y9" s="58" t="s">
+      <c r="AC9" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="Z9" s="34" t="s">
+      <c r="AD9" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA9" s="16" t="s">
+      <c r="AE9" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB9" s="58" t="s">
+      <c r="AF9" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="AC9" s="1" t="s">
+      <c r="AG9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD9" s="19" t="s">
+      <c r="AH9" s="19" t="s">
         <v>287</v>
       </c>
-      <c r="AE9" s="19" t="s">
+      <c r="AI9" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="AF9" s="19" t="s">
+      <c r="AJ9" s="19" t="s">
         <v>313</v>
       </c>
-      <c r="AG9" s="19" t="s">
+      <c r="AK9" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="AH9" s="19"/>
-      <c r="AI9" s="61" t="s">
+      <c r="AL9" s="19"/>
+      <c r="AM9" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="AJ9" s="57"/>
-      <c r="AK9" s="13">
+      <c r="AN9" s="57"/>
+      <c r="AO9" s="13">
         <v>0.01</v>
       </c>
-      <c r="AM9" t="s">
+      <c r="AQ9" t="s">
         <v>249</v>
       </c>
-      <c r="AN9" s="43" t="s">
+      <c r="AR9" s="43" t="s">
         <v>247</v>
       </c>
-      <c r="AO9" s="1" t="s">
+      <c r="AS9" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AP9" s="43" t="s">
+      <c r="AT9" s="43" t="s">
         <v>248</v>
       </c>
-      <c r="AQ9" s="1" t="s">
+      <c r="AU9" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="AR9" t="s">
+      <c r="AV9" t="s">
         <v>49</v>
       </c>
-      <c r="AS9" t="s">
+      <c r="AW9" t="s">
         <v>8</v>
       </c>
-      <c r="AT9" t="s">
+      <c r="AX9" t="s">
         <v>9</v>
       </c>
-      <c r="AU9" t="s">
+      <c r="AY9" t="s">
         <v>10</v>
       </c>
-      <c r="AV9" t="s">
+      <c r="AZ9" t="s">
         <v>67</v>
       </c>
-      <c r="AW9" t="s">
+      <c r="BA9" t="s">
         <v>11</v>
       </c>
-      <c r="AX9" t="s">
+      <c r="BB9" t="s">
         <v>76</v>
       </c>
-      <c r="AZ9">
-        <v>250</v>
-      </c>
-      <c r="BA9">
-        <v>250</v>
-      </c>
-      <c r="BC9" s="59"/>
-      <c r="BD9" s="59"/>
-      <c r="BE9" s="59"/>
-      <c r="BF9" s="59"/>
-      <c r="BH9" s="25"/>
-      <c r="BI9" s="26"/>
-      <c r="BJ9" s="26"/>
-      <c r="BK9"/>
-      <c r="BL9"/>
+      <c r="BD9">
+        <v>250</v>
+      </c>
+      <c r="BE9">
+        <v>250</v>
+      </c>
+      <c r="BG9" s="59"/>
+      <c r="BH9" s="59"/>
+      <c r="BI9" s="59"/>
+      <c r="BJ9" s="59"/>
+      <c r="BL9" s="25"/>
       <c r="BM9" s="26"/>
-      <c r="BR9"/>
-      <c r="BS9"/>
-      <c r="BT9"/>
-      <c r="BU9"/>
+      <c r="BN9" s="26"/>
+      <c r="BO9"/>
+      <c r="BP9"/>
+      <c r="BQ9" s="26"/>
       <c r="BV9"/>
       <c r="BW9"/>
       <c r="BX9"/>
       <c r="BY9"/>
+      <c r="BZ9"/>
+      <c r="CA9"/>
+      <c r="CB9"/>
+      <c r="CC9"/>
     </row>
-    <row r="10" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D10,"&lt;&gt;"&amp;"")+COUNTIF(BQ10,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B10" s="23">
@@ -3966,111 +4080,121 @@
         <v>254</v>
       </c>
       <c r="V10" s="1"/>
-      <c r="W10" s="34" t="s">
+      <c r="W10" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="X10" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y10" s="34">
+        <v>3</v>
+      </c>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X10" s="16" t="s">
+      <c r="AB10" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y10" s="58" t="s">
+      <c r="AC10" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="Z10" s="34" t="s">
+      <c r="AD10" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA10" s="16" t="s">
+      <c r="AE10" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB10" s="58" t="s">
+      <c r="AF10" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="AC10" s="1" t="s">
+      <c r="AG10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD10" s="19" t="s">
+      <c r="AH10" s="19" t="s">
         <v>288</v>
       </c>
-      <c r="AE10" s="19" t="s">
+      <c r="AI10" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="AF10" s="19" t="s">
+      <c r="AJ10" s="19" t="s">
         <v>314</v>
       </c>
-      <c r="AG10" s="19" t="s">
+      <c r="AK10" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="AH10" s="19"/>
-      <c r="AI10" s="61" t="s">
+      <c r="AL10" s="19"/>
+      <c r="AM10" s="61" t="s">
         <v>197</v>
       </c>
-      <c r="AJ10" s="57"/>
-      <c r="AK10" s="13">
+      <c r="AN10" s="57"/>
+      <c r="AO10" s="13">
         <v>0.01</v>
       </c>
-      <c r="AM10" t="s">
+      <c r="AQ10" t="s">
         <v>249</v>
       </c>
-      <c r="AN10" s="43" t="s">
+      <c r="AR10" s="43" t="s">
         <v>247</v>
       </c>
-      <c r="AO10" s="1" t="s">
+      <c r="AS10" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AP10" s="43" t="s">
+      <c r="AT10" s="43" t="s">
         <v>248</v>
       </c>
-      <c r="AQ10" s="1" t="s">
+      <c r="AU10" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="AR10" t="s">
+      <c r="AV10" t="s">
         <v>49</v>
       </c>
-      <c r="AS10" t="s">
+      <c r="AW10" t="s">
         <v>8</v>
       </c>
-      <c r="AT10" t="s">
+      <c r="AX10" t="s">
         <v>9</v>
       </c>
-      <c r="AU10" t="s">
+      <c r="AY10" t="s">
         <v>10</v>
       </c>
-      <c r="AV10" t="s">
+      <c r="AZ10" t="s">
         <v>67</v>
       </c>
-      <c r="AW10" t="s">
+      <c r="BA10" t="s">
         <v>11</v>
       </c>
-      <c r="AX10" t="s">
+      <c r="BB10" t="s">
         <v>76</v>
       </c>
-      <c r="AZ10">
-        <v>250</v>
-      </c>
-      <c r="BA10">
-        <v>250</v>
-      </c>
-      <c r="BC10" s="59"/>
-      <c r="BD10" s="59"/>
-      <c r="BE10" s="59"/>
-      <c r="BF10" s="59"/>
-      <c r="BH10" s="25"/>
-      <c r="BI10" s="26"/>
-      <c r="BJ10" s="26"/>
-      <c r="BK10"/>
-      <c r="BL10"/>
+      <c r="BD10">
+        <v>250</v>
+      </c>
+      <c r="BE10">
+        <v>250</v>
+      </c>
+      <c r="BG10" s="59"/>
+      <c r="BH10" s="59"/>
+      <c r="BI10" s="59"/>
+      <c r="BJ10" s="59"/>
+      <c r="BL10" s="25"/>
       <c r="BM10" s="26"/>
-      <c r="BR10"/>
-      <c r="BS10"/>
-      <c r="BT10"/>
-      <c r="BU10"/>
+      <c r="BN10" s="26"/>
+      <c r="BO10"/>
+      <c r="BP10"/>
+      <c r="BQ10" s="26"/>
       <c r="BV10"/>
       <c r="BW10"/>
       <c r="BX10"/>
       <c r="BY10"/>
+      <c r="BZ10"/>
+      <c r="CA10"/>
+      <c r="CB10"/>
+      <c r="CC10"/>
     </row>
-    <row r="11" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D11,"&lt;&gt;"&amp;"")+COUNTIF(BQ11,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B11" s="23">
@@ -4120,111 +4244,121 @@
         <v>254</v>
       </c>
       <c r="V11" s="1"/>
-      <c r="W11" s="34" t="s">
+      <c r="W11" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="X11" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y11" s="34">
+        <v>3</v>
+      </c>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X11" s="16" t="s">
+      <c r="AB11" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y11" s="58" t="s">
+      <c r="AC11" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="Z11" s="34" t="s">
+      <c r="AD11" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA11" s="16" t="s">
+      <c r="AE11" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB11" s="58" t="s">
+      <c r="AF11" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="AC11" s="1" t="s">
+      <c r="AG11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD11" s="19" t="s">
+      <c r="AH11" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="AE11" s="19" t="s">
+      <c r="AI11" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="AF11" s="19" t="s">
+      <c r="AJ11" s="19" t="s">
         <v>315</v>
       </c>
-      <c r="AG11" s="19" t="s">
+      <c r="AK11" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="AH11" s="19"/>
-      <c r="AI11" s="61" t="s">
+      <c r="AL11" s="19"/>
+      <c r="AM11" s="61" t="s">
         <v>198</v>
       </c>
-      <c r="AJ11" s="57"/>
-      <c r="AK11" s="13">
+      <c r="AN11" s="57"/>
+      <c r="AO11" s="13">
         <v>0.01</v>
       </c>
-      <c r="AM11" t="s">
+      <c r="AQ11" t="s">
         <v>249</v>
       </c>
-      <c r="AN11" s="43" t="s">
+      <c r="AR11" s="43" t="s">
         <v>247</v>
       </c>
-      <c r="AO11" s="1" t="s">
+      <c r="AS11" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AP11" s="43" t="s">
+      <c r="AT11" s="43" t="s">
         <v>248</v>
       </c>
-      <c r="AQ11" s="1" t="s">
+      <c r="AU11" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="AR11" t="s">
+      <c r="AV11" t="s">
         <v>49</v>
       </c>
-      <c r="AS11" t="s">
+      <c r="AW11" t="s">
         <v>8</v>
       </c>
-      <c r="AT11" t="s">
+      <c r="AX11" t="s">
         <v>9</v>
       </c>
-      <c r="AU11" t="s">
+      <c r="AY11" t="s">
         <v>10</v>
       </c>
-      <c r="AV11" t="s">
+      <c r="AZ11" t="s">
         <v>67</v>
       </c>
-      <c r="AW11" t="s">
+      <c r="BA11" t="s">
         <v>11</v>
       </c>
-      <c r="AX11" t="s">
+      <c r="BB11" t="s">
         <v>76</v>
       </c>
-      <c r="AZ11">
-        <v>250</v>
-      </c>
-      <c r="BA11">
-        <v>250</v>
-      </c>
-      <c r="BC11" s="59"/>
-      <c r="BD11" s="59"/>
-      <c r="BE11" s="59"/>
-      <c r="BF11" s="59"/>
-      <c r="BH11" s="25"/>
-      <c r="BI11" s="26"/>
-      <c r="BJ11" s="26"/>
-      <c r="BK11"/>
-      <c r="BL11" s="60"/>
+      <c r="BD11">
+        <v>250</v>
+      </c>
+      <c r="BE11">
+        <v>250</v>
+      </c>
+      <c r="BG11" s="59"/>
+      <c r="BH11" s="59"/>
+      <c r="BI11" s="59"/>
+      <c r="BJ11" s="59"/>
+      <c r="BL11" s="25"/>
       <c r="BM11" s="26"/>
-      <c r="BR11"/>
-      <c r="BS11"/>
-      <c r="BT11"/>
-      <c r="BU11"/>
+      <c r="BN11" s="26"/>
+      <c r="BO11"/>
+      <c r="BP11" s="60"/>
+      <c r="BQ11" s="26"/>
       <c r="BV11"/>
       <c r="BW11"/>
       <c r="BX11"/>
       <c r="BY11"/>
+      <c r="BZ11"/>
+      <c r="CA11"/>
+      <c r="CB11"/>
+      <c r="CC11"/>
     </row>
-    <row r="12" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D12,"&lt;&gt;"&amp;"")+COUNTIF(BQ12,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B12" s="23">
@@ -4274,111 +4408,121 @@
         <v>254</v>
       </c>
       <c r="V12" s="1"/>
-      <c r="W12" s="34" t="s">
+      <c r="W12" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="X12" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y12" s="34">
+        <v>4</v>
+      </c>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X12" s="16" t="s">
+      <c r="AB12" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y12" s="58" t="s">
+      <c r="AC12" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="Z12" s="34" t="s">
+      <c r="AD12" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA12" s="16" t="s">
+      <c r="AE12" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB12" s="58" t="s">
+      <c r="AF12" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="AC12" s="1" t="s">
+      <c r="AG12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD12" s="19" t="s">
+      <c r="AH12" s="19" t="s">
         <v>290</v>
       </c>
-      <c r="AE12" s="19" t="s">
+      <c r="AI12" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="AF12" s="19" t="s">
+      <c r="AJ12" s="19" t="s">
         <v>316</v>
       </c>
-      <c r="AG12" s="19" t="s">
+      <c r="AK12" s="19" t="s">
         <v>264</v>
       </c>
-      <c r="AH12" s="19"/>
-      <c r="AI12" s="61" t="s">
+      <c r="AL12" s="19"/>
+      <c r="AM12" s="61" t="s">
         <v>199</v>
       </c>
-      <c r="AJ12" s="57"/>
-      <c r="AK12" s="13">
+      <c r="AN12" s="57"/>
+      <c r="AO12" s="13">
         <v>0.01</v>
       </c>
-      <c r="AM12" t="s">
+      <c r="AQ12" t="s">
         <v>249</v>
       </c>
-      <c r="AN12" s="43" t="s">
+      <c r="AR12" s="43" t="s">
         <v>247</v>
       </c>
-      <c r="AO12" s="1" t="s">
+      <c r="AS12" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AP12" s="43" t="s">
+      <c r="AT12" s="43" t="s">
         <v>248</v>
       </c>
-      <c r="AQ12" s="1" t="s">
+      <c r="AU12" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="AR12" t="s">
+      <c r="AV12" t="s">
         <v>49</v>
       </c>
-      <c r="AS12" t="s">
+      <c r="AW12" t="s">
         <v>8</v>
       </c>
-      <c r="AT12" t="s">
+      <c r="AX12" t="s">
         <v>9</v>
       </c>
-      <c r="AU12" t="s">
+      <c r="AY12" t="s">
         <v>10</v>
       </c>
-      <c r="AV12" t="s">
+      <c r="AZ12" t="s">
         <v>67</v>
       </c>
-      <c r="AW12" t="s">
+      <c r="BA12" t="s">
         <v>11</v>
       </c>
-      <c r="AX12" t="s">
+      <c r="BB12" t="s">
         <v>76</v>
       </c>
-      <c r="AZ12">
-        <v>250</v>
-      </c>
-      <c r="BA12">
-        <v>250</v>
-      </c>
-      <c r="BC12" s="59"/>
-      <c r="BD12" s="59"/>
-      <c r="BE12" s="59"/>
-      <c r="BF12" s="59"/>
-      <c r="BH12" s="25"/>
-      <c r="BI12" s="26"/>
-      <c r="BJ12" s="26"/>
-      <c r="BK12"/>
-      <c r="BL12" s="60"/>
+      <c r="BD12">
+        <v>250</v>
+      </c>
+      <c r="BE12">
+        <v>250</v>
+      </c>
+      <c r="BG12" s="59"/>
+      <c r="BH12" s="59"/>
+      <c r="BI12" s="59"/>
+      <c r="BJ12" s="59"/>
+      <c r="BL12" s="25"/>
       <c r="BM12" s="26"/>
-      <c r="BR12"/>
-      <c r="BS12"/>
-      <c r="BT12"/>
-      <c r="BU12"/>
+      <c r="BN12" s="26"/>
+      <c r="BO12"/>
+      <c r="BP12" s="60"/>
+      <c r="BQ12" s="26"/>
       <c r="BV12"/>
       <c r="BW12"/>
       <c r="BX12"/>
       <c r="BY12"/>
+      <c r="BZ12"/>
+      <c r="CA12"/>
+      <c r="CB12"/>
+      <c r="CC12"/>
     </row>
-    <row r="13" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D13,"&lt;&gt;"&amp;"")+COUNTIF(BQ13,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B13" s="23">
@@ -4428,111 +4572,121 @@
         <v>254</v>
       </c>
       <c r="V13" s="1"/>
-      <c r="W13" s="34" t="s">
+      <c r="W13" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="X13" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y13" s="34">
+        <v>4</v>
+      </c>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X13" s="16" t="s">
+      <c r="AB13" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y13" s="58" t="s">
+      <c r="AC13" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="Z13" s="34" t="s">
+      <c r="AD13" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA13" s="16" t="s">
+      <c r="AE13" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB13" s="58" t="s">
+      <c r="AF13" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="AC13" s="1" t="s">
+      <c r="AG13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD13" s="19" t="s">
+      <c r="AH13" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="AE13" s="19" t="s">
+      <c r="AI13" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="AF13" s="19" t="s">
+      <c r="AJ13" s="19" t="s">
         <v>317</v>
       </c>
-      <c r="AG13" s="19" t="s">
+      <c r="AK13" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="AH13" s="19"/>
-      <c r="AI13" s="61" t="s">
+      <c r="AL13" s="19"/>
+      <c r="AM13" s="61" t="s">
         <v>200</v>
       </c>
-      <c r="AJ13" s="57"/>
-      <c r="AK13" s="13">
+      <c r="AN13" s="57"/>
+      <c r="AO13" s="13">
         <v>0.01</v>
       </c>
-      <c r="AM13" t="s">
+      <c r="AQ13" t="s">
         <v>249</v>
       </c>
-      <c r="AN13" s="43" t="s">
+      <c r="AR13" s="43" t="s">
         <v>247</v>
       </c>
-      <c r="AO13" s="1" t="s">
+      <c r="AS13" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AP13" s="43" t="s">
+      <c r="AT13" s="43" t="s">
         <v>248</v>
       </c>
-      <c r="AQ13" s="1" t="s">
+      <c r="AU13" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="AR13" t="s">
+      <c r="AV13" t="s">
         <v>49</v>
       </c>
-      <c r="AS13" t="s">
+      <c r="AW13" t="s">
         <v>8</v>
       </c>
-      <c r="AT13" t="s">
+      <c r="AX13" t="s">
         <v>9</v>
       </c>
-      <c r="AU13" t="s">
+      <c r="AY13" t="s">
         <v>10</v>
       </c>
-      <c r="AV13" t="s">
+      <c r="AZ13" t="s">
         <v>67</v>
       </c>
-      <c r="AW13" t="s">
+      <c r="BA13" t="s">
         <v>11</v>
       </c>
-      <c r="AX13" t="s">
+      <c r="BB13" t="s">
         <v>76</v>
       </c>
-      <c r="AZ13">
-        <v>250</v>
-      </c>
-      <c r="BA13">
-        <v>250</v>
-      </c>
-      <c r="BC13" s="59"/>
-      <c r="BD13" s="59"/>
-      <c r="BE13" s="59"/>
-      <c r="BF13" s="59"/>
-      <c r="BH13" s="25"/>
-      <c r="BI13" s="26"/>
-      <c r="BJ13" s="26"/>
-      <c r="BK13"/>
-      <c r="BL13" s="60"/>
+      <c r="BD13">
+        <v>250</v>
+      </c>
+      <c r="BE13">
+        <v>250</v>
+      </c>
+      <c r="BG13" s="59"/>
+      <c r="BH13" s="59"/>
+      <c r="BI13" s="59"/>
+      <c r="BJ13" s="59"/>
+      <c r="BL13" s="25"/>
       <c r="BM13" s="26"/>
-      <c r="BR13"/>
-      <c r="BS13"/>
-      <c r="BT13"/>
-      <c r="BU13"/>
+      <c r="BN13" s="26"/>
+      <c r="BO13"/>
+      <c r="BP13" s="60"/>
+      <c r="BQ13" s="26"/>
       <c r="BV13"/>
       <c r="BW13"/>
       <c r="BX13"/>
       <c r="BY13"/>
+      <c r="BZ13"/>
+      <c r="CA13"/>
+      <c r="CB13"/>
+      <c r="CC13"/>
     </row>
-    <row r="14" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D14,"&lt;&gt;"&amp;"")+COUNTIF(BQ14,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B14" s="23">
@@ -4582,111 +4736,121 @@
         <v>254</v>
       </c>
       <c r="V14" s="1"/>
-      <c r="W14" s="34" t="s">
+      <c r="W14" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="X14" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y14" s="34">
+        <v>4</v>
+      </c>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X14" s="16" t="s">
+      <c r="AB14" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y14" s="58" t="s">
+      <c r="AC14" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="Z14" s="34" t="s">
+      <c r="AD14" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA14" s="16" t="s">
+      <c r="AE14" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB14" s="58" t="s">
+      <c r="AF14" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="AC14" s="1" t="s">
+      <c r="AG14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD14" s="19" t="s">
+      <c r="AH14" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="AE14" s="19" t="s">
+      <c r="AI14" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="AF14" s="19" t="s">
+      <c r="AJ14" s="19" t="s">
         <v>318</v>
       </c>
-      <c r="AG14" s="19" t="s">
+      <c r="AK14" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="AH14" s="19"/>
-      <c r="AI14" s="61" t="s">
+      <c r="AL14" s="19"/>
+      <c r="AM14" s="61" t="s">
         <v>201</v>
       </c>
-      <c r="AJ14" s="57"/>
-      <c r="AK14" s="13">
+      <c r="AN14" s="57"/>
+      <c r="AO14" s="13">
         <v>0.01</v>
       </c>
-      <c r="AM14" t="s">
+      <c r="AQ14" t="s">
         <v>249</v>
       </c>
-      <c r="AN14" s="43" t="s">
+      <c r="AR14" s="43" t="s">
         <v>247</v>
       </c>
-      <c r="AO14" s="1" t="s">
+      <c r="AS14" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AP14" s="43" t="s">
+      <c r="AT14" s="43" t="s">
         <v>248</v>
       </c>
-      <c r="AQ14" s="1" t="s">
+      <c r="AU14" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="AR14" t="s">
+      <c r="AV14" t="s">
         <v>49</v>
       </c>
-      <c r="AS14" t="s">
+      <c r="AW14" t="s">
         <v>8</v>
       </c>
-      <c r="AT14" t="s">
+      <c r="AX14" t="s">
         <v>9</v>
       </c>
-      <c r="AU14" t="s">
+      <c r="AY14" t="s">
         <v>10</v>
       </c>
-      <c r="AV14" t="s">
+      <c r="AZ14" t="s">
         <v>67</v>
       </c>
-      <c r="AW14" t="s">
+      <c r="BA14" t="s">
         <v>11</v>
       </c>
-      <c r="AX14" t="s">
+      <c r="BB14" t="s">
         <v>76</v>
       </c>
-      <c r="AZ14">
-        <v>250</v>
-      </c>
-      <c r="BA14">
-        <v>250</v>
-      </c>
-      <c r="BC14" s="59"/>
-      <c r="BD14" s="59"/>
-      <c r="BE14" s="59"/>
-      <c r="BF14" s="59"/>
-      <c r="BH14" s="25"/>
-      <c r="BI14" s="26"/>
-      <c r="BJ14" s="26"/>
-      <c r="BK14"/>
-      <c r="BL14" s="60"/>
+      <c r="BD14">
+        <v>250</v>
+      </c>
+      <c r="BE14">
+        <v>250</v>
+      </c>
+      <c r="BG14" s="59"/>
+      <c r="BH14" s="59"/>
+      <c r="BI14" s="59"/>
+      <c r="BJ14" s="59"/>
+      <c r="BL14" s="25"/>
       <c r="BM14" s="26"/>
-      <c r="BR14"/>
-      <c r="BS14"/>
-      <c r="BT14"/>
-      <c r="BU14"/>
+      <c r="BN14" s="26"/>
+      <c r="BO14"/>
+      <c r="BP14" s="60"/>
+      <c r="BQ14" s="26"/>
       <c r="BV14"/>
       <c r="BW14"/>
       <c r="BX14"/>
       <c r="BY14"/>
+      <c r="BZ14"/>
+      <c r="CA14"/>
+      <c r="CB14"/>
+      <c r="CC14"/>
     </row>
-    <row r="15" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A15" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D15,"&lt;&gt;"&amp;"")+COUNTIF(BQ15,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B15" s="23">
@@ -4736,111 +4900,121 @@
         <v>254</v>
       </c>
       <c r="V15" s="1"/>
-      <c r="W15" s="34" t="s">
+      <c r="W15" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="X15" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y15" s="34">
+        <v>5</v>
+      </c>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X15" s="16" t="s">
+      <c r="AB15" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y15" s="58" t="s">
+      <c r="AC15" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="Z15" s="34" t="s">
+      <c r="AD15" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA15" s="16" t="s">
+      <c r="AE15" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB15" s="58" t="s">
+      <c r="AF15" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="AC15" s="1" t="s">
+      <c r="AG15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD15" s="19" t="s">
+      <c r="AH15" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="AE15" s="19" t="s">
+      <c r="AI15" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="AF15" s="19" t="s">
+      <c r="AJ15" s="19" t="s">
         <v>319</v>
       </c>
-      <c r="AG15" s="19" t="s">
+      <c r="AK15" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="AH15" s="19"/>
-      <c r="AI15" s="61" t="s">
+      <c r="AL15" s="19"/>
+      <c r="AM15" s="61" t="s">
         <v>202</v>
       </c>
-      <c r="AJ15" s="57"/>
-      <c r="AK15" s="13">
+      <c r="AN15" s="57"/>
+      <c r="AO15" s="13">
         <v>0.01</v>
       </c>
-      <c r="AM15" t="s">
+      <c r="AQ15" t="s">
         <v>249</v>
       </c>
-      <c r="AN15" s="43" t="s">
+      <c r="AR15" s="43" t="s">
         <v>247</v>
       </c>
-      <c r="AO15" s="1" t="s">
+      <c r="AS15" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AP15" s="43" t="s">
+      <c r="AT15" s="43" t="s">
         <v>248</v>
       </c>
-      <c r="AQ15" s="1" t="s">
+      <c r="AU15" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="AR15" t="s">
+      <c r="AV15" t="s">
         <v>49</v>
       </c>
-      <c r="AS15" t="s">
+      <c r="AW15" t="s">
         <v>8</v>
       </c>
-      <c r="AT15" t="s">
+      <c r="AX15" t="s">
         <v>9</v>
       </c>
-      <c r="AU15" t="s">
+      <c r="AY15" t="s">
         <v>10</v>
       </c>
-      <c r="AV15" t="s">
+      <c r="AZ15" t="s">
         <v>67</v>
       </c>
-      <c r="AW15" t="s">
+      <c r="BA15" t="s">
         <v>11</v>
       </c>
-      <c r="AX15" t="s">
+      <c r="BB15" t="s">
         <v>76</v>
       </c>
-      <c r="AZ15">
-        <v>250</v>
-      </c>
-      <c r="BA15">
-        <v>250</v>
-      </c>
-      <c r="BC15" s="59"/>
-      <c r="BD15" s="59"/>
-      <c r="BE15" s="59"/>
-      <c r="BF15" s="59"/>
-      <c r="BH15" s="25"/>
-      <c r="BI15" s="26"/>
-      <c r="BJ15" s="26"/>
-      <c r="BK15"/>
-      <c r="BL15" s="60"/>
+      <c r="BD15">
+        <v>250</v>
+      </c>
+      <c r="BE15">
+        <v>250</v>
+      </c>
+      <c r="BG15" s="59"/>
+      <c r="BH15" s="59"/>
+      <c r="BI15" s="59"/>
+      <c r="BJ15" s="59"/>
+      <c r="BL15" s="25"/>
       <c r="BM15" s="26"/>
-      <c r="BR15"/>
-      <c r="BS15"/>
-      <c r="BT15"/>
-      <c r="BU15"/>
+      <c r="BN15" s="26"/>
+      <c r="BO15"/>
+      <c r="BP15" s="60"/>
+      <c r="BQ15" s="26"/>
       <c r="BV15"/>
       <c r="BW15"/>
       <c r="BX15"/>
       <c r="BY15"/>
+      <c r="BZ15"/>
+      <c r="CA15"/>
+      <c r="CB15"/>
+      <c r="CC15"/>
     </row>
-    <row r="16" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D16,"&lt;&gt;"&amp;"")+COUNTIF(BQ16,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B16" s="23">
@@ -4885,106 +5059,116 @@
         <v>254</v>
       </c>
       <c r="V16" s="1"/>
-      <c r="W16" s="34" t="s">
+      <c r="W16" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="X16" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y16" s="34">
+        <v>5</v>
+      </c>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X16" s="16" t="s">
+      <c r="AB16" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y16" s="58" t="s">
+      <c r="AC16" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="Z16" s="34" t="s">
+      <c r="AD16" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA16" s="16" t="s">
+      <c r="AE16" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB16" s="58" t="s">
+      <c r="AF16" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="AC16" s="1"/>
-      <c r="AD16" s="19" t="s">
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="19" t="s">
         <v>294</v>
       </c>
-      <c r="AE16" s="19" t="s">
+      <c r="AI16" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="AF16" s="19" t="s">
+      <c r="AJ16" s="19" t="s">
         <v>320</v>
       </c>
-      <c r="AG16" s="19" t="s">
+      <c r="AK16" s="19" t="s">
         <v>268</v>
       </c>
-      <c r="AH16" s="19"/>
-      <c r="AI16" s="61" t="s">
+      <c r="AL16" s="19"/>
+      <c r="AM16" s="61" t="s">
         <v>203</v>
       </c>
-      <c r="AJ16" s="57"/>
-      <c r="AK16" s="13">
+      <c r="AN16" s="57"/>
+      <c r="AO16" s="13">
         <v>0.01</v>
       </c>
-      <c r="AM16" t="s">
+      <c r="AQ16" t="s">
         <v>249</v>
       </c>
-      <c r="AN16" s="43" t="s">
+      <c r="AR16" s="43" t="s">
         <v>247</v>
       </c>
-      <c r="AO16" s="1" t="s">
+      <c r="AS16" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AP16" s="43" t="s">
+      <c r="AT16" s="43" t="s">
         <v>248</v>
       </c>
-      <c r="AQ16" s="1" t="s">
+      <c r="AU16" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="AS16" t="s">
+      <c r="AW16" t="s">
         <v>8</v>
       </c>
-      <c r="AT16" t="s">
+      <c r="AX16" t="s">
         <v>9</v>
       </c>
-      <c r="AU16" t="s">
+      <c r="AY16" t="s">
         <v>10</v>
       </c>
-      <c r="AV16" t="s">
+      <c r="AZ16" t="s">
         <v>67</v>
       </c>
-      <c r="AW16" t="s">
+      <c r="BA16" t="s">
         <v>11</v>
       </c>
-      <c r="AX16" t="s">
+      <c r="BB16" t="s">
         <v>76</v>
       </c>
-      <c r="AZ16">
-        <v>250</v>
-      </c>
-      <c r="BA16">
-        <v>250</v>
-      </c>
-      <c r="BC16" s="59"/>
-      <c r="BD16" s="59"/>
-      <c r="BE16" s="59"/>
-      <c r="BF16" s="59"/>
-      <c r="BH16" s="25"/>
-      <c r="BI16" s="26"/>
-      <c r="BJ16" s="26"/>
-      <c r="BK16"/>
-      <c r="BL16" s="60"/>
+      <c r="BD16">
+        <v>250</v>
+      </c>
+      <c r="BE16">
+        <v>250</v>
+      </c>
+      <c r="BG16" s="59"/>
+      <c r="BH16" s="59"/>
+      <c r="BI16" s="59"/>
+      <c r="BJ16" s="59"/>
+      <c r="BL16" s="25"/>
       <c r="BM16" s="26"/>
-      <c r="BR16"/>
-      <c r="BS16"/>
-      <c r="BT16"/>
-      <c r="BU16"/>
+      <c r="BN16" s="26"/>
+      <c r="BO16"/>
+      <c r="BP16" s="60"/>
+      <c r="BQ16" s="26"/>
       <c r="BV16"/>
       <c r="BW16"/>
       <c r="BX16"/>
       <c r="BY16"/>
+      <c r="BZ16"/>
+      <c r="CA16"/>
+      <c r="CB16"/>
+      <c r="CC16"/>
     </row>
-    <row r="17" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A17" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D17,"&lt;&gt;"&amp;"")+COUNTIF(BQ17,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B17" s="23">
@@ -5029,106 +5213,116 @@
         <v>254</v>
       </c>
       <c r="V17" s="1"/>
-      <c r="W17" s="34" t="s">
+      <c r="W17" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="X17" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y17" s="34">
+        <v>5</v>
+      </c>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X17" s="16" t="s">
+      <c r="AB17" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y17" s="58" t="s">
+      <c r="AC17" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="Z17" s="34" t="s">
+      <c r="AD17" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA17" s="16" t="s">
+      <c r="AE17" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB17" s="58" t="s">
+      <c r="AF17" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="AC17" s="1"/>
-      <c r="AD17" s="19" t="s">
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="19" t="s">
         <v>295</v>
       </c>
-      <c r="AE17" s="19" t="s">
+      <c r="AI17" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="AF17" s="19" t="s">
+      <c r="AJ17" s="19" t="s">
         <v>321</v>
       </c>
-      <c r="AG17" s="19" t="s">
+      <c r="AK17" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="AH17" s="19"/>
-      <c r="AI17" s="61" t="s">
+      <c r="AL17" s="19"/>
+      <c r="AM17" s="61" t="s">
         <v>204</v>
       </c>
-      <c r="AJ17" s="57"/>
-      <c r="AK17" s="13">
+      <c r="AN17" s="57"/>
+      <c r="AO17" s="13">
         <v>0.01</v>
       </c>
-      <c r="AM17" t="s">
+      <c r="AQ17" t="s">
         <v>249</v>
       </c>
-      <c r="AN17" s="43" t="s">
+      <c r="AR17" s="43" t="s">
         <v>247</v>
       </c>
-      <c r="AO17" s="1" t="s">
+      <c r="AS17" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AP17" s="43" t="s">
+      <c r="AT17" s="43" t="s">
         <v>248</v>
       </c>
-      <c r="AQ17" s="1" t="s">
+      <c r="AU17" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="AS17" t="s">
+      <c r="AW17" t="s">
         <v>8</v>
       </c>
-      <c r="AT17" t="s">
+      <c r="AX17" t="s">
         <v>9</v>
       </c>
-      <c r="AU17" t="s">
+      <c r="AY17" t="s">
         <v>10</v>
       </c>
-      <c r="AV17" t="s">
+      <c r="AZ17" t="s">
         <v>67</v>
       </c>
-      <c r="AW17" t="s">
+      <c r="BA17" t="s">
         <v>11</v>
       </c>
-      <c r="AX17" t="s">
+      <c r="BB17" t="s">
         <v>76</v>
       </c>
-      <c r="AZ17">
-        <v>250</v>
-      </c>
-      <c r="BA17">
-        <v>250</v>
-      </c>
-      <c r="BC17" s="59"/>
-      <c r="BD17" s="59"/>
-      <c r="BE17" s="59"/>
-      <c r="BF17" s="59"/>
-      <c r="BH17" s="25"/>
-      <c r="BI17" s="26"/>
-      <c r="BJ17" s="26"/>
-      <c r="BK17"/>
-      <c r="BL17" s="60"/>
+      <c r="BD17">
+        <v>250</v>
+      </c>
+      <c r="BE17">
+        <v>250</v>
+      </c>
+      <c r="BG17" s="59"/>
+      <c r="BH17" s="59"/>
+      <c r="BI17" s="59"/>
+      <c r="BJ17" s="59"/>
+      <c r="BL17" s="25"/>
       <c r="BM17" s="26"/>
-      <c r="BR17"/>
-      <c r="BS17"/>
-      <c r="BT17"/>
-      <c r="BU17"/>
+      <c r="BN17" s="26"/>
+      <c r="BO17"/>
+      <c r="BP17" s="60"/>
+      <c r="BQ17" s="26"/>
       <c r="BV17"/>
       <c r="BW17"/>
       <c r="BX17"/>
       <c r="BY17"/>
+      <c r="BZ17"/>
+      <c r="CA17"/>
+      <c r="CB17"/>
+      <c r="CC17"/>
     </row>
-    <row r="18" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A18" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D18,"&lt;&gt;"&amp;"")+COUNTIF(BQ18,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B18" s="23">
@@ -5173,106 +5367,116 @@
         <v>254</v>
       </c>
       <c r="V18" s="1"/>
-      <c r="W18" s="34" t="s">
+      <c r="W18" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="X18" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y18" s="34">
+        <v>6</v>
+      </c>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X18" s="16" t="s">
+      <c r="AB18" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y18" s="58" t="s">
+      <c r="AC18" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="Z18" s="34" t="s">
+      <c r="AD18" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA18" s="16" t="s">
+      <c r="AE18" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB18" s="58" t="s">
+      <c r="AF18" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="AC18" s="1"/>
-      <c r="AD18" s="19" t="s">
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="19" t="s">
         <v>296</v>
       </c>
-      <c r="AE18" s="19" t="s">
+      <c r="AI18" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="AF18" s="19" t="s">
+      <c r="AJ18" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="AG18" s="19" t="s">
+      <c r="AK18" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="AH18" s="19"/>
-      <c r="AI18" s="61" t="s">
+      <c r="AL18" s="19"/>
+      <c r="AM18" s="61" t="s">
         <v>205</v>
       </c>
-      <c r="AJ18" s="57"/>
-      <c r="AK18" s="13">
+      <c r="AN18" s="57"/>
+      <c r="AO18" s="13">
         <v>0.01</v>
       </c>
-      <c r="AM18" t="s">
+      <c r="AQ18" t="s">
         <v>249</v>
       </c>
-      <c r="AN18" s="43" t="s">
+      <c r="AR18" s="43" t="s">
         <v>247</v>
       </c>
-      <c r="AO18" s="1" t="s">
+      <c r="AS18" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AP18" s="43" t="s">
+      <c r="AT18" s="43" t="s">
         <v>248</v>
       </c>
-      <c r="AQ18" s="1" t="s">
+      <c r="AU18" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="AS18" t="s">
+      <c r="AW18" t="s">
         <v>8</v>
       </c>
-      <c r="AT18" t="s">
+      <c r="AX18" t="s">
         <v>9</v>
       </c>
-      <c r="AU18" t="s">
+      <c r="AY18" t="s">
         <v>10</v>
       </c>
-      <c r="AV18" t="s">
+      <c r="AZ18" t="s">
         <v>67</v>
       </c>
-      <c r="AW18" t="s">
+      <c r="BA18" t="s">
         <v>11</v>
       </c>
-      <c r="AX18" t="s">
+      <c r="BB18" t="s">
         <v>76</v>
       </c>
-      <c r="AZ18">
-        <v>250</v>
-      </c>
-      <c r="BA18">
-        <v>250</v>
-      </c>
-      <c r="BC18" s="59"/>
-      <c r="BD18" s="59"/>
-      <c r="BE18" s="59"/>
-      <c r="BF18" s="59"/>
-      <c r="BH18" s="25"/>
-      <c r="BI18" s="26"/>
-      <c r="BJ18" s="26"/>
-      <c r="BK18"/>
-      <c r="BL18" s="60"/>
+      <c r="BD18">
+        <v>250</v>
+      </c>
+      <c r="BE18">
+        <v>250</v>
+      </c>
+      <c r="BG18" s="59"/>
+      <c r="BH18" s="59"/>
+      <c r="BI18" s="59"/>
+      <c r="BJ18" s="59"/>
+      <c r="BL18" s="25"/>
       <c r="BM18" s="26"/>
-      <c r="BR18"/>
-      <c r="BS18"/>
-      <c r="BT18"/>
-      <c r="BU18"/>
+      <c r="BN18" s="26"/>
+      <c r="BO18"/>
+      <c r="BP18" s="60"/>
+      <c r="BQ18" s="26"/>
       <c r="BV18"/>
       <c r="BW18"/>
       <c r="BX18"/>
       <c r="BY18"/>
+      <c r="BZ18"/>
+      <c r="CA18"/>
+      <c r="CB18"/>
+      <c r="CC18"/>
     </row>
-    <row r="19" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A19" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D19,"&lt;&gt;"&amp;"")+COUNTIF(BQ19,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B19" s="23">
@@ -5317,106 +5521,116 @@
         <v>254</v>
       </c>
       <c r="V19" s="1"/>
-      <c r="W19" s="34" t="s">
+      <c r="W19" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="X19" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y19" s="34">
+        <v>6</v>
+      </c>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X19" s="16" t="s">
+      <c r="AB19" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y19" s="58" t="s">
+      <c r="AC19" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="Z19" s="34" t="s">
+      <c r="AD19" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA19" s="16" t="s">
+      <c r="AE19" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB19" s="58" t="s">
+      <c r="AF19" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="AC19" s="1"/>
-      <c r="AD19" s="19" t="s">
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="19" t="s">
         <v>297</v>
       </c>
-      <c r="AE19" s="19" t="s">
+      <c r="AI19" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="AF19" s="19" t="s">
+      <c r="AJ19" s="19" t="s">
         <v>323</v>
       </c>
-      <c r="AG19" s="19" t="s">
+      <c r="AK19" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="AH19" s="19"/>
-      <c r="AI19" s="61" t="s">
+      <c r="AL19" s="19"/>
+      <c r="AM19" s="61" t="s">
         <v>206</v>
       </c>
-      <c r="AJ19" s="57"/>
-      <c r="AK19" s="13">
+      <c r="AN19" s="57"/>
+      <c r="AO19" s="13">
         <v>0.01</v>
       </c>
-      <c r="AM19" t="s">
+      <c r="AQ19" t="s">
         <v>249</v>
       </c>
-      <c r="AN19" s="43" t="s">
+      <c r="AR19" s="43" t="s">
         <v>247</v>
       </c>
-      <c r="AO19" s="1" t="s">
+      <c r="AS19" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AP19" s="43" t="s">
+      <c r="AT19" s="43" t="s">
         <v>248</v>
       </c>
-      <c r="AQ19" s="1" t="s">
+      <c r="AU19" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="AS19" t="s">
+      <c r="AW19" t="s">
         <v>8</v>
       </c>
-      <c r="AT19" t="s">
+      <c r="AX19" t="s">
         <v>9</v>
       </c>
-      <c r="AU19" t="s">
+      <c r="AY19" t="s">
         <v>10</v>
       </c>
-      <c r="AV19" t="s">
+      <c r="AZ19" t="s">
         <v>67</v>
       </c>
-      <c r="AW19" t="s">
+      <c r="BA19" t="s">
         <v>11</v>
       </c>
-      <c r="AX19" t="s">
+      <c r="BB19" t="s">
         <v>76</v>
       </c>
-      <c r="AZ19">
-        <v>250</v>
-      </c>
-      <c r="BA19">
-        <v>250</v>
-      </c>
-      <c r="BC19" s="59"/>
-      <c r="BD19" s="59"/>
-      <c r="BE19" s="59"/>
-      <c r="BF19" s="59"/>
-      <c r="BH19" s="25"/>
-      <c r="BI19" s="26"/>
-      <c r="BJ19" s="26"/>
-      <c r="BK19"/>
-      <c r="BL19"/>
+      <c r="BD19">
+        <v>250</v>
+      </c>
+      <c r="BE19">
+        <v>250</v>
+      </c>
+      <c r="BG19" s="59"/>
+      <c r="BH19" s="59"/>
+      <c r="BI19" s="59"/>
+      <c r="BJ19" s="59"/>
+      <c r="BL19" s="25"/>
       <c r="BM19" s="26"/>
-      <c r="BR19"/>
-      <c r="BS19"/>
-      <c r="BT19"/>
-      <c r="BU19"/>
+      <c r="BN19" s="26"/>
+      <c r="BO19"/>
+      <c r="BP19"/>
+      <c r="BQ19" s="26"/>
       <c r="BV19"/>
       <c r="BW19"/>
       <c r="BX19"/>
       <c r="BY19"/>
+      <c r="BZ19"/>
+      <c r="CA19"/>
+      <c r="CB19"/>
+      <c r="CC19"/>
     </row>
-    <row r="20" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A20" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D20,"&lt;&gt;"&amp;"")+COUNTIF(BQ20,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B20" s="23">
@@ -5461,106 +5675,116 @@
         <v>254</v>
       </c>
       <c r="V20" s="1"/>
-      <c r="W20" s="34" t="s">
+      <c r="W20" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="X20" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y20" s="34">
+        <v>6</v>
+      </c>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X20" s="16" t="s">
+      <c r="AB20" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y20" s="58" t="s">
+      <c r="AC20" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="Z20" s="34" t="s">
+      <c r="AD20" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA20" s="16" t="s">
+      <c r="AE20" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB20" s="58" t="s">
+      <c r="AF20" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="AC20" s="1"/>
-      <c r="AD20" s="19" t="s">
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="19" t="s">
         <v>298</v>
       </c>
-      <c r="AE20" s="19" t="s">
+      <c r="AI20" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="AF20" s="19" t="s">
+      <c r="AJ20" s="19" t="s">
         <v>324</v>
       </c>
-      <c r="AG20" s="19" t="s">
+      <c r="AK20" s="19" t="s">
         <v>272</v>
       </c>
-      <c r="AH20" s="19"/>
-      <c r="AI20" s="61" t="s">
+      <c r="AL20" s="19"/>
+      <c r="AM20" s="61" t="s">
         <v>207</v>
       </c>
-      <c r="AJ20" s="57"/>
-      <c r="AK20" s="13">
+      <c r="AN20" s="57"/>
+      <c r="AO20" s="13">
         <v>0.01</v>
       </c>
-      <c r="AM20" t="s">
+      <c r="AQ20" t="s">
         <v>249</v>
       </c>
-      <c r="AN20" s="43" t="s">
+      <c r="AR20" s="43" t="s">
         <v>247</v>
       </c>
-      <c r="AO20" s="1" t="s">
+      <c r="AS20" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AP20" s="43" t="s">
+      <c r="AT20" s="43" t="s">
         <v>248</v>
       </c>
-      <c r="AQ20" s="1" t="s">
+      <c r="AU20" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="AS20" t="s">
+      <c r="AW20" t="s">
         <v>8</v>
       </c>
-      <c r="AT20" t="s">
+      <c r="AX20" t="s">
         <v>9</v>
       </c>
-      <c r="AU20" t="s">
+      <c r="AY20" t="s">
         <v>10</v>
       </c>
-      <c r="AV20" t="s">
+      <c r="AZ20" t="s">
         <v>67</v>
       </c>
-      <c r="AW20" t="s">
+      <c r="BA20" t="s">
         <v>11</v>
       </c>
-      <c r="AX20" t="s">
+      <c r="BB20" t="s">
         <v>76</v>
       </c>
-      <c r="AZ20">
-        <v>250</v>
-      </c>
-      <c r="BA20">
-        <v>250</v>
-      </c>
-      <c r="BC20" s="59"/>
-      <c r="BD20" s="59"/>
-      <c r="BE20" s="59"/>
-      <c r="BF20" s="59"/>
-      <c r="BH20" s="25"/>
-      <c r="BI20" s="26"/>
-      <c r="BJ20" s="26"/>
-      <c r="BK20"/>
-      <c r="BL20"/>
+      <c r="BD20">
+        <v>250</v>
+      </c>
+      <c r="BE20">
+        <v>250</v>
+      </c>
+      <c r="BG20" s="59"/>
+      <c r="BH20" s="59"/>
+      <c r="BI20" s="59"/>
+      <c r="BJ20" s="59"/>
+      <c r="BL20" s="25"/>
       <c r="BM20" s="26"/>
-      <c r="BR20"/>
-      <c r="BS20"/>
-      <c r="BT20"/>
-      <c r="BU20"/>
+      <c r="BN20" s="26"/>
+      <c r="BO20"/>
+      <c r="BP20"/>
+      <c r="BQ20" s="26"/>
       <c r="BV20"/>
       <c r="BW20"/>
       <c r="BX20"/>
       <c r="BY20"/>
+      <c r="BZ20"/>
+      <c r="CA20"/>
+      <c r="CB20"/>
+      <c r="CC20"/>
     </row>
-    <row r="21" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A21" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D21,"&lt;&gt;"&amp;"")+COUNTIF(BQ21,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B21" s="23">
@@ -5605,106 +5829,116 @@
         <v>254</v>
       </c>
       <c r="V21" s="1"/>
-      <c r="W21" s="34" t="s">
+      <c r="W21" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="X21" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y21" s="34">
+        <v>7</v>
+      </c>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X21" s="16" t="s">
+      <c r="AB21" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y21" s="58" t="s">
+      <c r="AC21" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="Z21" s="34" t="s">
+      <c r="AD21" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA21" s="16" t="s">
+      <c r="AE21" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB21" s="58" t="s">
+      <c r="AF21" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="AC21" s="1"/>
-      <c r="AD21" s="19" t="s">
+      <c r="AG21" s="1"/>
+      <c r="AH21" s="19" t="s">
         <v>299</v>
       </c>
-      <c r="AE21" s="19" t="s">
+      <c r="AI21" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="AF21" s="19" t="s">
+      <c r="AJ21" s="19" t="s">
         <v>325</v>
       </c>
-      <c r="AG21" s="19" t="s">
+      <c r="AK21" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="AH21" s="19"/>
-      <c r="AI21" s="61" t="s">
+      <c r="AL21" s="19"/>
+      <c r="AM21" s="61" t="s">
         <v>208</v>
       </c>
-      <c r="AJ21" s="57"/>
-      <c r="AK21" s="13">
+      <c r="AN21" s="57"/>
+      <c r="AO21" s="13">
         <v>0.01</v>
       </c>
-      <c r="AM21" t="s">
+      <c r="AQ21" t="s">
         <v>249</v>
       </c>
-      <c r="AN21" s="43" t="s">
+      <c r="AR21" s="43" t="s">
         <v>247</v>
       </c>
-      <c r="AO21" s="1" t="s">
+      <c r="AS21" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AP21" s="43" t="s">
+      <c r="AT21" s="43" t="s">
         <v>248</v>
       </c>
-      <c r="AQ21" s="1" t="s">
+      <c r="AU21" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="AS21" t="s">
+      <c r="AW21" t="s">
         <v>8</v>
       </c>
-      <c r="AT21" t="s">
+      <c r="AX21" t="s">
         <v>9</v>
       </c>
-      <c r="AU21" t="s">
+      <c r="AY21" t="s">
         <v>10</v>
       </c>
-      <c r="AV21" t="s">
+      <c r="AZ21" t="s">
         <v>67</v>
       </c>
-      <c r="AW21" t="s">
+      <c r="BA21" t="s">
         <v>11</v>
       </c>
-      <c r="AX21" t="s">
+      <c r="BB21" t="s">
         <v>76</v>
       </c>
-      <c r="AZ21">
-        <v>250</v>
-      </c>
-      <c r="BA21">
-        <v>250</v>
-      </c>
-      <c r="BC21" s="59"/>
-      <c r="BD21" s="59"/>
-      <c r="BE21" s="59"/>
-      <c r="BF21" s="59"/>
-      <c r="BH21" s="25"/>
-      <c r="BI21" s="26"/>
-      <c r="BJ21" s="26"/>
-      <c r="BK21"/>
-      <c r="BL21"/>
+      <c r="BD21">
+        <v>250</v>
+      </c>
+      <c r="BE21">
+        <v>250</v>
+      </c>
+      <c r="BG21" s="59"/>
+      <c r="BH21" s="59"/>
+      <c r="BI21" s="59"/>
+      <c r="BJ21" s="59"/>
+      <c r="BL21" s="25"/>
       <c r="BM21" s="26"/>
-      <c r="BR21"/>
-      <c r="BS21"/>
-      <c r="BT21"/>
-      <c r="BU21"/>
+      <c r="BN21" s="26"/>
+      <c r="BO21"/>
+      <c r="BP21"/>
+      <c r="BQ21" s="26"/>
       <c r="BV21"/>
       <c r="BW21"/>
       <c r="BX21"/>
       <c r="BY21"/>
+      <c r="BZ21"/>
+      <c r="CA21"/>
+      <c r="CB21"/>
+      <c r="CC21"/>
     </row>
-    <row r="22" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A22" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D22,"&lt;&gt;"&amp;"")+COUNTIF(BQ22,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B22" s="23">
@@ -5749,106 +5983,116 @@
         <v>254</v>
       </c>
       <c r="V22" s="1"/>
-      <c r="W22" s="34" t="s">
+      <c r="W22" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="X22" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y22" s="34">
+        <v>7</v>
+      </c>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X22" s="16" t="s">
+      <c r="AB22" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y22" s="58" t="s">
+      <c r="AC22" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="Z22" s="34" t="s">
+      <c r="AD22" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA22" s="16" t="s">
+      <c r="AE22" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB22" s="58" t="s">
+      <c r="AF22" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="AC22" s="1"/>
-      <c r="AD22" s="19" t="s">
+      <c r="AG22" s="1"/>
+      <c r="AH22" s="19" t="s">
         <v>300</v>
       </c>
-      <c r="AE22" s="19" t="s">
+      <c r="AI22" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="AF22" s="19" t="s">
+      <c r="AJ22" s="19" t="s">
         <v>326</v>
       </c>
-      <c r="AG22" s="19" t="s">
+      <c r="AK22" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="AH22" s="19"/>
-      <c r="AI22" s="61" t="s">
+      <c r="AL22" s="19"/>
+      <c r="AM22" s="61" t="s">
         <v>209</v>
       </c>
-      <c r="AJ22" s="57"/>
-      <c r="AK22" s="13">
+      <c r="AN22" s="57"/>
+      <c r="AO22" s="13">
         <v>0.01</v>
       </c>
-      <c r="AM22" t="s">
+      <c r="AQ22" t="s">
         <v>249</v>
       </c>
-      <c r="AN22" s="43" t="s">
+      <c r="AR22" s="43" t="s">
         <v>247</v>
       </c>
-      <c r="AO22" s="1" t="s">
+      <c r="AS22" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AP22" s="43" t="s">
+      <c r="AT22" s="43" t="s">
         <v>248</v>
       </c>
-      <c r="AQ22" s="1" t="s">
+      <c r="AU22" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="AS22" t="s">
+      <c r="AW22" t="s">
         <v>8</v>
       </c>
-      <c r="AT22" t="s">
+      <c r="AX22" t="s">
         <v>9</v>
       </c>
-      <c r="AU22" t="s">
+      <c r="AY22" t="s">
         <v>10</v>
       </c>
-      <c r="AV22" t="s">
+      <c r="AZ22" t="s">
         <v>67</v>
       </c>
-      <c r="AW22" t="s">
+      <c r="BA22" t="s">
         <v>11</v>
       </c>
-      <c r="AX22" t="s">
+      <c r="BB22" t="s">
         <v>76</v>
       </c>
-      <c r="AZ22">
-        <v>250</v>
-      </c>
-      <c r="BA22">
-        <v>250</v>
-      </c>
-      <c r="BC22" s="59"/>
-      <c r="BD22" s="59"/>
-      <c r="BE22" s="59"/>
-      <c r="BF22" s="59"/>
-      <c r="BH22" s="25"/>
-      <c r="BI22" s="26"/>
-      <c r="BJ22" s="26"/>
-      <c r="BK22"/>
-      <c r="BL22"/>
+      <c r="BD22">
+        <v>250</v>
+      </c>
+      <c r="BE22">
+        <v>250</v>
+      </c>
+      <c r="BG22" s="59"/>
+      <c r="BH22" s="59"/>
+      <c r="BI22" s="59"/>
+      <c r="BJ22" s="59"/>
+      <c r="BL22" s="25"/>
       <c r="BM22" s="26"/>
-      <c r="BR22"/>
-      <c r="BS22"/>
-      <c r="BT22"/>
-      <c r="BU22"/>
+      <c r="BN22" s="26"/>
+      <c r="BO22"/>
+      <c r="BP22"/>
+      <c r="BQ22" s="26"/>
       <c r="BV22"/>
       <c r="BW22"/>
       <c r="BX22"/>
       <c r="BY22"/>
+      <c r="BZ22"/>
+      <c r="CA22"/>
+      <c r="CB22"/>
+      <c r="CC22"/>
     </row>
-    <row r="23" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A23" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D23,"&lt;&gt;"&amp;"")+COUNTIF(BQ23,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B23" s="23">
@@ -5893,106 +6137,116 @@
         <v>254</v>
       </c>
       <c r="V23" s="1"/>
-      <c r="W23" s="34" t="s">
+      <c r="W23" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="X23" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y23" s="34">
+        <v>7</v>
+      </c>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X23" s="16" t="s">
+      <c r="AB23" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y23" s="58" t="s">
+      <c r="AC23" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="Z23" s="34" t="s">
+      <c r="AD23" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA23" s="16" t="s">
+      <c r="AE23" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB23" s="58" t="s">
+      <c r="AF23" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="AC23" s="1"/>
-      <c r="AD23" s="19" t="s">
+      <c r="AG23" s="1"/>
+      <c r="AH23" s="19" t="s">
         <v>301</v>
       </c>
-      <c r="AE23" s="19" t="s">
+      <c r="AI23" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="AF23" s="19" t="s">
+      <c r="AJ23" s="19" t="s">
         <v>327</v>
       </c>
-      <c r="AG23" s="19" t="s">
+      <c r="AK23" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="AH23" s="19"/>
-      <c r="AI23" s="61" t="s">
+      <c r="AL23" s="19"/>
+      <c r="AM23" s="61" t="s">
         <v>210</v>
       </c>
-      <c r="AJ23" s="57"/>
-      <c r="AK23" s="13">
+      <c r="AN23" s="57"/>
+      <c r="AO23" s="13">
         <v>0.01</v>
       </c>
-      <c r="AM23" t="s">
+      <c r="AQ23" t="s">
         <v>249</v>
       </c>
-      <c r="AN23" s="43" t="s">
+      <c r="AR23" s="43" t="s">
         <v>247</v>
       </c>
-      <c r="AO23" s="1" t="s">
+      <c r="AS23" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AP23" s="43" t="s">
+      <c r="AT23" s="43" t="s">
         <v>248</v>
       </c>
-      <c r="AQ23" s="1" t="s">
+      <c r="AU23" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="AS23" t="s">
+      <c r="AW23" t="s">
         <v>8</v>
       </c>
-      <c r="AT23" t="s">
+      <c r="AX23" t="s">
         <v>9</v>
       </c>
-      <c r="AU23" t="s">
+      <c r="AY23" t="s">
         <v>10</v>
       </c>
-      <c r="AV23" t="s">
+      <c r="AZ23" t="s">
         <v>67</v>
       </c>
-      <c r="AW23" t="s">
+      <c r="BA23" t="s">
         <v>11</v>
       </c>
-      <c r="AX23" t="s">
+      <c r="BB23" t="s">
         <v>76</v>
       </c>
-      <c r="AZ23">
-        <v>250</v>
-      </c>
-      <c r="BA23">
-        <v>250</v>
-      </c>
-      <c r="BC23" s="59"/>
-      <c r="BD23" s="59"/>
-      <c r="BE23" s="59"/>
-      <c r="BF23" s="59"/>
-      <c r="BH23" s="25"/>
-      <c r="BI23" s="26"/>
-      <c r="BJ23" s="26"/>
-      <c r="BK23"/>
-      <c r="BL23"/>
+      <c r="BD23">
+        <v>250</v>
+      </c>
+      <c r="BE23">
+        <v>250</v>
+      </c>
+      <c r="BG23" s="59"/>
+      <c r="BH23" s="59"/>
+      <c r="BI23" s="59"/>
+      <c r="BJ23" s="59"/>
+      <c r="BL23" s="25"/>
       <c r="BM23" s="26"/>
-      <c r="BR23"/>
-      <c r="BS23"/>
-      <c r="BT23"/>
-      <c r="BU23"/>
+      <c r="BN23" s="26"/>
+      <c r="BO23"/>
+      <c r="BP23"/>
+      <c r="BQ23" s="26"/>
       <c r="BV23"/>
       <c r="BW23"/>
       <c r="BX23"/>
       <c r="BY23"/>
+      <c r="BZ23"/>
+      <c r="CA23"/>
+      <c r="CB23"/>
+      <c r="CC23"/>
     </row>
-    <row r="24" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A24" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D24,"&lt;&gt;"&amp;"")+COUNTIF(BQ24,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B24" s="23">
@@ -6037,106 +6291,116 @@
         <v>254</v>
       </c>
       <c r="V24" s="1"/>
-      <c r="W24" s="34" t="s">
+      <c r="W24" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="X24" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y24" s="34">
+        <v>8</v>
+      </c>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X24" s="16" t="s">
+      <c r="AB24" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y24" s="58" t="s">
+      <c r="AC24" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="Z24" s="34" t="s">
+      <c r="AD24" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA24" s="16" t="s">
+      <c r="AE24" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB24" s="58" t="s">
+      <c r="AF24" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="AC24" s="1"/>
-      <c r="AD24" s="19" t="s">
+      <c r="AG24" s="1"/>
+      <c r="AH24" s="19" t="s">
         <v>302</v>
       </c>
-      <c r="AE24" s="19" t="s">
+      <c r="AI24" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="AF24" s="19" t="s">
+      <c r="AJ24" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="AG24" s="19" t="s">
+      <c r="AK24" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="AH24" s="19"/>
-      <c r="AI24" s="61" t="s">
+      <c r="AL24" s="19"/>
+      <c r="AM24" s="61" t="s">
         <v>211</v>
       </c>
-      <c r="AJ24" s="57"/>
-      <c r="AK24" s="13">
+      <c r="AN24" s="57"/>
+      <c r="AO24" s="13">
         <v>0.01</v>
       </c>
-      <c r="AM24" t="s">
+      <c r="AQ24" t="s">
         <v>249</v>
       </c>
-      <c r="AN24" s="43" t="s">
+      <c r="AR24" s="43" t="s">
         <v>247</v>
       </c>
-      <c r="AO24" s="1" t="s">
+      <c r="AS24" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AP24" s="43" t="s">
+      <c r="AT24" s="43" t="s">
         <v>248</v>
       </c>
-      <c r="AQ24" s="1" t="s">
+      <c r="AU24" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="AS24" t="s">
+      <c r="AW24" t="s">
         <v>8</v>
       </c>
-      <c r="AT24" t="s">
+      <c r="AX24" t="s">
         <v>9</v>
       </c>
-      <c r="AU24" t="s">
+      <c r="AY24" t="s">
         <v>10</v>
       </c>
-      <c r="AV24" t="s">
+      <c r="AZ24" t="s">
         <v>67</v>
       </c>
-      <c r="AW24" t="s">
+      <c r="BA24" t="s">
         <v>11</v>
       </c>
-      <c r="AX24" t="s">
+      <c r="BB24" t="s">
         <v>76</v>
       </c>
-      <c r="AZ24">
-        <v>250</v>
-      </c>
-      <c r="BA24">
-        <v>250</v>
-      </c>
-      <c r="BC24" s="59"/>
-      <c r="BD24" s="59"/>
-      <c r="BE24" s="59"/>
-      <c r="BF24" s="59"/>
-      <c r="BH24" s="25"/>
-      <c r="BI24" s="26"/>
-      <c r="BJ24" s="26"/>
-      <c r="BK24"/>
-      <c r="BL24"/>
+      <c r="BD24">
+        <v>250</v>
+      </c>
+      <c r="BE24">
+        <v>250</v>
+      </c>
+      <c r="BG24" s="59"/>
+      <c r="BH24" s="59"/>
+      <c r="BI24" s="59"/>
+      <c r="BJ24" s="59"/>
+      <c r="BL24" s="25"/>
       <c r="BM24" s="26"/>
-      <c r="BR24"/>
-      <c r="BS24"/>
-      <c r="BT24"/>
-      <c r="BU24"/>
+      <c r="BN24" s="26"/>
+      <c r="BO24"/>
+      <c r="BP24"/>
+      <c r="BQ24" s="26"/>
       <c r="BV24"/>
       <c r="BW24"/>
       <c r="BX24"/>
       <c r="BY24"/>
+      <c r="BZ24"/>
+      <c r="CA24"/>
+      <c r="CB24"/>
+      <c r="CC24"/>
     </row>
-    <row r="25" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A25" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D25,"&lt;&gt;"&amp;"")+COUNTIF(BQ25,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B25" s="23">
@@ -6181,106 +6445,116 @@
         <v>254</v>
       </c>
       <c r="V25" s="1"/>
-      <c r="W25" s="34" t="s">
+      <c r="W25" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="X25" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y25" s="34">
+        <v>8</v>
+      </c>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X25" s="16" t="s">
+      <c r="AB25" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y25" s="58" t="s">
+      <c r="AC25" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="Z25" s="34" t="s">
+      <c r="AD25" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA25" s="16" t="s">
+      <c r="AE25" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB25" s="58" t="s">
+      <c r="AF25" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="AC25" s="1"/>
-      <c r="AD25" s="19" t="s">
+      <c r="AG25" s="1"/>
+      <c r="AH25" s="19" t="s">
         <v>303</v>
       </c>
-      <c r="AE25" s="19" t="s">
+      <c r="AI25" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="AF25" s="19" t="s">
+      <c r="AJ25" s="19" t="s">
         <v>329</v>
       </c>
-      <c r="AG25" s="19" t="s">
+      <c r="AK25" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="AH25" s="19"/>
-      <c r="AI25" s="61" t="s">
+      <c r="AL25" s="19"/>
+      <c r="AM25" s="61" t="s">
         <v>212</v>
       </c>
-      <c r="AJ25" s="57"/>
-      <c r="AK25" s="13">
+      <c r="AN25" s="57"/>
+      <c r="AO25" s="13">
         <v>0.01</v>
       </c>
-      <c r="AM25" t="s">
+      <c r="AQ25" t="s">
         <v>249</v>
       </c>
-      <c r="AN25" s="43" t="s">
+      <c r="AR25" s="43" t="s">
         <v>247</v>
       </c>
-      <c r="AO25" s="1" t="s">
+      <c r="AS25" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AP25" s="43" t="s">
+      <c r="AT25" s="43" t="s">
         <v>248</v>
       </c>
-      <c r="AQ25" s="1" t="s">
+      <c r="AU25" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="AS25" t="s">
+      <c r="AW25" t="s">
         <v>8</v>
       </c>
-      <c r="AT25" t="s">
+      <c r="AX25" t="s">
         <v>9</v>
       </c>
-      <c r="AU25" t="s">
+      <c r="AY25" t="s">
         <v>10</v>
       </c>
-      <c r="AV25" t="s">
+      <c r="AZ25" t="s">
         <v>67</v>
       </c>
-      <c r="AW25" t="s">
+      <c r="BA25" t="s">
         <v>11</v>
       </c>
-      <c r="AX25" t="s">
+      <c r="BB25" t="s">
         <v>76</v>
       </c>
-      <c r="AZ25">
-        <v>250</v>
-      </c>
-      <c r="BA25">
-        <v>250</v>
-      </c>
-      <c r="BC25" s="59"/>
-      <c r="BD25" s="59"/>
-      <c r="BE25" s="59"/>
-      <c r="BF25" s="59"/>
-      <c r="BH25" s="25"/>
-      <c r="BI25" s="26"/>
-      <c r="BJ25" s="26"/>
-      <c r="BK25"/>
-      <c r="BL25"/>
+      <c r="BD25">
+        <v>250</v>
+      </c>
+      <c r="BE25">
+        <v>250</v>
+      </c>
+      <c r="BG25" s="59"/>
+      <c r="BH25" s="59"/>
+      <c r="BI25" s="59"/>
+      <c r="BJ25" s="59"/>
+      <c r="BL25" s="25"/>
       <c r="BM25" s="26"/>
-      <c r="BR25"/>
-      <c r="BS25"/>
-      <c r="BT25"/>
-      <c r="BU25"/>
+      <c r="BN25" s="26"/>
+      <c r="BO25"/>
+      <c r="BP25"/>
+      <c r="BQ25" s="26"/>
       <c r="BV25"/>
       <c r="BW25"/>
       <c r="BX25"/>
       <c r="BY25"/>
+      <c r="BZ25"/>
+      <c r="CA25"/>
+      <c r="CB25"/>
+      <c r="CC25"/>
     </row>
-    <row r="26" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D26,"&lt;&gt;"&amp;"")+COUNTIF(BQ26,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B26" s="23">
@@ -6325,106 +6599,116 @@
         <v>254</v>
       </c>
       <c r="V26" s="1"/>
-      <c r="W26" s="34" t="s">
+      <c r="W26" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="X26" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y26" s="34">
+        <v>8</v>
+      </c>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X26" s="16" t="s">
+      <c r="AB26" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y26" s="58" t="s">
+      <c r="AC26" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="Z26" s="34" t="s">
+      <c r="AD26" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA26" s="16" t="s">
+      <c r="AE26" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB26" s="58" t="s">
+      <c r="AF26" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="AC26" s="1"/>
-      <c r="AD26" s="19" t="s">
+      <c r="AG26" s="1"/>
+      <c r="AH26" s="19" t="s">
         <v>304</v>
       </c>
-      <c r="AE26" s="19" t="s">
+      <c r="AI26" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="AF26" s="19" t="s">
+      <c r="AJ26" s="19" t="s">
         <v>330</v>
       </c>
-      <c r="AG26" s="19" t="s">
+      <c r="AK26" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="AH26" s="19"/>
-      <c r="AI26" s="61" t="s">
+      <c r="AL26" s="19"/>
+      <c r="AM26" s="61" t="s">
         <v>213</v>
       </c>
-      <c r="AJ26" s="57"/>
-      <c r="AK26" s="13">
+      <c r="AN26" s="57"/>
+      <c r="AO26" s="13">
         <v>0.01</v>
       </c>
-      <c r="AM26" t="s">
+      <c r="AQ26" t="s">
         <v>249</v>
       </c>
-      <c r="AN26" s="43" t="s">
+      <c r="AR26" s="43" t="s">
         <v>247</v>
       </c>
-      <c r="AO26" s="1" t="s">
+      <c r="AS26" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AP26" s="43" t="s">
+      <c r="AT26" s="43" t="s">
         <v>248</v>
       </c>
-      <c r="AQ26" s="1" t="s">
+      <c r="AU26" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="AS26" t="s">
+      <c r="AW26" t="s">
         <v>8</v>
       </c>
-      <c r="AT26" t="s">
+      <c r="AX26" t="s">
         <v>9</v>
       </c>
-      <c r="AU26" t="s">
+      <c r="AY26" t="s">
         <v>10</v>
       </c>
-      <c r="AV26" t="s">
+      <c r="AZ26" t="s">
         <v>67</v>
       </c>
-      <c r="AW26" t="s">
+      <c r="BA26" t="s">
         <v>11</v>
       </c>
-      <c r="AX26" t="s">
+      <c r="BB26" t="s">
         <v>76</v>
       </c>
-      <c r="AZ26">
-        <v>250</v>
-      </c>
-      <c r="BA26">
-        <v>250</v>
-      </c>
-      <c r="BC26" s="59"/>
-      <c r="BD26" s="59"/>
-      <c r="BE26" s="59"/>
-      <c r="BF26" s="59"/>
-      <c r="BH26" s="25"/>
-      <c r="BI26" s="26"/>
-      <c r="BJ26" s="26"/>
-      <c r="BK26"/>
-      <c r="BL26"/>
+      <c r="BD26">
+        <v>250</v>
+      </c>
+      <c r="BE26">
+        <v>250</v>
+      </c>
+      <c r="BG26" s="59"/>
+      <c r="BH26" s="59"/>
+      <c r="BI26" s="59"/>
+      <c r="BJ26" s="59"/>
+      <c r="BL26" s="25"/>
       <c r="BM26" s="26"/>
-      <c r="BR26"/>
-      <c r="BS26"/>
-      <c r="BT26"/>
-      <c r="BU26"/>
+      <c r="BN26" s="26"/>
+      <c r="BO26"/>
+      <c r="BP26"/>
+      <c r="BQ26" s="26"/>
       <c r="BV26"/>
       <c r="BW26"/>
       <c r="BX26"/>
       <c r="BY26"/>
+      <c r="BZ26"/>
+      <c r="CA26"/>
+      <c r="CB26"/>
+      <c r="CC26"/>
     </row>
-    <row r="27" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D27,"&lt;&gt;"&amp;"")+COUNTIF(BQ27,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B27" s="23">
@@ -6469,106 +6753,116 @@
         <v>254</v>
       </c>
       <c r="V27" s="1"/>
-      <c r="W27" s="34" t="s">
+      <c r="W27" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="X27" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y27" s="34">
+        <v>9</v>
+      </c>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X27" s="16" t="s">
+      <c r="AB27" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y27" s="58" t="s">
+      <c r="AC27" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="Z27" s="34" t="s">
+      <c r="AD27" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA27" s="16" t="s">
+      <c r="AE27" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB27" s="58" t="s">
+      <c r="AF27" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="AC27" s="1"/>
-      <c r="AD27" s="19" t="s">
+      <c r="AG27" s="1"/>
+      <c r="AH27" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="AE27" s="19" t="s">
+      <c r="AI27" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="AF27" s="19" t="s">
+      <c r="AJ27" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="AG27" s="19" t="s">
+      <c r="AK27" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="AH27" s="19"/>
-      <c r="AI27" s="61" t="s">
+      <c r="AL27" s="19"/>
+      <c r="AM27" s="61" t="s">
         <v>214</v>
       </c>
-      <c r="AJ27" s="57"/>
-      <c r="AK27" s="13">
+      <c r="AN27" s="57"/>
+      <c r="AO27" s="13">
         <v>0.01</v>
       </c>
-      <c r="AM27" t="s">
+      <c r="AQ27" t="s">
         <v>249</v>
       </c>
-      <c r="AN27" s="43" t="s">
+      <c r="AR27" s="43" t="s">
         <v>247</v>
       </c>
-      <c r="AO27" s="1" t="s">
+      <c r="AS27" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AP27" s="43" t="s">
+      <c r="AT27" s="43" t="s">
         <v>248</v>
       </c>
-      <c r="AQ27" s="1" t="s">
+      <c r="AU27" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="AS27" t="s">
+      <c r="AW27" t="s">
         <v>8</v>
       </c>
-      <c r="AT27" t="s">
+      <c r="AX27" t="s">
         <v>9</v>
       </c>
-      <c r="AU27" t="s">
+      <c r="AY27" t="s">
         <v>10</v>
       </c>
-      <c r="AV27" t="s">
+      <c r="AZ27" t="s">
         <v>67</v>
       </c>
-      <c r="AW27" t="s">
+      <c r="BA27" t="s">
         <v>11</v>
       </c>
-      <c r="AX27" t="s">
+      <c r="BB27" t="s">
         <v>76</v>
       </c>
-      <c r="AZ27">
-        <v>250</v>
-      </c>
-      <c r="BA27">
-        <v>250</v>
-      </c>
-      <c r="BC27" s="59"/>
-      <c r="BD27" s="59"/>
-      <c r="BE27" s="59"/>
-      <c r="BF27" s="59"/>
-      <c r="BH27" s="25"/>
-      <c r="BI27" s="26"/>
-      <c r="BJ27" s="26"/>
-      <c r="BK27"/>
-      <c r="BL27"/>
+      <c r="BD27">
+        <v>250</v>
+      </c>
+      <c r="BE27">
+        <v>250</v>
+      </c>
+      <c r="BG27" s="59"/>
+      <c r="BH27" s="59"/>
+      <c r="BI27" s="59"/>
+      <c r="BJ27" s="59"/>
+      <c r="BL27" s="25"/>
       <c r="BM27" s="26"/>
-      <c r="BR27"/>
-      <c r="BS27"/>
-      <c r="BT27"/>
-      <c r="BU27"/>
+      <c r="BN27" s="26"/>
+      <c r="BO27"/>
+      <c r="BP27"/>
+      <c r="BQ27" s="26"/>
       <c r="BV27"/>
       <c r="BW27"/>
       <c r="BX27"/>
       <c r="BY27"/>
+      <c r="BZ27"/>
+      <c r="CA27"/>
+      <c r="CB27"/>
+      <c r="CC27"/>
     </row>
-    <row r="28" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D28,"&lt;&gt;"&amp;"")+COUNTIF(BQ28,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B28" s="23">
@@ -6613,106 +6907,116 @@
         <v>254</v>
       </c>
       <c r="V28" s="1"/>
-      <c r="W28" s="34" t="s">
+      <c r="W28" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="X28" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y28" s="34">
+        <v>9</v>
+      </c>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X28" s="16" t="s">
+      <c r="AB28" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y28" s="58" t="s">
+      <c r="AC28" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="Z28" s="34" t="s">
+      <c r="AD28" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA28" s="16" t="s">
+      <c r="AE28" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB28" s="58" t="s">
+      <c r="AF28" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="AC28" s="1"/>
-      <c r="AD28" s="19" t="s">
+      <c r="AG28" s="1"/>
+      <c r="AH28" s="19" t="s">
         <v>306</v>
       </c>
-      <c r="AE28" s="19" t="s">
+      <c r="AI28" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="AF28" s="19" t="s">
+      <c r="AJ28" s="19" t="s">
         <v>332</v>
       </c>
-      <c r="AG28" s="19" t="s">
+      <c r="AK28" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="AH28" s="19"/>
-      <c r="AI28" s="61" t="s">
+      <c r="AL28" s="19"/>
+      <c r="AM28" s="61" t="s">
         <v>215</v>
       </c>
-      <c r="AJ28" s="57"/>
-      <c r="AK28" s="13">
+      <c r="AN28" s="57"/>
+      <c r="AO28" s="13">
         <v>0.01</v>
       </c>
-      <c r="AM28" t="s">
+      <c r="AQ28" t="s">
         <v>249</v>
       </c>
-      <c r="AN28" s="43" t="s">
+      <c r="AR28" s="43" t="s">
         <v>247</v>
       </c>
-      <c r="AO28" s="1" t="s">
+      <c r="AS28" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AP28" s="43" t="s">
+      <c r="AT28" s="43" t="s">
         <v>248</v>
       </c>
-      <c r="AQ28" s="1" t="s">
+      <c r="AU28" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="AS28" t="s">
+      <c r="AW28" t="s">
         <v>8</v>
       </c>
-      <c r="AT28" t="s">
+      <c r="AX28" t="s">
         <v>9</v>
       </c>
-      <c r="AU28" t="s">
+      <c r="AY28" t="s">
         <v>10</v>
       </c>
-      <c r="AV28" t="s">
+      <c r="AZ28" t="s">
         <v>67</v>
       </c>
-      <c r="AW28" t="s">
+      <c r="BA28" t="s">
         <v>11</v>
       </c>
-      <c r="AX28" t="s">
+      <c r="BB28" t="s">
         <v>76</v>
       </c>
-      <c r="AZ28">
-        <v>250</v>
-      </c>
-      <c r="BA28">
-        <v>250</v>
-      </c>
-      <c r="BC28" s="59"/>
-      <c r="BD28" s="59"/>
-      <c r="BE28" s="59"/>
-      <c r="BF28" s="59"/>
-      <c r="BH28" s="25"/>
-      <c r="BI28" s="26"/>
-      <c r="BJ28" s="26"/>
-      <c r="BK28"/>
-      <c r="BL28"/>
+      <c r="BD28">
+        <v>250</v>
+      </c>
+      <c r="BE28">
+        <v>250</v>
+      </c>
+      <c r="BG28" s="59"/>
+      <c r="BH28" s="59"/>
+      <c r="BI28" s="59"/>
+      <c r="BJ28" s="59"/>
+      <c r="BL28" s="25"/>
       <c r="BM28" s="26"/>
-      <c r="BR28"/>
-      <c r="BS28"/>
-      <c r="BT28"/>
-      <c r="BU28"/>
+      <c r="BN28" s="26"/>
+      <c r="BO28"/>
+      <c r="BP28"/>
+      <c r="BQ28" s="26"/>
       <c r="BV28"/>
       <c r="BW28"/>
       <c r="BX28"/>
       <c r="BY28"/>
+      <c r="BZ28"/>
+      <c r="CA28"/>
+      <c r="CB28"/>
+      <c r="CC28"/>
     </row>
-    <row r="29" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A29" s="12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D29,"&lt;&gt;"&amp;"")+COUNTIF(BQ29,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B29" s="23">
@@ -6757,184 +7061,184 @@
         <v>254</v>
       </c>
       <c r="V29" s="1"/>
-      <c r="W29" s="34" t="s">
+      <c r="W29" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="X29" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y29" s="34">
+        <v>9</v>
+      </c>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="X29" s="16" t="s">
+      <c r="AB29" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Y29" s="58" t="s">
+      <c r="AC29" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="Z29" s="34" t="s">
+      <c r="AD29" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AA29" s="16" t="s">
+      <c r="AE29" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AB29" s="58" t="s">
+      <c r="AF29" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="AC29" s="1"/>
-      <c r="AD29" s="19" t="s">
+      <c r="AG29" s="1"/>
+      <c r="AH29" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="AE29" s="19" t="s">
+      <c r="AI29" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="AF29" s="19" t="s">
+      <c r="AJ29" s="19" t="s">
         <v>332</v>
       </c>
-      <c r="AG29" s="19" t="s">
+      <c r="AK29" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="AH29" s="19"/>
-      <c r="AI29" s="61" t="s">
+      <c r="AL29" s="19"/>
+      <c r="AM29" s="61" t="s">
         <v>216</v>
       </c>
-      <c r="AJ29" s="57"/>
-      <c r="AK29" s="13">
+      <c r="AN29" s="57"/>
+      <c r="AO29" s="13">
         <v>0.01</v>
       </c>
-      <c r="AM29" t="s">
+      <c r="AQ29" t="s">
         <v>249</v>
       </c>
-      <c r="AN29" s="43" t="s">
+      <c r="AR29" s="43" t="s">
         <v>247</v>
       </c>
-      <c r="AO29" s="1" t="s">
+      <c r="AS29" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AP29" s="43" t="s">
+      <c r="AT29" s="43" t="s">
         <v>248</v>
       </c>
-      <c r="AQ29" s="1" t="s">
+      <c r="AU29" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="AS29" t="s">
+      <c r="AW29" t="s">
         <v>8</v>
       </c>
-      <c r="AT29" t="s">
+      <c r="AX29" t="s">
         <v>9</v>
       </c>
-      <c r="AU29" t="s">
+      <c r="AY29" t="s">
         <v>10</v>
       </c>
-      <c r="AV29" t="s">
+      <c r="AZ29" t="s">
         <v>67</v>
       </c>
-      <c r="AW29" t="s">
+      <c r="BA29" t="s">
         <v>11</v>
       </c>
-      <c r="AX29" t="s">
+      <c r="BB29" t="s">
         <v>76</v>
       </c>
-      <c r="AZ29">
-        <v>250</v>
-      </c>
-      <c r="BA29">
-        <v>250</v>
-      </c>
-      <c r="BC29" s="59"/>
-      <c r="BD29" s="59"/>
-      <c r="BE29" s="59"/>
-      <c r="BF29" s="59"/>
-      <c r="BH29" s="25"/>
-      <c r="BI29" s="26"/>
-      <c r="BJ29" s="26"/>
-      <c r="BK29"/>
-      <c r="BL29"/>
+      <c r="BD29">
+        <v>250</v>
+      </c>
+      <c r="BE29">
+        <v>250</v>
+      </c>
+      <c r="BG29" s="59"/>
+      <c r="BH29" s="59"/>
+      <c r="BI29" s="59"/>
+      <c r="BJ29" s="59"/>
+      <c r="BL29" s="25"/>
       <c r="BM29" s="26"/>
-      <c r="BR29"/>
-      <c r="BS29"/>
-      <c r="BT29"/>
-      <c r="BU29"/>
+      <c r="BN29" s="26"/>
+      <c r="BO29"/>
+      <c r="BP29"/>
+      <c r="BQ29" s="26"/>
       <c r="BV29"/>
       <c r="BW29"/>
       <c r="BX29"/>
       <c r="BY29"/>
+      <c r="BZ29"/>
+      <c r="CA29"/>
+      <c r="CB29"/>
+      <c r="CC29"/>
     </row>
-    <row r="30" spans="1:77" x14ac:dyDescent="0.2">
-      <c r="AK30" s="13"/>
+    <row r="30" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="AO30" s="13"/>
     </row>
-    <row r="31" spans="1:77" x14ac:dyDescent="0.2">
-      <c r="AK31" s="13"/>
+    <row r="31" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="AO31" s="13"/>
     </row>
-    <row r="32" spans="1:77" x14ac:dyDescent="0.2">
-      <c r="AK32" s="13"/>
+    <row r="32" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="AO32" s="13"/>
     </row>
-    <row r="33" spans="37:37" x14ac:dyDescent="0.2">
-      <c r="AK33" s="13"/>
+    <row r="33" spans="41:41" x14ac:dyDescent="0.2">
+      <c r="AO33" s="13"/>
     </row>
-    <row r="34" spans="37:37" x14ac:dyDescent="0.2">
-      <c r="AK34" s="13"/>
+    <row r="34" spans="41:41" x14ac:dyDescent="0.2">
+      <c r="AO34" s="13"/>
     </row>
-    <row r="35" spans="37:37" x14ac:dyDescent="0.2">
-      <c r="AK35" s="13"/>
+    <row r="35" spans="41:41" x14ac:dyDescent="0.2">
+      <c r="AO35" s="13"/>
     </row>
-    <row r="36" spans="37:37" x14ac:dyDescent="0.2">
-      <c r="AK36" s="13"/>
+    <row r="36" spans="41:41" x14ac:dyDescent="0.2">
+      <c r="AO36" s="13"/>
     </row>
-    <row r="37" spans="37:37" x14ac:dyDescent="0.2">
-      <c r="AK37" s="13"/>
+    <row r="37" spans="41:41" x14ac:dyDescent="0.2">
+      <c r="AO37" s="13"/>
     </row>
-    <row r="38" spans="37:37" x14ac:dyDescent="0.2">
-      <c r="AK38" s="13"/>
+    <row r="38" spans="41:41" x14ac:dyDescent="0.2">
+      <c r="AO38" s="13"/>
     </row>
-    <row r="39" spans="37:37" x14ac:dyDescent="0.2">
-      <c r="AK39" s="13"/>
+    <row r="39" spans="41:41" x14ac:dyDescent="0.2">
+      <c r="AO39" s="13"/>
     </row>
-    <row r="40" spans="37:37" x14ac:dyDescent="0.2">
-      <c r="AK40" s="13"/>
+    <row r="40" spans="41:41" x14ac:dyDescent="0.2">
+      <c r="AO40" s="13"/>
     </row>
-    <row r="41" spans="37:37" x14ac:dyDescent="0.2">
-      <c r="AK41" s="13"/>
+    <row r="41" spans="41:41" x14ac:dyDescent="0.2">
+      <c r="AO41" s="13"/>
     </row>
-    <row r="42" spans="37:37" x14ac:dyDescent="0.2">
-      <c r="AK42" s="13"/>
+    <row r="42" spans="41:41" x14ac:dyDescent="0.2">
+      <c r="AO42" s="13"/>
     </row>
-    <row r="43" spans="37:37" x14ac:dyDescent="0.2">
-      <c r="AK43" s="13"/>
+    <row r="43" spans="41:41" x14ac:dyDescent="0.2">
+      <c r="AO43" s="13"/>
     </row>
-    <row r="44" spans="37:37" x14ac:dyDescent="0.2">
-      <c r="AK44" s="13"/>
+    <row r="44" spans="41:41" x14ac:dyDescent="0.2">
+      <c r="AO44" s="13"/>
     </row>
-    <row r="45" spans="37:37" x14ac:dyDescent="0.2">
-      <c r="AK45" s="13"/>
+    <row r="45" spans="41:41" x14ac:dyDescent="0.2">
+      <c r="AO45" s="13"/>
     </row>
-    <row r="46" spans="37:37" x14ac:dyDescent="0.2">
-      <c r="AK46" s="13"/>
+    <row r="46" spans="41:41" x14ac:dyDescent="0.2">
+      <c r="AO46" s="13"/>
     </row>
-    <row r="47" spans="37:37" x14ac:dyDescent="0.2">
-      <c r="AK47" s="13"/>
+    <row r="47" spans="41:41" x14ac:dyDescent="0.2">
+      <c r="AO47" s="13"/>
     </row>
-    <row r="48" spans="37:37" x14ac:dyDescent="0.2">
-      <c r="AK48" s="13"/>
+    <row r="48" spans="41:41" x14ac:dyDescent="0.2">
+      <c r="AO48" s="13"/>
     </row>
-    <row r="49" spans="37:37" x14ac:dyDescent="0.2">
-      <c r="AK49" s="13"/>
+    <row r="49" spans="41:41" x14ac:dyDescent="0.2">
+      <c r="AO49" s="13"/>
     </row>
-    <row r="50" spans="37:37" x14ac:dyDescent="0.2">
-      <c r="AK50" s="13"/>
+    <row r="50" spans="41:41" x14ac:dyDescent="0.2">
+      <c r="AO50" s="13"/>
     </row>
-    <row r="51" spans="37:37" x14ac:dyDescent="0.2">
-      <c r="AK51" s="13"/>
+    <row r="51" spans="41:41" x14ac:dyDescent="0.2">
+      <c r="AO51" s="13"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{06B92370-743D-804F-912C-658BE37B1274}" topLeftCell="X1">
-      <pane ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="AD344" sqref="AD344"/>
-      <rowBreaks count="2" manualBreakCount="2">
-        <brk id="1" max="16383" man="1"/>
-        <brk id="325" max="16383" man="1"/>
-      </rowBreaks>
-      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-    </customSheetView>
-    <customSheetView guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" topLeftCell="AP1">
-      <pane ySplit="2.03125" topLeftCell="A342" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BA367" sqref="BA367"/>
+    <customSheetView guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" topLeftCell="BD1">
+      <pane ySplit="2" topLeftCell="A273" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BG334" sqref="BG334"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="1" max="16383" man="1"/>
         <brk id="325" max="16383" man="1"/>
@@ -6952,9 +7256,9 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" topLeftCell="BD1">
-      <pane ySplit="2" topLeftCell="A273" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BG334" sqref="BG334"/>
+    <customSheetView guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" topLeftCell="AP1">
+      <pane ySplit="2.03125" topLeftCell="A342" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BA367" sqref="BA367"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="1" max="16383" man="1"/>
         <brk id="325" max="16383" man="1"/>
@@ -6962,16 +7266,26 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
+    <customSheetView guid="{06B92370-743D-804F-912C-658BE37B1274}" topLeftCell="X1">
+      <pane ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="AD344" sqref="AD344"/>
+      <rowBreaks count="2" manualBreakCount="2">
+        <brk id="1" max="16383" man="1"/>
+        <brk id="325" max="16383" man="1"/>
+      </rowBreaks>
+      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+    </customSheetView>
   </customSheetViews>
   <mergeCells count="3">
-    <mergeCell ref="BC1:BF1"/>
-    <mergeCell ref="BH1:BM1"/>
-    <mergeCell ref="BO1:BP1"/>
+    <mergeCell ref="BG1:BJ1"/>
+    <mergeCell ref="BL1:BQ1"/>
+    <mergeCell ref="BS1:BT1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="AJ3:AJ29">
+  <conditionalFormatting sqref="AN3:AN29">
     <cfRule type="containsBlanks" dxfId="4" priority="9" stopIfTrue="1">
-      <formula>LEN(TRIM(AJ3))=0</formula>
+      <formula>LEN(TRIM(AN3))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="10" operator="lessThan">
       <formula>0.02</formula>
@@ -7000,10 +7314,10 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="Y3" r:id="rId1"/>
-    <hyperlink ref="AB3" r:id="rId2"/>
-    <hyperlink ref="AB4:AB29" r:id="rId3" display="jan.pawlowski@unige.ch"/>
-    <hyperlink ref="Y4:Y29" r:id="rId4" display="lucas@sinclair.bio"/>
+    <hyperlink ref="AC3" r:id="rId1"/>
+    <hyperlink ref="AF3" r:id="rId2"/>
+    <hyperlink ref="AF4:AF29" r:id="rId3" display="jan.pawlowski@unige.ch"/>
+    <hyperlink ref="AC4:AC29" r:id="rId4" display="lucas@sinclair.bio"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/metadata/excel/projects/sinclair/testproj/metadata.xlsx
+++ b/metadata/excel/projects/sinclair/testproj/metadata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3140" yWindow="6940" windowWidth="31140" windowHeight="17620" tabRatio="500"/>
+    <workbookView xWindow="14020" yWindow="5740" windowWidth="35600" windowHeight="22440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="micans_v6_ex1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="362">
   <si>
     <t>Country</t>
   </si>
@@ -1157,14 +1157,70 @@
   <si>
     <t>Hadera</t>
   </si>
+  <si>
+    <t>Time of sampling (optional)</t>
+  </si>
+  <si>
+    <t>13:01:15</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Nearer Dorad power station</t>
+  </si>
+  <si>
+    <t>12:15:24</t>
+  </si>
+  <si>
+    <t>Near Dorad power station</t>
+  </si>
+  <si>
+    <t>16:47:16</t>
+  </si>
+  <si>
+    <t>Near Ashkelon</t>
+  </si>
+  <si>
+    <t>05:44:00</t>
+  </si>
+  <si>
+    <t>Near Palmahim</t>
+  </si>
+  <si>
+    <t>07:42:42</t>
+  </si>
+  <si>
+    <t>09:15:36</t>
+  </si>
+  <si>
+    <t>Palmahim coast</t>
+  </si>
+  <si>
+    <t>07:35:15</t>
+  </si>
+  <si>
+    <t>Nearer Orot Rabin power plant</t>
+  </si>
+  <si>
+    <t>06:34:58</t>
+  </si>
+  <si>
+    <t>Near Orot Rabin power plant</t>
+  </si>
+  <si>
+    <t>09:52:02</t>
+  </si>
+  <si>
+    <t>Near Gedor Sea Reserve</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="165" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
@@ -1672,7 +1728,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1718,8 +1774,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1742,18 +1796,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1764,7 +1818,7 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1795,14 +1849,23 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="290"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="291">
@@ -2487,31 +2550,31 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:CD51"/>
+  <dimension ref="A1:CE51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="BG1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="X1" sqref="X1"/>
-      <selection pane="bottomLeft" activeCell="V31" sqref="V31"/>
+      <selection pane="bottomLeft" activeCell="BO35" sqref="BO35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="12" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" style="28" customWidth="1"/>
-    <col min="4" max="4" width="27" style="28" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" style="26" customWidth="1"/>
+    <col min="4" max="4" width="27" style="26" customWidth="1"/>
     <col min="5" max="5" width="27.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.5" style="12" customWidth="1"/>
-    <col min="7" max="7" width="15" style="31" customWidth="1"/>
-    <col min="8" max="8" width="33.1640625" style="31" customWidth="1"/>
-    <col min="9" max="9" width="13.1640625" style="32" customWidth="1"/>
-    <col min="10" max="10" width="16.1640625" style="31" customWidth="1"/>
-    <col min="11" max="11" width="20.5" style="31" customWidth="1"/>
-    <col min="12" max="13" width="22" style="31" customWidth="1"/>
+    <col min="7" max="7" width="15" style="29" customWidth="1"/>
+    <col min="8" max="8" width="33.1640625" style="29" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" style="30" customWidth="1"/>
+    <col min="10" max="10" width="16.1640625" style="29" customWidth="1"/>
+    <col min="11" max="11" width="20.5" style="29" customWidth="1"/>
+    <col min="12" max="13" width="22" style="29" customWidth="1"/>
     <col min="14" max="14" width="11.5" customWidth="1"/>
-    <col min="15" max="15" width="15.83203125" style="39" customWidth="1"/>
-    <col min="16" max="16" width="14" style="42" customWidth="1"/>
+    <col min="15" max="15" width="15.83203125" style="37" customWidth="1"/>
+    <col min="16" max="16" width="14" style="40" customWidth="1"/>
     <col min="17" max="18" width="16.83203125" customWidth="1"/>
     <col min="19" max="19" width="11.5" customWidth="1"/>
     <col min="20" max="20" width="33" style="16" customWidth="1"/>
@@ -2519,12 +2582,12 @@
     <col min="22" max="22" width="9.83203125" customWidth="1"/>
     <col min="23" max="23" width="13.83203125" style="16" customWidth="1"/>
     <col min="24" max="24" width="13.1640625" style="16" customWidth="1"/>
-    <col min="25" max="25" width="13.5" style="34" customWidth="1"/>
+    <col min="25" max="25" width="13.5" style="32" customWidth="1"/>
     <col min="26" max="26" width="9.83203125" customWidth="1"/>
-    <col min="27" max="27" width="25.5" style="34" customWidth="1"/>
+    <col min="27" max="27" width="25.5" style="32" customWidth="1"/>
     <col min="28" max="28" width="20.1640625" style="16" customWidth="1"/>
     <col min="29" max="29" width="22" style="19" customWidth="1"/>
-    <col min="30" max="30" width="17.83203125" style="34" customWidth="1"/>
+    <col min="30" max="30" width="17.83203125" style="32" customWidth="1"/>
     <col min="31" max="31" width="21.5" style="16" customWidth="1"/>
     <col min="32" max="32" width="27.6640625" style="20" customWidth="1"/>
     <col min="33" max="33" width="9.83203125" customWidth="1"/>
@@ -2538,9 +2601,9 @@
     <col min="41" max="41" width="10.33203125" customWidth="1"/>
     <col min="42" max="42" width="11.5" customWidth="1"/>
     <col min="43" max="43" width="28.33203125" customWidth="1"/>
-    <col min="44" max="44" width="12.1640625" style="43" customWidth="1"/>
+    <col min="44" max="44" width="12.1640625" style="41" customWidth="1"/>
     <col min="45" max="45" width="32.83203125" style="1" customWidth="1"/>
-    <col min="46" max="46" width="12.83203125" style="43" customWidth="1"/>
+    <col min="46" max="46" width="12.83203125" style="41" customWidth="1"/>
     <col min="47" max="47" width="35.6640625" style="1" customWidth="1"/>
     <col min="48" max="48" width="10.1640625" customWidth="1"/>
     <col min="49" max="49" width="12.5" customWidth="1"/>
@@ -2556,55 +2619,55 @@
     <col min="59" max="61" width="19.83203125" customWidth="1"/>
     <col min="62" max="62" width="20.83203125" customWidth="1"/>
     <col min="63" max="63" width="8.6640625" customWidth="1"/>
-    <col min="64" max="64" width="15.5" customWidth="1"/>
-    <col min="65" max="65" width="13.6640625" style="11" customWidth="1"/>
-    <col min="66" max="66" width="13.1640625" style="11" customWidth="1"/>
-    <col min="67" max="67" width="12.5" style="16" customWidth="1"/>
-    <col min="68" max="68" width="26" style="16" customWidth="1"/>
-    <col min="69" max="69" width="31.33203125" style="16" customWidth="1"/>
-    <col min="70" max="70" width="9" customWidth="1"/>
-    <col min="71" max="71" width="16.5" customWidth="1"/>
-    <col min="72" max="72" width="16" customWidth="1"/>
-    <col min="73" max="73" width="9.5" customWidth="1"/>
-    <col min="74" max="74" width="11" style="22" customWidth="1"/>
-    <col min="75" max="75" width="11.6640625" style="22" customWidth="1"/>
-    <col min="76" max="76" width="14.33203125" style="22" customWidth="1"/>
-    <col min="77" max="77" width="12.6640625" style="22" customWidth="1"/>
-    <col min="78" max="78" width="13.6640625" style="22" customWidth="1"/>
-    <col min="79" max="79" width="15.33203125" style="22" customWidth="1"/>
-    <col min="80" max="80" width="15.5" style="22" customWidth="1"/>
-    <col min="81" max="81" width="14.6640625" style="22" customWidth="1"/>
-    <col min="82" max="82" width="9.6640625" customWidth="1"/>
+    <col min="64" max="65" width="15.5" customWidth="1"/>
+    <col min="66" max="66" width="13.6640625" style="11" customWidth="1"/>
+    <col min="67" max="67" width="13.1640625" style="11" customWidth="1"/>
+    <col min="68" max="68" width="12.5" style="16" customWidth="1"/>
+    <col min="69" max="69" width="26" style="16" customWidth="1"/>
+    <col min="70" max="70" width="31.33203125" style="16" customWidth="1"/>
+    <col min="71" max="71" width="9" customWidth="1"/>
+    <col min="72" max="72" width="16.5" customWidth="1"/>
+    <col min="73" max="73" width="16" customWidth="1"/>
+    <col min="74" max="74" width="9.5" customWidth="1"/>
+    <col min="75" max="75" width="11" style="22" customWidth="1"/>
+    <col min="76" max="76" width="11.6640625" style="22" customWidth="1"/>
+    <col min="77" max="77" width="14.33203125" style="22" customWidth="1"/>
+    <col min="78" max="78" width="12.6640625" style="22" customWidth="1"/>
+    <col min="79" max="79" width="13.6640625" style="22" customWidth="1"/>
+    <col min="80" max="80" width="15.33203125" style="22" customWidth="1"/>
+    <col min="81" max="81" width="15.5" style="22" customWidth="1"/>
+    <col min="82" max="82" width="14.6640625" style="22" customWidth="1"/>
+    <col min="83" max="83" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B1" s="3"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
       <c r="E1" s="9"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="40"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="38"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="6"/>
       <c r="T1" s="6"/>
       <c r="U1" s="17"/>
       <c r="W1" s="17"/>
       <c r="X1" s="17"/>
-      <c r="Y1" s="35"/>
-      <c r="AA1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="AA1" s="31"/>
       <c r="AB1" s="17"/>
       <c r="AC1" s="18"/>
-      <c r="AD1" s="35"/>
+      <c r="AD1" s="33"/>
       <c r="AE1" s="17"/>
       <c r="AF1" s="3"/>
       <c r="AH1" s="3"/>
@@ -2616,9 +2679,9 @@
       <c r="AN1" s="14"/>
       <c r="AO1" s="3"/>
       <c r="AQ1" s="8"/>
-      <c r="AR1" s="27"/>
+      <c r="AR1" s="25"/>
       <c r="AS1" s="9"/>
-      <c r="AT1" s="27"/>
+      <c r="AT1" s="25"/>
       <c r="AU1" s="7"/>
       <c r="AW1" s="3"/>
       <c r="AX1" s="3"/>
@@ -2629,298 +2692,302 @@
       <c r="BC1" s="3"/>
       <c r="BD1" s="3"/>
       <c r="BE1" s="10"/>
-      <c r="BG1" s="62" t="s">
+      <c r="BG1" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="BH1" s="62"/>
-      <c r="BI1" s="62"/>
-      <c r="BJ1" s="62"/>
-      <c r="BL1" s="62" t="s">
+      <c r="BH1" s="61"/>
+      <c r="BI1" s="61"/>
+      <c r="BJ1" s="61"/>
+      <c r="BL1" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="BM1" s="62"/>
-      <c r="BN1" s="62"/>
-      <c r="BO1" s="62"/>
-      <c r="BP1" s="62"/>
-      <c r="BQ1" s="62"/>
-      <c r="BS1" s="62" t="s">
+      <c r="BM1" s="61"/>
+      <c r="BN1" s="61"/>
+      <c r="BO1" s="61"/>
+      <c r="BP1" s="61"/>
+      <c r="BQ1" s="61"/>
+      <c r="BR1" s="61"/>
+      <c r="BT1" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="BT1" s="62"/>
-      <c r="BV1" s="8" t="s">
+      <c r="BU1" s="61"/>
+      <c r="BW1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="BW1" s="21"/>
       <c r="BX1" s="21"/>
       <c r="BY1" s="21"/>
       <c r="BZ1" s="21"/>
       <c r="CA1" s="21"/>
       <c r="CB1" s="21"/>
       <c r="CC1" s="21"/>
+      <c r="CD1" s="21"/>
     </row>
-    <row r="2" spans="1:82" s="54" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="44" t="s">
+    <row r="2" spans="1:83" s="52" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="45"/>
-      <c r="G2" s="44" t="s">
+      <c r="F2" s="43"/>
+      <c r="G2" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="I2" s="44" t="s">
+      <c r="I2" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="J2" s="44" t="s">
+      <c r="J2" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="K2" s="44" t="s">
+      <c r="K2" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="L2" s="44" t="s">
+      <c r="L2" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="M2" s="44" t="s">
+      <c r="M2" s="42" t="s">
         <v>246</v>
       </c>
-      <c r="N2" s="46"/>
-      <c r="O2" s="47" t="s">
+      <c r="N2" s="44"/>
+      <c r="O2" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="P2" s="47" t="s">
+      <c r="P2" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="Q2" s="44" t="s">
+      <c r="Q2" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="44" t="s">
+      <c r="R2" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="46"/>
-      <c r="T2" s="44" t="s">
+      <c r="S2" s="44"/>
+      <c r="T2" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="U2" s="44" t="s">
+      <c r="U2" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="V2" s="46"/>
-      <c r="W2" s="44" t="s">
+      <c r="V2" s="44"/>
+      <c r="W2" s="42" t="s">
         <v>334</v>
       </c>
-      <c r="X2" s="44" t="s">
+      <c r="X2" s="42" t="s">
         <v>335</v>
       </c>
-      <c r="Y2" s="44" t="s">
+      <c r="Y2" s="42" t="s">
         <v>336</v>
       </c>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="44" t="s">
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="AB2" s="44" t="s">
+      <c r="AB2" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="AC2" s="44" t="s">
+      <c r="AC2" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AD2" s="44" t="s">
+      <c r="AD2" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="AE2" s="44" t="s">
+      <c r="AE2" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="AF2" s="44" t="s">
+      <c r="AF2" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="AG2" s="46"/>
-      <c r="AH2" s="44" t="s">
+      <c r="AG2" s="44"/>
+      <c r="AH2" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="AI2" s="44" t="s">
+      <c r="AI2" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="AJ2" s="44" t="s">
+      <c r="AJ2" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="AK2" s="44" t="s">
+      <c r="AK2" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="AL2" s="44" t="s">
+      <c r="AL2" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="AM2" s="44" t="s">
+      <c r="AM2" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="48" t="s">
+      <c r="AN2" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="AO2" s="44" t="s">
+      <c r="AO2" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="AP2" s="46"/>
-      <c r="AQ2" s="44" t="s">
+      <c r="AP2" s="44"/>
+      <c r="AQ2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="AR2" s="44" t="s">
+      <c r="AR2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="AS2" s="44" t="s">
+      <c r="AS2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="AT2" s="44" t="s">
+      <c r="AT2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="AU2" s="44" t="s">
+      <c r="AU2" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="AV2" s="49"/>
-      <c r="AW2" s="44" t="s">
+      <c r="AV2" s="47"/>
+      <c r="AW2" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="AX2" s="44" t="s">
+      <c r="AX2" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="AY2" s="44" t="s">
+      <c r="AY2" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="AZ2" s="44" t="s">
+      <c r="AZ2" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="BA2" s="44" t="s">
+      <c r="BA2" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="BB2" s="44" t="s">
+      <c r="BB2" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="BC2" s="44" t="s">
+      <c r="BC2" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="BD2" s="44" t="s">
+      <c r="BD2" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="BE2" s="44" t="s">
+      <c r="BE2" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="BF2" s="49"/>
-      <c r="BG2" s="50" t="s">
+      <c r="BF2" s="47"/>
+      <c r="BG2" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="BH2" s="50" t="s">
+      <c r="BH2" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="BI2" s="50" t="s">
+      <c r="BI2" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="BJ2" s="50" t="s">
+      <c r="BJ2" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="BK2" s="49"/>
-      <c r="BL2" s="51" t="s">
+      <c r="BK2" s="47"/>
+      <c r="BL2" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="BM2" s="51" t="s">
+      <c r="BM2" s="49" t="s">
+        <v>343</v>
+      </c>
+      <c r="BN2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="BN2" s="51" t="s">
+      <c r="BO2" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="BO2" s="51" t="s">
+      <c r="BP2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="BP2" s="51" t="s">
+      <c r="BQ2" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="BQ2" s="51" t="s">
+      <c r="BR2" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="BR2" s="49"/>
-      <c r="BS2" s="52" t="s">
+      <c r="BS2" s="47"/>
+      <c r="BT2" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="BT2" s="52" t="s">
+      <c r="BU2" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="BU2" s="49"/>
-      <c r="BV2" s="53" t="s">
+      <c r="BV2" s="47"/>
+      <c r="BW2" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="BW2" s="53" t="s">
+      <c r="BX2" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="BX2" s="53" t="s">
+      <c r="BY2" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="BY2" s="53" t="s">
+      <c r="BZ2" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="BZ2" s="53" t="s">
+      <c r="CA2" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="CA2" s="53" t="s">
+      <c r="CB2" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="CB2" s="53" t="s">
+      <c r="CC2" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="CC2" s="53" t="s">
+      <c r="CD2" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="CD2" s="49"/>
+      <c r="CE2" s="47"/>
     </row>
-    <row r="3" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
-        <f>COUNTIF(D3,"&lt;&gt;"&amp;"")+COUNTIF(BQ3,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" ref="A3:A29" si="0">COUNTIF(D3,"&lt;&gt;"&amp;"")+COUNTIF(BR3,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B3" s="23">
         <v>1</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="26" t="s">
         <v>82</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="I3" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="K3" s="31" t="s">
+      <c r="K3" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="L3" s="31" t="s">
+      <c r="L3" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="M3" s="31" t="s">
+      <c r="M3" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="N3" s="31" t="s">
+      <c r="N3" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="O3" s="38"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="55"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="53"/>
       <c r="R3" s="19"/>
       <c r="S3" t="s">
         <v>49</v>
@@ -2938,26 +3005,26 @@
       <c r="X3" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="Y3" s="34">
+      <c r="Y3" s="32">
         <v>1</v>
       </c>
       <c r="Z3" s="1"/>
-      <c r="AA3" s="34" t="s">
+      <c r="AA3" s="32" t="s">
         <v>77</v>
       </c>
       <c r="AB3" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="AC3" s="58" t="s">
+      <c r="AC3" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="AD3" s="34" t="s">
+      <c r="AD3" s="32" t="s">
         <v>79</v>
       </c>
       <c r="AE3" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AF3" s="58" t="s">
+      <c r="AF3" s="56" t="s">
         <v>81</v>
       </c>
       <c r="AG3" s="1" t="s">
@@ -2976,23 +3043,23 @@
         <v>255</v>
       </c>
       <c r="AL3" s="19"/>
-      <c r="AM3" s="61" t="s">
+      <c r="AM3" s="58" t="s">
         <v>190</v>
       </c>
-      <c r="AN3" s="57"/>
+      <c r="AN3" s="55"/>
       <c r="AO3" s="13">
         <v>0.01</v>
       </c>
       <c r="AQ3" t="s">
         <v>249</v>
       </c>
-      <c r="AR3" s="43" t="s">
+      <c r="AR3" s="41" t="s">
         <v>247</v>
       </c>
       <c r="AS3" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AT3" s="43" t="s">
+      <c r="AT3" s="41" t="s">
         <v>248</v>
       </c>
       <c r="AU3" s="1" t="s">
@@ -3025,17 +3092,29 @@
       <c r="BE3">
         <v>250</v>
       </c>
-      <c r="BG3" s="59"/>
-      <c r="BH3" s="59"/>
-      <c r="BI3" s="59"/>
-      <c r="BJ3" s="59"/>
-      <c r="BL3" s="25"/>
-      <c r="BM3" s="26"/>
-      <c r="BN3" s="26"/>
-      <c r="BO3"/>
-      <c r="BP3"/>
-      <c r="BQ3" s="26"/>
-      <c r="BV3"/>
+      <c r="BG3" s="57"/>
+      <c r="BH3" s="57"/>
+      <c r="BI3" s="57"/>
+      <c r="BJ3" s="57"/>
+      <c r="BL3" s="62">
+        <v>41226</v>
+      </c>
+      <c r="BM3" s="63" t="s">
+        <v>344</v>
+      </c>
+      <c r="BN3" s="64">
+        <v>31.63212</v>
+      </c>
+      <c r="BO3" s="64">
+        <v>34.5167</v>
+      </c>
+      <c r="BP3" s="41" t="s">
+        <v>345</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>346</v>
+      </c>
+      <c r="BR3" s="59"/>
       <c r="BW3"/>
       <c r="BX3"/>
       <c r="BY3"/>
@@ -3043,48 +3122,49 @@
       <c r="CA3"/>
       <c r="CB3"/>
       <c r="CC3"/>
+      <c r="CD3"/>
     </row>
-    <row r="4" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
-        <f>COUNTIF(D4,"&lt;&gt;"&amp;"")+COUNTIF(BQ4,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B4" s="23">
         <v>2</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="26" t="s">
         <v>333</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="26" t="s">
         <v>83</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="H4" s="31" t="s">
+      <c r="H4" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="I4" s="32" t="s">
+      <c r="I4" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="K4" s="31" t="s">
+      <c r="K4" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="L4" s="31" t="s">
+      <c r="L4" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="M4" s="31" t="s">
+      <c r="M4" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="N4" s="31" t="s">
+      <c r="N4" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="O4" s="38"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="55"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="53"/>
       <c r="R4" s="19"/>
       <c r="S4" t="s">
         <v>49</v>
@@ -3102,26 +3182,26 @@
       <c r="X4" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="Y4" s="34">
+      <c r="Y4" s="32">
         <v>1</v>
       </c>
       <c r="Z4" s="1"/>
-      <c r="AA4" s="34" t="s">
+      <c r="AA4" s="32" t="s">
         <v>77</v>
       </c>
       <c r="AB4" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="AC4" s="58" t="s">
+      <c r="AC4" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="AD4" s="34" t="s">
+      <c r="AD4" s="32" t="s">
         <v>79</v>
       </c>
       <c r="AE4" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AF4" s="58" t="s">
+      <c r="AF4" s="56" t="s">
         <v>81</v>
       </c>
       <c r="AG4" s="1" t="s">
@@ -3140,23 +3220,23 @@
         <v>256</v>
       </c>
       <c r="AL4" s="19"/>
-      <c r="AM4" s="61" t="s">
+      <c r="AM4" s="58" t="s">
         <v>191</v>
       </c>
-      <c r="AN4" s="57"/>
+      <c r="AN4" s="55"/>
       <c r="AO4" s="13">
         <v>0.01</v>
       </c>
       <c r="AQ4" t="s">
         <v>249</v>
       </c>
-      <c r="AR4" s="43" t="s">
+      <c r="AR4" s="41" t="s">
         <v>247</v>
       </c>
       <c r="AS4" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AT4" s="43" t="s">
+      <c r="AT4" s="41" t="s">
         <v>248</v>
       </c>
       <c r="AU4" s="1" t="s">
@@ -3189,17 +3269,29 @@
       <c r="BE4">
         <v>250</v>
       </c>
-      <c r="BG4" s="59"/>
-      <c r="BH4" s="59"/>
-      <c r="BI4" s="59"/>
-      <c r="BJ4" s="59"/>
-      <c r="BL4" s="25"/>
-      <c r="BM4" s="26"/>
-      <c r="BN4" s="26"/>
-      <c r="BO4"/>
-      <c r="BP4"/>
-      <c r="BQ4" s="26"/>
-      <c r="BV4"/>
+      <c r="BG4" s="57"/>
+      <c r="BH4" s="57"/>
+      <c r="BI4" s="57"/>
+      <c r="BJ4" s="57"/>
+      <c r="BL4" s="62">
+        <v>41226</v>
+      </c>
+      <c r="BM4" s="63" t="s">
+        <v>344</v>
+      </c>
+      <c r="BN4" s="64">
+        <v>31.63212</v>
+      </c>
+      <c r="BO4" s="64">
+        <v>34.5167</v>
+      </c>
+      <c r="BP4" s="41" t="s">
+        <v>345</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>346</v>
+      </c>
+      <c r="BR4" s="59"/>
       <c r="BW4"/>
       <c r="BX4"/>
       <c r="BY4"/>
@@ -3207,48 +3299,49 @@
       <c r="CA4"/>
       <c r="CB4"/>
       <c r="CC4"/>
+      <c r="CD4"/>
     </row>
-    <row r="5" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
-        <f>COUNTIF(D5,"&lt;&gt;"&amp;"")+COUNTIF(BQ5,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B5" s="23">
         <v>3</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="26" t="s">
         <v>84</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="H5" s="31" t="s">
+      <c r="H5" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="I5" s="32" t="s">
+      <c r="I5" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="K5" s="31" t="s">
+      <c r="K5" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="L5" s="31" t="s">
+      <c r="L5" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="M5" s="31" t="s">
+      <c r="M5" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="N5" s="31" t="s">
+      <c r="N5" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="O5" s="38"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="55"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="53"/>
       <c r="R5" s="24"/>
       <c r="S5" t="s">
         <v>49</v>
@@ -3266,26 +3359,26 @@
       <c r="X5" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="Y5" s="34">
+      <c r="Y5" s="32">
         <v>1</v>
       </c>
       <c r="Z5" s="1"/>
-      <c r="AA5" s="34" t="s">
+      <c r="AA5" s="32" t="s">
         <v>77</v>
       </c>
       <c r="AB5" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="AC5" s="58" t="s">
+      <c r="AC5" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="AD5" s="34" t="s">
+      <c r="AD5" s="32" t="s">
         <v>79</v>
       </c>
       <c r="AE5" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AF5" s="58" t="s">
+      <c r="AF5" s="56" t="s">
         <v>81</v>
       </c>
       <c r="AG5" s="1" t="s">
@@ -3304,7 +3397,7 @@
         <v>257</v>
       </c>
       <c r="AL5" s="19"/>
-      <c r="AM5" s="61" t="s">
+      <c r="AM5" s="58" t="s">
         <v>192</v>
       </c>
       <c r="AN5"/>
@@ -3314,13 +3407,13 @@
       <c r="AQ5" t="s">
         <v>249</v>
       </c>
-      <c r="AR5" s="43" t="s">
+      <c r="AR5" s="41" t="s">
         <v>247</v>
       </c>
       <c r="AS5" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AT5" s="43" t="s">
+      <c r="AT5" s="41" t="s">
         <v>248</v>
       </c>
       <c r="AU5" s="1" t="s">
@@ -3353,17 +3446,29 @@
       <c r="BE5">
         <v>250</v>
       </c>
-      <c r="BG5" s="59"/>
-      <c r="BH5" s="59"/>
-      <c r="BI5" s="59"/>
-      <c r="BJ5" s="59"/>
-      <c r="BL5" s="25"/>
-      <c r="BM5" s="26"/>
-      <c r="BN5" s="26"/>
-      <c r="BO5"/>
-      <c r="BP5"/>
-      <c r="BQ5" s="26"/>
-      <c r="BV5"/>
+      <c r="BG5" s="57"/>
+      <c r="BH5" s="57"/>
+      <c r="BI5" s="57"/>
+      <c r="BJ5" s="57"/>
+      <c r="BL5" s="62">
+        <v>41226</v>
+      </c>
+      <c r="BM5" s="63" t="s">
+        <v>344</v>
+      </c>
+      <c r="BN5" s="64">
+        <v>31.63212</v>
+      </c>
+      <c r="BO5" s="64">
+        <v>34.5167</v>
+      </c>
+      <c r="BP5" s="41" t="s">
+        <v>345</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>346</v>
+      </c>
+      <c r="BR5" s="59"/>
       <c r="BW5"/>
       <c r="BX5"/>
       <c r="BY5"/>
@@ -3371,48 +3476,49 @@
       <c r="CA5"/>
       <c r="CB5"/>
       <c r="CC5"/>
+      <c r="CD5"/>
     </row>
-    <row r="6" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
-        <f>COUNTIF(D6,"&lt;&gt;"&amp;"")+COUNTIF(BQ6,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B6" s="23">
         <v>4</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="26" t="s">
         <v>85</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="G6" s="31" t="s">
+      <c r="G6" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="H6" s="31" t="s">
+      <c r="H6" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="I6" s="32" t="s">
+      <c r="I6" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="K6" s="31" t="s">
+      <c r="K6" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="L6" s="31" t="s">
+      <c r="L6" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="M6" s="31" t="s">
+      <c r="M6" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="N6" s="31" t="s">
+      <c r="N6" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="O6" s="38"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="56"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="54"/>
       <c r="R6" s="19"/>
       <c r="S6" t="s">
         <v>49</v>
@@ -3430,26 +3536,26 @@
       <c r="X6" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="Y6" s="34">
+      <c r="Y6" s="32">
         <v>2</v>
       </c>
       <c r="Z6" s="1"/>
-      <c r="AA6" s="34" t="s">
+      <c r="AA6" s="32" t="s">
         <v>77</v>
       </c>
       <c r="AB6" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="AC6" s="58" t="s">
+      <c r="AC6" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="AD6" s="34" t="s">
+      <c r="AD6" s="32" t="s">
         <v>79</v>
       </c>
       <c r="AE6" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AF6" s="58" t="s">
+      <c r="AF6" s="56" t="s">
         <v>81</v>
       </c>
       <c r="AG6" s="1" t="s">
@@ -3468,23 +3574,23 @@
         <v>258</v>
       </c>
       <c r="AL6" s="19"/>
-      <c r="AM6" s="61" t="s">
+      <c r="AM6" s="58" t="s">
         <v>193</v>
       </c>
-      <c r="AN6" s="57"/>
+      <c r="AN6" s="55"/>
       <c r="AO6" s="13">
         <v>0.01</v>
       </c>
       <c r="AQ6" t="s">
         <v>249</v>
       </c>
-      <c r="AR6" s="43" t="s">
+      <c r="AR6" s="41" t="s">
         <v>247</v>
       </c>
       <c r="AS6" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AT6" s="43" t="s">
+      <c r="AT6" s="41" t="s">
         <v>248</v>
       </c>
       <c r="AU6" s="1" t="s">
@@ -3517,17 +3623,29 @@
       <c r="BE6">
         <v>250</v>
       </c>
-      <c r="BG6" s="59"/>
-      <c r="BH6" s="59"/>
-      <c r="BI6" s="59"/>
-      <c r="BJ6" s="59"/>
-      <c r="BL6" s="25"/>
-      <c r="BM6" s="26"/>
-      <c r="BN6" s="26"/>
-      <c r="BO6"/>
-      <c r="BP6"/>
-      <c r="BQ6" s="26"/>
-      <c r="BV6"/>
+      <c r="BG6" s="57"/>
+      <c r="BH6" s="57"/>
+      <c r="BI6" s="57"/>
+      <c r="BJ6" s="57"/>
+      <c r="BL6" s="62">
+        <v>41226</v>
+      </c>
+      <c r="BM6" s="63" t="s">
+        <v>347</v>
+      </c>
+      <c r="BN6" s="64">
+        <v>31.6341</v>
+      </c>
+      <c r="BO6" s="64">
+        <v>34.51144</v>
+      </c>
+      <c r="BP6" s="41" t="s">
+        <v>345</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>348</v>
+      </c>
+      <c r="BR6" s="59"/>
       <c r="BW6"/>
       <c r="BX6"/>
       <c r="BY6"/>
@@ -3535,48 +3653,49 @@
       <c r="CA6"/>
       <c r="CB6"/>
       <c r="CC6"/>
+      <c r="CD6"/>
     </row>
-    <row r="7" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
-        <f>COUNTIF(D7,"&lt;&gt;"&amp;"")+COUNTIF(BQ7,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B7" s="23">
         <v>5</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="26" t="s">
         <v>86</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="G7" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="H7" s="31" t="s">
+      <c r="H7" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="I7" s="32" t="s">
+      <c r="I7" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="K7" s="31" t="s">
+      <c r="K7" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="L7" s="31" t="s">
+      <c r="L7" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="M7" s="31" t="s">
+      <c r="M7" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="N7" s="31" t="s">
+      <c r="N7" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="O7" s="38"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="55"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="53"/>
       <c r="R7" s="19"/>
       <c r="S7" t="s">
         <v>49</v>
@@ -3594,26 +3713,26 @@
       <c r="X7" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="Y7" s="34">
+      <c r="Y7" s="32">
         <v>2</v>
       </c>
       <c r="Z7" s="1"/>
-      <c r="AA7" s="34" t="s">
+      <c r="AA7" s="32" t="s">
         <v>77</v>
       </c>
       <c r="AB7" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="AC7" s="58" t="s">
+      <c r="AC7" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="AD7" s="34" t="s">
+      <c r="AD7" s="32" t="s">
         <v>79</v>
       </c>
       <c r="AE7" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AF7" s="58" t="s">
+      <c r="AF7" s="56" t="s">
         <v>81</v>
       </c>
       <c r="AG7" s="1" t="s">
@@ -3632,23 +3751,23 @@
         <v>259</v>
       </c>
       <c r="AL7" s="19"/>
-      <c r="AM7" s="61" t="s">
+      <c r="AM7" s="58" t="s">
         <v>194</v>
       </c>
-      <c r="AN7" s="57"/>
+      <c r="AN7" s="55"/>
       <c r="AO7" s="13">
         <v>0.01</v>
       </c>
       <c r="AQ7" t="s">
         <v>249</v>
       </c>
-      <c r="AR7" s="43" t="s">
+      <c r="AR7" s="41" t="s">
         <v>247</v>
       </c>
       <c r="AS7" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AT7" s="43" t="s">
+      <c r="AT7" s="41" t="s">
         <v>248</v>
       </c>
       <c r="AU7" s="1" t="s">
@@ -3681,17 +3800,29 @@
       <c r="BE7">
         <v>250</v>
       </c>
-      <c r="BG7" s="59"/>
-      <c r="BH7" s="59"/>
-      <c r="BI7" s="59"/>
-      <c r="BJ7" s="59"/>
-      <c r="BL7" s="25"/>
-      <c r="BM7" s="26"/>
-      <c r="BN7" s="26"/>
-      <c r="BO7"/>
-      <c r="BP7"/>
-      <c r="BQ7" s="26"/>
-      <c r="BV7"/>
+      <c r="BG7" s="57"/>
+      <c r="BH7" s="57"/>
+      <c r="BI7" s="57"/>
+      <c r="BJ7" s="57"/>
+      <c r="BL7" s="62">
+        <v>41226</v>
+      </c>
+      <c r="BM7" s="63" t="s">
+        <v>347</v>
+      </c>
+      <c r="BN7" s="64">
+        <v>31.6341</v>
+      </c>
+      <c r="BO7" s="64">
+        <v>34.51144</v>
+      </c>
+      <c r="BP7" s="41" t="s">
+        <v>345</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>348</v>
+      </c>
+      <c r="BR7" s="59"/>
       <c r="BW7"/>
       <c r="BX7"/>
       <c r="BY7"/>
@@ -3699,48 +3830,49 @@
       <c r="CA7"/>
       <c r="CB7"/>
       <c r="CC7"/>
+      <c r="CD7"/>
     </row>
-    <row r="8" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
-        <f>COUNTIF(D8,"&lt;&gt;"&amp;"")+COUNTIF(BQ8,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B8" s="23">
         <v>6</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="26" t="s">
         <v>87</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="G8" s="31" t="s">
+      <c r="G8" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="H8" s="31" t="s">
+      <c r="H8" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="I8" s="32" t="s">
+      <c r="I8" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="K8" s="31" t="s">
+      <c r="K8" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="L8" s="31" t="s">
+      <c r="L8" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="M8" s="31" t="s">
+      <c r="M8" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="N8" s="31" t="s">
+      <c r="N8" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="O8" s="38"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="55"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="53"/>
       <c r="R8" s="24"/>
       <c r="S8" t="s">
         <v>49</v>
@@ -3758,26 +3890,26 @@
       <c r="X8" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="Y8" s="34">
+      <c r="Y8" s="32">
         <v>2</v>
       </c>
       <c r="Z8" s="1"/>
-      <c r="AA8" s="34" t="s">
+      <c r="AA8" s="32" t="s">
         <v>77</v>
       </c>
       <c r="AB8" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="AC8" s="58" t="s">
+      <c r="AC8" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="AD8" s="34" t="s">
+      <c r="AD8" s="32" t="s">
         <v>79</v>
       </c>
       <c r="AE8" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AF8" s="58" t="s">
+      <c r="AF8" s="56" t="s">
         <v>81</v>
       </c>
       <c r="AG8" s="1" t="s">
@@ -3796,23 +3928,23 @@
         <v>260</v>
       </c>
       <c r="AL8" s="19"/>
-      <c r="AM8" s="61" t="s">
+      <c r="AM8" s="58" t="s">
         <v>195</v>
       </c>
-      <c r="AN8" s="57"/>
+      <c r="AN8" s="55"/>
       <c r="AO8" s="13">
         <v>0.01</v>
       </c>
       <c r="AQ8" t="s">
         <v>249</v>
       </c>
-      <c r="AR8" s="43" t="s">
+      <c r="AR8" s="41" t="s">
         <v>247</v>
       </c>
       <c r="AS8" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AT8" s="43" t="s">
+      <c r="AT8" s="41" t="s">
         <v>248</v>
       </c>
       <c r="AU8" s="1" t="s">
@@ -3845,17 +3977,29 @@
       <c r="BE8">
         <v>250</v>
       </c>
-      <c r="BG8" s="59"/>
-      <c r="BH8" s="59"/>
-      <c r="BI8" s="59"/>
-      <c r="BJ8" s="59"/>
-      <c r="BL8" s="25"/>
-      <c r="BM8" s="26"/>
-      <c r="BN8" s="26"/>
-      <c r="BO8"/>
-      <c r="BP8"/>
-      <c r="BQ8" s="26"/>
-      <c r="BV8"/>
+      <c r="BG8" s="57"/>
+      <c r="BH8" s="57"/>
+      <c r="BI8" s="57"/>
+      <c r="BJ8" s="57"/>
+      <c r="BL8" s="62">
+        <v>41226</v>
+      </c>
+      <c r="BM8" s="63" t="s">
+        <v>347</v>
+      </c>
+      <c r="BN8" s="64">
+        <v>31.6341</v>
+      </c>
+      <c r="BO8" s="64">
+        <v>34.51144</v>
+      </c>
+      <c r="BP8" s="41" t="s">
+        <v>345</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>348</v>
+      </c>
+      <c r="BR8" s="59"/>
       <c r="BW8"/>
       <c r="BX8"/>
       <c r="BY8"/>
@@ -3863,48 +4007,49 @@
       <c r="CA8"/>
       <c r="CB8"/>
       <c r="CC8"/>
+      <c r="CD8"/>
     </row>
-    <row r="9" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
-        <f>COUNTIF(D9,"&lt;&gt;"&amp;"")+COUNTIF(BQ9,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B9" s="23">
         <v>7</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="26" t="s">
         <v>88</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="G9" s="31" t="s">
+      <c r="G9" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="H9" s="31" t="s">
+      <c r="H9" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="I9" s="32" t="s">
+      <c r="I9" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="K9" s="31" t="s">
+      <c r="K9" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="L9" s="31" t="s">
+      <c r="L9" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="M9" s="31" t="s">
+      <c r="M9" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="N9" s="31" t="s">
+      <c r="N9" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="O9" s="38"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="55"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="53"/>
       <c r="R9" s="19"/>
       <c r="S9" t="s">
         <v>49</v>
@@ -3922,26 +4067,26 @@
       <c r="X9" s="16" t="s">
         <v>340</v>
       </c>
-      <c r="Y9" s="34">
+      <c r="Y9" s="32">
         <v>3</v>
       </c>
       <c r="Z9" s="1"/>
-      <c r="AA9" s="34" t="s">
+      <c r="AA9" s="32" t="s">
         <v>77</v>
       </c>
       <c r="AB9" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="AC9" s="58" t="s">
+      <c r="AC9" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="AD9" s="34" t="s">
+      <c r="AD9" s="32" t="s">
         <v>79</v>
       </c>
       <c r="AE9" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AF9" s="58" t="s">
+      <c r="AF9" s="56" t="s">
         <v>81</v>
       </c>
       <c r="AG9" s="1" t="s">
@@ -3960,23 +4105,23 @@
         <v>261</v>
       </c>
       <c r="AL9" s="19"/>
-      <c r="AM9" s="61" t="s">
+      <c r="AM9" s="58" t="s">
         <v>196</v>
       </c>
-      <c r="AN9" s="57"/>
+      <c r="AN9" s="55"/>
       <c r="AO9" s="13">
         <v>0.01</v>
       </c>
       <c r="AQ9" t="s">
         <v>249</v>
       </c>
-      <c r="AR9" s="43" t="s">
+      <c r="AR9" s="41" t="s">
         <v>247</v>
       </c>
       <c r="AS9" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AT9" s="43" t="s">
+      <c r="AT9" s="41" t="s">
         <v>248</v>
       </c>
       <c r="AU9" s="1" t="s">
@@ -4009,17 +4154,29 @@
       <c r="BE9">
         <v>250</v>
       </c>
-      <c r="BG9" s="59"/>
-      <c r="BH9" s="59"/>
-      <c r="BI9" s="59"/>
-      <c r="BJ9" s="59"/>
-      <c r="BL9" s="25"/>
-      <c r="BM9" s="26"/>
-      <c r="BN9" s="26"/>
-      <c r="BO9"/>
-      <c r="BP9"/>
-      <c r="BQ9" s="26"/>
-      <c r="BV9"/>
+      <c r="BG9" s="57"/>
+      <c r="BH9" s="57"/>
+      <c r="BI9" s="57"/>
+      <c r="BJ9" s="57"/>
+      <c r="BL9" s="62">
+        <v>41226</v>
+      </c>
+      <c r="BM9" s="63" t="s">
+        <v>349</v>
+      </c>
+      <c r="BN9" s="64">
+        <v>31.671759999999999</v>
+      </c>
+      <c r="BO9" s="64">
+        <v>34.543559999999999</v>
+      </c>
+      <c r="BP9" s="41" t="s">
+        <v>345</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>350</v>
+      </c>
+      <c r="BR9" s="59"/>
       <c r="BW9"/>
       <c r="BX9"/>
       <c r="BY9"/>
@@ -4027,48 +4184,49 @@
       <c r="CA9"/>
       <c r="CB9"/>
       <c r="CC9"/>
+      <c r="CD9"/>
     </row>
-    <row r="10" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
-        <f>COUNTIF(D10,"&lt;&gt;"&amp;"")+COUNTIF(BQ10,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B10" s="23">
         <v>8</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="26" t="s">
         <v>89</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="G10" s="31" t="s">
+      <c r="G10" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="H10" s="31" t="s">
+      <c r="H10" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="I10" s="32" t="s">
+      <c r="I10" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="K10" s="31" t="s">
+      <c r="K10" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="L10" s="31" t="s">
+      <c r="L10" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="M10" s="31" t="s">
+      <c r="M10" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="N10" s="31" t="s">
+      <c r="N10" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="O10" s="38"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="55"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="53"/>
       <c r="R10" s="19"/>
       <c r="S10" t="s">
         <v>49</v>
@@ -4086,26 +4244,26 @@
       <c r="X10" s="16" t="s">
         <v>340</v>
       </c>
-      <c r="Y10" s="34">
+      <c r="Y10" s="32">
         <v>3</v>
       </c>
       <c r="Z10" s="1"/>
-      <c r="AA10" s="34" t="s">
+      <c r="AA10" s="32" t="s">
         <v>77</v>
       </c>
       <c r="AB10" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="AC10" s="58" t="s">
+      <c r="AC10" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="AD10" s="34" t="s">
+      <c r="AD10" s="32" t="s">
         <v>79</v>
       </c>
       <c r="AE10" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AF10" s="58" t="s">
+      <c r="AF10" s="56" t="s">
         <v>81</v>
       </c>
       <c r="AG10" s="1" t="s">
@@ -4124,23 +4282,23 @@
         <v>262</v>
       </c>
       <c r="AL10" s="19"/>
-      <c r="AM10" s="61" t="s">
+      <c r="AM10" s="58" t="s">
         <v>197</v>
       </c>
-      <c r="AN10" s="57"/>
+      <c r="AN10" s="55"/>
       <c r="AO10" s="13">
         <v>0.01</v>
       </c>
       <c r="AQ10" t="s">
         <v>249</v>
       </c>
-      <c r="AR10" s="43" t="s">
+      <c r="AR10" s="41" t="s">
         <v>247</v>
       </c>
       <c r="AS10" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AT10" s="43" t="s">
+      <c r="AT10" s="41" t="s">
         <v>248</v>
       </c>
       <c r="AU10" s="1" t="s">
@@ -4173,17 +4331,29 @@
       <c r="BE10">
         <v>250</v>
       </c>
-      <c r="BG10" s="59"/>
-      <c r="BH10" s="59"/>
-      <c r="BI10" s="59"/>
-      <c r="BJ10" s="59"/>
-      <c r="BL10" s="25"/>
-      <c r="BM10" s="26"/>
-      <c r="BN10" s="26"/>
-      <c r="BO10"/>
-      <c r="BP10"/>
-      <c r="BQ10" s="26"/>
-      <c r="BV10"/>
+      <c r="BG10" s="57"/>
+      <c r="BH10" s="57"/>
+      <c r="BI10" s="57"/>
+      <c r="BJ10" s="57"/>
+      <c r="BL10" s="62">
+        <v>41226</v>
+      </c>
+      <c r="BM10" s="63" t="s">
+        <v>349</v>
+      </c>
+      <c r="BN10" s="64">
+        <v>31.671759999999999</v>
+      </c>
+      <c r="BO10" s="64">
+        <v>34.543559999999999</v>
+      </c>
+      <c r="BP10" s="41" t="s">
+        <v>345</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>350</v>
+      </c>
+      <c r="BR10" s="59"/>
       <c r="BW10"/>
       <c r="BX10"/>
       <c r="BY10"/>
@@ -4191,48 +4361,49 @@
       <c r="CA10"/>
       <c r="CB10"/>
       <c r="CC10"/>
+      <c r="CD10"/>
     </row>
-    <row r="11" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
-        <f>COUNTIF(D11,"&lt;&gt;"&amp;"")+COUNTIF(BQ11,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B11" s="23">
         <v>9</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="26" t="s">
         <v>90</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="G11" s="31" t="s">
+      <c r="G11" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="H11" s="31" t="s">
+      <c r="H11" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="I11" s="32" t="s">
+      <c r="I11" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="K11" s="31" t="s">
+      <c r="K11" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="L11" s="31" t="s">
+      <c r="L11" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="M11" s="31" t="s">
+      <c r="M11" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="N11" s="31" t="s">
+      <c r="N11" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="O11" s="38"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="55"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="53"/>
       <c r="R11" s="19"/>
       <c r="S11" t="s">
         <v>49</v>
@@ -4250,26 +4421,26 @@
       <c r="X11" s="16" t="s">
         <v>340</v>
       </c>
-      <c r="Y11" s="34">
+      <c r="Y11" s="32">
         <v>3</v>
       </c>
       <c r="Z11" s="1"/>
-      <c r="AA11" s="34" t="s">
+      <c r="AA11" s="32" t="s">
         <v>77</v>
       </c>
       <c r="AB11" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="AC11" s="58" t="s">
+      <c r="AC11" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="AD11" s="34" t="s">
+      <c r="AD11" s="32" t="s">
         <v>79</v>
       </c>
       <c r="AE11" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AF11" s="58" t="s">
+      <c r="AF11" s="56" t="s">
         <v>81</v>
       </c>
       <c r="AG11" s="1" t="s">
@@ -4288,23 +4459,23 @@
         <v>263</v>
       </c>
       <c r="AL11" s="19"/>
-      <c r="AM11" s="61" t="s">
+      <c r="AM11" s="58" t="s">
         <v>198</v>
       </c>
-      <c r="AN11" s="57"/>
+      <c r="AN11" s="55"/>
       <c r="AO11" s="13">
         <v>0.01</v>
       </c>
       <c r="AQ11" t="s">
         <v>249</v>
       </c>
-      <c r="AR11" s="43" t="s">
+      <c r="AR11" s="41" t="s">
         <v>247</v>
       </c>
       <c r="AS11" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AT11" s="43" t="s">
+      <c r="AT11" s="41" t="s">
         <v>248</v>
       </c>
       <c r="AU11" s="1" t="s">
@@ -4337,17 +4508,29 @@
       <c r="BE11">
         <v>250</v>
       </c>
-      <c r="BG11" s="59"/>
-      <c r="BH11" s="59"/>
-      <c r="BI11" s="59"/>
-      <c r="BJ11" s="59"/>
-      <c r="BL11" s="25"/>
-      <c r="BM11" s="26"/>
-      <c r="BN11" s="26"/>
-      <c r="BO11"/>
-      <c r="BP11" s="60"/>
-      <c r="BQ11" s="26"/>
-      <c r="BV11"/>
+      <c r="BG11" s="57"/>
+      <c r="BH11" s="57"/>
+      <c r="BI11" s="57"/>
+      <c r="BJ11" s="57"/>
+      <c r="BL11" s="62">
+        <v>41226</v>
+      </c>
+      <c r="BM11" s="63" t="s">
+        <v>349</v>
+      </c>
+      <c r="BN11" s="64">
+        <v>31.671759999999999</v>
+      </c>
+      <c r="BO11" s="64">
+        <v>34.543559999999999</v>
+      </c>
+      <c r="BP11" s="41" t="s">
+        <v>345</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>350</v>
+      </c>
+      <c r="BR11" s="59"/>
       <c r="BW11"/>
       <c r="BX11"/>
       <c r="BY11"/>
@@ -4355,48 +4538,49 @@
       <c r="CA11"/>
       <c r="CB11"/>
       <c r="CC11"/>
+      <c r="CD11"/>
     </row>
-    <row r="12" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
-        <f>COUNTIF(D12,"&lt;&gt;"&amp;"")+COUNTIF(BQ12,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B12" s="23">
         <v>10</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="26" t="s">
         <v>91</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="G12" s="31" t="s">
+      <c r="G12" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="H12" s="31" t="s">
+      <c r="H12" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="I12" s="32" t="s">
+      <c r="I12" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="K12" s="31" t="s">
+      <c r="K12" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="L12" s="31" t="s">
+      <c r="L12" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="M12" s="31" t="s">
+      <c r="M12" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="N12" s="31" t="s">
+      <c r="N12" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="O12" s="38"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="55"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="53"/>
       <c r="R12" s="24"/>
       <c r="S12" t="s">
         <v>49</v>
@@ -4414,26 +4598,26 @@
       <c r="X12" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="Y12" s="34">
+      <c r="Y12" s="32">
         <v>4</v>
       </c>
       <c r="Z12" s="1"/>
-      <c r="AA12" s="34" t="s">
+      <c r="AA12" s="32" t="s">
         <v>77</v>
       </c>
       <c r="AB12" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="AC12" s="58" t="s">
+      <c r="AC12" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="AD12" s="34" t="s">
+      <c r="AD12" s="32" t="s">
         <v>79</v>
       </c>
       <c r="AE12" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AF12" s="58" t="s">
+      <c r="AF12" s="56" t="s">
         <v>81</v>
       </c>
       <c r="AG12" s="1" t="s">
@@ -4452,23 +4636,23 @@
         <v>264</v>
       </c>
       <c r="AL12" s="19"/>
-      <c r="AM12" s="61" t="s">
+      <c r="AM12" s="58" t="s">
         <v>199</v>
       </c>
-      <c r="AN12" s="57"/>
+      <c r="AN12" s="55"/>
       <c r="AO12" s="13">
         <v>0.01</v>
       </c>
       <c r="AQ12" t="s">
         <v>249</v>
       </c>
-      <c r="AR12" s="43" t="s">
+      <c r="AR12" s="41" t="s">
         <v>247</v>
       </c>
       <c r="AS12" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AT12" s="43" t="s">
+      <c r="AT12" s="41" t="s">
         <v>248</v>
       </c>
       <c r="AU12" s="1" t="s">
@@ -4501,17 +4685,29 @@
       <c r="BE12">
         <v>250</v>
       </c>
-      <c r="BG12" s="59"/>
-      <c r="BH12" s="59"/>
-      <c r="BI12" s="59"/>
-      <c r="BJ12" s="59"/>
-      <c r="BL12" s="25"/>
-      <c r="BM12" s="26"/>
-      <c r="BN12" s="26"/>
-      <c r="BO12"/>
-      <c r="BP12" s="60"/>
-      <c r="BQ12" s="26"/>
-      <c r="BV12"/>
+      <c r="BG12" s="57"/>
+      <c r="BH12" s="57"/>
+      <c r="BI12" s="57"/>
+      <c r="BJ12" s="57"/>
+      <c r="BL12" s="62">
+        <v>41227</v>
+      </c>
+      <c r="BM12" s="63" t="s">
+        <v>351</v>
+      </c>
+      <c r="BN12" s="64">
+        <v>31.941859999999998</v>
+      </c>
+      <c r="BO12" s="64">
+        <v>34.68862</v>
+      </c>
+      <c r="BP12" s="41" t="s">
+        <v>345</v>
+      </c>
+      <c r="BQ12" s="65" t="s">
+        <v>352</v>
+      </c>
+      <c r="BR12" s="60"/>
       <c r="BW12"/>
       <c r="BX12"/>
       <c r="BY12"/>
@@ -4519,48 +4715,49 @@
       <c r="CA12"/>
       <c r="CB12"/>
       <c r="CC12"/>
+      <c r="CD12"/>
     </row>
-    <row r="13" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
-        <f>COUNTIF(D13,"&lt;&gt;"&amp;"")+COUNTIF(BQ13,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B13" s="23">
         <v>11</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="26" t="s">
         <v>92</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="H13" s="31" t="s">
+      <c r="H13" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="I13" s="32" t="s">
+      <c r="I13" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="K13" s="31" t="s">
+      <c r="K13" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="L13" s="31" t="s">
+      <c r="L13" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="M13" s="31" t="s">
+      <c r="M13" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="N13" s="31" t="s">
+      <c r="N13" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="O13" s="38"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="55"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="53"/>
       <c r="R13" s="19"/>
       <c r="S13" t="s">
         <v>49</v>
@@ -4578,26 +4775,26 @@
       <c r="X13" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="Y13" s="34">
+      <c r="Y13" s="32">
         <v>4</v>
       </c>
       <c r="Z13" s="1"/>
-      <c r="AA13" s="34" t="s">
+      <c r="AA13" s="32" t="s">
         <v>77</v>
       </c>
       <c r="AB13" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="AC13" s="58" t="s">
+      <c r="AC13" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="AD13" s="34" t="s">
+      <c r="AD13" s="32" t="s">
         <v>79</v>
       </c>
       <c r="AE13" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AF13" s="58" t="s">
+      <c r="AF13" s="56" t="s">
         <v>81</v>
       </c>
       <c r="AG13" s="1" t="s">
@@ -4616,23 +4813,23 @@
         <v>265</v>
       </c>
       <c r="AL13" s="19"/>
-      <c r="AM13" s="61" t="s">
+      <c r="AM13" s="58" t="s">
         <v>200</v>
       </c>
-      <c r="AN13" s="57"/>
+      <c r="AN13" s="55"/>
       <c r="AO13" s="13">
         <v>0.01</v>
       </c>
       <c r="AQ13" t="s">
         <v>249</v>
       </c>
-      <c r="AR13" s="43" t="s">
+      <c r="AR13" s="41" t="s">
         <v>247</v>
       </c>
       <c r="AS13" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AT13" s="43" t="s">
+      <c r="AT13" s="41" t="s">
         <v>248</v>
       </c>
       <c r="AU13" s="1" t="s">
@@ -4665,17 +4862,29 @@
       <c r="BE13">
         <v>250</v>
       </c>
-      <c r="BG13" s="59"/>
-      <c r="BH13" s="59"/>
-      <c r="BI13" s="59"/>
-      <c r="BJ13" s="59"/>
-      <c r="BL13" s="25"/>
-      <c r="BM13" s="26"/>
-      <c r="BN13" s="26"/>
-      <c r="BO13"/>
-      <c r="BP13" s="60"/>
-      <c r="BQ13" s="26"/>
-      <c r="BV13"/>
+      <c r="BG13" s="57"/>
+      <c r="BH13" s="57"/>
+      <c r="BI13" s="57"/>
+      <c r="BJ13" s="57"/>
+      <c r="BL13" s="62">
+        <v>41227</v>
+      </c>
+      <c r="BM13" s="63" t="s">
+        <v>351</v>
+      </c>
+      <c r="BN13" s="64">
+        <v>31.941859999999998</v>
+      </c>
+      <c r="BO13" s="64">
+        <v>34.68862</v>
+      </c>
+      <c r="BP13" s="41" t="s">
+        <v>345</v>
+      </c>
+      <c r="BQ13" s="65" t="s">
+        <v>352</v>
+      </c>
+      <c r="BR13" s="60"/>
       <c r="BW13"/>
       <c r="BX13"/>
       <c r="BY13"/>
@@ -4683,48 +4892,49 @@
       <c r="CA13"/>
       <c r="CB13"/>
       <c r="CC13"/>
+      <c r="CD13"/>
     </row>
-    <row r="14" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
-        <f>COUNTIF(D14,"&lt;&gt;"&amp;"")+COUNTIF(BQ14,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B14" s="23">
         <v>12</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="26" t="s">
         <v>93</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="G14" s="31" t="s">
+      <c r="G14" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="H14" s="31" t="s">
+      <c r="H14" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="I14" s="32" t="s">
+      <c r="I14" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="K14" s="31" t="s">
+      <c r="K14" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="L14" s="31" t="s">
+      <c r="L14" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="M14" s="31" t="s">
+      <c r="M14" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="N14" s="31" t="s">
+      <c r="N14" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="O14" s="38"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="56"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="54"/>
       <c r="R14" s="19"/>
       <c r="S14" t="s">
         <v>49</v>
@@ -4742,26 +4952,26 @@
       <c r="X14" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="Y14" s="34">
+      <c r="Y14" s="32">
         <v>4</v>
       </c>
       <c r="Z14" s="1"/>
-      <c r="AA14" s="34" t="s">
+      <c r="AA14" s="32" t="s">
         <v>77</v>
       </c>
       <c r="AB14" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="AC14" s="58" t="s">
+      <c r="AC14" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="AD14" s="34" t="s">
+      <c r="AD14" s="32" t="s">
         <v>79</v>
       </c>
       <c r="AE14" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AF14" s="58" t="s">
+      <c r="AF14" s="56" t="s">
         <v>81</v>
       </c>
       <c r="AG14" s="1" t="s">
@@ -4780,23 +4990,23 @@
         <v>266</v>
       </c>
       <c r="AL14" s="19"/>
-      <c r="AM14" s="61" t="s">
+      <c r="AM14" s="58" t="s">
         <v>201</v>
       </c>
-      <c r="AN14" s="57"/>
+      <c r="AN14" s="55"/>
       <c r="AO14" s="13">
         <v>0.01</v>
       </c>
       <c r="AQ14" t="s">
         <v>249</v>
       </c>
-      <c r="AR14" s="43" t="s">
+      <c r="AR14" s="41" t="s">
         <v>247</v>
       </c>
       <c r="AS14" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AT14" s="43" t="s">
+      <c r="AT14" s="41" t="s">
         <v>248</v>
       </c>
       <c r="AU14" s="1" t="s">
@@ -4829,17 +5039,29 @@
       <c r="BE14">
         <v>250</v>
       </c>
-      <c r="BG14" s="59"/>
-      <c r="BH14" s="59"/>
-      <c r="BI14" s="59"/>
-      <c r="BJ14" s="59"/>
-      <c r="BL14" s="25"/>
-      <c r="BM14" s="26"/>
-      <c r="BN14" s="26"/>
-      <c r="BO14"/>
-      <c r="BP14" s="60"/>
-      <c r="BQ14" s="26"/>
-      <c r="BV14"/>
+      <c r="BG14" s="57"/>
+      <c r="BH14" s="57"/>
+      <c r="BI14" s="57"/>
+      <c r="BJ14" s="57"/>
+      <c r="BL14" s="62">
+        <v>41227</v>
+      </c>
+      <c r="BM14" s="63" t="s">
+        <v>351</v>
+      </c>
+      <c r="BN14" s="64">
+        <v>31.941859999999998</v>
+      </c>
+      <c r="BO14" s="64">
+        <v>34.68862</v>
+      </c>
+      <c r="BP14" s="41" t="s">
+        <v>345</v>
+      </c>
+      <c r="BQ14" s="65" t="s">
+        <v>352</v>
+      </c>
+      <c r="BR14" s="60"/>
       <c r="BW14"/>
       <c r="BX14"/>
       <c r="BY14"/>
@@ -4847,48 +5069,49 @@
       <c r="CA14"/>
       <c r="CB14"/>
       <c r="CC14"/>
+      <c r="CD14"/>
     </row>
-    <row r="15" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A15" s="12">
-        <f>COUNTIF(D15,"&lt;&gt;"&amp;"")+COUNTIF(BQ15,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B15" s="23">
         <v>13</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="26" t="s">
         <v>94</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="G15" s="31" t="s">
+      <c r="G15" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="H15" s="31" t="s">
+      <c r="H15" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="I15" s="32" t="s">
+      <c r="I15" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="K15" s="31" t="s">
+      <c r="K15" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="L15" s="31" t="s">
+      <c r="L15" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="M15" s="31" t="s">
+      <c r="M15" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="N15" s="31" t="s">
+      <c r="N15" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="O15" s="38"/>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="55"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="53"/>
       <c r="R15" s="19"/>
       <c r="S15" t="s">
         <v>49</v>
@@ -4906,26 +5129,26 @@
       <c r="X15" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="Y15" s="34">
+      <c r="Y15" s="32">
         <v>5</v>
       </c>
       <c r="Z15" s="1"/>
-      <c r="AA15" s="34" t="s">
+      <c r="AA15" s="32" t="s">
         <v>77</v>
       </c>
       <c r="AB15" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="AC15" s="58" t="s">
+      <c r="AC15" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="AD15" s="34" t="s">
+      <c r="AD15" s="32" t="s">
         <v>79</v>
       </c>
       <c r="AE15" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AF15" s="58" t="s">
+      <c r="AF15" s="56" t="s">
         <v>81</v>
       </c>
       <c r="AG15" s="1" t="s">
@@ -4944,23 +5167,23 @@
         <v>267</v>
       </c>
       <c r="AL15" s="19"/>
-      <c r="AM15" s="61" t="s">
+      <c r="AM15" s="58" t="s">
         <v>202</v>
       </c>
-      <c r="AN15" s="57"/>
+      <c r="AN15" s="55"/>
       <c r="AO15" s="13">
         <v>0.01</v>
       </c>
       <c r="AQ15" t="s">
         <v>249</v>
       </c>
-      <c r="AR15" s="43" t="s">
+      <c r="AR15" s="41" t="s">
         <v>247</v>
       </c>
       <c r="AS15" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AT15" s="43" t="s">
+      <c r="AT15" s="41" t="s">
         <v>248</v>
       </c>
       <c r="AU15" s="1" t="s">
@@ -4993,17 +5216,29 @@
       <c r="BE15">
         <v>250</v>
       </c>
-      <c r="BG15" s="59"/>
-      <c r="BH15" s="59"/>
-      <c r="BI15" s="59"/>
-      <c r="BJ15" s="59"/>
-      <c r="BL15" s="25"/>
-      <c r="BM15" s="26"/>
-      <c r="BN15" s="26"/>
-      <c r="BO15"/>
-      <c r="BP15" s="60"/>
-      <c r="BQ15" s="26"/>
-      <c r="BV15"/>
+      <c r="BG15" s="57"/>
+      <c r="BH15" s="57"/>
+      <c r="BI15" s="57"/>
+      <c r="BJ15" s="57"/>
+      <c r="BL15" s="62">
+        <v>41227</v>
+      </c>
+      <c r="BM15" s="63" t="s">
+        <v>353</v>
+      </c>
+      <c r="BN15" s="64">
+        <v>31.94068</v>
+      </c>
+      <c r="BO15" s="64">
+        <v>34.687379999999997</v>
+      </c>
+      <c r="BP15" s="41" t="s">
+        <v>345</v>
+      </c>
+      <c r="BQ15" s="65" t="s">
+        <v>352</v>
+      </c>
+      <c r="BR15" s="60"/>
       <c r="BW15"/>
       <c r="BX15"/>
       <c r="BY15"/>
@@ -5011,46 +5246,47 @@
       <c r="CA15"/>
       <c r="CB15"/>
       <c r="CC15"/>
+      <c r="CD15"/>
     </row>
-    <row r="16" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
-        <f>COUNTIF(D16,"&lt;&gt;"&amp;"")+COUNTIF(BQ16,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B16" s="23">
         <v>14</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="26" t="s">
         <v>95</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="G16" s="31" t="s">
+      <c r="G16" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="H16" s="31" t="s">
+      <c r="H16" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="I16" s="32" t="s">
+      <c r="I16" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="K16" s="31" t="s">
+      <c r="K16" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="L16" s="31" t="s">
+      <c r="L16" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="M16" s="31" t="s">
+      <c r="M16" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="N16" s="31"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="55"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="53"/>
       <c r="R16" s="19"/>
       <c r="T16" s="16" t="s">
         <v>175</v>
@@ -5065,26 +5301,26 @@
       <c r="X16" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="Y16" s="34">
+      <c r="Y16" s="32">
         <v>5</v>
       </c>
       <c r="Z16" s="1"/>
-      <c r="AA16" s="34" t="s">
+      <c r="AA16" s="32" t="s">
         <v>77</v>
       </c>
       <c r="AB16" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="AC16" s="58" t="s">
+      <c r="AC16" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="AD16" s="34" t="s">
+      <c r="AD16" s="32" t="s">
         <v>79</v>
       </c>
       <c r="AE16" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AF16" s="58" t="s">
+      <c r="AF16" s="56" t="s">
         <v>81</v>
       </c>
       <c r="AG16" s="1"/>
@@ -5101,23 +5337,23 @@
         <v>268</v>
       </c>
       <c r="AL16" s="19"/>
-      <c r="AM16" s="61" t="s">
+      <c r="AM16" s="58" t="s">
         <v>203</v>
       </c>
-      <c r="AN16" s="57"/>
+      <c r="AN16" s="55"/>
       <c r="AO16" s="13">
         <v>0.01</v>
       </c>
       <c r="AQ16" t="s">
         <v>249</v>
       </c>
-      <c r="AR16" s="43" t="s">
+      <c r="AR16" s="41" t="s">
         <v>247</v>
       </c>
       <c r="AS16" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AT16" s="43" t="s">
+      <c r="AT16" s="41" t="s">
         <v>248</v>
       </c>
       <c r="AU16" s="1" t="s">
@@ -5147,17 +5383,29 @@
       <c r="BE16">
         <v>250</v>
       </c>
-      <c r="BG16" s="59"/>
-      <c r="BH16" s="59"/>
-      <c r="BI16" s="59"/>
-      <c r="BJ16" s="59"/>
-      <c r="BL16" s="25"/>
-      <c r="BM16" s="26"/>
-      <c r="BN16" s="26"/>
-      <c r="BO16"/>
-      <c r="BP16" s="60"/>
-      <c r="BQ16" s="26"/>
-      <c r="BV16"/>
+      <c r="BG16" s="57"/>
+      <c r="BH16" s="57"/>
+      <c r="BI16" s="57"/>
+      <c r="BJ16" s="57"/>
+      <c r="BL16" s="62">
+        <v>41227</v>
+      </c>
+      <c r="BM16" s="63" t="s">
+        <v>353</v>
+      </c>
+      <c r="BN16" s="64">
+        <v>31.94068</v>
+      </c>
+      <c r="BO16" s="64">
+        <v>34.687379999999997</v>
+      </c>
+      <c r="BP16" s="41" t="s">
+        <v>345</v>
+      </c>
+      <c r="BQ16" s="65" t="s">
+        <v>352</v>
+      </c>
+      <c r="BR16" s="60"/>
       <c r="BW16"/>
       <c r="BX16"/>
       <c r="BY16"/>
@@ -5165,46 +5413,47 @@
       <c r="CA16"/>
       <c r="CB16"/>
       <c r="CC16"/>
+      <c r="CD16"/>
     </row>
-    <row r="17" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A17" s="12">
-        <f>COUNTIF(D17,"&lt;&gt;"&amp;"")+COUNTIF(BQ17,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B17" s="23">
         <v>15</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="26" t="s">
         <v>96</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="G17" s="31" t="s">
+      <c r="G17" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="H17" s="31" t="s">
+      <c r="H17" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="I17" s="32" t="s">
+      <c r="I17" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="K17" s="31" t="s">
+      <c r="K17" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="L17" s="31" t="s">
+      <c r="L17" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="M17" s="31" t="s">
+      <c r="M17" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="N17" s="31"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="56"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="54"/>
       <c r="R17" s="19"/>
       <c r="T17" s="16" t="s">
         <v>176</v>
@@ -5219,26 +5468,26 @@
       <c r="X17" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="Y17" s="34">
+      <c r="Y17" s="32">
         <v>5</v>
       </c>
       <c r="Z17" s="1"/>
-      <c r="AA17" s="34" t="s">
+      <c r="AA17" s="32" t="s">
         <v>77</v>
       </c>
       <c r="AB17" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="AC17" s="58" t="s">
+      <c r="AC17" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="AD17" s="34" t="s">
+      <c r="AD17" s="32" t="s">
         <v>79</v>
       </c>
       <c r="AE17" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AF17" s="58" t="s">
+      <c r="AF17" s="56" t="s">
         <v>81</v>
       </c>
       <c r="AG17" s="1"/>
@@ -5255,23 +5504,23 @@
         <v>269</v>
       </c>
       <c r="AL17" s="19"/>
-      <c r="AM17" s="61" t="s">
+      <c r="AM17" s="58" t="s">
         <v>204</v>
       </c>
-      <c r="AN17" s="57"/>
+      <c r="AN17" s="55"/>
       <c r="AO17" s="13">
         <v>0.01</v>
       </c>
       <c r="AQ17" t="s">
         <v>249</v>
       </c>
-      <c r="AR17" s="43" t="s">
+      <c r="AR17" s="41" t="s">
         <v>247</v>
       </c>
       <c r="AS17" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AT17" s="43" t="s">
+      <c r="AT17" s="41" t="s">
         <v>248</v>
       </c>
       <c r="AU17" s="1" t="s">
@@ -5301,17 +5550,29 @@
       <c r="BE17">
         <v>250</v>
       </c>
-      <c r="BG17" s="59"/>
-      <c r="BH17" s="59"/>
-      <c r="BI17" s="59"/>
-      <c r="BJ17" s="59"/>
-      <c r="BL17" s="25"/>
-      <c r="BM17" s="26"/>
-      <c r="BN17" s="26"/>
-      <c r="BO17"/>
-      <c r="BP17" s="60"/>
-      <c r="BQ17" s="26"/>
-      <c r="BV17"/>
+      <c r="BG17" s="57"/>
+      <c r="BH17" s="57"/>
+      <c r="BI17" s="57"/>
+      <c r="BJ17" s="57"/>
+      <c r="BL17" s="62">
+        <v>41227</v>
+      </c>
+      <c r="BM17" s="63" t="s">
+        <v>353</v>
+      </c>
+      <c r="BN17" s="64">
+        <v>31.94068</v>
+      </c>
+      <c r="BO17" s="64">
+        <v>34.687379999999997</v>
+      </c>
+      <c r="BP17" s="41" t="s">
+        <v>345</v>
+      </c>
+      <c r="BQ17" s="65" t="s">
+        <v>352</v>
+      </c>
+      <c r="BR17" s="60"/>
       <c r="BW17"/>
       <c r="BX17"/>
       <c r="BY17"/>
@@ -5319,46 +5580,47 @@
       <c r="CA17"/>
       <c r="CB17"/>
       <c r="CC17"/>
+      <c r="CD17"/>
     </row>
-    <row r="18" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A18" s="12">
-        <f>COUNTIF(D18,"&lt;&gt;"&amp;"")+COUNTIF(BQ18,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B18" s="23">
         <v>16</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="26" t="s">
         <v>97</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="G18" s="31" t="s">
+      <c r="G18" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="H18" s="31" t="s">
+      <c r="H18" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="I18" s="32" t="s">
+      <c r="I18" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="K18" s="31" t="s">
+      <c r="K18" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="L18" s="31" t="s">
+      <c r="L18" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="M18" s="31" t="s">
+      <c r="M18" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="N18" s="31"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="55"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="53"/>
       <c r="R18" s="19"/>
       <c r="T18" s="16" t="s">
         <v>177</v>
@@ -5373,26 +5635,26 @@
       <c r="X18" s="16" t="s">
         <v>340</v>
       </c>
-      <c r="Y18" s="34">
+      <c r="Y18" s="32">
         <v>6</v>
       </c>
       <c r="Z18" s="1"/>
-      <c r="AA18" s="34" t="s">
+      <c r="AA18" s="32" t="s">
         <v>77</v>
       </c>
       <c r="AB18" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="AC18" s="58" t="s">
+      <c r="AC18" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="AD18" s="34" t="s">
+      <c r="AD18" s="32" t="s">
         <v>79</v>
       </c>
       <c r="AE18" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AF18" s="58" t="s">
+      <c r="AF18" s="56" t="s">
         <v>81</v>
       </c>
       <c r="AG18" s="1"/>
@@ -5409,23 +5671,23 @@
         <v>270</v>
       </c>
       <c r="AL18" s="19"/>
-      <c r="AM18" s="61" t="s">
+      <c r="AM18" s="58" t="s">
         <v>205</v>
       </c>
-      <c r="AN18" s="57"/>
+      <c r="AN18" s="55"/>
       <c r="AO18" s="13">
         <v>0.01</v>
       </c>
       <c r="AQ18" t="s">
         <v>249</v>
       </c>
-      <c r="AR18" s="43" t="s">
+      <c r="AR18" s="41" t="s">
         <v>247</v>
       </c>
       <c r="AS18" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AT18" s="43" t="s">
+      <c r="AT18" s="41" t="s">
         <v>248</v>
       </c>
       <c r="AU18" s="1" t="s">
@@ -5455,17 +5717,29 @@
       <c r="BE18">
         <v>250</v>
       </c>
-      <c r="BG18" s="59"/>
-      <c r="BH18" s="59"/>
-      <c r="BI18" s="59"/>
-      <c r="BJ18" s="59"/>
-      <c r="BL18" s="25"/>
-      <c r="BM18" s="26"/>
-      <c r="BN18" s="26"/>
-      <c r="BO18"/>
-      <c r="BP18" s="60"/>
-      <c r="BQ18" s="26"/>
-      <c r="BV18"/>
+      <c r="BG18" s="57"/>
+      <c r="BH18" s="57"/>
+      <c r="BI18" s="57"/>
+      <c r="BJ18" s="57"/>
+      <c r="BL18" s="62">
+        <v>41227</v>
+      </c>
+      <c r="BM18" s="63" t="s">
+        <v>354</v>
+      </c>
+      <c r="BN18" s="64">
+        <v>31.931660000000001</v>
+      </c>
+      <c r="BO18" s="64">
+        <v>34.68336</v>
+      </c>
+      <c r="BP18" s="41" t="s">
+        <v>345</v>
+      </c>
+      <c r="BQ18" s="65" t="s">
+        <v>355</v>
+      </c>
+      <c r="BR18" s="60"/>
       <c r="BW18"/>
       <c r="BX18"/>
       <c r="BY18"/>
@@ -5473,46 +5747,47 @@
       <c r="CA18"/>
       <c r="CB18"/>
       <c r="CC18"/>
+      <c r="CD18"/>
     </row>
-    <row r="19" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A19" s="12">
-        <f>COUNTIF(D19,"&lt;&gt;"&amp;"")+COUNTIF(BQ19,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B19" s="23">
         <v>17</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="26" t="s">
         <v>98</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="G19" s="31" t="s">
+      <c r="G19" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="H19" s="31" t="s">
+      <c r="H19" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="I19" s="32" t="s">
+      <c r="I19" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="K19" s="31" t="s">
+      <c r="K19" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="L19" s="31" t="s">
+      <c r="L19" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="M19" s="31" t="s">
+      <c r="M19" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="N19" s="31"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="55"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="53"/>
       <c r="R19" s="19"/>
       <c r="T19" s="16" t="s">
         <v>178</v>
@@ -5527,26 +5802,26 @@
       <c r="X19" s="16" t="s">
         <v>340</v>
       </c>
-      <c r="Y19" s="34">
+      <c r="Y19" s="32">
         <v>6</v>
       </c>
       <c r="Z19" s="1"/>
-      <c r="AA19" s="34" t="s">
+      <c r="AA19" s="32" t="s">
         <v>77</v>
       </c>
       <c r="AB19" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="AC19" s="58" t="s">
+      <c r="AC19" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="AD19" s="34" t="s">
+      <c r="AD19" s="32" t="s">
         <v>79</v>
       </c>
       <c r="AE19" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AF19" s="58" t="s">
+      <c r="AF19" s="56" t="s">
         <v>81</v>
       </c>
       <c r="AG19" s="1"/>
@@ -5563,23 +5838,23 @@
         <v>271</v>
       </c>
       <c r="AL19" s="19"/>
-      <c r="AM19" s="61" t="s">
+      <c r="AM19" s="58" t="s">
         <v>206</v>
       </c>
-      <c r="AN19" s="57"/>
+      <c r="AN19" s="55"/>
       <c r="AO19" s="13">
         <v>0.01</v>
       </c>
       <c r="AQ19" t="s">
         <v>249</v>
       </c>
-      <c r="AR19" s="43" t="s">
+      <c r="AR19" s="41" t="s">
         <v>247</v>
       </c>
       <c r="AS19" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AT19" s="43" t="s">
+      <c r="AT19" s="41" t="s">
         <v>248</v>
       </c>
       <c r="AU19" s="1" t="s">
@@ -5609,17 +5884,29 @@
       <c r="BE19">
         <v>250</v>
       </c>
-      <c r="BG19" s="59"/>
-      <c r="BH19" s="59"/>
-      <c r="BI19" s="59"/>
-      <c r="BJ19" s="59"/>
-      <c r="BL19" s="25"/>
-      <c r="BM19" s="26"/>
-      <c r="BN19" s="26"/>
-      <c r="BO19"/>
-      <c r="BP19"/>
-      <c r="BQ19" s="26"/>
-      <c r="BV19"/>
+      <c r="BG19" s="57"/>
+      <c r="BH19" s="57"/>
+      <c r="BI19" s="57"/>
+      <c r="BJ19" s="57"/>
+      <c r="BL19" s="62">
+        <v>41227</v>
+      </c>
+      <c r="BM19" s="63" t="s">
+        <v>354</v>
+      </c>
+      <c r="BN19" s="64">
+        <v>31.931660000000001</v>
+      </c>
+      <c r="BO19" s="64">
+        <v>34.68336</v>
+      </c>
+      <c r="BP19" s="41" t="s">
+        <v>345</v>
+      </c>
+      <c r="BQ19" t="s">
+        <v>355</v>
+      </c>
+      <c r="BR19" s="59"/>
       <c r="BW19"/>
       <c r="BX19"/>
       <c r="BY19"/>
@@ -5627,46 +5914,47 @@
       <c r="CA19"/>
       <c r="CB19"/>
       <c r="CC19"/>
+      <c r="CD19"/>
     </row>
-    <row r="20" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A20" s="12">
-        <f>COUNTIF(D20,"&lt;&gt;"&amp;"")+COUNTIF(BQ20,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B20" s="23">
         <v>18</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="26" t="s">
         <v>99</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="G20" s="31" t="s">
+      <c r="G20" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="H20" s="31" t="s">
+      <c r="H20" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="I20" s="32" t="s">
+      <c r="I20" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="K20" s="31" t="s">
+      <c r="K20" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="L20" s="31" t="s">
+      <c r="L20" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="M20" s="31" t="s">
+      <c r="M20" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="N20" s="31"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="55"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="53"/>
       <c r="R20" s="19"/>
       <c r="T20" s="16" t="s">
         <v>179</v>
@@ -5681,26 +5969,26 @@
       <c r="X20" s="16" t="s">
         <v>340</v>
       </c>
-      <c r="Y20" s="34">
+      <c r="Y20" s="32">
         <v>6</v>
       </c>
       <c r="Z20" s="1"/>
-      <c r="AA20" s="34" t="s">
+      <c r="AA20" s="32" t="s">
         <v>77</v>
       </c>
       <c r="AB20" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="AC20" s="58" t="s">
+      <c r="AC20" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="AD20" s="34" t="s">
+      <c r="AD20" s="32" t="s">
         <v>79</v>
       </c>
       <c r="AE20" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AF20" s="58" t="s">
+      <c r="AF20" s="56" t="s">
         <v>81</v>
       </c>
       <c r="AG20" s="1"/>
@@ -5717,23 +6005,23 @@
         <v>272</v>
       </c>
       <c r="AL20" s="19"/>
-      <c r="AM20" s="61" t="s">
+      <c r="AM20" s="58" t="s">
         <v>207</v>
       </c>
-      <c r="AN20" s="57"/>
+      <c r="AN20" s="55"/>
       <c r="AO20" s="13">
         <v>0.01</v>
       </c>
       <c r="AQ20" t="s">
         <v>249</v>
       </c>
-      <c r="AR20" s="43" t="s">
+      <c r="AR20" s="41" t="s">
         <v>247</v>
       </c>
       <c r="AS20" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AT20" s="43" t="s">
+      <c r="AT20" s="41" t="s">
         <v>248</v>
       </c>
       <c r="AU20" s="1" t="s">
@@ -5763,17 +6051,29 @@
       <c r="BE20">
         <v>250</v>
       </c>
-      <c r="BG20" s="59"/>
-      <c r="BH20" s="59"/>
-      <c r="BI20" s="59"/>
-      <c r="BJ20" s="59"/>
-      <c r="BL20" s="25"/>
-      <c r="BM20" s="26"/>
-      <c r="BN20" s="26"/>
-      <c r="BO20"/>
-      <c r="BP20"/>
-      <c r="BQ20" s="26"/>
-      <c r="BV20"/>
+      <c r="BG20" s="57"/>
+      <c r="BH20" s="57"/>
+      <c r="BI20" s="57"/>
+      <c r="BJ20" s="57"/>
+      <c r="BL20" s="62">
+        <v>41227</v>
+      </c>
+      <c r="BM20" s="63" t="s">
+        <v>354</v>
+      </c>
+      <c r="BN20" s="64">
+        <v>31.931660000000001</v>
+      </c>
+      <c r="BO20" s="64">
+        <v>34.68336</v>
+      </c>
+      <c r="BP20" s="41" t="s">
+        <v>345</v>
+      </c>
+      <c r="BQ20" t="s">
+        <v>355</v>
+      </c>
+      <c r="BR20" s="59"/>
       <c r="BW20"/>
       <c r="BX20"/>
       <c r="BY20"/>
@@ -5781,46 +6081,47 @@
       <c r="CA20"/>
       <c r="CB20"/>
       <c r="CC20"/>
+      <c r="CD20"/>
     </row>
-    <row r="21" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A21" s="12">
-        <f>COUNTIF(D21,"&lt;&gt;"&amp;"")+COUNTIF(BQ21,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B21" s="23">
         <v>19</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="26" t="s">
         <v>333</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="26" t="s">
         <v>100</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="G21" s="31" t="s">
+      <c r="G21" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="H21" s="31" t="s">
+      <c r="H21" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="I21" s="32" t="s">
+      <c r="I21" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="K21" s="31" t="s">
+      <c r="K21" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="L21" s="31" t="s">
+      <c r="L21" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="M21" s="31" t="s">
+      <c r="M21" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="N21" s="31"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="41"/>
-      <c r="Q21" s="55"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="53"/>
       <c r="R21" s="19"/>
       <c r="T21" s="16" t="s">
         <v>186</v>
@@ -5835,26 +6136,26 @@
       <c r="X21" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="Y21" s="34">
+      <c r="Y21" s="32">
         <v>7</v>
       </c>
       <c r="Z21" s="1"/>
-      <c r="AA21" s="34" t="s">
+      <c r="AA21" s="32" t="s">
         <v>77</v>
       </c>
       <c r="AB21" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="AC21" s="58" t="s">
+      <c r="AC21" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="AD21" s="34" t="s">
+      <c r="AD21" s="32" t="s">
         <v>79</v>
       </c>
       <c r="AE21" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AF21" s="58" t="s">
+      <c r="AF21" s="56" t="s">
         <v>81</v>
       </c>
       <c r="AG21" s="1"/>
@@ -5871,23 +6172,23 @@
         <v>273</v>
       </c>
       <c r="AL21" s="19"/>
-      <c r="AM21" s="61" t="s">
+      <c r="AM21" s="58" t="s">
         <v>208</v>
       </c>
-      <c r="AN21" s="57"/>
+      <c r="AN21" s="55"/>
       <c r="AO21" s="13">
         <v>0.01</v>
       </c>
       <c r="AQ21" t="s">
         <v>249</v>
       </c>
-      <c r="AR21" s="43" t="s">
+      <c r="AR21" s="41" t="s">
         <v>247</v>
       </c>
       <c r="AS21" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AT21" s="43" t="s">
+      <c r="AT21" s="41" t="s">
         <v>248</v>
       </c>
       <c r="AU21" s="1" t="s">
@@ -5917,17 +6218,29 @@
       <c r="BE21">
         <v>250</v>
       </c>
-      <c r="BG21" s="59"/>
-      <c r="BH21" s="59"/>
-      <c r="BI21" s="59"/>
-      <c r="BJ21" s="59"/>
-      <c r="BL21" s="25"/>
-      <c r="BM21" s="26"/>
-      <c r="BN21" s="26"/>
-      <c r="BO21"/>
-      <c r="BP21"/>
-      <c r="BQ21" s="26"/>
-      <c r="BV21"/>
+      <c r="BG21" s="57"/>
+      <c r="BH21" s="57"/>
+      <c r="BI21" s="57"/>
+      <c r="BJ21" s="57"/>
+      <c r="BL21" s="62">
+        <v>41233</v>
+      </c>
+      <c r="BM21" s="63" t="s">
+        <v>356</v>
+      </c>
+      <c r="BN21" s="64">
+        <v>32.465020000000003</v>
+      </c>
+      <c r="BO21" s="64">
+        <v>34.882582999999997</v>
+      </c>
+      <c r="BP21" s="41" t="s">
+        <v>345</v>
+      </c>
+      <c r="BQ21" s="65" t="s">
+        <v>357</v>
+      </c>
+      <c r="BR21" s="60"/>
       <c r="BW21"/>
       <c r="BX21"/>
       <c r="BY21"/>
@@ -5935,46 +6248,47 @@
       <c r="CA21"/>
       <c r="CB21"/>
       <c r="CC21"/>
+      <c r="CD21"/>
     </row>
-    <row r="22" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A22" s="12">
-        <f>COUNTIF(D22,"&lt;&gt;"&amp;"")+COUNTIF(BQ22,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B22" s="23">
         <v>20</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="26" t="s">
         <v>101</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="G22" s="31" t="s">
+      <c r="G22" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="H22" s="31" t="s">
+      <c r="H22" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="I22" s="32" t="s">
+      <c r="I22" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="K22" s="31" t="s">
+      <c r="K22" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="L22" s="31" t="s">
+      <c r="L22" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="M22" s="31" t="s">
+      <c r="M22" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="N22" s="31"/>
-      <c r="O22" s="38"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="55"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="53"/>
       <c r="R22" s="19"/>
       <c r="T22" s="16" t="s">
         <v>180</v>
@@ -5989,26 +6303,26 @@
       <c r="X22" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="Y22" s="34">
+      <c r="Y22" s="32">
         <v>7</v>
       </c>
       <c r="Z22" s="1"/>
-      <c r="AA22" s="34" t="s">
+      <c r="AA22" s="32" t="s">
         <v>77</v>
       </c>
       <c r="AB22" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="AC22" s="58" t="s">
+      <c r="AC22" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="AD22" s="34" t="s">
+      <c r="AD22" s="32" t="s">
         <v>79</v>
       </c>
       <c r="AE22" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AF22" s="58" t="s">
+      <c r="AF22" s="56" t="s">
         <v>81</v>
       </c>
       <c r="AG22" s="1"/>
@@ -6025,23 +6339,23 @@
         <v>274</v>
       </c>
       <c r="AL22" s="19"/>
-      <c r="AM22" s="61" t="s">
+      <c r="AM22" s="58" t="s">
         <v>209</v>
       </c>
-      <c r="AN22" s="57"/>
+      <c r="AN22" s="55"/>
       <c r="AO22" s="13">
         <v>0.01</v>
       </c>
       <c r="AQ22" t="s">
         <v>249</v>
       </c>
-      <c r="AR22" s="43" t="s">
+      <c r="AR22" s="41" t="s">
         <v>247</v>
       </c>
       <c r="AS22" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AT22" s="43" t="s">
+      <c r="AT22" s="41" t="s">
         <v>248</v>
       </c>
       <c r="AU22" s="1" t="s">
@@ -6071,17 +6385,29 @@
       <c r="BE22">
         <v>250</v>
       </c>
-      <c r="BG22" s="59"/>
-      <c r="BH22" s="59"/>
-      <c r="BI22" s="59"/>
-      <c r="BJ22" s="59"/>
-      <c r="BL22" s="25"/>
-      <c r="BM22" s="26"/>
-      <c r="BN22" s="26"/>
-      <c r="BO22"/>
-      <c r="BP22"/>
-      <c r="BQ22" s="26"/>
-      <c r="BV22"/>
+      <c r="BG22" s="57"/>
+      <c r="BH22" s="57"/>
+      <c r="BI22" s="57"/>
+      <c r="BJ22" s="57"/>
+      <c r="BL22" s="62">
+        <v>41233</v>
+      </c>
+      <c r="BM22" s="63" t="s">
+        <v>356</v>
+      </c>
+      <c r="BN22" s="64">
+        <v>32.465020000000003</v>
+      </c>
+      <c r="BO22" s="64">
+        <v>34.882582999999997</v>
+      </c>
+      <c r="BP22" s="41" t="s">
+        <v>345</v>
+      </c>
+      <c r="BQ22" s="65" t="s">
+        <v>357</v>
+      </c>
+      <c r="BR22" s="60"/>
       <c r="BW22"/>
       <c r="BX22"/>
       <c r="BY22"/>
@@ -6089,46 +6415,47 @@
       <c r="CA22"/>
       <c r="CB22"/>
       <c r="CC22"/>
+      <c r="CD22"/>
     </row>
-    <row r="23" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A23" s="12">
-        <f>COUNTIF(D23,"&lt;&gt;"&amp;"")+COUNTIF(BQ23,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B23" s="23">
         <v>21</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="28" t="s">
+      <c r="D23" s="26" t="s">
         <v>102</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="G23" s="31" t="s">
+      <c r="G23" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="H23" s="31" t="s">
+      <c r="H23" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="I23" s="32" t="s">
+      <c r="I23" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="K23" s="31" t="s">
+      <c r="K23" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="L23" s="31" t="s">
+      <c r="L23" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="M23" s="31" t="s">
+      <c r="M23" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="N23" s="31"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="55"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="53"/>
       <c r="R23" s="19"/>
       <c r="T23" s="16" t="s">
         <v>181</v>
@@ -6143,26 +6470,26 @@
       <c r="X23" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="Y23" s="34">
+      <c r="Y23" s="32">
         <v>7</v>
       </c>
       <c r="Z23" s="1"/>
-      <c r="AA23" s="34" t="s">
+      <c r="AA23" s="32" t="s">
         <v>77</v>
       </c>
       <c r="AB23" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="AC23" s="58" t="s">
+      <c r="AC23" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="AD23" s="34" t="s">
+      <c r="AD23" s="32" t="s">
         <v>79</v>
       </c>
       <c r="AE23" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AF23" s="58" t="s">
+      <c r="AF23" s="56" t="s">
         <v>81</v>
       </c>
       <c r="AG23" s="1"/>
@@ -6179,23 +6506,23 @@
         <v>275</v>
       </c>
       <c r="AL23" s="19"/>
-      <c r="AM23" s="61" t="s">
+      <c r="AM23" s="58" t="s">
         <v>210</v>
       </c>
-      <c r="AN23" s="57"/>
+      <c r="AN23" s="55"/>
       <c r="AO23" s="13">
         <v>0.01</v>
       </c>
       <c r="AQ23" t="s">
         <v>249</v>
       </c>
-      <c r="AR23" s="43" t="s">
+      <c r="AR23" s="41" t="s">
         <v>247</v>
       </c>
       <c r="AS23" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AT23" s="43" t="s">
+      <c r="AT23" s="41" t="s">
         <v>248</v>
       </c>
       <c r="AU23" s="1" t="s">
@@ -6225,17 +6552,29 @@
       <c r="BE23">
         <v>250</v>
       </c>
-      <c r="BG23" s="59"/>
-      <c r="BH23" s="59"/>
-      <c r="BI23" s="59"/>
-      <c r="BJ23" s="59"/>
-      <c r="BL23" s="25"/>
-      <c r="BM23" s="26"/>
-      <c r="BN23" s="26"/>
-      <c r="BO23"/>
-      <c r="BP23"/>
-      <c r="BQ23" s="26"/>
-      <c r="BV23"/>
+      <c r="BG23" s="57"/>
+      <c r="BH23" s="57"/>
+      <c r="BI23" s="57"/>
+      <c r="BJ23" s="57"/>
+      <c r="BL23" s="62">
+        <v>41233</v>
+      </c>
+      <c r="BM23" s="63" t="s">
+        <v>356</v>
+      </c>
+      <c r="BN23" s="64">
+        <v>32.465020000000003</v>
+      </c>
+      <c r="BO23" s="64">
+        <v>34.882582999999997</v>
+      </c>
+      <c r="BP23" s="41" t="s">
+        <v>345</v>
+      </c>
+      <c r="BQ23" s="65" t="s">
+        <v>357</v>
+      </c>
+      <c r="BR23" s="60"/>
       <c r="BW23"/>
       <c r="BX23"/>
       <c r="BY23"/>
@@ -6243,46 +6582,47 @@
       <c r="CA23"/>
       <c r="CB23"/>
       <c r="CC23"/>
+      <c r="CD23"/>
     </row>
-    <row r="24" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A24" s="12">
-        <f>COUNTIF(D24,"&lt;&gt;"&amp;"")+COUNTIF(BQ24,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B24" s="23">
         <v>22</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="28" t="s">
+      <c r="D24" s="26" t="s">
         <v>103</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="G24" s="31" t="s">
+      <c r="G24" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="H24" s="31" t="s">
+      <c r="H24" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="I24" s="32" t="s">
+      <c r="I24" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="K24" s="31" t="s">
+      <c r="K24" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="L24" s="31" t="s">
+      <c r="L24" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="M24" s="31" t="s">
+      <c r="M24" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="N24" s="31"/>
-      <c r="O24" s="38"/>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="55"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="53"/>
       <c r="R24" s="19"/>
       <c r="T24" s="16" t="s">
         <v>182</v>
@@ -6297,26 +6637,26 @@
       <c r="X24" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="Y24" s="34">
+      <c r="Y24" s="32">
         <v>8</v>
       </c>
       <c r="Z24" s="1"/>
-      <c r="AA24" s="34" t="s">
+      <c r="AA24" s="32" t="s">
         <v>77</v>
       </c>
       <c r="AB24" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="AC24" s="58" t="s">
+      <c r="AC24" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="AD24" s="34" t="s">
+      <c r="AD24" s="32" t="s">
         <v>79</v>
       </c>
       <c r="AE24" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AF24" s="58" t="s">
+      <c r="AF24" s="56" t="s">
         <v>81</v>
       </c>
       <c r="AG24" s="1"/>
@@ -6333,23 +6673,23 @@
         <v>276</v>
       </c>
       <c r="AL24" s="19"/>
-      <c r="AM24" s="61" t="s">
+      <c r="AM24" s="58" t="s">
         <v>211</v>
       </c>
-      <c r="AN24" s="57"/>
+      <c r="AN24" s="55"/>
       <c r="AO24" s="13">
         <v>0.01</v>
       </c>
       <c r="AQ24" t="s">
         <v>249</v>
       </c>
-      <c r="AR24" s="43" t="s">
+      <c r="AR24" s="41" t="s">
         <v>247</v>
       </c>
       <c r="AS24" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AT24" s="43" t="s">
+      <c r="AT24" s="41" t="s">
         <v>248</v>
       </c>
       <c r="AU24" s="1" t="s">
@@ -6379,17 +6719,29 @@
       <c r="BE24">
         <v>250</v>
       </c>
-      <c r="BG24" s="59"/>
-      <c r="BH24" s="59"/>
-      <c r="BI24" s="59"/>
-      <c r="BJ24" s="59"/>
-      <c r="BL24" s="25"/>
-      <c r="BM24" s="26"/>
-      <c r="BN24" s="26"/>
-      <c r="BO24"/>
-      <c r="BP24"/>
-      <c r="BQ24" s="26"/>
-      <c r="BV24"/>
+      <c r="BG24" s="57"/>
+      <c r="BH24" s="57"/>
+      <c r="BI24" s="57"/>
+      <c r="BJ24" s="57"/>
+      <c r="BL24" s="62">
+        <v>41233</v>
+      </c>
+      <c r="BM24" s="63" t="s">
+        <v>358</v>
+      </c>
+      <c r="BN24" s="64">
+        <v>32.463700000000003</v>
+      </c>
+      <c r="BO24" s="64">
+        <v>34.879339999999999</v>
+      </c>
+      <c r="BP24" s="41" t="s">
+        <v>345</v>
+      </c>
+      <c r="BQ24" s="65" t="s">
+        <v>359</v>
+      </c>
+      <c r="BR24" s="60"/>
       <c r="BW24"/>
       <c r="BX24"/>
       <c r="BY24"/>
@@ -6397,46 +6749,47 @@
       <c r="CA24"/>
       <c r="CB24"/>
       <c r="CC24"/>
+      <c r="CD24"/>
     </row>
-    <row r="25" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A25" s="12">
-        <f>COUNTIF(D25,"&lt;&gt;"&amp;"")+COUNTIF(BQ25,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B25" s="23">
         <v>23</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D25" s="28" t="s">
+      <c r="D25" s="26" t="s">
         <v>104</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="G25" s="31" t="s">
+      <c r="G25" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="H25" s="31" t="s">
+      <c r="H25" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="I25" s="32" t="s">
+      <c r="I25" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="K25" s="31" t="s">
+      <c r="K25" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="L25" s="31" t="s">
+      <c r="L25" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="M25" s="31" t="s">
+      <c r="M25" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="N25" s="31"/>
-      <c r="O25" s="38"/>
-      <c r="P25" s="41"/>
-      <c r="Q25" s="55"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="53"/>
       <c r="R25" s="19"/>
       <c r="T25" s="16" t="s">
         <v>183</v>
@@ -6451,26 +6804,26 @@
       <c r="X25" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="Y25" s="34">
+      <c r="Y25" s="32">
         <v>8</v>
       </c>
       <c r="Z25" s="1"/>
-      <c r="AA25" s="34" t="s">
+      <c r="AA25" s="32" t="s">
         <v>77</v>
       </c>
       <c r="AB25" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="AC25" s="58" t="s">
+      <c r="AC25" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="AD25" s="34" t="s">
+      <c r="AD25" s="32" t="s">
         <v>79</v>
       </c>
       <c r="AE25" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AF25" s="58" t="s">
+      <c r="AF25" s="56" t="s">
         <v>81</v>
       </c>
       <c r="AG25" s="1"/>
@@ -6487,23 +6840,23 @@
         <v>277</v>
       </c>
       <c r="AL25" s="19"/>
-      <c r="AM25" s="61" t="s">
+      <c r="AM25" s="58" t="s">
         <v>212</v>
       </c>
-      <c r="AN25" s="57"/>
+      <c r="AN25" s="55"/>
       <c r="AO25" s="13">
         <v>0.01</v>
       </c>
       <c r="AQ25" t="s">
         <v>249</v>
       </c>
-      <c r="AR25" s="43" t="s">
+      <c r="AR25" s="41" t="s">
         <v>247</v>
       </c>
       <c r="AS25" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AT25" s="43" t="s">
+      <c r="AT25" s="41" t="s">
         <v>248</v>
       </c>
       <c r="AU25" s="1" t="s">
@@ -6533,17 +6886,29 @@
       <c r="BE25">
         <v>250</v>
       </c>
-      <c r="BG25" s="59"/>
-      <c r="BH25" s="59"/>
-      <c r="BI25" s="59"/>
-      <c r="BJ25" s="59"/>
-      <c r="BL25" s="25"/>
-      <c r="BM25" s="26"/>
-      <c r="BN25" s="26"/>
-      <c r="BO25"/>
-      <c r="BP25"/>
-      <c r="BQ25" s="26"/>
-      <c r="BV25"/>
+      <c r="BG25" s="57"/>
+      <c r="BH25" s="57"/>
+      <c r="BI25" s="57"/>
+      <c r="BJ25" s="57"/>
+      <c r="BL25" s="62">
+        <v>41233</v>
+      </c>
+      <c r="BM25" s="63" t="s">
+        <v>358</v>
+      </c>
+      <c r="BN25" s="64">
+        <v>32.463700000000003</v>
+      </c>
+      <c r="BO25" s="64">
+        <v>34.879339999999999</v>
+      </c>
+      <c r="BP25" s="41" t="s">
+        <v>345</v>
+      </c>
+      <c r="BQ25" s="65" t="s">
+        <v>359</v>
+      </c>
+      <c r="BR25" s="60"/>
       <c r="BW25"/>
       <c r="BX25"/>
       <c r="BY25"/>
@@ -6551,46 +6916,47 @@
       <c r="CA25"/>
       <c r="CB25"/>
       <c r="CC25"/>
+      <c r="CD25"/>
     </row>
-    <row r="26" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
-        <f>COUNTIF(D26,"&lt;&gt;"&amp;"")+COUNTIF(BQ26,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B26" s="23">
         <v>24</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="26" t="s">
         <v>333</v>
       </c>
-      <c r="D26" s="28" t="s">
+      <c r="D26" s="26" t="s">
         <v>105</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="G26" s="31" t="s">
+      <c r="G26" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="H26" s="31" t="s">
+      <c r="H26" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="I26" s="32" t="s">
+      <c r="I26" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="K26" s="31" t="s">
+      <c r="K26" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="L26" s="31" t="s">
+      <c r="L26" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="M26" s="31" t="s">
+      <c r="M26" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="N26" s="31"/>
-      <c r="O26" s="38"/>
-      <c r="P26" s="41"/>
-      <c r="Q26" s="55"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="53"/>
       <c r="R26" s="19"/>
       <c r="T26" s="16" t="s">
         <v>187</v>
@@ -6605,26 +6971,26 @@
       <c r="X26" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="Y26" s="34">
+      <c r="Y26" s="32">
         <v>8</v>
       </c>
       <c r="Z26" s="1"/>
-      <c r="AA26" s="34" t="s">
+      <c r="AA26" s="32" t="s">
         <v>77</v>
       </c>
       <c r="AB26" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="AC26" s="58" t="s">
+      <c r="AC26" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="AD26" s="34" t="s">
+      <c r="AD26" s="32" t="s">
         <v>79</v>
       </c>
       <c r="AE26" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AF26" s="58" t="s">
+      <c r="AF26" s="56" t="s">
         <v>81</v>
       </c>
       <c r="AG26" s="1"/>
@@ -6641,23 +7007,23 @@
         <v>278</v>
       </c>
       <c r="AL26" s="19"/>
-      <c r="AM26" s="61" t="s">
+      <c r="AM26" s="58" t="s">
         <v>213</v>
       </c>
-      <c r="AN26" s="57"/>
+      <c r="AN26" s="55"/>
       <c r="AO26" s="13">
         <v>0.01</v>
       </c>
       <c r="AQ26" t="s">
         <v>249</v>
       </c>
-      <c r="AR26" s="43" t="s">
+      <c r="AR26" s="41" t="s">
         <v>247</v>
       </c>
       <c r="AS26" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AT26" s="43" t="s">
+      <c r="AT26" s="41" t="s">
         <v>248</v>
       </c>
       <c r="AU26" s="1" t="s">
@@ -6687,17 +7053,29 @@
       <c r="BE26">
         <v>250</v>
       </c>
-      <c r="BG26" s="59"/>
-      <c r="BH26" s="59"/>
-      <c r="BI26" s="59"/>
-      <c r="BJ26" s="59"/>
-      <c r="BL26" s="25"/>
-      <c r="BM26" s="26"/>
-      <c r="BN26" s="26"/>
-      <c r="BO26"/>
-      <c r="BP26"/>
-      <c r="BQ26" s="26"/>
-      <c r="BV26"/>
+      <c r="BG26" s="57"/>
+      <c r="BH26" s="57"/>
+      <c r="BI26" s="57"/>
+      <c r="BJ26" s="57"/>
+      <c r="BL26" s="62">
+        <v>41233</v>
+      </c>
+      <c r="BM26" s="63" t="s">
+        <v>358</v>
+      </c>
+      <c r="BN26" s="64">
+        <v>32.463700000000003</v>
+      </c>
+      <c r="BO26" s="64">
+        <v>34.879339999999999</v>
+      </c>
+      <c r="BP26" s="41" t="s">
+        <v>345</v>
+      </c>
+      <c r="BQ26" s="65" t="s">
+        <v>359</v>
+      </c>
+      <c r="BR26" s="60"/>
       <c r="BW26"/>
       <c r="BX26"/>
       <c r="BY26"/>
@@ -6705,46 +7083,47 @@
       <c r="CA26"/>
       <c r="CB26"/>
       <c r="CC26"/>
+      <c r="CD26"/>
     </row>
-    <row r="27" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
-        <f>COUNTIF(D27,"&lt;&gt;"&amp;"")+COUNTIF(BQ27,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B27" s="23">
         <v>25</v>
       </c>
-      <c r="C27" s="28" t="s">
+      <c r="C27" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D27" s="28" t="s">
+      <c r="D27" s="26" t="s">
         <v>106</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="G27" s="31" t="s">
+      <c r="G27" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="H27" s="31" t="s">
+      <c r="H27" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="I27" s="32" t="s">
+      <c r="I27" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="K27" s="31" t="s">
+      <c r="K27" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="L27" s="31" t="s">
+      <c r="L27" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="M27" s="31" t="s">
+      <c r="M27" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="N27" s="31"/>
-      <c r="O27" s="38"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="55"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="53"/>
       <c r="R27" s="19"/>
       <c r="T27" s="16" t="s">
         <v>184</v>
@@ -6759,26 +7138,26 @@
       <c r="X27" s="16" t="s">
         <v>340</v>
       </c>
-      <c r="Y27" s="34">
+      <c r="Y27" s="32">
         <v>9</v>
       </c>
       <c r="Z27" s="1"/>
-      <c r="AA27" s="34" t="s">
+      <c r="AA27" s="32" t="s">
         <v>77</v>
       </c>
       <c r="AB27" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="AC27" s="58" t="s">
+      <c r="AC27" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="AD27" s="34" t="s">
+      <c r="AD27" s="32" t="s">
         <v>79</v>
       </c>
       <c r="AE27" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AF27" s="58" t="s">
+      <c r="AF27" s="56" t="s">
         <v>81</v>
       </c>
       <c r="AG27" s="1"/>
@@ -6795,23 +7174,23 @@
         <v>279</v>
       </c>
       <c r="AL27" s="19"/>
-      <c r="AM27" s="61" t="s">
+      <c r="AM27" s="58" t="s">
         <v>214</v>
       </c>
-      <c r="AN27" s="57"/>
+      <c r="AN27" s="55"/>
       <c r="AO27" s="13">
         <v>0.01</v>
       </c>
       <c r="AQ27" t="s">
         <v>249</v>
       </c>
-      <c r="AR27" s="43" t="s">
+      <c r="AR27" s="41" t="s">
         <v>247</v>
       </c>
       <c r="AS27" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AT27" s="43" t="s">
+      <c r="AT27" s="41" t="s">
         <v>248</v>
       </c>
       <c r="AU27" s="1" t="s">
@@ -6841,17 +7220,29 @@
       <c r="BE27">
         <v>250</v>
       </c>
-      <c r="BG27" s="59"/>
-      <c r="BH27" s="59"/>
-      <c r="BI27" s="59"/>
-      <c r="BJ27" s="59"/>
-      <c r="BL27" s="25"/>
-      <c r="BM27" s="26"/>
-      <c r="BN27" s="26"/>
-      <c r="BO27"/>
-      <c r="BP27"/>
-      <c r="BQ27" s="26"/>
-      <c r="BV27"/>
+      <c r="BG27" s="57"/>
+      <c r="BH27" s="57"/>
+      <c r="BI27" s="57"/>
+      <c r="BJ27" s="57"/>
+      <c r="BL27" s="62">
+        <v>41233</v>
+      </c>
+      <c r="BM27" s="63" t="s">
+        <v>360</v>
+      </c>
+      <c r="BN27" s="64">
+        <v>32.42868</v>
+      </c>
+      <c r="BO27" s="64">
+        <v>34.870280000000001</v>
+      </c>
+      <c r="BP27" s="41" t="s">
+        <v>345</v>
+      </c>
+      <c r="BQ27" t="s">
+        <v>361</v>
+      </c>
+      <c r="BR27" s="59"/>
       <c r="BW27"/>
       <c r="BX27"/>
       <c r="BY27"/>
@@ -6859,46 +7250,47 @@
       <c r="CA27"/>
       <c r="CB27"/>
       <c r="CC27"/>
+      <c r="CD27"/>
     </row>
-    <row r="28" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
-        <f>COUNTIF(D28,"&lt;&gt;"&amp;"")+COUNTIF(BQ28,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B28" s="23">
         <v>26</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="26" t="s">
         <v>333</v>
       </c>
-      <c r="D28" s="28" t="s">
+      <c r="D28" s="26" t="s">
         <v>107</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="G28" s="31" t="s">
+      <c r="G28" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="H28" s="31" t="s">
+      <c r="H28" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="I28" s="32" t="s">
+      <c r="I28" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="K28" s="31" t="s">
+      <c r="K28" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="L28" s="31" t="s">
+      <c r="L28" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="M28" s="31" t="s">
+      <c r="M28" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="N28" s="31"/>
-      <c r="O28" s="38"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="55"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="53"/>
       <c r="R28" s="19"/>
       <c r="T28" s="16" t="s">
         <v>188</v>
@@ -6913,26 +7305,26 @@
       <c r="X28" s="16" t="s">
         <v>340</v>
       </c>
-      <c r="Y28" s="34">
+      <c r="Y28" s="32">
         <v>9</v>
       </c>
       <c r="Z28" s="1"/>
-      <c r="AA28" s="34" t="s">
+      <c r="AA28" s="32" t="s">
         <v>77</v>
       </c>
       <c r="AB28" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="AC28" s="58" t="s">
+      <c r="AC28" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="AD28" s="34" t="s">
+      <c r="AD28" s="32" t="s">
         <v>79</v>
       </c>
       <c r="AE28" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AF28" s="58" t="s">
+      <c r="AF28" s="56" t="s">
         <v>81</v>
       </c>
       <c r="AG28" s="1"/>
@@ -6949,23 +7341,23 @@
         <v>280</v>
       </c>
       <c r="AL28" s="19"/>
-      <c r="AM28" s="61" t="s">
+      <c r="AM28" s="58" t="s">
         <v>215</v>
       </c>
-      <c r="AN28" s="57"/>
+      <c r="AN28" s="55"/>
       <c r="AO28" s="13">
         <v>0.01</v>
       </c>
       <c r="AQ28" t="s">
         <v>249</v>
       </c>
-      <c r="AR28" s="43" t="s">
+      <c r="AR28" s="41" t="s">
         <v>247</v>
       </c>
       <c r="AS28" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AT28" s="43" t="s">
+      <c r="AT28" s="41" t="s">
         <v>248</v>
       </c>
       <c r="AU28" s="1" t="s">
@@ -6995,17 +7387,29 @@
       <c r="BE28">
         <v>250</v>
       </c>
-      <c r="BG28" s="59"/>
-      <c r="BH28" s="59"/>
-      <c r="BI28" s="59"/>
-      <c r="BJ28" s="59"/>
-      <c r="BL28" s="25"/>
-      <c r="BM28" s="26"/>
-      <c r="BN28" s="26"/>
-      <c r="BO28"/>
-      <c r="BP28"/>
-      <c r="BQ28" s="26"/>
-      <c r="BV28"/>
+      <c r="BG28" s="57"/>
+      <c r="BH28" s="57"/>
+      <c r="BI28" s="57"/>
+      <c r="BJ28" s="57"/>
+      <c r="BL28" s="62">
+        <v>41233</v>
+      </c>
+      <c r="BM28" s="63" t="s">
+        <v>360</v>
+      </c>
+      <c r="BN28" s="64">
+        <v>32.42868</v>
+      </c>
+      <c r="BO28" s="64">
+        <v>34.870280000000001</v>
+      </c>
+      <c r="BP28" s="41" t="s">
+        <v>345</v>
+      </c>
+      <c r="BQ28" t="s">
+        <v>361</v>
+      </c>
+      <c r="BR28" s="59"/>
       <c r="BW28"/>
       <c r="BX28"/>
       <c r="BY28"/>
@@ -7013,46 +7417,47 @@
       <c r="CA28"/>
       <c r="CB28"/>
       <c r="CC28"/>
+      <c r="CD28"/>
     </row>
-    <row r="29" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A29" s="12">
-        <f>COUNTIF(D29,"&lt;&gt;"&amp;"")+COUNTIF(BQ29,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B29" s="23">
         <v>27</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="26" t="s">
         <v>333</v>
       </c>
-      <c r="D29" s="28" t="s">
+      <c r="D29" s="26" t="s">
         <v>108</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="G29" s="31" t="s">
+      <c r="G29" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="H29" s="31" t="s">
+      <c r="H29" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="I29" s="32" t="s">
+      <c r="I29" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="K29" s="31" t="s">
+      <c r="K29" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="L29" s="31" t="s">
+      <c r="L29" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="M29" s="31" t="s">
+      <c r="M29" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="N29" s="31"/>
-      <c r="O29" s="38"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="55"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="53"/>
       <c r="R29" s="19"/>
       <c r="T29" s="16" t="s">
         <v>189</v>
@@ -7067,26 +7472,26 @@
       <c r="X29" s="16" t="s">
         <v>340</v>
       </c>
-      <c r="Y29" s="34">
+      <c r="Y29" s="32">
         <v>9</v>
       </c>
       <c r="Z29" s="1"/>
-      <c r="AA29" s="34" t="s">
+      <c r="AA29" s="32" t="s">
         <v>77</v>
       </c>
       <c r="AB29" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="AC29" s="58" t="s">
+      <c r="AC29" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="AD29" s="34" t="s">
+      <c r="AD29" s="32" t="s">
         <v>79</v>
       </c>
       <c r="AE29" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AF29" s="58" t="s">
+      <c r="AF29" s="56" t="s">
         <v>81</v>
       </c>
       <c r="AG29" s="1"/>
@@ -7103,23 +7508,23 @@
         <v>280</v>
       </c>
       <c r="AL29" s="19"/>
-      <c r="AM29" s="61" t="s">
+      <c r="AM29" s="58" t="s">
         <v>216</v>
       </c>
-      <c r="AN29" s="57"/>
+      <c r="AN29" s="55"/>
       <c r="AO29" s="13">
         <v>0.01</v>
       </c>
       <c r="AQ29" t="s">
         <v>249</v>
       </c>
-      <c r="AR29" s="43" t="s">
+      <c r="AR29" s="41" t="s">
         <v>247</v>
       </c>
       <c r="AS29" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AT29" s="43" t="s">
+      <c r="AT29" s="41" t="s">
         <v>248</v>
       </c>
       <c r="AU29" s="1" t="s">
@@ -7149,17 +7554,29 @@
       <c r="BE29">
         <v>250</v>
       </c>
-      <c r="BG29" s="59"/>
-      <c r="BH29" s="59"/>
-      <c r="BI29" s="59"/>
-      <c r="BJ29" s="59"/>
-      <c r="BL29" s="25"/>
-      <c r="BM29" s="26"/>
-      <c r="BN29" s="26"/>
-      <c r="BO29"/>
-      <c r="BP29"/>
-      <c r="BQ29" s="26"/>
-      <c r="BV29"/>
+      <c r="BG29" s="57"/>
+      <c r="BH29" s="57"/>
+      <c r="BI29" s="57"/>
+      <c r="BJ29" s="57"/>
+      <c r="BL29" s="62">
+        <v>41233</v>
+      </c>
+      <c r="BM29" s="63" t="s">
+        <v>360</v>
+      </c>
+      <c r="BN29" s="64">
+        <v>32.42868</v>
+      </c>
+      <c r="BO29" s="64">
+        <v>34.870280000000001</v>
+      </c>
+      <c r="BP29" s="41" t="s">
+        <v>345</v>
+      </c>
+      <c r="BQ29" t="s">
+        <v>361</v>
+      </c>
+      <c r="BR29" s="59"/>
       <c r="BW29"/>
       <c r="BX29"/>
       <c r="BY29"/>
@@ -7167,14 +7584,15 @@
       <c r="CA29"/>
       <c r="CB29"/>
       <c r="CC29"/>
+      <c r="CD29"/>
     </row>
-    <row r="30" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:82" x14ac:dyDescent="0.2">
       <c r="AO30" s="13"/>
     </row>
-    <row r="31" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:82" x14ac:dyDescent="0.2">
       <c r="AO31" s="13"/>
     </row>
-    <row r="32" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:82" x14ac:dyDescent="0.2">
       <c r="AO32" s="13"/>
     </row>
     <row r="33" spans="41:41" x14ac:dyDescent="0.2">
@@ -7279,8 +7697,8 @@
   </customSheetViews>
   <mergeCells count="3">
     <mergeCell ref="BG1:BJ1"/>
-    <mergeCell ref="BL1:BQ1"/>
-    <mergeCell ref="BS1:BT1"/>
+    <mergeCell ref="BL1:BR1"/>
+    <mergeCell ref="BT1:BU1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="AN3:AN29">

--- a/metadata/excel/projects/sinclair/testproj/metadata.xlsx
+++ b/metadata/excel/projects/sinclair/testproj/metadata.xlsx
@@ -16,10 +16,10 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="LS - Personal View" guid="{06B92370-743D-804F-912C-658BE37B1274}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Kemal - Personal View" guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" mergeInterval="0" personalView="1" xWindow="184" yWindow="84" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Me - Personal View" guid="{22DA4066-82A0-D143-AA10-416CFBE3149D}" mergeInterval="0" personalView="1" xWindow="46" yWindow="23" windowWidth="1436" windowHeight="854" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
     <customWorkbookView name="Microsoft Office User - Personal View" guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Me - Personal View" guid="{22DA4066-82A0-D143-AA10-416CFBE3149D}" mergeInterval="0" personalView="1" xWindow="46" yWindow="23" windowWidth="1436" windowHeight="854" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
-    <customWorkbookView name="Kemal - Personal View" guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" mergeInterval="0" personalView="1" xWindow="184" yWindow="84" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="LS - Personal View" guid="{06B92370-743D-804F-912C-658BE37B1274}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="365">
   <si>
     <t>Country</t>
   </si>
@@ -1214,6 +1214,15 @@
   <si>
     <t>Near Gedor Sea Reserve</t>
   </si>
+  <si>
+    <t>Boat name (vessel)</t>
+  </si>
+  <si>
+    <t>Dingui</t>
+  </si>
+  <si>
+    <t>MedEx</t>
+  </si>
 </sst>
 </file>
 
@@ -1222,7 +1231,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1363,6 +1372,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -1435,7 +1459,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="291">
+  <cellStyleXfs count="292">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1727,8 +1751,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1856,9 +1881,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1867,8 +1889,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="291" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="291">
+  <cellStyles count="292">
     <cellStyle name="Excel Built-in Normal" xfId="267"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -2160,6 +2191,7 @@
     <cellStyle name="Hyperlink" xfId="288" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="290" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="291"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -2550,12 +2582,12 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:CE51"/>
+  <dimension ref="A1:CF51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BG1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="BK1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="X1" sqref="X1"/>
-      <selection pane="bottomLeft" activeCell="BO35" sqref="BO35"/>
+      <selection pane="bottomLeft" activeCell="BT14" sqref="BT14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2629,18 +2661,18 @@
     <col min="72" max="72" width="16.5" customWidth="1"/>
     <col min="73" max="73" width="16" customWidth="1"/>
     <col min="74" max="74" width="9.5" customWidth="1"/>
-    <col min="75" max="75" width="11" style="22" customWidth="1"/>
-    <col min="76" max="76" width="11.6640625" style="22" customWidth="1"/>
-    <col min="77" max="77" width="14.33203125" style="22" customWidth="1"/>
-    <col min="78" max="78" width="12.6640625" style="22" customWidth="1"/>
-    <col min="79" max="79" width="13.6640625" style="22" customWidth="1"/>
-    <col min="80" max="80" width="15.33203125" style="22" customWidth="1"/>
-    <col min="81" max="81" width="15.5" style="22" customWidth="1"/>
-    <col min="82" max="82" width="14.6640625" style="22" customWidth="1"/>
-    <col min="83" max="83" width="9.6640625" customWidth="1"/>
+    <col min="75" max="76" width="11" style="22" customWidth="1"/>
+    <col min="77" max="77" width="11.6640625" style="22" customWidth="1"/>
+    <col min="78" max="78" width="14.33203125" style="22" customWidth="1"/>
+    <col min="79" max="79" width="12.6640625" style="22" customWidth="1"/>
+    <col min="80" max="80" width="13.6640625" style="22" customWidth="1"/>
+    <col min="81" max="81" width="15.33203125" style="22" customWidth="1"/>
+    <col min="82" max="82" width="15.5" style="22" customWidth="1"/>
+    <col min="83" max="83" width="14.6640625" style="22" customWidth="1"/>
+    <col min="84" max="84" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>49</v>
       </c>
@@ -2692,37 +2724,38 @@
       <c r="BC1" s="3"/>
       <c r="BD1" s="3"/>
       <c r="BE1" s="10"/>
-      <c r="BG1" s="61" t="s">
+      <c r="BG1" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="BH1" s="61"/>
-      <c r="BI1" s="61"/>
-      <c r="BJ1" s="61"/>
-      <c r="BL1" s="61" t="s">
+      <c r="BH1" s="65"/>
+      <c r="BI1" s="65"/>
+      <c r="BJ1" s="65"/>
+      <c r="BL1" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="BM1" s="61"/>
-      <c r="BN1" s="61"/>
-      <c r="BO1" s="61"/>
-      <c r="BP1" s="61"/>
-      <c r="BQ1" s="61"/>
-      <c r="BR1" s="61"/>
-      <c r="BT1" s="61" t="s">
+      <c r="BM1" s="65"/>
+      <c r="BN1" s="65"/>
+      <c r="BO1" s="65"/>
+      <c r="BP1" s="65"/>
+      <c r="BQ1" s="65"/>
+      <c r="BR1" s="65"/>
+      <c r="BT1" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="BU1" s="61"/>
+      <c r="BU1" s="65"/>
       <c r="BW1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="BX1" s="21"/>
+      <c r="BX1" s="8"/>
       <c r="BY1" s="21"/>
       <c r="BZ1" s="21"/>
       <c r="CA1" s="21"/>
       <c r="CB1" s="21"/>
       <c r="CC1" s="21"/>
       <c r="CD1" s="21"/>
+      <c r="CE1" s="21"/>
     </row>
-    <row r="2" spans="1:83" s="52" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:84" s="52" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="42" t="s">
         <v>49</v>
       </c>
@@ -2925,29 +2958,32 @@
         <v>28</v>
       </c>
       <c r="BX2" s="51" t="s">
+        <v>362</v>
+      </c>
+      <c r="BY2" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="BY2" s="51" t="s">
+      <c r="BZ2" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="BZ2" s="51" t="s">
+      <c r="CA2" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="CA2" s="51" t="s">
+      <c r="CB2" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="CB2" s="51" t="s">
+      <c r="CC2" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="CC2" s="51" t="s">
+      <c r="CD2" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="CD2" s="51" t="s">
+      <c r="CE2" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="CE2" s="47"/>
+      <c r="CF2" s="47"/>
     </row>
-    <row r="3" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <f t="shared" ref="A3:A29" si="0">COUNTIF(D3,"&lt;&gt;"&amp;"")+COUNTIF(BR3,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
@@ -3096,16 +3132,16 @@
       <c r="BH3" s="57"/>
       <c r="BI3" s="57"/>
       <c r="BJ3" s="57"/>
-      <c r="BL3" s="62">
+      <c r="BL3" s="61">
         <v>41226</v>
       </c>
-      <c r="BM3" s="63" t="s">
+      <c r="BM3" s="62" t="s">
         <v>344</v>
       </c>
-      <c r="BN3" s="64">
+      <c r="BN3" s="63">
         <v>31.63212</v>
       </c>
-      <c r="BO3" s="64">
+      <c r="BO3" s="63">
         <v>34.5167</v>
       </c>
       <c r="BP3" s="41" t="s">
@@ -3115,16 +3151,21 @@
         <v>346</v>
       </c>
       <c r="BR3" s="59"/>
-      <c r="BW3"/>
-      <c r="BX3"/>
+      <c r="BW3">
+        <v>1.5</v>
+      </c>
+      <c r="BX3" s="41" t="s">
+        <v>363</v>
+      </c>
       <c r="BY3"/>
       <c r="BZ3"/>
       <c r="CA3"/>
       <c r="CB3"/>
       <c r="CC3"/>
       <c r="CD3"/>
+      <c r="CE3"/>
     </row>
-    <row r="4" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3273,16 +3314,16 @@
       <c r="BH4" s="57"/>
       <c r="BI4" s="57"/>
       <c r="BJ4" s="57"/>
-      <c r="BL4" s="62">
+      <c r="BL4" s="61">
         <v>41226</v>
       </c>
-      <c r="BM4" s="63" t="s">
+      <c r="BM4" s="62" t="s">
         <v>344</v>
       </c>
-      <c r="BN4" s="64">
+      <c r="BN4" s="63">
         <v>31.63212</v>
       </c>
-      <c r="BO4" s="64">
+      <c r="BO4" s="63">
         <v>34.5167</v>
       </c>
       <c r="BP4" s="41" t="s">
@@ -3292,16 +3333,21 @@
         <v>346</v>
       </c>
       <c r="BR4" s="59"/>
-      <c r="BW4"/>
-      <c r="BX4"/>
+      <c r="BW4">
+        <v>1.5</v>
+      </c>
+      <c r="BX4" s="41" t="s">
+        <v>363</v>
+      </c>
       <c r="BY4"/>
       <c r="BZ4"/>
       <c r="CA4"/>
       <c r="CB4"/>
       <c r="CC4"/>
       <c r="CD4"/>
+      <c r="CE4"/>
     </row>
-    <row r="5" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3450,16 +3496,16 @@
       <c r="BH5" s="57"/>
       <c r="BI5" s="57"/>
       <c r="BJ5" s="57"/>
-      <c r="BL5" s="62">
+      <c r="BL5" s="61">
         <v>41226</v>
       </c>
-      <c r="BM5" s="63" t="s">
+      <c r="BM5" s="62" t="s">
         <v>344</v>
       </c>
-      <c r="BN5" s="64">
+      <c r="BN5" s="63">
         <v>31.63212</v>
       </c>
-      <c r="BO5" s="64">
+      <c r="BO5" s="63">
         <v>34.5167</v>
       </c>
       <c r="BP5" s="41" t="s">
@@ -3469,16 +3515,21 @@
         <v>346</v>
       </c>
       <c r="BR5" s="59"/>
-      <c r="BW5"/>
-      <c r="BX5"/>
+      <c r="BW5">
+        <v>1.5</v>
+      </c>
+      <c r="BX5" s="41" t="s">
+        <v>363</v>
+      </c>
       <c r="BY5"/>
       <c r="BZ5"/>
       <c r="CA5"/>
       <c r="CB5"/>
       <c r="CC5"/>
       <c r="CD5"/>
+      <c r="CE5"/>
     </row>
-    <row r="6" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3627,16 +3678,16 @@
       <c r="BH6" s="57"/>
       <c r="BI6" s="57"/>
       <c r="BJ6" s="57"/>
-      <c r="BL6" s="62">
+      <c r="BL6" s="61">
         <v>41226</v>
       </c>
-      <c r="BM6" s="63" t="s">
+      <c r="BM6" s="62" t="s">
         <v>347</v>
       </c>
-      <c r="BN6" s="64">
+      <c r="BN6" s="63">
         <v>31.6341</v>
       </c>
-      <c r="BO6" s="64">
+      <c r="BO6" s="63">
         <v>34.51144</v>
       </c>
       <c r="BP6" s="41" t="s">
@@ -3646,16 +3697,21 @@
         <v>348</v>
       </c>
       <c r="BR6" s="59"/>
-      <c r="BW6"/>
-      <c r="BX6"/>
+      <c r="BW6">
+        <v>10</v>
+      </c>
+      <c r="BX6" s="66" t="s">
+        <v>364</v>
+      </c>
       <c r="BY6"/>
       <c r="BZ6"/>
       <c r="CA6"/>
       <c r="CB6"/>
       <c r="CC6"/>
       <c r="CD6"/>
+      <c r="CE6"/>
     </row>
-    <row r="7" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3804,16 +3860,16 @@
       <c r="BH7" s="57"/>
       <c r="BI7" s="57"/>
       <c r="BJ7" s="57"/>
-      <c r="BL7" s="62">
+      <c r="BL7" s="61">
         <v>41226</v>
       </c>
-      <c r="BM7" s="63" t="s">
+      <c r="BM7" s="62" t="s">
         <v>347</v>
       </c>
-      <c r="BN7" s="64">
+      <c r="BN7" s="63">
         <v>31.6341</v>
       </c>
-      <c r="BO7" s="64">
+      <c r="BO7" s="63">
         <v>34.51144</v>
       </c>
       <c r="BP7" s="41" t="s">
@@ -3823,16 +3879,21 @@
         <v>348</v>
       </c>
       <c r="BR7" s="59"/>
-      <c r="BW7"/>
-      <c r="BX7"/>
+      <c r="BW7">
+        <v>10</v>
+      </c>
+      <c r="BX7" s="67" t="s">
+        <v>364</v>
+      </c>
       <c r="BY7"/>
       <c r="BZ7"/>
       <c r="CA7"/>
       <c r="CB7"/>
       <c r="CC7"/>
       <c r="CD7"/>
+      <c r="CE7"/>
     </row>
-    <row r="8" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3981,16 +4042,16 @@
       <c r="BH8" s="57"/>
       <c r="BI8" s="57"/>
       <c r="BJ8" s="57"/>
-      <c r="BL8" s="62">
+      <c r="BL8" s="61">
         <v>41226</v>
       </c>
-      <c r="BM8" s="63" t="s">
+      <c r="BM8" s="62" t="s">
         <v>347</v>
       </c>
-      <c r="BN8" s="64">
+      <c r="BN8" s="63">
         <v>31.6341</v>
       </c>
-      <c r="BO8" s="64">
+      <c r="BO8" s="63">
         <v>34.51144</v>
       </c>
       <c r="BP8" s="41" t="s">
@@ -4000,16 +4061,21 @@
         <v>348</v>
       </c>
       <c r="BR8" s="59"/>
-      <c r="BW8"/>
-      <c r="BX8"/>
+      <c r="BW8">
+        <v>10</v>
+      </c>
+      <c r="BX8" s="67" t="s">
+        <v>364</v>
+      </c>
       <c r="BY8"/>
       <c r="BZ8"/>
       <c r="CA8"/>
       <c r="CB8"/>
       <c r="CC8"/>
       <c r="CD8"/>
+      <c r="CE8"/>
     </row>
-    <row r="9" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4158,16 +4224,16 @@
       <c r="BH9" s="57"/>
       <c r="BI9" s="57"/>
       <c r="BJ9" s="57"/>
-      <c r="BL9" s="62">
+      <c r="BL9" s="61">
         <v>41226</v>
       </c>
-      <c r="BM9" s="63" t="s">
+      <c r="BM9" s="62" t="s">
         <v>349</v>
       </c>
-      <c r="BN9" s="64">
+      <c r="BN9" s="63">
         <v>31.671759999999999</v>
       </c>
-      <c r="BO9" s="64">
+      <c r="BO9" s="63">
         <v>34.543559999999999</v>
       </c>
       <c r="BP9" s="41" t="s">
@@ -4177,16 +4243,21 @@
         <v>350</v>
       </c>
       <c r="BR9" s="59"/>
-      <c r="BW9"/>
-      <c r="BX9"/>
+      <c r="BW9">
+        <v>5</v>
+      </c>
+      <c r="BX9" s="67" t="s">
+        <v>364</v>
+      </c>
       <c r="BY9"/>
       <c r="BZ9"/>
       <c r="CA9"/>
       <c r="CB9"/>
       <c r="CC9"/>
       <c r="CD9"/>
+      <c r="CE9"/>
     </row>
-    <row r="10" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4335,16 +4406,16 @@
       <c r="BH10" s="57"/>
       <c r="BI10" s="57"/>
       <c r="BJ10" s="57"/>
-      <c r="BL10" s="62">
+      <c r="BL10" s="61">
         <v>41226</v>
       </c>
-      <c r="BM10" s="63" t="s">
+      <c r="BM10" s="62" t="s">
         <v>349</v>
       </c>
-      <c r="BN10" s="64">
+      <c r="BN10" s="63">
         <v>31.671759999999999</v>
       </c>
-      <c r="BO10" s="64">
+      <c r="BO10" s="63">
         <v>34.543559999999999</v>
       </c>
       <c r="BP10" s="41" t="s">
@@ -4354,16 +4425,21 @@
         <v>350</v>
       </c>
       <c r="BR10" s="59"/>
-      <c r="BW10"/>
-      <c r="BX10"/>
+      <c r="BW10">
+        <v>5</v>
+      </c>
+      <c r="BX10" s="67" t="s">
+        <v>364</v>
+      </c>
       <c r="BY10"/>
       <c r="BZ10"/>
       <c r="CA10"/>
       <c r="CB10"/>
       <c r="CC10"/>
       <c r="CD10"/>
+      <c r="CE10"/>
     </row>
-    <row r="11" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4512,16 +4588,16 @@
       <c r="BH11" s="57"/>
       <c r="BI11" s="57"/>
       <c r="BJ11" s="57"/>
-      <c r="BL11" s="62">
+      <c r="BL11" s="61">
         <v>41226</v>
       </c>
-      <c r="BM11" s="63" t="s">
+      <c r="BM11" s="62" t="s">
         <v>349</v>
       </c>
-      <c r="BN11" s="64">
+      <c r="BN11" s="63">
         <v>31.671759999999999</v>
       </c>
-      <c r="BO11" s="64">
+      <c r="BO11" s="63">
         <v>34.543559999999999</v>
       </c>
       <c r="BP11" s="41" t="s">
@@ -4531,16 +4607,21 @@
         <v>350</v>
       </c>
       <c r="BR11" s="59"/>
-      <c r="BW11"/>
-      <c r="BX11"/>
+      <c r="BW11">
+        <v>5</v>
+      </c>
+      <c r="BX11" s="67" t="s">
+        <v>364</v>
+      </c>
       <c r="BY11"/>
       <c r="BZ11"/>
       <c r="CA11"/>
       <c r="CB11"/>
       <c r="CC11"/>
       <c r="CD11"/>
+      <c r="CE11"/>
     </row>
-    <row r="12" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4689,35 +4770,40 @@
       <c r="BH12" s="57"/>
       <c r="BI12" s="57"/>
       <c r="BJ12" s="57"/>
-      <c r="BL12" s="62">
+      <c r="BL12" s="61">
         <v>41227</v>
       </c>
-      <c r="BM12" s="63" t="s">
+      <c r="BM12" s="62" t="s">
         <v>351</v>
       </c>
-      <c r="BN12" s="64">
+      <c r="BN12" s="63">
         <v>31.941859999999998</v>
       </c>
-      <c r="BO12" s="64">
+      <c r="BO12" s="63">
         <v>34.68862</v>
       </c>
       <c r="BP12" s="41" t="s">
         <v>345</v>
       </c>
-      <c r="BQ12" s="65" t="s">
+      <c r="BQ12" s="64" t="s">
         <v>352</v>
       </c>
       <c r="BR12" s="60"/>
-      <c r="BW12"/>
-      <c r="BX12"/>
+      <c r="BW12">
+        <v>18</v>
+      </c>
+      <c r="BX12" s="67" t="s">
+        <v>364</v>
+      </c>
       <c r="BY12"/>
       <c r="BZ12"/>
       <c r="CA12"/>
       <c r="CB12"/>
       <c r="CC12"/>
       <c r="CD12"/>
+      <c r="CE12"/>
     </row>
-    <row r="13" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4866,35 +4952,40 @@
       <c r="BH13" s="57"/>
       <c r="BI13" s="57"/>
       <c r="BJ13" s="57"/>
-      <c r="BL13" s="62">
+      <c r="BL13" s="61">
         <v>41227</v>
       </c>
-      <c r="BM13" s="63" t="s">
+      <c r="BM13" s="62" t="s">
         <v>351</v>
       </c>
-      <c r="BN13" s="64">
+      <c r="BN13" s="63">
         <v>31.941859999999998</v>
       </c>
-      <c r="BO13" s="64">
+      <c r="BO13" s="63">
         <v>34.68862</v>
       </c>
       <c r="BP13" s="41" t="s">
         <v>345</v>
       </c>
-      <c r="BQ13" s="65" t="s">
+      <c r="BQ13" s="64" t="s">
         <v>352</v>
       </c>
       <c r="BR13" s="60"/>
-      <c r="BW13"/>
-      <c r="BX13"/>
+      <c r="BW13">
+        <v>18</v>
+      </c>
+      <c r="BX13" s="67" t="s">
+        <v>364</v>
+      </c>
       <c r="BY13"/>
       <c r="BZ13"/>
       <c r="CA13"/>
       <c r="CB13"/>
       <c r="CC13"/>
       <c r="CD13"/>
+      <c r="CE13"/>
     </row>
-    <row r="14" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5043,35 +5134,40 @@
       <c r="BH14" s="57"/>
       <c r="BI14" s="57"/>
       <c r="BJ14" s="57"/>
-      <c r="BL14" s="62">
+      <c r="BL14" s="61">
         <v>41227</v>
       </c>
-      <c r="BM14" s="63" t="s">
+      <c r="BM14" s="62" t="s">
         <v>351</v>
       </c>
-      <c r="BN14" s="64">
+      <c r="BN14" s="63">
         <v>31.941859999999998</v>
       </c>
-      <c r="BO14" s="64">
+      <c r="BO14" s="63">
         <v>34.68862</v>
       </c>
       <c r="BP14" s="41" t="s">
         <v>345</v>
       </c>
-      <c r="BQ14" s="65" t="s">
+      <c r="BQ14" s="64" t="s">
         <v>352</v>
       </c>
       <c r="BR14" s="60"/>
-      <c r="BW14"/>
-      <c r="BX14"/>
+      <c r="BW14">
+        <v>18</v>
+      </c>
+      <c r="BX14" s="67" t="s">
+        <v>364</v>
+      </c>
       <c r="BY14"/>
       <c r="BZ14"/>
       <c r="CA14"/>
       <c r="CB14"/>
       <c r="CC14"/>
       <c r="CD14"/>
+      <c r="CE14"/>
     </row>
-    <row r="15" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A15" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5220,35 +5316,40 @@
       <c r="BH15" s="57"/>
       <c r="BI15" s="57"/>
       <c r="BJ15" s="57"/>
-      <c r="BL15" s="62">
+      <c r="BL15" s="61">
         <v>41227</v>
       </c>
-      <c r="BM15" s="63" t="s">
+      <c r="BM15" s="62" t="s">
         <v>353</v>
       </c>
-      <c r="BN15" s="64">
+      <c r="BN15" s="63">
         <v>31.94068</v>
       </c>
-      <c r="BO15" s="64">
+      <c r="BO15" s="63">
         <v>34.687379999999997</v>
       </c>
       <c r="BP15" s="41" t="s">
         <v>345</v>
       </c>
-      <c r="BQ15" s="65" t="s">
+      <c r="BQ15" s="64" t="s">
         <v>352</v>
       </c>
       <c r="BR15" s="60"/>
-      <c r="BW15"/>
-      <c r="BX15"/>
+      <c r="BW15">
+        <v>19</v>
+      </c>
+      <c r="BX15" s="67" t="s">
+        <v>364</v>
+      </c>
       <c r="BY15"/>
       <c r="BZ15"/>
       <c r="CA15"/>
       <c r="CB15"/>
       <c r="CC15"/>
       <c r="CD15"/>
+      <c r="CE15"/>
     </row>
-    <row r="16" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5387,35 +5488,40 @@
       <c r="BH16" s="57"/>
       <c r="BI16" s="57"/>
       <c r="BJ16" s="57"/>
-      <c r="BL16" s="62">
+      <c r="BL16" s="61">
         <v>41227</v>
       </c>
-      <c r="BM16" s="63" t="s">
+      <c r="BM16" s="62" t="s">
         <v>353</v>
       </c>
-      <c r="BN16" s="64">
+      <c r="BN16" s="63">
         <v>31.94068</v>
       </c>
-      <c r="BO16" s="64">
+      <c r="BO16" s="63">
         <v>34.687379999999997</v>
       </c>
       <c r="BP16" s="41" t="s">
         <v>345</v>
       </c>
-      <c r="BQ16" s="65" t="s">
+      <c r="BQ16" s="64" t="s">
         <v>352</v>
       </c>
       <c r="BR16" s="60"/>
-      <c r="BW16"/>
-      <c r="BX16"/>
+      <c r="BW16">
+        <v>19</v>
+      </c>
+      <c r="BX16" s="67" t="s">
+        <v>364</v>
+      </c>
       <c r="BY16"/>
       <c r="BZ16"/>
       <c r="CA16"/>
       <c r="CB16"/>
       <c r="CC16"/>
       <c r="CD16"/>
+      <c r="CE16"/>
     </row>
-    <row r="17" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A17" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5554,35 +5660,40 @@
       <c r="BH17" s="57"/>
       <c r="BI17" s="57"/>
       <c r="BJ17" s="57"/>
-      <c r="BL17" s="62">
+      <c r="BL17" s="61">
         <v>41227</v>
       </c>
-      <c r="BM17" s="63" t="s">
+      <c r="BM17" s="62" t="s">
         <v>353</v>
       </c>
-      <c r="BN17" s="64">
+      <c r="BN17" s="63">
         <v>31.94068</v>
       </c>
-      <c r="BO17" s="64">
+      <c r="BO17" s="63">
         <v>34.687379999999997</v>
       </c>
       <c r="BP17" s="41" t="s">
         <v>345</v>
       </c>
-      <c r="BQ17" s="65" t="s">
+      <c r="BQ17" s="64" t="s">
         <v>352</v>
       </c>
       <c r="BR17" s="60"/>
-      <c r="BW17"/>
-      <c r="BX17"/>
+      <c r="BW17">
+        <v>19</v>
+      </c>
+      <c r="BX17" s="67" t="s">
+        <v>364</v>
+      </c>
       <c r="BY17"/>
       <c r="BZ17"/>
       <c r="CA17"/>
       <c r="CB17"/>
       <c r="CC17"/>
       <c r="CD17"/>
+      <c r="CE17"/>
     </row>
-    <row r="18" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A18" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5721,35 +5832,40 @@
       <c r="BH18" s="57"/>
       <c r="BI18" s="57"/>
       <c r="BJ18" s="57"/>
-      <c r="BL18" s="62">
+      <c r="BL18" s="61">
         <v>41227</v>
       </c>
-      <c r="BM18" s="63" t="s">
+      <c r="BM18" s="62" t="s">
         <v>354</v>
       </c>
-      <c r="BN18" s="64">
+      <c r="BN18" s="63">
         <v>31.931660000000001</v>
       </c>
-      <c r="BO18" s="64">
+      <c r="BO18" s="63">
         <v>34.68336</v>
       </c>
       <c r="BP18" s="41" t="s">
         <v>345</v>
       </c>
-      <c r="BQ18" s="65" t="s">
+      <c r="BQ18" s="64" t="s">
         <v>355</v>
       </c>
       <c r="BR18" s="60"/>
-      <c r="BW18"/>
-      <c r="BX18"/>
+      <c r="BW18">
+        <v>18</v>
+      </c>
+      <c r="BX18" s="67" t="s">
+        <v>364</v>
+      </c>
       <c r="BY18"/>
       <c r="BZ18"/>
       <c r="CA18"/>
       <c r="CB18"/>
       <c r="CC18"/>
       <c r="CD18"/>
+      <c r="CE18"/>
     </row>
-    <row r="19" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A19" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5888,16 +6004,16 @@
       <c r="BH19" s="57"/>
       <c r="BI19" s="57"/>
       <c r="BJ19" s="57"/>
-      <c r="BL19" s="62">
+      <c r="BL19" s="61">
         <v>41227</v>
       </c>
-      <c r="BM19" s="63" t="s">
+      <c r="BM19" s="62" t="s">
         <v>354</v>
       </c>
-      <c r="BN19" s="64">
+      <c r="BN19" s="63">
         <v>31.931660000000001</v>
       </c>
-      <c r="BO19" s="64">
+      <c r="BO19" s="63">
         <v>34.68336</v>
       </c>
       <c r="BP19" s="41" t="s">
@@ -5907,16 +6023,21 @@
         <v>355</v>
       </c>
       <c r="BR19" s="59"/>
-      <c r="BW19"/>
-      <c r="BX19"/>
+      <c r="BW19">
+        <v>18</v>
+      </c>
+      <c r="BX19" s="67" t="s">
+        <v>364</v>
+      </c>
       <c r="BY19"/>
       <c r="BZ19"/>
       <c r="CA19"/>
       <c r="CB19"/>
       <c r="CC19"/>
       <c r="CD19"/>
+      <c r="CE19"/>
     </row>
-    <row r="20" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A20" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -6055,16 +6176,16 @@
       <c r="BH20" s="57"/>
       <c r="BI20" s="57"/>
       <c r="BJ20" s="57"/>
-      <c r="BL20" s="62">
+      <c r="BL20" s="61">
         <v>41227</v>
       </c>
-      <c r="BM20" s="63" t="s">
+      <c r="BM20" s="62" t="s">
         <v>354</v>
       </c>
-      <c r="BN20" s="64">
+      <c r="BN20" s="63">
         <v>31.931660000000001</v>
       </c>
-      <c r="BO20" s="64">
+      <c r="BO20" s="63">
         <v>34.68336</v>
       </c>
       <c r="BP20" s="41" t="s">
@@ -6074,16 +6195,21 @@
         <v>355</v>
       </c>
       <c r="BR20" s="59"/>
-      <c r="BW20"/>
-      <c r="BX20"/>
+      <c r="BW20">
+        <v>18</v>
+      </c>
+      <c r="BX20" s="67" t="s">
+        <v>364</v>
+      </c>
       <c r="BY20"/>
       <c r="BZ20"/>
       <c r="CA20"/>
       <c r="CB20"/>
       <c r="CC20"/>
       <c r="CD20"/>
+      <c r="CE20"/>
     </row>
-    <row r="21" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A21" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -6222,35 +6348,40 @@
       <c r="BH21" s="57"/>
       <c r="BI21" s="57"/>
       <c r="BJ21" s="57"/>
-      <c r="BL21" s="62">
+      <c r="BL21" s="61">
         <v>41233</v>
       </c>
-      <c r="BM21" s="63" t="s">
+      <c r="BM21" s="62" t="s">
         <v>356</v>
       </c>
-      <c r="BN21" s="64">
+      <c r="BN21" s="63">
         <v>32.465020000000003</v>
       </c>
-      <c r="BO21" s="64">
+      <c r="BO21" s="63">
         <v>34.882582999999997</v>
       </c>
       <c r="BP21" s="41" t="s">
         <v>345</v>
       </c>
-      <c r="BQ21" s="65" t="s">
+      <c r="BQ21" s="64" t="s">
         <v>357</v>
       </c>
       <c r="BR21" s="60"/>
-      <c r="BW21"/>
-      <c r="BX21"/>
+      <c r="BW21">
+        <v>3.8</v>
+      </c>
+      <c r="BX21" s="41" t="s">
+        <v>363</v>
+      </c>
       <c r="BY21"/>
       <c r="BZ21"/>
       <c r="CA21"/>
       <c r="CB21"/>
       <c r="CC21"/>
       <c r="CD21"/>
+      <c r="CE21"/>
     </row>
-    <row r="22" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -6389,35 +6520,40 @@
       <c r="BH22" s="57"/>
       <c r="BI22" s="57"/>
       <c r="BJ22" s="57"/>
-      <c r="BL22" s="62">
+      <c r="BL22" s="61">
         <v>41233</v>
       </c>
-      <c r="BM22" s="63" t="s">
+      <c r="BM22" s="62" t="s">
         <v>356</v>
       </c>
-      <c r="BN22" s="64">
+      <c r="BN22" s="63">
         <v>32.465020000000003</v>
       </c>
-      <c r="BO22" s="64">
+      <c r="BO22" s="63">
         <v>34.882582999999997</v>
       </c>
       <c r="BP22" s="41" t="s">
         <v>345</v>
       </c>
-      <c r="BQ22" s="65" t="s">
+      <c r="BQ22" s="64" t="s">
         <v>357</v>
       </c>
       <c r="BR22" s="60"/>
-      <c r="BW22"/>
-      <c r="BX22"/>
+      <c r="BW22">
+        <v>3.8</v>
+      </c>
+      <c r="BX22" s="41" t="s">
+        <v>363</v>
+      </c>
       <c r="BY22"/>
       <c r="BZ22"/>
       <c r="CA22"/>
       <c r="CB22"/>
       <c r="CC22"/>
       <c r="CD22"/>
+      <c r="CE22"/>
     </row>
-    <row r="23" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -6556,35 +6692,40 @@
       <c r="BH23" s="57"/>
       <c r="BI23" s="57"/>
       <c r="BJ23" s="57"/>
-      <c r="BL23" s="62">
+      <c r="BL23" s="61">
         <v>41233</v>
       </c>
-      <c r="BM23" s="63" t="s">
+      <c r="BM23" s="62" t="s">
         <v>356</v>
       </c>
-      <c r="BN23" s="64">
+      <c r="BN23" s="63">
         <v>32.465020000000003</v>
       </c>
-      <c r="BO23" s="64">
+      <c r="BO23" s="63">
         <v>34.882582999999997</v>
       </c>
       <c r="BP23" s="41" t="s">
         <v>345</v>
       </c>
-      <c r="BQ23" s="65" t="s">
+      <c r="BQ23" s="64" t="s">
         <v>357</v>
       </c>
       <c r="BR23" s="60"/>
-      <c r="BW23"/>
-      <c r="BX23"/>
+      <c r="BW23">
+        <v>3.8</v>
+      </c>
+      <c r="BX23" s="41" t="s">
+        <v>363</v>
+      </c>
       <c r="BY23"/>
       <c r="BZ23"/>
       <c r="CA23"/>
       <c r="CB23"/>
       <c r="CC23"/>
       <c r="CD23"/>
+      <c r="CE23"/>
     </row>
-    <row r="24" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -6723,35 +6864,40 @@
       <c r="BH24" s="57"/>
       <c r="BI24" s="57"/>
       <c r="BJ24" s="57"/>
-      <c r="BL24" s="62">
+      <c r="BL24" s="61">
         <v>41233</v>
       </c>
-      <c r="BM24" s="63" t="s">
+      <c r="BM24" s="62" t="s">
         <v>358</v>
       </c>
-      <c r="BN24" s="64">
+      <c r="BN24" s="63">
         <v>32.463700000000003</v>
       </c>
-      <c r="BO24" s="64">
+      <c r="BO24" s="63">
         <v>34.879339999999999</v>
       </c>
       <c r="BP24" s="41" t="s">
         <v>345</v>
       </c>
-      <c r="BQ24" s="65" t="s">
+      <c r="BQ24" s="64" t="s">
         <v>359</v>
       </c>
       <c r="BR24" s="60"/>
-      <c r="BW24"/>
-      <c r="BX24"/>
+      <c r="BW24">
+        <v>5.5</v>
+      </c>
+      <c r="BX24" s="67" t="s">
+        <v>364</v>
+      </c>
       <c r="BY24"/>
       <c r="BZ24"/>
       <c r="CA24"/>
       <c r="CB24"/>
       <c r="CC24"/>
       <c r="CD24"/>
+      <c r="CE24"/>
     </row>
-    <row r="25" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -6890,35 +7036,40 @@
       <c r="BH25" s="57"/>
       <c r="BI25" s="57"/>
       <c r="BJ25" s="57"/>
-      <c r="BL25" s="62">
+      <c r="BL25" s="61">
         <v>41233</v>
       </c>
-      <c r="BM25" s="63" t="s">
+      <c r="BM25" s="62" t="s">
         <v>358</v>
       </c>
-      <c r="BN25" s="64">
+      <c r="BN25" s="63">
         <v>32.463700000000003</v>
       </c>
-      <c r="BO25" s="64">
+      <c r="BO25" s="63">
         <v>34.879339999999999</v>
       </c>
       <c r="BP25" s="41" t="s">
         <v>345</v>
       </c>
-      <c r="BQ25" s="65" t="s">
+      <c r="BQ25" s="64" t="s">
         <v>359</v>
       </c>
       <c r="BR25" s="60"/>
-      <c r="BW25"/>
-      <c r="BX25"/>
+      <c r="BW25">
+        <v>5.5</v>
+      </c>
+      <c r="BX25" s="67" t="s">
+        <v>364</v>
+      </c>
       <c r="BY25"/>
       <c r="BZ25"/>
       <c r="CA25"/>
       <c r="CB25"/>
       <c r="CC25"/>
       <c r="CD25"/>
+      <c r="CE25"/>
     </row>
-    <row r="26" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -7057,35 +7208,40 @@
       <c r="BH26" s="57"/>
       <c r="BI26" s="57"/>
       <c r="BJ26" s="57"/>
-      <c r="BL26" s="62">
+      <c r="BL26" s="61">
         <v>41233</v>
       </c>
-      <c r="BM26" s="63" t="s">
+      <c r="BM26" s="62" t="s">
         <v>358</v>
       </c>
-      <c r="BN26" s="64">
+      <c r="BN26" s="63">
         <v>32.463700000000003</v>
       </c>
-      <c r="BO26" s="64">
+      <c r="BO26" s="63">
         <v>34.879339999999999</v>
       </c>
       <c r="BP26" s="41" t="s">
         <v>345</v>
       </c>
-      <c r="BQ26" s="65" t="s">
+      <c r="BQ26" s="64" t="s">
         <v>359</v>
       </c>
       <c r="BR26" s="60"/>
-      <c r="BW26"/>
-      <c r="BX26"/>
+      <c r="BW26">
+        <v>5.5</v>
+      </c>
+      <c r="BX26" s="67" t="s">
+        <v>364</v>
+      </c>
       <c r="BY26"/>
       <c r="BZ26"/>
       <c r="CA26"/>
       <c r="CB26"/>
       <c r="CC26"/>
       <c r="CD26"/>
+      <c r="CE26"/>
     </row>
-    <row r="27" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -7224,16 +7380,16 @@
       <c r="BH27" s="57"/>
       <c r="BI27" s="57"/>
       <c r="BJ27" s="57"/>
-      <c r="BL27" s="62">
+      <c r="BL27" s="61">
         <v>41233</v>
       </c>
-      <c r="BM27" s="63" t="s">
+      <c r="BM27" s="62" t="s">
         <v>360</v>
       </c>
-      <c r="BN27" s="64">
+      <c r="BN27" s="63">
         <v>32.42868</v>
       </c>
-      <c r="BO27" s="64">
+      <c r="BO27" s="63">
         <v>34.870280000000001</v>
       </c>
       <c r="BP27" s="41" t="s">
@@ -7243,16 +7399,21 @@
         <v>361</v>
       </c>
       <c r="BR27" s="59"/>
-      <c r="BW27"/>
-      <c r="BX27"/>
+      <c r="BW27">
+        <v>6.5</v>
+      </c>
+      <c r="BX27" s="67" t="s">
+        <v>364</v>
+      </c>
       <c r="BY27"/>
       <c r="BZ27"/>
       <c r="CA27"/>
       <c r="CB27"/>
       <c r="CC27"/>
       <c r="CD27"/>
+      <c r="CE27"/>
     </row>
-    <row r="28" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -7391,16 +7552,16 @@
       <c r="BH28" s="57"/>
       <c r="BI28" s="57"/>
       <c r="BJ28" s="57"/>
-      <c r="BL28" s="62">
+      <c r="BL28" s="61">
         <v>41233</v>
       </c>
-      <c r="BM28" s="63" t="s">
+      <c r="BM28" s="62" t="s">
         <v>360</v>
       </c>
-      <c r="BN28" s="64">
+      <c r="BN28" s="63">
         <v>32.42868</v>
       </c>
-      <c r="BO28" s="64">
+      <c r="BO28" s="63">
         <v>34.870280000000001</v>
       </c>
       <c r="BP28" s="41" t="s">
@@ -7410,16 +7571,21 @@
         <v>361</v>
       </c>
       <c r="BR28" s="59"/>
-      <c r="BW28"/>
-      <c r="BX28"/>
+      <c r="BW28">
+        <v>6.5</v>
+      </c>
+      <c r="BX28" s="67" t="s">
+        <v>364</v>
+      </c>
       <c r="BY28"/>
       <c r="BZ28"/>
       <c r="CA28"/>
       <c r="CB28"/>
       <c r="CC28"/>
       <c r="CD28"/>
+      <c r="CE28"/>
     </row>
-    <row r="29" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -7558,16 +7724,16 @@
       <c r="BH29" s="57"/>
       <c r="BI29" s="57"/>
       <c r="BJ29" s="57"/>
-      <c r="BL29" s="62">
+      <c r="BL29" s="61">
         <v>41233</v>
       </c>
-      <c r="BM29" s="63" t="s">
+      <c r="BM29" s="62" t="s">
         <v>360</v>
       </c>
-      <c r="BN29" s="64">
+      <c r="BN29" s="63">
         <v>32.42868</v>
       </c>
-      <c r="BO29" s="64">
+      <c r="BO29" s="63">
         <v>34.870280000000001</v>
       </c>
       <c r="BP29" s="41" t="s">
@@ -7577,22 +7743,27 @@
         <v>361</v>
       </c>
       <c r="BR29" s="59"/>
-      <c r="BW29"/>
-      <c r="BX29"/>
+      <c r="BW29">
+        <v>6.5</v>
+      </c>
+      <c r="BX29" s="67" t="s">
+        <v>364</v>
+      </c>
       <c r="BY29"/>
       <c r="BZ29"/>
       <c r="CA29"/>
       <c r="CB29"/>
       <c r="CC29"/>
       <c r="CD29"/>
+      <c r="CE29"/>
     </row>
-    <row r="30" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:83" x14ac:dyDescent="0.2">
       <c r="AO30" s="13"/>
     </row>
-    <row r="31" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:83" x14ac:dyDescent="0.2">
       <c r="AO31" s="13"/>
     </row>
-    <row r="32" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:83" x14ac:dyDescent="0.2">
       <c r="AO32" s="13"/>
     </row>
     <row r="33" spans="41:41" x14ac:dyDescent="0.2">
@@ -7654,9 +7825,19 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" topLeftCell="BD1">
-      <pane ySplit="2" topLeftCell="A273" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BG334" sqref="BG334"/>
+    <customSheetView guid="{06B92370-743D-804F-912C-658BE37B1274}" topLeftCell="X1">
+      <pane ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="AD344" sqref="AD344"/>
+      <rowBreaks count="2" manualBreakCount="2">
+        <brk id="1" max="16383" man="1"/>
+        <brk id="325" max="16383" man="1"/>
+      </rowBreaks>
+      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+    </customSheetView>
+    <customSheetView guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" topLeftCell="AP1">
+      <pane ySplit="2.03125" topLeftCell="A342" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BA367" sqref="BA367"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="1" max="16383" man="1"/>
         <brk id="325" max="16383" man="1"/>
@@ -7674,24 +7855,14 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" topLeftCell="AP1">
-      <pane ySplit="2.03125" topLeftCell="A342" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BA367" sqref="BA367"/>
+    <customSheetView guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" topLeftCell="BD1">
+      <pane ySplit="2" topLeftCell="A273" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BG334" sqref="BG334"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="1" max="16383" man="1"/>
         <brk id="325" max="16383" man="1"/>
       </rowBreaks>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-    </customSheetView>
-    <customSheetView guid="{06B92370-743D-804F-912C-658BE37B1274}" topLeftCell="X1">
-      <pane ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="AD344" sqref="AD344"/>
-      <rowBreaks count="2" manualBreakCount="2">
-        <brk id="1" max="16383" man="1"/>
-        <brk id="325" max="16383" man="1"/>
-      </rowBreaks>
-      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
   </customSheetViews>

--- a/metadata/excel/projects/sinclair/testproj/metadata.xlsx
+++ b/metadata/excel/projects/sinclair/testproj/metadata.xlsx
@@ -16,10 +16,10 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Microsoft Office User - Personal View" guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Me - Personal View" guid="{22DA4066-82A0-D143-AA10-416CFBE3149D}" mergeInterval="0" personalView="1" xWindow="46" yWindow="23" windowWidth="1436" windowHeight="854" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
+    <customWorkbookView name="Kemal - Personal View" guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" mergeInterval="0" personalView="1" xWindow="184" yWindow="84" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
     <customWorkbookView name="LS - Personal View" guid="{06B92370-743D-804F-912C-658BE37B1274}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Kemal - Personal View" guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" mergeInterval="0" personalView="1" xWindow="184" yWindow="84" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Me - Personal View" guid="{22DA4066-82A0-D143-AA10-416CFBE3149D}" mergeInterval="0" personalView="1" xWindow="46" yWindow="23" windowWidth="1436" windowHeight="854" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
-    <customWorkbookView name="Microsoft Office User - Personal View" guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -1889,13 +1889,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="291" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2587,7 +2587,7 @@
     <sheetView tabSelected="1" topLeftCell="BK1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="X1" sqref="X1"/>
-      <selection pane="bottomLeft" activeCell="BT14" sqref="BT14"/>
+      <selection pane="bottomLeft" activeCell="BX2" sqref="BX2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2724,25 +2724,25 @@
       <c r="BC1" s="3"/>
       <c r="BD1" s="3"/>
       <c r="BE1" s="10"/>
-      <c r="BG1" s="65" t="s">
+      <c r="BG1" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="BH1" s="65"/>
-      <c r="BI1" s="65"/>
-      <c r="BJ1" s="65"/>
-      <c r="BL1" s="65" t="s">
+      <c r="BH1" s="67"/>
+      <c r="BI1" s="67"/>
+      <c r="BJ1" s="67"/>
+      <c r="BL1" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="BM1" s="65"/>
-      <c r="BN1" s="65"/>
-      <c r="BO1" s="65"/>
-      <c r="BP1" s="65"/>
-      <c r="BQ1" s="65"/>
-      <c r="BR1" s="65"/>
-      <c r="BT1" s="65" t="s">
+      <c r="BM1" s="67"/>
+      <c r="BN1" s="67"/>
+      <c r="BO1" s="67"/>
+      <c r="BP1" s="67"/>
+      <c r="BQ1" s="67"/>
+      <c r="BR1" s="67"/>
+      <c r="BT1" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="BU1" s="65"/>
+      <c r="BU1" s="67"/>
       <c r="BW1" s="8" t="s">
         <v>68</v>
       </c>
@@ -3700,7 +3700,7 @@
       <c r="BW6">
         <v>10</v>
       </c>
-      <c r="BX6" s="66" t="s">
+      <c r="BX6" s="65" t="s">
         <v>364</v>
       </c>
       <c r="BY6"/>
@@ -3882,7 +3882,7 @@
       <c r="BW7">
         <v>10</v>
       </c>
-      <c r="BX7" s="67" t="s">
+      <c r="BX7" s="66" t="s">
         <v>364</v>
       </c>
       <c r="BY7"/>
@@ -4064,7 +4064,7 @@
       <c r="BW8">
         <v>10</v>
       </c>
-      <c r="BX8" s="67" t="s">
+      <c r="BX8" s="66" t="s">
         <v>364</v>
       </c>
       <c r="BY8"/>
@@ -4246,7 +4246,7 @@
       <c r="BW9">
         <v>5</v>
       </c>
-      <c r="BX9" s="67" t="s">
+      <c r="BX9" s="66" t="s">
         <v>364</v>
       </c>
       <c r="BY9"/>
@@ -4428,7 +4428,7 @@
       <c r="BW10">
         <v>5</v>
       </c>
-      <c r="BX10" s="67" t="s">
+      <c r="BX10" s="66" t="s">
         <v>364</v>
       </c>
       <c r="BY10"/>
@@ -4610,7 +4610,7 @@
       <c r="BW11">
         <v>5</v>
       </c>
-      <c r="BX11" s="67" t="s">
+      <c r="BX11" s="66" t="s">
         <v>364</v>
       </c>
       <c r="BY11"/>
@@ -4792,7 +4792,7 @@
       <c r="BW12">
         <v>18</v>
       </c>
-      <c r="BX12" s="67" t="s">
+      <c r="BX12" s="66" t="s">
         <v>364</v>
       </c>
       <c r="BY12"/>
@@ -4974,7 +4974,7 @@
       <c r="BW13">
         <v>18</v>
       </c>
-      <c r="BX13" s="67" t="s">
+      <c r="BX13" s="66" t="s">
         <v>364</v>
       </c>
       <c r="BY13"/>
@@ -5156,7 +5156,7 @@
       <c r="BW14">
         <v>18</v>
       </c>
-      <c r="BX14" s="67" t="s">
+      <c r="BX14" s="66" t="s">
         <v>364</v>
       </c>
       <c r="BY14"/>
@@ -5338,7 +5338,7 @@
       <c r="BW15">
         <v>19</v>
       </c>
-      <c r="BX15" s="67" t="s">
+      <c r="BX15" s="66" t="s">
         <v>364</v>
       </c>
       <c r="BY15"/>
@@ -5510,7 +5510,7 @@
       <c r="BW16">
         <v>19</v>
       </c>
-      <c r="BX16" s="67" t="s">
+      <c r="BX16" s="66" t="s">
         <v>364</v>
       </c>
       <c r="BY16"/>
@@ -5682,7 +5682,7 @@
       <c r="BW17">
         <v>19</v>
       </c>
-      <c r="BX17" s="67" t="s">
+      <c r="BX17" s="66" t="s">
         <v>364</v>
       </c>
       <c r="BY17"/>
@@ -5854,7 +5854,7 @@
       <c r="BW18">
         <v>18</v>
       </c>
-      <c r="BX18" s="67" t="s">
+      <c r="BX18" s="66" t="s">
         <v>364</v>
       </c>
       <c r="BY18"/>
@@ -6026,7 +6026,7 @@
       <c r="BW19">
         <v>18</v>
       </c>
-      <c r="BX19" s="67" t="s">
+      <c r="BX19" s="66" t="s">
         <v>364</v>
       </c>
       <c r="BY19"/>
@@ -6198,7 +6198,7 @@
       <c r="BW20">
         <v>18</v>
       </c>
-      <c r="BX20" s="67" t="s">
+      <c r="BX20" s="66" t="s">
         <v>364</v>
       </c>
       <c r="BY20"/>
@@ -6886,7 +6886,7 @@
       <c r="BW24">
         <v>5.5</v>
       </c>
-      <c r="BX24" s="67" t="s">
+      <c r="BX24" s="66" t="s">
         <v>364</v>
       </c>
       <c r="BY24"/>
@@ -7058,7 +7058,7 @@
       <c r="BW25">
         <v>5.5</v>
       </c>
-      <c r="BX25" s="67" t="s">
+      <c r="BX25" s="66" t="s">
         <v>364</v>
       </c>
       <c r="BY25"/>
@@ -7230,7 +7230,7 @@
       <c r="BW26">
         <v>5.5</v>
       </c>
-      <c r="BX26" s="67" t="s">
+      <c r="BX26" s="66" t="s">
         <v>364</v>
       </c>
       <c r="BY26"/>
@@ -7402,7 +7402,7 @@
       <c r="BW27">
         <v>6.5</v>
       </c>
-      <c r="BX27" s="67" t="s">
+      <c r="BX27" s="66" t="s">
         <v>364</v>
       </c>
       <c r="BY27"/>
@@ -7574,7 +7574,7 @@
       <c r="BW28">
         <v>6.5</v>
       </c>
-      <c r="BX28" s="67" t="s">
+      <c r="BX28" s="66" t="s">
         <v>364</v>
       </c>
       <c r="BY28"/>
@@ -7746,7 +7746,7 @@
       <c r="BW29">
         <v>6.5</v>
       </c>
-      <c r="BX29" s="67" t="s">
+      <c r="BX29" s="66" t="s">
         <v>364</v>
       </c>
       <c r="BY29"/>
@@ -7825,19 +7825,9 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{06B92370-743D-804F-912C-658BE37B1274}" topLeftCell="X1">
-      <pane ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="AD344" sqref="AD344"/>
-      <rowBreaks count="2" manualBreakCount="2">
-        <brk id="1" max="16383" man="1"/>
-        <brk id="325" max="16383" man="1"/>
-      </rowBreaks>
-      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-    </customSheetView>
-    <customSheetView guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" topLeftCell="AP1">
-      <pane ySplit="2.03125" topLeftCell="A342" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BA367" sqref="BA367"/>
+    <customSheetView guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" topLeftCell="BD1">
+      <pane ySplit="2" topLeftCell="A273" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BG334" sqref="BG334"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="1" max="16383" man="1"/>
         <brk id="325" max="16383" man="1"/>
@@ -7855,14 +7845,24 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" topLeftCell="BD1">
-      <pane ySplit="2" topLeftCell="A273" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BG334" sqref="BG334"/>
+    <customSheetView guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" topLeftCell="AP1">
+      <pane ySplit="2.03125" topLeftCell="A342" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BA367" sqref="BA367"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="1" max="16383" man="1"/>
         <brk id="325" max="16383" man="1"/>
       </rowBreaks>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+    </customSheetView>
+    <customSheetView guid="{06B92370-743D-804F-912C-658BE37B1274}" topLeftCell="X1">
+      <pane ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="AD344" sqref="AD344"/>
+      <rowBreaks count="2" manualBreakCount="2">
+        <brk id="1" max="16383" man="1"/>
+        <brk id="325" max="16383" man="1"/>
+      </rowBreaks>
+      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
   </customSheetViews>

--- a/metadata/excel/projects/sinclair/testproj/metadata.xlsx
+++ b/metadata/excel/projects/sinclair/testproj/metadata.xlsx
@@ -16,10 +16,10 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="LS - Personal View" guid="{06B92370-743D-804F-912C-658BE37B1274}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Kemal - Personal View" guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" mergeInterval="0" personalView="1" xWindow="184" yWindow="84" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Me - Personal View" guid="{22DA4066-82A0-D143-AA10-416CFBE3149D}" mergeInterval="0" personalView="1" xWindow="46" yWindow="23" windowWidth="1436" windowHeight="854" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
     <customWorkbookView name="Microsoft Office User - Personal View" guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Me - Personal View" guid="{22DA4066-82A0-D143-AA10-416CFBE3149D}" mergeInterval="0" personalView="1" xWindow="46" yWindow="23" windowWidth="1436" windowHeight="854" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
-    <customWorkbookView name="Kemal - Personal View" guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" mergeInterval="0" personalView="1" xWindow="184" yWindow="84" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="LS - Personal View" guid="{06B92370-743D-804F-912C-658BE37B1274}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="366">
   <si>
     <t>Country</t>
   </si>
@@ -1223,6 +1223,9 @@
   <si>
     <t>MedEx</t>
   </si>
+  <si>
+    <t>Distance to exhaust [m]</t>
+  </si>
 </sst>
 </file>
 
@@ -1231,7 +1234,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1387,8 +1390,15 @@
       <charset val="177"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1449,6 +1459,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDD0806"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1753,7 +1769,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1896,6 +1912,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2582,12 +2604,12 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:CF51"/>
+  <dimension ref="A1:CG51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="BK1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="X1" sqref="X1"/>
-      <selection pane="bottomLeft" activeCell="BX2" sqref="BX2"/>
+      <selection pane="bottomLeft" activeCell="BZ7" sqref="BZ7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2661,18 +2683,18 @@
     <col min="72" max="72" width="16.5" customWidth="1"/>
     <col min="73" max="73" width="16" customWidth="1"/>
     <col min="74" max="74" width="9.5" customWidth="1"/>
-    <col min="75" max="76" width="11" style="22" customWidth="1"/>
-    <col min="77" max="77" width="11.6640625" style="22" customWidth="1"/>
-    <col min="78" max="78" width="14.33203125" style="22" customWidth="1"/>
-    <col min="79" max="79" width="12.6640625" style="22" customWidth="1"/>
-    <col min="80" max="80" width="13.6640625" style="22" customWidth="1"/>
-    <col min="81" max="81" width="15.33203125" style="22" customWidth="1"/>
-    <col min="82" max="82" width="15.5" style="22" customWidth="1"/>
-    <col min="83" max="83" width="14.6640625" style="22" customWidth="1"/>
-    <col min="84" max="84" width="9.6640625" customWidth="1"/>
+    <col min="75" max="77" width="11" style="22" customWidth="1"/>
+    <col min="78" max="78" width="11.6640625" style="22" customWidth="1"/>
+    <col min="79" max="79" width="14.33203125" style="22" customWidth="1"/>
+    <col min="80" max="80" width="12.6640625" style="22" customWidth="1"/>
+    <col min="81" max="81" width="13.6640625" style="22" customWidth="1"/>
+    <col min="82" max="82" width="15.33203125" style="22" customWidth="1"/>
+    <col min="83" max="83" width="15.5" style="22" customWidth="1"/>
+    <col min="84" max="84" width="14.6640625" style="22" customWidth="1"/>
+    <col min="85" max="85" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>49</v>
       </c>
@@ -2747,15 +2769,16 @@
         <v>68</v>
       </c>
       <c r="BX1" s="8"/>
-      <c r="BY1" s="21"/>
+      <c r="BY1" s="8"/>
       <c r="BZ1" s="21"/>
       <c r="CA1" s="21"/>
       <c r="CB1" s="21"/>
       <c r="CC1" s="21"/>
       <c r="CD1" s="21"/>
       <c r="CE1" s="21"/>
+      <c r="CF1" s="21"/>
     </row>
-    <row r="2" spans="1:84" s="52" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:85" s="52" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="42" t="s">
         <v>49</v>
       </c>
@@ -2960,30 +2983,33 @@
       <c r="BX2" s="51" t="s">
         <v>362</v>
       </c>
-      <c r="BY2" s="51" t="s">
+      <c r="BY2" s="68" t="s">
+        <v>365</v>
+      </c>
+      <c r="BZ2" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="BZ2" s="51" t="s">
+      <c r="CA2" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="CA2" s="51" t="s">
+      <c r="CB2" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="CB2" s="51" t="s">
+      <c r="CC2" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="CC2" s="51" t="s">
+      <c r="CD2" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="CD2" s="51" t="s">
+      <c r="CE2" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="CE2" s="51" t="s">
+      <c r="CF2" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="CF2" s="47"/>
+      <c r="CG2" s="47"/>
     </row>
-    <row r="3" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <f t="shared" ref="A3:A29" si="0">COUNTIF(D3,"&lt;&gt;"&amp;"")+COUNTIF(BR3,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
@@ -3157,15 +3183,18 @@
       <c r="BX3" s="41" t="s">
         <v>363</v>
       </c>
-      <c r="BY3"/>
+      <c r="BY3" s="69">
+        <v>5</v>
+      </c>
       <c r="BZ3"/>
       <c r="CA3"/>
       <c r="CB3"/>
       <c r="CC3"/>
       <c r="CD3"/>
       <c r="CE3"/>
+      <c r="CF3"/>
     </row>
-    <row r="4" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3339,15 +3368,18 @@
       <c r="BX4" s="41" t="s">
         <v>363</v>
       </c>
-      <c r="BY4"/>
+      <c r="BY4" s="69">
+        <v>5</v>
+      </c>
       <c r="BZ4"/>
       <c r="CA4"/>
       <c r="CB4"/>
       <c r="CC4"/>
       <c r="CD4"/>
       <c r="CE4"/>
+      <c r="CF4"/>
     </row>
-    <row r="5" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3521,15 +3553,18 @@
       <c r="BX5" s="41" t="s">
         <v>363</v>
       </c>
-      <c r="BY5"/>
+      <c r="BY5" s="69">
+        <v>5</v>
+      </c>
       <c r="BZ5"/>
       <c r="CA5"/>
       <c r="CB5"/>
       <c r="CC5"/>
       <c r="CD5"/>
       <c r="CE5"/>
+      <c r="CF5"/>
     </row>
-    <row r="6" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3703,15 +3738,18 @@
       <c r="BX6" s="65" t="s">
         <v>364</v>
       </c>
-      <c r="BY6"/>
+      <c r="BY6" s="66">
+        <v>8</v>
+      </c>
       <c r="BZ6"/>
       <c r="CA6"/>
       <c r="CB6"/>
       <c r="CC6"/>
       <c r="CD6"/>
       <c r="CE6"/>
+      <c r="CF6"/>
     </row>
-    <row r="7" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3885,15 +3923,18 @@
       <c r="BX7" s="66" t="s">
         <v>364</v>
       </c>
-      <c r="BY7"/>
+      <c r="BY7" s="66">
+        <v>8</v>
+      </c>
       <c r="BZ7"/>
       <c r="CA7"/>
       <c r="CB7"/>
       <c r="CC7"/>
       <c r="CD7"/>
       <c r="CE7"/>
+      <c r="CF7"/>
     </row>
-    <row r="8" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4067,15 +4108,18 @@
       <c r="BX8" s="66" t="s">
         <v>364</v>
       </c>
-      <c r="BY8"/>
+      <c r="BY8" s="66">
+        <v>8</v>
+      </c>
       <c r="BZ8"/>
       <c r="CA8"/>
       <c r="CB8"/>
       <c r="CC8"/>
       <c r="CD8"/>
       <c r="CE8"/>
+      <c r="CF8"/>
     </row>
-    <row r="9" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4249,15 +4293,18 @@
       <c r="BX9" s="66" t="s">
         <v>364</v>
       </c>
-      <c r="BY9"/>
+      <c r="BY9" s="66">
+        <v>20</v>
+      </c>
       <c r="BZ9"/>
       <c r="CA9"/>
       <c r="CB9"/>
       <c r="CC9"/>
       <c r="CD9"/>
       <c r="CE9"/>
+      <c r="CF9"/>
     </row>
-    <row r="10" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4431,15 +4478,18 @@
       <c r="BX10" s="66" t="s">
         <v>364</v>
       </c>
-      <c r="BY10"/>
+      <c r="BY10" s="66">
+        <v>20</v>
+      </c>
       <c r="BZ10"/>
       <c r="CA10"/>
       <c r="CB10"/>
       <c r="CC10"/>
       <c r="CD10"/>
       <c r="CE10"/>
+      <c r="CF10"/>
     </row>
-    <row r="11" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4613,15 +4663,18 @@
       <c r="BX11" s="66" t="s">
         <v>364</v>
       </c>
-      <c r="BY11"/>
+      <c r="BY11" s="66">
+        <v>20</v>
+      </c>
       <c r="BZ11"/>
       <c r="CA11"/>
       <c r="CB11"/>
       <c r="CC11"/>
       <c r="CD11"/>
       <c r="CE11"/>
+      <c r="CF11"/>
     </row>
-    <row r="12" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4795,15 +4848,18 @@
       <c r="BX12" s="66" t="s">
         <v>364</v>
       </c>
-      <c r="BY12"/>
+      <c r="BY12" s="69">
+        <v>5</v>
+      </c>
       <c r="BZ12"/>
       <c r="CA12"/>
       <c r="CB12"/>
       <c r="CC12"/>
       <c r="CD12"/>
       <c r="CE12"/>
+      <c r="CF12"/>
     </row>
-    <row r="13" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4977,15 +5033,18 @@
       <c r="BX13" s="66" t="s">
         <v>364</v>
       </c>
-      <c r="BY13"/>
+      <c r="BY13" s="69">
+        <v>5</v>
+      </c>
       <c r="BZ13"/>
       <c r="CA13"/>
       <c r="CB13"/>
       <c r="CC13"/>
       <c r="CD13"/>
       <c r="CE13"/>
+      <c r="CF13"/>
     </row>
-    <row r="14" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5159,15 +5218,18 @@
       <c r="BX14" s="66" t="s">
         <v>364</v>
       </c>
-      <c r="BY14"/>
+      <c r="BY14" s="69">
+        <v>5</v>
+      </c>
       <c r="BZ14"/>
       <c r="CA14"/>
       <c r="CB14"/>
       <c r="CC14"/>
       <c r="CD14"/>
       <c r="CE14"/>
+      <c r="CF14"/>
     </row>
-    <row r="15" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A15" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5341,15 +5403,18 @@
       <c r="BX15" s="66" t="s">
         <v>364</v>
       </c>
-      <c r="BY15"/>
+      <c r="BY15" s="66">
+        <v>8</v>
+      </c>
       <c r="BZ15"/>
       <c r="CA15"/>
       <c r="CB15"/>
       <c r="CC15"/>
       <c r="CD15"/>
       <c r="CE15"/>
+      <c r="CF15"/>
     </row>
-    <row r="16" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5513,15 +5578,18 @@
       <c r="BX16" s="66" t="s">
         <v>364</v>
       </c>
-      <c r="BY16"/>
+      <c r="BY16" s="66">
+        <v>8</v>
+      </c>
       <c r="BZ16"/>
       <c r="CA16"/>
       <c r="CB16"/>
       <c r="CC16"/>
       <c r="CD16"/>
       <c r="CE16"/>
+      <c r="CF16"/>
     </row>
-    <row r="17" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A17" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5685,15 +5753,18 @@
       <c r="BX17" s="66" t="s">
         <v>364</v>
       </c>
-      <c r="BY17"/>
+      <c r="BY17" s="66">
+        <v>8</v>
+      </c>
       <c r="BZ17"/>
       <c r="CA17"/>
       <c r="CB17"/>
       <c r="CC17"/>
       <c r="CD17"/>
       <c r="CE17"/>
+      <c r="CF17"/>
     </row>
-    <row r="18" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A18" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5857,15 +5928,18 @@
       <c r="BX18" s="66" t="s">
         <v>364</v>
       </c>
-      <c r="BY18"/>
+      <c r="BY18" s="66">
+        <v>20</v>
+      </c>
       <c r="BZ18"/>
       <c r="CA18"/>
       <c r="CB18"/>
       <c r="CC18"/>
       <c r="CD18"/>
       <c r="CE18"/>
+      <c r="CF18"/>
     </row>
-    <row r="19" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A19" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -6029,15 +6103,18 @@
       <c r="BX19" s="66" t="s">
         <v>364</v>
       </c>
-      <c r="BY19"/>
+      <c r="BY19" s="66">
+        <v>20</v>
+      </c>
       <c r="BZ19"/>
       <c r="CA19"/>
       <c r="CB19"/>
       <c r="CC19"/>
       <c r="CD19"/>
       <c r="CE19"/>
+      <c r="CF19"/>
     </row>
-    <row r="20" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A20" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -6201,15 +6278,18 @@
       <c r="BX20" s="66" t="s">
         <v>364</v>
       </c>
-      <c r="BY20"/>
+      <c r="BY20" s="66">
+        <v>20</v>
+      </c>
       <c r="BZ20"/>
       <c r="CA20"/>
       <c r="CB20"/>
       <c r="CC20"/>
       <c r="CD20"/>
       <c r="CE20"/>
+      <c r="CF20"/>
     </row>
-    <row r="21" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A21" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -6373,15 +6453,18 @@
       <c r="BX21" s="41" t="s">
         <v>363</v>
       </c>
-      <c r="BY21"/>
+      <c r="BY21" s="69">
+        <v>5</v>
+      </c>
       <c r="BZ21"/>
       <c r="CA21"/>
       <c r="CB21"/>
       <c r="CC21"/>
       <c r="CD21"/>
       <c r="CE21"/>
+      <c r="CF21"/>
     </row>
-    <row r="22" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -6545,15 +6628,18 @@
       <c r="BX22" s="41" t="s">
         <v>363</v>
       </c>
-      <c r="BY22"/>
+      <c r="BY22" s="69">
+        <v>5</v>
+      </c>
       <c r="BZ22"/>
       <c r="CA22"/>
       <c r="CB22"/>
       <c r="CC22"/>
       <c r="CD22"/>
       <c r="CE22"/>
+      <c r="CF22"/>
     </row>
-    <row r="23" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -6717,15 +6803,18 @@
       <c r="BX23" s="41" t="s">
         <v>363</v>
       </c>
-      <c r="BY23"/>
+      <c r="BY23" s="69">
+        <v>5</v>
+      </c>
       <c r="BZ23"/>
       <c r="CA23"/>
       <c r="CB23"/>
       <c r="CC23"/>
       <c r="CD23"/>
       <c r="CE23"/>
+      <c r="CF23"/>
     </row>
-    <row r="24" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -6889,15 +6978,18 @@
       <c r="BX24" s="66" t="s">
         <v>364</v>
       </c>
-      <c r="BY24"/>
+      <c r="BY24" s="66">
+        <v>8</v>
+      </c>
       <c r="BZ24"/>
       <c r="CA24"/>
       <c r="CB24"/>
       <c r="CC24"/>
       <c r="CD24"/>
       <c r="CE24"/>
+      <c r="CF24"/>
     </row>
-    <row r="25" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -7061,15 +7153,18 @@
       <c r="BX25" s="66" t="s">
         <v>364</v>
       </c>
-      <c r="BY25"/>
+      <c r="BY25" s="66">
+        <v>8</v>
+      </c>
       <c r="BZ25"/>
       <c r="CA25"/>
       <c r="CB25"/>
       <c r="CC25"/>
       <c r="CD25"/>
       <c r="CE25"/>
+      <c r="CF25"/>
     </row>
-    <row r="26" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -7233,15 +7328,18 @@
       <c r="BX26" s="66" t="s">
         <v>364</v>
       </c>
-      <c r="BY26"/>
+      <c r="BY26" s="66">
+        <v>8</v>
+      </c>
       <c r="BZ26"/>
       <c r="CA26"/>
       <c r="CB26"/>
       <c r="CC26"/>
       <c r="CD26"/>
       <c r="CE26"/>
+      <c r="CF26"/>
     </row>
-    <row r="27" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -7405,15 +7503,18 @@
       <c r="BX27" s="66" t="s">
         <v>364</v>
       </c>
-      <c r="BY27"/>
+      <c r="BY27" s="66">
+        <v>20</v>
+      </c>
       <c r="BZ27"/>
       <c r="CA27"/>
       <c r="CB27"/>
       <c r="CC27"/>
       <c r="CD27"/>
       <c r="CE27"/>
+      <c r="CF27"/>
     </row>
-    <row r="28" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -7577,15 +7678,18 @@
       <c r="BX28" s="66" t="s">
         <v>364</v>
       </c>
-      <c r="BY28"/>
+      <c r="BY28" s="66">
+        <v>20</v>
+      </c>
       <c r="BZ28"/>
       <c r="CA28"/>
       <c r="CB28"/>
       <c r="CC28"/>
       <c r="CD28"/>
       <c r="CE28"/>
+      <c r="CF28"/>
     </row>
-    <row r="29" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -7749,21 +7853,24 @@
       <c r="BX29" s="66" t="s">
         <v>364</v>
       </c>
-      <c r="BY29"/>
+      <c r="BY29" s="66">
+        <v>20</v>
+      </c>
       <c r="BZ29"/>
       <c r="CA29"/>
       <c r="CB29"/>
       <c r="CC29"/>
       <c r="CD29"/>
       <c r="CE29"/>
+      <c r="CF29"/>
     </row>
-    <row r="30" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:84" x14ac:dyDescent="0.2">
       <c r="AO30" s="13"/>
     </row>
-    <row r="31" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:84" x14ac:dyDescent="0.2">
       <c r="AO31" s="13"/>
     </row>
-    <row r="32" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:84" x14ac:dyDescent="0.2">
       <c r="AO32" s="13"/>
     </row>
     <row r="33" spans="41:41" x14ac:dyDescent="0.2">
@@ -7825,9 +7932,19 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" topLeftCell="BD1">
-      <pane ySplit="2" topLeftCell="A273" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BG334" sqref="BG334"/>
+    <customSheetView guid="{06B92370-743D-804F-912C-658BE37B1274}" topLeftCell="X1">
+      <pane ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="AD344" sqref="AD344"/>
+      <rowBreaks count="2" manualBreakCount="2">
+        <brk id="1" max="16383" man="1"/>
+        <brk id="325" max="16383" man="1"/>
+      </rowBreaks>
+      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+    </customSheetView>
+    <customSheetView guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" topLeftCell="AP1">
+      <pane ySplit="2.03125" topLeftCell="A342" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BA367" sqref="BA367"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="1" max="16383" man="1"/>
         <brk id="325" max="16383" man="1"/>
@@ -7845,24 +7962,14 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" topLeftCell="AP1">
-      <pane ySplit="2.03125" topLeftCell="A342" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BA367" sqref="BA367"/>
+    <customSheetView guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" topLeftCell="BD1">
+      <pane ySplit="2" topLeftCell="A273" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BG334" sqref="BG334"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="1" max="16383" man="1"/>
         <brk id="325" max="16383" man="1"/>
       </rowBreaks>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-    </customSheetView>
-    <customSheetView guid="{06B92370-743D-804F-912C-658BE37B1274}" topLeftCell="X1">
-      <pane ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="AD344" sqref="AD344"/>
-      <rowBreaks count="2" manualBreakCount="2">
-        <brk id="1" max="16383" man="1"/>
-        <brk id="325" max="16383" man="1"/>
-      </rowBreaks>
-      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
   </customSheetViews>

--- a/metadata/excel/projects/sinclair/testproj/metadata.xlsx
+++ b/metadata/excel/projects/sinclair/testproj/metadata.xlsx
@@ -16,10 +16,10 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Microsoft Office User - Personal View" guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Me - Personal View" guid="{22DA4066-82A0-D143-AA10-416CFBE3149D}" mergeInterval="0" personalView="1" xWindow="46" yWindow="23" windowWidth="1436" windowHeight="854" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
+    <customWorkbookView name="Kemal - Personal View" guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" mergeInterval="0" personalView="1" xWindow="184" yWindow="84" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
     <customWorkbookView name="LS - Personal View" guid="{06B92370-743D-804F-912C-658BE37B1274}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Kemal - Personal View" guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" mergeInterval="0" personalView="1" xWindow="184" yWindow="84" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Me - Personal View" guid="{22DA4066-82A0-D143-AA10-416CFBE3149D}" mergeInterval="0" personalView="1" xWindow="46" yWindow="23" windowWidth="1436" windowHeight="854" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
-    <customWorkbookView name="Microsoft Office User - Personal View" guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -1911,13 +1911,13 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2609,7 +2609,7 @@
     <sheetView tabSelected="1" topLeftCell="BK1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="X1" sqref="X1"/>
-      <selection pane="bottomLeft" activeCell="BZ7" sqref="BZ7"/>
+      <selection pane="bottomLeft" activeCell="CA5" sqref="CA5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2746,25 +2746,25 @@
       <c r="BC1" s="3"/>
       <c r="BD1" s="3"/>
       <c r="BE1" s="10"/>
-      <c r="BG1" s="67" t="s">
+      <c r="BG1" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="BH1" s="67"/>
-      <c r="BI1" s="67"/>
-      <c r="BJ1" s="67"/>
-      <c r="BL1" s="67" t="s">
+      <c r="BH1" s="69"/>
+      <c r="BI1" s="69"/>
+      <c r="BJ1" s="69"/>
+      <c r="BL1" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="BM1" s="67"/>
-      <c r="BN1" s="67"/>
-      <c r="BO1" s="67"/>
-      <c r="BP1" s="67"/>
-      <c r="BQ1" s="67"/>
-      <c r="BR1" s="67"/>
-      <c r="BT1" s="67" t="s">
+      <c r="BM1" s="69"/>
+      <c r="BN1" s="69"/>
+      <c r="BO1" s="69"/>
+      <c r="BP1" s="69"/>
+      <c r="BQ1" s="69"/>
+      <c r="BR1" s="69"/>
+      <c r="BT1" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="BU1" s="67"/>
+      <c r="BU1" s="69"/>
       <c r="BW1" s="8" t="s">
         <v>68</v>
       </c>
@@ -2983,7 +2983,7 @@
       <c r="BX2" s="51" t="s">
         <v>362</v>
       </c>
-      <c r="BY2" s="68" t="s">
+      <c r="BY2" s="67" t="s">
         <v>365</v>
       </c>
       <c r="BZ2" s="51" t="s">
@@ -3183,8 +3183,8 @@
       <c r="BX3" s="41" t="s">
         <v>363</v>
       </c>
-      <c r="BY3" s="69">
-        <v>5</v>
+      <c r="BY3" s="68">
+        <v>0</v>
       </c>
       <c r="BZ3"/>
       <c r="CA3"/>
@@ -3368,8 +3368,8 @@
       <c r="BX4" s="41" t="s">
         <v>363</v>
       </c>
-      <c r="BY4" s="69">
-        <v>5</v>
+      <c r="BY4" s="68">
+        <v>0</v>
       </c>
       <c r="BZ4"/>
       <c r="CA4"/>
@@ -3553,8 +3553,8 @@
       <c r="BX5" s="41" t="s">
         <v>363</v>
       </c>
-      <c r="BY5" s="69">
-        <v>5</v>
+      <c r="BY5" s="68">
+        <v>0</v>
       </c>
       <c r="BZ5"/>
       <c r="CA5"/>
@@ -3739,7 +3739,7 @@
         <v>364</v>
       </c>
       <c r="BY6" s="66">
-        <v>8</v>
+        <v>545.16</v>
       </c>
       <c r="BZ6"/>
       <c r="CA6"/>
@@ -3924,7 +3924,7 @@
         <v>364</v>
       </c>
       <c r="BY7" s="66">
-        <v>8</v>
+        <v>545.16</v>
       </c>
       <c r="BZ7"/>
       <c r="CA7"/>
@@ -4109,7 +4109,7 @@
         <v>364</v>
       </c>
       <c r="BY8" s="66">
-        <v>8</v>
+        <v>545.16</v>
       </c>
       <c r="BZ8"/>
       <c r="CA8"/>
@@ -4294,7 +4294,7 @@
         <v>364</v>
       </c>
       <c r="BY9" s="66">
-        <v>20</v>
+        <v>5080.2700000000004</v>
       </c>
       <c r="BZ9"/>
       <c r="CA9"/>
@@ -4479,7 +4479,7 @@
         <v>364</v>
       </c>
       <c r="BY10" s="66">
-        <v>20</v>
+        <v>5080.2700000000004</v>
       </c>
       <c r="BZ10"/>
       <c r="CA10"/>
@@ -4664,7 +4664,7 @@
         <v>364</v>
       </c>
       <c r="BY11" s="66">
-        <v>20</v>
+        <v>5080.2700000000004</v>
       </c>
       <c r="BZ11"/>
       <c r="CA11"/>
@@ -4848,8 +4848,8 @@
       <c r="BX12" s="66" t="s">
         <v>364</v>
       </c>
-      <c r="BY12" s="69">
-        <v>5</v>
+      <c r="BY12" s="68">
+        <v>0</v>
       </c>
       <c r="BZ12"/>
       <c r="CA12"/>
@@ -5033,8 +5033,8 @@
       <c r="BX13" s="66" t="s">
         <v>364</v>
       </c>
-      <c r="BY13" s="69">
-        <v>5</v>
+      <c r="BY13" s="68">
+        <v>0</v>
       </c>
       <c r="BZ13"/>
       <c r="CA13"/>
@@ -5218,8 +5218,8 @@
       <c r="BX14" s="66" t="s">
         <v>364</v>
       </c>
-      <c r="BY14" s="69">
-        <v>5</v>
+      <c r="BY14" s="68">
+        <v>0</v>
       </c>
       <c r="BZ14"/>
       <c r="CA14"/>
@@ -5404,7 +5404,7 @@
         <v>364</v>
       </c>
       <c r="BY15" s="66">
-        <v>8</v>
+        <v>175.69</v>
       </c>
       <c r="BZ15"/>
       <c r="CA15"/>
@@ -5579,7 +5579,7 @@
         <v>364</v>
       </c>
       <c r="BY16" s="66">
-        <v>8</v>
+        <v>175.69</v>
       </c>
       <c r="BZ16"/>
       <c r="CA16"/>
@@ -5754,7 +5754,7 @@
         <v>364</v>
       </c>
       <c r="BY17" s="66">
-        <v>8</v>
+        <v>175.69</v>
       </c>
       <c r="BZ17"/>
       <c r="CA17"/>
@@ -5929,7 +5929,7 @@
         <v>364</v>
       </c>
       <c r="BY18" s="66">
-        <v>20</v>
+        <v>1235.56</v>
       </c>
       <c r="BZ18"/>
       <c r="CA18"/>
@@ -6104,7 +6104,7 @@
         <v>364</v>
       </c>
       <c r="BY19" s="66">
-        <v>20</v>
+        <v>1235.56</v>
       </c>
       <c r="BZ19"/>
       <c r="CA19"/>
@@ -6279,7 +6279,7 @@
         <v>364</v>
       </c>
       <c r="BY20" s="66">
-        <v>20</v>
+        <v>1235.56</v>
       </c>
       <c r="BZ20"/>
       <c r="CA20"/>
@@ -6453,8 +6453,8 @@
       <c r="BX21" s="41" t="s">
         <v>363</v>
       </c>
-      <c r="BY21" s="69">
-        <v>5</v>
+      <c r="BY21" s="68">
+        <v>0</v>
       </c>
       <c r="BZ21"/>
       <c r="CA21"/>
@@ -6628,8 +6628,8 @@
       <c r="BX22" s="41" t="s">
         <v>363</v>
       </c>
-      <c r="BY22" s="69">
-        <v>5</v>
+      <c r="BY22" s="68">
+        <v>0</v>
       </c>
       <c r="BZ22"/>
       <c r="CA22"/>
@@ -6803,8 +6803,8 @@
       <c r="BX23" s="41" t="s">
         <v>363</v>
       </c>
-      <c r="BY23" s="69">
-        <v>5</v>
+      <c r="BY23" s="68">
+        <v>0</v>
       </c>
       <c r="BZ23"/>
       <c r="CA23"/>
@@ -6979,7 +6979,7 @@
         <v>364</v>
       </c>
       <c r="BY24" s="66">
-        <v>8</v>
+        <v>338.21</v>
       </c>
       <c r="BZ24"/>
       <c r="CA24"/>
@@ -7154,7 +7154,7 @@
         <v>364</v>
       </c>
       <c r="BY25" s="66">
-        <v>8</v>
+        <v>338.21</v>
       </c>
       <c r="BZ25"/>
       <c r="CA25"/>
@@ -7329,7 +7329,7 @@
         <v>364</v>
       </c>
       <c r="BY26" s="66">
-        <v>8</v>
+        <v>338.21</v>
       </c>
       <c r="BZ26"/>
       <c r="CA26"/>
@@ -7504,7 +7504,7 @@
         <v>364</v>
       </c>
       <c r="BY27" s="66">
-        <v>20</v>
+        <v>4192.68</v>
       </c>
       <c r="BZ27"/>
       <c r="CA27"/>
@@ -7679,7 +7679,7 @@
         <v>364</v>
       </c>
       <c r="BY28" s="66">
-        <v>20</v>
+        <v>4192.68</v>
       </c>
       <c r="BZ28"/>
       <c r="CA28"/>
@@ -7854,7 +7854,7 @@
         <v>364</v>
       </c>
       <c r="BY29" s="66">
-        <v>20</v>
+        <v>4192.68</v>
       </c>
       <c r="BZ29"/>
       <c r="CA29"/>
@@ -7932,19 +7932,9 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{06B92370-743D-804F-912C-658BE37B1274}" topLeftCell="X1">
-      <pane ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="AD344" sqref="AD344"/>
-      <rowBreaks count="2" manualBreakCount="2">
-        <brk id="1" max="16383" man="1"/>
-        <brk id="325" max="16383" man="1"/>
-      </rowBreaks>
-      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-    </customSheetView>
-    <customSheetView guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" topLeftCell="AP1">
-      <pane ySplit="2.03125" topLeftCell="A342" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BA367" sqref="BA367"/>
+    <customSheetView guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" topLeftCell="BD1">
+      <pane ySplit="2" topLeftCell="A273" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BG334" sqref="BG334"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="1" max="16383" man="1"/>
         <brk id="325" max="16383" man="1"/>
@@ -7962,14 +7952,24 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" topLeftCell="BD1">
-      <pane ySplit="2" topLeftCell="A273" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BG334" sqref="BG334"/>
+    <customSheetView guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" topLeftCell="AP1">
+      <pane ySplit="2.03125" topLeftCell="A342" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BA367" sqref="BA367"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="1" max="16383" man="1"/>
         <brk id="325" max="16383" man="1"/>
       </rowBreaks>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+    </customSheetView>
+    <customSheetView guid="{06B92370-743D-804F-912C-658BE37B1274}" topLeftCell="X1">
+      <pane ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="AD344" sqref="AD344"/>
+      <rowBreaks count="2" manualBreakCount="2">
+        <brk id="1" max="16383" man="1"/>
+        <brk id="325" max="16383" man="1"/>
+      </rowBreaks>
+      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
   </customSheetViews>

--- a/metadata/excel/projects/sinclair/testproj/metadata.xlsx
+++ b/metadata/excel/projects/sinclair/testproj/metadata.xlsx
@@ -9,17 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14020" yWindow="5740" windowWidth="35600" windowHeight="22440" tabRatio="500"/>
+    <workbookView xWindow="12040" yWindow="5160" windowWidth="35600" windowHeight="22440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="micans_v6_ex1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="LS - Personal View" guid="{06B92370-743D-804F-912C-658BE37B1274}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Kemal - Personal View" guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" mergeInterval="0" personalView="1" xWindow="184" yWindow="84" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Me - Personal View" guid="{22DA4066-82A0-D143-AA10-416CFBE3149D}" mergeInterval="0" personalView="1" xWindow="46" yWindow="23" windowWidth="1436" windowHeight="854" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
     <customWorkbookView name="Microsoft Office User - Personal View" guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Me - Personal View" guid="{22DA4066-82A0-D143-AA10-416CFBE3149D}" mergeInterval="0" personalView="1" xWindow="46" yWindow="23" windowWidth="1436" windowHeight="854" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
-    <customWorkbookView name="Kemal - Personal View" guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" mergeInterval="0" personalView="1" xWindow="184" yWindow="84" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="LS - Personal View" guid="{06B92370-743D-804F-912C-658BE37B1274}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="363">
   <si>
     <t>Country</t>
   </si>
@@ -122,9 +122,6 @@
     <t>Depth [m]</t>
   </si>
   <si>
-    <t>pH</t>
-  </si>
-  <si>
     <t>Sample #</t>
   </si>
   <si>
@@ -156,12 +153,6 @@
   </si>
   <si>
     <t>PhiX spiking</t>
-  </si>
-  <si>
-    <t>Cell counts [cells/mL]</t>
-  </si>
-  <si>
-    <t>Conductivity [μS/cm]</t>
   </si>
   <si>
     <t>Reverse index #</t>
@@ -267,84 +258,6 @@
     <t>Optional extra data</t>
   </si>
   <si>
-    <r>
-      <t>Oxygen (O</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color indexed="9"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="9"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) [mg/L]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Carbon dioxide (CO</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color indexed="9"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="9"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) [µM]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Methane (CH</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color indexed="9"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="9"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) [µM]</t>
-    </r>
-  </si>
-  <si>
     <t>Used</t>
   </si>
   <si>
@@ -1225,6 +1138,15 @@
   </si>
   <si>
     <t>Distance to exhaust [m]</t>
+  </si>
+  <si>
+    <t>Salinty [ppt]</t>
+  </si>
+  <si>
+    <t>Grain size mode [µm]</t>
+  </si>
+  <si>
+    <t>Luminescent Dissolved Oxygen [% Sat]</t>
   </si>
 </sst>
 </file>
@@ -1234,7 +1156,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1361,14 +1283,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <vertAlign val="subscript"/>
-      <sz val="12"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1390,15 +1304,8 @@
       <charset val="177"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1459,12 +1366,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDD0806"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1767,7 +1668,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1887,7 +1788,7 @@
     <xf numFmtId="11" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="290"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1905,19 +1806,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="291" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="291" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2604,12 +2505,12 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:CG51"/>
+  <dimension ref="A1:CD51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BK1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="BQ1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="X1" sqref="X1"/>
-      <selection pane="bottomLeft" activeCell="CA5" sqref="CA5"/>
+      <selection pane="bottomLeft" activeCell="CD1" sqref="CD1:CD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2683,20 +2584,19 @@
     <col min="72" max="72" width="16.5" customWidth="1"/>
     <col min="73" max="73" width="16" customWidth="1"/>
     <col min="74" max="74" width="9.5" customWidth="1"/>
-    <col min="75" max="77" width="11" style="22" customWidth="1"/>
+    <col min="75" max="75" width="11" style="22" customWidth="1"/>
+    <col min="76" max="76" width="11" style="69" customWidth="1"/>
+    <col min="77" max="77" width="13" style="69" customWidth="1"/>
     <col min="78" max="78" width="11.6640625" style="22" customWidth="1"/>
-    <col min="79" max="79" width="14.33203125" style="22" customWidth="1"/>
-    <col min="80" max="80" width="12.6640625" style="22" customWidth="1"/>
-    <col min="81" max="81" width="13.6640625" style="22" customWidth="1"/>
-    <col min="82" max="82" width="15.33203125" style="22" customWidth="1"/>
-    <col min="83" max="83" width="15.5" style="22" customWidth="1"/>
-    <col min="84" max="84" width="14.6640625" style="22" customWidth="1"/>
-    <col min="85" max="85" width="9.6640625" customWidth="1"/>
+    <col min="79" max="79" width="12.6640625" style="22" customWidth="1"/>
+    <col min="80" max="80" width="13.5" style="22" customWidth="1"/>
+    <col min="81" max="81" width="20.83203125" style="22" customWidth="1"/>
+    <col min="82" max="82" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="34"/>
@@ -2746,82 +2646,79 @@
       <c r="BC1" s="3"/>
       <c r="BD1" s="3"/>
       <c r="BE1" s="10"/>
-      <c r="BG1" s="69" t="s">
-        <v>32</v>
-      </c>
-      <c r="BH1" s="69"/>
-      <c r="BI1" s="69"/>
-      <c r="BJ1" s="69"/>
-      <c r="BL1" s="69" t="s">
-        <v>52</v>
-      </c>
-      <c r="BM1" s="69"/>
-      <c r="BN1" s="69"/>
-      <c r="BO1" s="69"/>
-      <c r="BP1" s="69"/>
-      <c r="BQ1" s="69"/>
-      <c r="BR1" s="69"/>
-      <c r="BT1" s="69" t="s">
-        <v>66</v>
-      </c>
-      <c r="BU1" s="69"/>
+      <c r="BG1" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="BH1" s="67"/>
+      <c r="BI1" s="67"/>
+      <c r="BJ1" s="67"/>
+      <c r="BL1" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="BM1" s="67"/>
+      <c r="BN1" s="67"/>
+      <c r="BO1" s="67"/>
+      <c r="BP1" s="67"/>
+      <c r="BQ1" s="67"/>
+      <c r="BR1" s="67"/>
+      <c r="BT1" s="67" t="s">
+        <v>63</v>
+      </c>
+      <c r="BU1" s="67"/>
       <c r="BW1" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="BX1" s="8"/>
-      <c r="BY1" s="8"/>
+        <v>65</v>
+      </c>
+      <c r="BX1" s="68"/>
+      <c r="BY1" s="68"/>
       <c r="BZ1" s="21"/>
       <c r="CA1" s="21"/>
       <c r="CB1" s="21"/>
       <c r="CC1" s="21"/>
-      <c r="CD1" s="21"/>
-      <c r="CE1" s="21"/>
-      <c r="CF1" s="21"/>
     </row>
-    <row r="2" spans="1:85" s="52" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:82" s="52" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="42" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D2" s="42" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E2" s="42" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F2" s="43"/>
       <c r="G2" s="42" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H2" s="42" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I2" s="42" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J2" s="42" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K2" s="42" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L2" s="42" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M2" s="42" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="N2" s="44"/>
       <c r="O2" s="45" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="P2" s="45" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q2" s="42" t="s">
         <v>14</v>
@@ -2831,24 +2728,24 @@
       </c>
       <c r="S2" s="44"/>
       <c r="T2" s="42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U2" s="42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V2" s="44"/>
       <c r="W2" s="42" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="X2" s="42" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="Y2" s="42" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="Z2" s="44"/>
       <c r="AA2" s="42" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="AB2" s="42" t="s">
         <v>16</v>
@@ -2857,7 +2754,7 @@
         <v>17</v>
       </c>
       <c r="AD2" s="42" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="AE2" s="42" t="s">
         <v>18</v>
@@ -2867,28 +2764,28 @@
       </c>
       <c r="AG2" s="44"/>
       <c r="AH2" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI2" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ2" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK2" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL2" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM2" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="AI2" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ2" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK2" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL2" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="AM2" s="42" t="s">
-        <v>47</v>
-      </c>
       <c r="AN2" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO2" s="42" t="s">
         <v>39</v>
-      </c>
-      <c r="AO2" s="42" t="s">
-        <v>40</v>
       </c>
       <c r="AP2" s="44"/>
       <c r="AQ2" s="42" t="s">
@@ -2923,10 +2820,10 @@
         <v>24</v>
       </c>
       <c r="BB2" s="42" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="BC2" s="42" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="BD2" s="42" t="s">
         <v>25</v>
@@ -2939,20 +2836,20 @@
         <v>27</v>
       </c>
       <c r="BH2" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="BI2" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="BI2" s="48" t="s">
+      <c r="BJ2" s="48" t="s">
         <v>34</v>
-      </c>
-      <c r="BJ2" s="48" t="s">
-        <v>35</v>
       </c>
       <c r="BK2" s="47"/>
       <c r="BL2" s="49" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="BM2" s="49" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="BN2" s="49" t="s">
         <v>12</v>
@@ -2964,10 +2861,10 @@
         <v>0</v>
       </c>
       <c r="BQ2" s="49" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="BR2" s="49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="BS2" s="47"/>
       <c r="BT2" s="50" t="s">
@@ -2981,35 +2878,26 @@
         <v>28</v>
       </c>
       <c r="BX2" s="51" t="s">
+        <v>356</v>
+      </c>
+      <c r="BY2" s="51" t="s">
+        <v>359</v>
+      </c>
+      <c r="BZ2" s="51" t="s">
+        <v>360</v>
+      </c>
+      <c r="CA2" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="CB2" s="51" t="s">
+        <v>361</v>
+      </c>
+      <c r="CC2" s="51" t="s">
         <v>362</v>
       </c>
-      <c r="BY2" s="67" t="s">
-        <v>365</v>
-      </c>
-      <c r="BZ2" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="CA2" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="CB2" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="CC2" s="51" t="s">
-        <v>69</v>
-      </c>
-      <c r="CD2" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="CE2" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="CF2" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="CG2" s="47"/>
+      <c r="CD2" s="47"/>
     </row>
-    <row r="3" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <f t="shared" ref="A3:A29" si="0">COUNTIF(D3,"&lt;&gt;"&amp;"")+COUNTIF(BR3,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
@@ -3018,117 +2906,117 @@
         <v>1</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="I3" s="30" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="K3" s="29" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="L3" s="29" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="M3" s="29" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="N3" s="29" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O3" s="36"/>
       <c r="P3" s="39"/>
       <c r="Q3" s="53"/>
       <c r="R3" s="19"/>
       <c r="S3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T3" s="16" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="U3" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="V3" s="1"/>
       <c r="W3" s="16" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="X3" s="16" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="Y3" s="32">
         <v>1</v>
       </c>
       <c r="Z3" s="1"/>
       <c r="AA3" s="32" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB3" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC3" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD3" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE3" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF3" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AC3" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD3" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE3" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF3" s="56" t="s">
-        <v>81</v>
-      </c>
       <c r="AG3" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AH3" s="19" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="AI3" s="19" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="AJ3" s="19" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="AK3" s="19" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="AL3" s="19"/>
       <c r="AM3" s="58" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="AN3" s="55"/>
       <c r="AO3" s="13">
         <v>0.01</v>
       </c>
       <c r="AQ3" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="AR3" s="41" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="AT3" s="41" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="AU3" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="AV3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AW3" t="s">
         <v>8</v>
@@ -3140,13 +3028,13 @@
         <v>10</v>
       </c>
       <c r="AZ3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA3" t="s">
         <v>11</v>
       </c>
       <c r="BB3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD3">
         <v>250</v>
@@ -3162,7 +3050,7 @@
         <v>41226</v>
       </c>
       <c r="BM3" s="62" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="BN3" s="63">
         <v>31.63212</v>
@@ -3171,30 +3059,35 @@
         <v>34.5167</v>
       </c>
       <c r="BP3" s="41" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="BQ3" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="BR3" s="59"/>
       <c r="BW3">
         <v>1.5</v>
       </c>
       <c r="BX3" s="41" t="s">
-        <v>363</v>
-      </c>
-      <c r="BY3" s="68">
+        <v>357</v>
+      </c>
+      <c r="BY3" s="41">
         <v>0</v>
       </c>
-      <c r="BZ3"/>
-      <c r="CA3"/>
-      <c r="CB3"/>
-      <c r="CC3"/>
-      <c r="CD3"/>
-      <c r="CE3"/>
-      <c r="CF3"/>
+      <c r="BZ3">
+        <v>42.3</v>
+      </c>
+      <c r="CA3">
+        <v>31.81</v>
+      </c>
+      <c r="CB3">
+        <v>584.20399999999995</v>
+      </c>
+      <c r="CC3">
+        <v>114.9</v>
+      </c>
     </row>
-    <row r="4" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3203,117 +3096,117 @@
         <v>2</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="I4" s="30" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="K4" s="29" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="L4" s="29" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="M4" s="29" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="N4" s="29" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O4" s="36"/>
       <c r="P4" s="39"/>
       <c r="Q4" s="53"/>
       <c r="R4" s="19"/>
       <c r="S4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T4" s="16" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="U4" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="V4" s="1"/>
       <c r="W4" s="16" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="X4" s="16" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="Y4" s="32">
         <v>1</v>
       </c>
       <c r="Z4" s="1"/>
       <c r="AA4" s="32" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB4" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC4" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD4" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE4" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF4" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AC4" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD4" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE4" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF4" s="56" t="s">
-        <v>81</v>
-      </c>
       <c r="AG4" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AH4" s="19" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="AI4" s="19" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="AJ4" s="19" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="AK4" s="19" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="AL4" s="19"/>
       <c r="AM4" s="58" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="AN4" s="55"/>
       <c r="AO4" s="13">
         <v>0.01</v>
       </c>
       <c r="AQ4" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="AR4" s="41" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="AS4" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="AT4" s="41" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="AU4" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="AV4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AW4" t="s">
         <v>8</v>
@@ -3325,13 +3218,13 @@
         <v>10</v>
       </c>
       <c r="AZ4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA4" t="s">
         <v>11</v>
       </c>
       <c r="BB4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD4">
         <v>250</v>
@@ -3347,7 +3240,7 @@
         <v>41226</v>
       </c>
       <c r="BM4" s="62" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="BN4" s="63">
         <v>31.63212</v>
@@ -3356,30 +3249,35 @@
         <v>34.5167</v>
       </c>
       <c r="BP4" s="41" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="BQ4" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="BR4" s="59"/>
       <c r="BW4">
         <v>1.5</v>
       </c>
       <c r="BX4" s="41" t="s">
-        <v>363</v>
-      </c>
-      <c r="BY4" s="68">
+        <v>357</v>
+      </c>
+      <c r="BY4" s="41">
         <v>0</v>
       </c>
-      <c r="BZ4"/>
-      <c r="CA4"/>
-      <c r="CB4"/>
-      <c r="CC4"/>
-      <c r="CD4"/>
-      <c r="CE4"/>
-      <c r="CF4"/>
+      <c r="BZ4">
+        <v>42.3</v>
+      </c>
+      <c r="CA4">
+        <v>31.81</v>
+      </c>
+      <c r="CB4">
+        <v>584.20399999999995</v>
+      </c>
+      <c r="CC4">
+        <v>114.9</v>
+      </c>
     </row>
-    <row r="5" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3388,117 +3286,117 @@
         <v>3</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="I5" s="30" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="K5" s="29" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="L5" s="29" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="M5" s="29" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="N5" s="29" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O5" s="36"/>
       <c r="P5" s="39"/>
       <c r="Q5" s="53"/>
       <c r="R5" s="24"/>
       <c r="S5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T5" s="16" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="U5" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="V5" s="1"/>
       <c r="W5" s="16" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="X5" s="16" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="Y5" s="32">
         <v>1</v>
       </c>
       <c r="Z5" s="1"/>
       <c r="AA5" s="32" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB5" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC5" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD5" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE5" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF5" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AC5" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD5" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE5" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF5" s="56" t="s">
-        <v>81</v>
-      </c>
       <c r="AG5" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AH5" s="19" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AI5" s="19" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="AJ5" s="19" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="AK5" s="19" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="AL5" s="19"/>
       <c r="AM5" s="58" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="AN5"/>
       <c r="AO5" s="13">
         <v>0.01</v>
       </c>
       <c r="AQ5" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="AR5" s="41" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="AS5" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="AT5" s="41" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="AU5" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="AV5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AW5" t="s">
         <v>8</v>
@@ -3510,13 +3408,13 @@
         <v>10</v>
       </c>
       <c r="AZ5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA5" t="s">
         <v>11</v>
       </c>
       <c r="BB5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD5">
         <v>250</v>
@@ -3532,7 +3430,7 @@
         <v>41226</v>
       </c>
       <c r="BM5" s="62" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="BN5" s="63">
         <v>31.63212</v>
@@ -3541,30 +3439,35 @@
         <v>34.5167</v>
       </c>
       <c r="BP5" s="41" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="BQ5" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="BR5" s="59"/>
       <c r="BW5">
         <v>1.5</v>
       </c>
       <c r="BX5" s="41" t="s">
-        <v>363</v>
-      </c>
-      <c r="BY5" s="68">
+        <v>357</v>
+      </c>
+      <c r="BY5" s="41">
         <v>0</v>
       </c>
-      <c r="BZ5"/>
-      <c r="CA5"/>
-      <c r="CB5"/>
-      <c r="CC5"/>
-      <c r="CD5"/>
-      <c r="CE5"/>
-      <c r="CF5"/>
+      <c r="BZ5">
+        <v>42.3</v>
+      </c>
+      <c r="CA5">
+        <v>31.81</v>
+      </c>
+      <c r="CB5">
+        <v>584.20399999999995</v>
+      </c>
+      <c r="CC5">
+        <v>114.9</v>
+      </c>
     </row>
-    <row r="6" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3573,117 +3476,117 @@
         <v>4</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="K6" s="29" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="L6" s="29" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="M6" s="29" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="N6" s="29" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O6" s="36"/>
       <c r="P6" s="39"/>
       <c r="Q6" s="54"/>
       <c r="R6" s="19"/>
       <c r="S6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T6" s="16" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="U6" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="V6" s="1"/>
       <c r="W6" s="16" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="X6" s="16" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="Y6" s="32">
         <v>2</v>
       </c>
       <c r="Z6" s="1"/>
       <c r="AA6" s="32" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB6" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC6" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD6" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE6" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF6" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AC6" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD6" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE6" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF6" s="56" t="s">
-        <v>81</v>
-      </c>
       <c r="AG6" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AH6" s="19" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="AI6" s="19" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="AJ6" s="19" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="AK6" s="19" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="AL6" s="19"/>
       <c r="AM6" s="58" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="AN6" s="55"/>
       <c r="AO6" s="13">
         <v>0.01</v>
       </c>
       <c r="AQ6" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="AR6" s="41" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="AS6" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="AT6" s="41" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="AU6" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="AV6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AW6" t="s">
         <v>8</v>
@@ -3695,13 +3598,13 @@
         <v>10</v>
       </c>
       <c r="AZ6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA6" t="s">
         <v>11</v>
       </c>
       <c r="BB6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD6">
         <v>250</v>
@@ -3717,7 +3620,7 @@
         <v>41226</v>
       </c>
       <c r="BM6" s="62" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="BN6" s="63">
         <v>31.6341</v>
@@ -3726,30 +3629,35 @@
         <v>34.51144</v>
       </c>
       <c r="BP6" s="41" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="BQ6" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="BR6" s="59"/>
       <c r="BW6">
         <v>10</v>
       </c>
       <c r="BX6" s="65" t="s">
-        <v>364</v>
-      </c>
-      <c r="BY6" s="66">
+        <v>358</v>
+      </c>
+      <c r="BY6" s="65">
         <v>545.16</v>
       </c>
-      <c r="BZ6"/>
-      <c r="CA6"/>
-      <c r="CB6"/>
-      <c r="CC6"/>
-      <c r="CD6"/>
-      <c r="CE6"/>
-      <c r="CF6"/>
+      <c r="BZ6">
+        <v>39.6</v>
+      </c>
+      <c r="CA6">
+        <v>24.87</v>
+      </c>
+      <c r="CB6">
+        <v>209.97499999999999</v>
+      </c>
+      <c r="CC6">
+        <v>99.7</v>
+      </c>
     </row>
-    <row r="7" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3758,117 +3666,117 @@
         <v>5</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G7" s="29" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="K7" s="29" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="L7" s="29" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="M7" s="29" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="N7" s="29" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O7" s="36"/>
       <c r="P7" s="39"/>
       <c r="Q7" s="53"/>
       <c r="R7" s="19"/>
       <c r="S7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T7" s="16" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="U7" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="V7" s="1"/>
       <c r="W7" s="16" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="X7" s="16" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="Y7" s="32">
         <v>2</v>
       </c>
       <c r="Z7" s="1"/>
       <c r="AA7" s="32" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB7" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC7" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD7" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE7" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF7" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AC7" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD7" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE7" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF7" s="56" t="s">
-        <v>81</v>
-      </c>
       <c r="AG7" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AH7" s="19" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="AI7" s="19" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="AJ7" s="19" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="AK7" s="19" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="AL7" s="19"/>
       <c r="AM7" s="58" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="AN7" s="55"/>
       <c r="AO7" s="13">
         <v>0.01</v>
       </c>
       <c r="AQ7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="AR7" s="41" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="AS7" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="AT7" s="41" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="AU7" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="AV7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AW7" t="s">
         <v>8</v>
@@ -3880,13 +3788,13 @@
         <v>10</v>
       </c>
       <c r="AZ7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA7" t="s">
         <v>11</v>
       </c>
       <c r="BB7" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD7">
         <v>250</v>
@@ -3902,7 +3810,7 @@
         <v>41226</v>
       </c>
       <c r="BM7" s="62" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="BN7" s="63">
         <v>31.6341</v>
@@ -3911,30 +3819,35 @@
         <v>34.51144</v>
       </c>
       <c r="BP7" s="41" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="BQ7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="BR7" s="59"/>
       <c r="BW7">
         <v>10</v>
       </c>
       <c r="BX7" s="66" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="BY7" s="66">
         <v>545.16</v>
       </c>
-      <c r="BZ7"/>
-      <c r="CA7"/>
-      <c r="CB7"/>
-      <c r="CC7"/>
-      <c r="CD7"/>
-      <c r="CE7"/>
-      <c r="CF7"/>
+      <c r="BZ7">
+        <v>39.6</v>
+      </c>
+      <c r="CA7">
+        <v>24.87</v>
+      </c>
+      <c r="CB7">
+        <v>209.97499999999999</v>
+      </c>
+      <c r="CC7">
+        <v>99.7</v>
+      </c>
     </row>
-    <row r="8" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3943,117 +3856,117 @@
         <v>6</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H8" s="29" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="K8" s="29" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="L8" s="29" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="M8" s="29" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="N8" s="29" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O8" s="36"/>
       <c r="P8" s="39"/>
       <c r="Q8" s="53"/>
       <c r="R8" s="24"/>
       <c r="S8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T8" s="16" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="U8" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="V8" s="1"/>
       <c r="W8" s="16" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="X8" s="16" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="Y8" s="32">
         <v>2</v>
       </c>
       <c r="Z8" s="1"/>
       <c r="AA8" s="32" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB8" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC8" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD8" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE8" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF8" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AC8" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD8" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE8" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF8" s="56" t="s">
-        <v>81</v>
-      </c>
       <c r="AG8" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AH8" s="19" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="AI8" s="19" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AJ8" s="19" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="AK8" s="19" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="AL8" s="19"/>
       <c r="AM8" s="58" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="AN8" s="55"/>
       <c r="AO8" s="13">
         <v>0.01</v>
       </c>
       <c r="AQ8" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="AR8" s="41" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="AS8" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="AT8" s="41" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="AU8" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="AV8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AW8" t="s">
         <v>8</v>
@@ -4065,13 +3978,13 @@
         <v>10</v>
       </c>
       <c r="AZ8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA8" t="s">
         <v>11</v>
       </c>
       <c r="BB8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD8">
         <v>250</v>
@@ -4087,7 +4000,7 @@
         <v>41226</v>
       </c>
       <c r="BM8" s="62" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="BN8" s="63">
         <v>31.6341</v>
@@ -4096,30 +4009,35 @@
         <v>34.51144</v>
       </c>
       <c r="BP8" s="41" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="BQ8" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="BR8" s="59"/>
       <c r="BW8">
         <v>10</v>
       </c>
       <c r="BX8" s="66" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="BY8" s="66">
         <v>545.16</v>
       </c>
-      <c r="BZ8"/>
-      <c r="CA8"/>
-      <c r="CB8"/>
-      <c r="CC8"/>
-      <c r="CD8"/>
-      <c r="CE8"/>
-      <c r="CF8"/>
+      <c r="BZ8">
+        <v>39.6</v>
+      </c>
+      <c r="CA8">
+        <v>24.87</v>
+      </c>
+      <c r="CB8">
+        <v>209.97499999999999</v>
+      </c>
+      <c r="CC8">
+        <v>99.7</v>
+      </c>
     </row>
-    <row r="9" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4128,117 +4046,117 @@
         <v>7</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G9" s="29" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H9" s="29" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="K9" s="29" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="L9" s="29" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="M9" s="29" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="N9" s="29" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O9" s="36"/>
       <c r="P9" s="39"/>
       <c r="Q9" s="53"/>
       <c r="R9" s="19"/>
       <c r="S9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T9" s="16" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="U9" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="V9" s="1"/>
       <c r="W9" s="16" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="X9" s="16" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="Y9" s="32">
         <v>3</v>
       </c>
       <c r="Z9" s="1"/>
       <c r="AA9" s="32" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB9" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC9" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD9" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE9" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF9" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AC9" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD9" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE9" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF9" s="56" t="s">
-        <v>81</v>
-      </c>
       <c r="AG9" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AH9" s="19" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="AI9" s="19" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="AJ9" s="19" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AK9" s="19" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="AL9" s="19"/>
       <c r="AM9" s="58" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="AN9" s="55"/>
       <c r="AO9" s="13">
         <v>0.01</v>
       </c>
       <c r="AQ9" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="AR9" s="41" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="AS9" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="AT9" s="41" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="AU9" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="AV9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AW9" t="s">
         <v>8</v>
@@ -4250,13 +4168,13 @@
         <v>10</v>
       </c>
       <c r="AZ9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA9" t="s">
         <v>11</v>
       </c>
       <c r="BB9" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD9">
         <v>250</v>
@@ -4272,7 +4190,7 @@
         <v>41226</v>
       </c>
       <c r="BM9" s="62" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="BN9" s="63">
         <v>31.671759999999999</v>
@@ -4281,30 +4199,35 @@
         <v>34.543559999999999</v>
       </c>
       <c r="BP9" s="41" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="BQ9" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="BR9" s="59"/>
       <c r="BW9">
         <v>5</v>
       </c>
       <c r="BX9" s="66" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="BY9" s="66">
         <v>5080.2700000000004</v>
       </c>
-      <c r="BZ9"/>
-      <c r="CA9"/>
-      <c r="CB9"/>
-      <c r="CC9"/>
-      <c r="CD9"/>
-      <c r="CE9"/>
-      <c r="CF9"/>
+      <c r="BZ9">
+        <v>39.6</v>
+      </c>
+      <c r="CA9">
+        <v>24.92</v>
+      </c>
+      <c r="CB9">
+        <v>210.3</v>
+      </c>
+      <c r="CC9">
+        <v>100.9</v>
+      </c>
     </row>
-    <row r="10" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4313,117 +4236,117 @@
         <v>8</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="I10" s="30" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="K10" s="29" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="L10" s="29" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="M10" s="29" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="N10" s="29" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O10" s="36"/>
       <c r="P10" s="39"/>
       <c r="Q10" s="53"/>
       <c r="R10" s="19"/>
       <c r="S10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T10" s="16" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="U10" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="V10" s="1"/>
       <c r="W10" s="16" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="X10" s="16" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="Y10" s="32">
         <v>3</v>
       </c>
       <c r="Z10" s="1"/>
       <c r="AA10" s="32" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB10" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC10" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD10" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE10" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF10" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AC10" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD10" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE10" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF10" s="56" t="s">
-        <v>81</v>
-      </c>
       <c r="AG10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AH10" s="19" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="AI10" s="19" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="AJ10" s="19" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="AK10" s="19" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="AL10" s="19"/>
       <c r="AM10" s="58" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AN10" s="55"/>
       <c r="AO10" s="13">
         <v>0.01</v>
       </c>
       <c r="AQ10" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="AR10" s="41" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="AS10" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="AT10" s="41" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="AU10" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="AV10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AW10" t="s">
         <v>8</v>
@@ -4435,13 +4358,13 @@
         <v>10</v>
       </c>
       <c r="AZ10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA10" t="s">
         <v>11</v>
       </c>
       <c r="BB10" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD10">
         <v>250</v>
@@ -4457,7 +4380,7 @@
         <v>41226</v>
       </c>
       <c r="BM10" s="62" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="BN10" s="63">
         <v>31.671759999999999</v>
@@ -4466,30 +4389,35 @@
         <v>34.543559999999999</v>
       </c>
       <c r="BP10" s="41" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="BQ10" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="BR10" s="59"/>
       <c r="BW10">
         <v>5</v>
       </c>
       <c r="BX10" s="66" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="BY10" s="66">
         <v>5080.2700000000004</v>
       </c>
-      <c r="BZ10"/>
-      <c r="CA10"/>
-      <c r="CB10"/>
-      <c r="CC10"/>
-      <c r="CD10"/>
-      <c r="CE10"/>
-      <c r="CF10"/>
+      <c r="BZ10">
+        <v>39.6</v>
+      </c>
+      <c r="CA10">
+        <v>24.92</v>
+      </c>
+      <c r="CB10">
+        <v>210.3</v>
+      </c>
+      <c r="CC10">
+        <v>100.9</v>
+      </c>
     </row>
-    <row r="11" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4498,117 +4426,117 @@
         <v>9</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H11" s="29" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="I11" s="30" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="K11" s="29" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L11" s="29" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="M11" s="29" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="N11" s="29" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O11" s="36"/>
       <c r="P11" s="39"/>
       <c r="Q11" s="53"/>
       <c r="R11" s="19"/>
       <c r="S11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T11" s="16" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="U11" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="V11" s="1"/>
       <c r="W11" s="16" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="X11" s="16" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="Y11" s="32">
         <v>3</v>
       </c>
       <c r="Z11" s="1"/>
       <c r="AA11" s="32" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB11" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC11" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD11" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE11" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF11" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AC11" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD11" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE11" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF11" s="56" t="s">
-        <v>81</v>
-      </c>
       <c r="AG11" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AH11" s="19" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="AI11" s="19" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="AJ11" s="19" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="AK11" s="19" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="AL11" s="19"/>
       <c r="AM11" s="58" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AN11" s="55"/>
       <c r="AO11" s="13">
         <v>0.01</v>
       </c>
       <c r="AQ11" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="AR11" s="41" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="AS11" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="AT11" s="41" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="AU11" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="AV11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AW11" t="s">
         <v>8</v>
@@ -4620,13 +4548,13 @@
         <v>10</v>
       </c>
       <c r="AZ11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA11" t="s">
         <v>11</v>
       </c>
       <c r="BB11" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD11">
         <v>250</v>
@@ -4642,7 +4570,7 @@
         <v>41226</v>
       </c>
       <c r="BM11" s="62" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="BN11" s="63">
         <v>31.671759999999999</v>
@@ -4651,30 +4579,35 @@
         <v>34.543559999999999</v>
       </c>
       <c r="BP11" s="41" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="BQ11" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="BR11" s="59"/>
       <c r="BW11">
         <v>5</v>
       </c>
       <c r="BX11" s="66" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="BY11" s="66">
         <v>5080.2700000000004</v>
       </c>
-      <c r="BZ11"/>
-      <c r="CA11"/>
-      <c r="CB11"/>
-      <c r="CC11"/>
-      <c r="CD11"/>
-      <c r="CE11"/>
-      <c r="CF11"/>
+      <c r="BZ11">
+        <v>39.6</v>
+      </c>
+      <c r="CA11">
+        <v>24.92</v>
+      </c>
+      <c r="CB11">
+        <v>210.3</v>
+      </c>
+      <c r="CC11">
+        <v>100.9</v>
+      </c>
     </row>
-    <row r="12" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4683,117 +4616,117 @@
         <v>10</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="I12" s="30" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="K12" s="29" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="L12" s="29" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="M12" s="29" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="N12" s="29" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O12" s="36"/>
       <c r="P12" s="39"/>
       <c r="Q12" s="53"/>
       <c r="R12" s="24"/>
       <c r="S12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T12" s="16" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="U12" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="V12" s="1"/>
       <c r="W12" s="16" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="X12" s="16" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="Y12" s="32">
         <v>4</v>
       </c>
       <c r="Z12" s="1"/>
       <c r="AA12" s="32" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB12" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC12" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD12" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE12" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF12" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AC12" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD12" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE12" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF12" s="56" t="s">
-        <v>81</v>
-      </c>
       <c r="AG12" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AH12" s="19" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="AI12" s="19" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="AJ12" s="19" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="AK12" s="19" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="AL12" s="19"/>
       <c r="AM12" s="58" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="AN12" s="55"/>
       <c r="AO12" s="13">
         <v>0.01</v>
       </c>
       <c r="AQ12" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="AR12" s="41" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="AS12" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="AT12" s="41" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="AU12" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="AV12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AW12" t="s">
         <v>8</v>
@@ -4805,13 +4738,13 @@
         <v>10</v>
       </c>
       <c r="AZ12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA12" t="s">
         <v>11</v>
       </c>
       <c r="BB12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD12">
         <v>250</v>
@@ -4827,7 +4760,7 @@
         <v>41227</v>
       </c>
       <c r="BM12" s="62" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="BN12" s="63">
         <v>31.941859999999998</v>
@@ -4836,30 +4769,35 @@
         <v>34.68862</v>
       </c>
       <c r="BP12" s="41" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="BQ12" s="64" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="BR12" s="60"/>
       <c r="BW12">
         <v>18</v>
       </c>
       <c r="BX12" s="66" t="s">
-        <v>364</v>
-      </c>
-      <c r="BY12" s="68">
-        <v>0</v>
-      </c>
-      <c r="BZ12"/>
-      <c r="CA12"/>
-      <c r="CB12"/>
-      <c r="CC12"/>
-      <c r="CD12"/>
-      <c r="CE12"/>
-      <c r="CF12"/>
+        <v>358</v>
+      </c>
+      <c r="BY12" s="41">
+        <v>102.78</v>
+      </c>
+      <c r="BZ12">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="CA12">
+        <v>24.88</v>
+      </c>
+      <c r="CB12">
+        <v>160.36000000000001</v>
+      </c>
+      <c r="CC12">
+        <v>99.74</v>
+      </c>
     </row>
-    <row r="13" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4868,117 +4806,117 @@
         <v>11</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="I13" s="30" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="K13" s="29" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="L13" s="29" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="M13" s="29" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="N13" s="29" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O13" s="36"/>
       <c r="P13" s="39"/>
       <c r="Q13" s="53"/>
       <c r="R13" s="19"/>
       <c r="S13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T13" s="16" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="U13" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="V13" s="1"/>
       <c r="W13" s="16" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="X13" s="16" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="Y13" s="32">
         <v>4</v>
       </c>
       <c r="Z13" s="1"/>
       <c r="AA13" s="32" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB13" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC13" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD13" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE13" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF13" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AC13" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD13" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE13" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF13" s="56" t="s">
-        <v>81</v>
-      </c>
       <c r="AG13" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AH13" s="19" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="AI13" s="19" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="AJ13" s="19" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AK13" s="19" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="AL13" s="19"/>
       <c r="AM13" s="58" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="AN13" s="55"/>
       <c r="AO13" s="13">
         <v>0.01</v>
       </c>
       <c r="AQ13" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="AR13" s="41" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="AS13" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="AT13" s="41" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="AU13" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="AV13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AW13" t="s">
         <v>8</v>
@@ -4990,13 +4928,13 @@
         <v>10</v>
       </c>
       <c r="AZ13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA13" t="s">
         <v>11</v>
       </c>
       <c r="BB13" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD13">
         <v>250</v>
@@ -5012,7 +4950,7 @@
         <v>41227</v>
       </c>
       <c r="BM13" s="62" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="BN13" s="63">
         <v>31.941859999999998</v>
@@ -5021,30 +4959,35 @@
         <v>34.68862</v>
       </c>
       <c r="BP13" s="41" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="BQ13" s="64" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="BR13" s="60"/>
       <c r="BW13">
         <v>18</v>
       </c>
       <c r="BX13" s="66" t="s">
-        <v>364</v>
-      </c>
-      <c r="BY13" s="68">
-        <v>0</v>
-      </c>
-      <c r="BZ13"/>
-      <c r="CA13"/>
-      <c r="CB13"/>
-      <c r="CC13"/>
-      <c r="CD13"/>
-      <c r="CE13"/>
-      <c r="CF13"/>
+        <v>358</v>
+      </c>
+      <c r="BY13" s="41">
+        <v>102.78</v>
+      </c>
+      <c r="BZ13">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="CA13">
+        <v>24.88</v>
+      </c>
+      <c r="CB13">
+        <v>160.36000000000001</v>
+      </c>
+      <c r="CC13">
+        <v>99.74</v>
+      </c>
     </row>
-    <row r="14" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5053,117 +4996,117 @@
         <v>12</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="I14" s="30" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="K14" s="29" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="L14" s="29" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M14" s="29" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="N14" s="29" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O14" s="36"/>
       <c r="P14" s="39"/>
       <c r="Q14" s="54"/>
       <c r="R14" s="19"/>
       <c r="S14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T14" s="16" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="U14" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="V14" s="1"/>
       <c r="W14" s="16" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="X14" s="16" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="Y14" s="32">
         <v>4</v>
       </c>
       <c r="Z14" s="1"/>
       <c r="AA14" s="32" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB14" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC14" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD14" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE14" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF14" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AC14" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD14" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE14" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF14" s="56" t="s">
-        <v>81</v>
-      </c>
       <c r="AG14" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AH14" s="19" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="AI14" s="19" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="AJ14" s="19" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AK14" s="19" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AL14" s="19"/>
       <c r="AM14" s="58" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="AN14" s="55"/>
       <c r="AO14" s="13">
         <v>0.01</v>
       </c>
       <c r="AQ14" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="AR14" s="41" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="AS14" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="AT14" s="41" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="AU14" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="AV14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AW14" t="s">
         <v>8</v>
@@ -5175,13 +5118,13 @@
         <v>10</v>
       </c>
       <c r="AZ14" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA14" t="s">
         <v>11</v>
       </c>
       <c r="BB14" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD14">
         <v>250</v>
@@ -5197,7 +5140,7 @@
         <v>41227</v>
       </c>
       <c r="BM14" s="62" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="BN14" s="63">
         <v>31.941859999999998</v>
@@ -5206,30 +5149,35 @@
         <v>34.68862</v>
       </c>
       <c r="BP14" s="41" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="BQ14" s="64" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="BR14" s="60"/>
       <c r="BW14">
         <v>18</v>
       </c>
       <c r="BX14" s="66" t="s">
-        <v>364</v>
-      </c>
-      <c r="BY14" s="68">
-        <v>0</v>
-      </c>
-      <c r="BZ14"/>
-      <c r="CA14"/>
-      <c r="CB14"/>
-      <c r="CC14"/>
-      <c r="CD14"/>
-      <c r="CE14"/>
-      <c r="CF14"/>
+        <v>358</v>
+      </c>
+      <c r="BY14" s="41">
+        <v>102.78</v>
+      </c>
+      <c r="BZ14">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="CA14">
+        <v>24.88</v>
+      </c>
+      <c r="CB14">
+        <v>160.36000000000001</v>
+      </c>
+      <c r="CC14">
+        <v>99.74</v>
+      </c>
     </row>
-    <row r="15" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A15" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5238,117 +5186,117 @@
         <v>13</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H15" s="29" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="I15" s="30" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="K15" s="29" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L15" s="29" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="M15" s="29" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="N15" s="29" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O15" s="36"/>
       <c r="P15" s="39"/>
       <c r="Q15" s="53"/>
       <c r="R15" s="19"/>
       <c r="S15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T15" s="16" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="U15" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="V15" s="1"/>
       <c r="W15" s="16" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="X15" s="16" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="Y15" s="32">
         <v>5</v>
       </c>
       <c r="Z15" s="1"/>
       <c r="AA15" s="32" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB15" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC15" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD15" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE15" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF15" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AC15" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD15" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE15" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF15" s="56" t="s">
-        <v>81</v>
-      </c>
       <c r="AG15" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AH15" s="19" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="AI15" s="19" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="AJ15" s="19" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="AK15" s="19" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="AL15" s="19"/>
       <c r="AM15" s="58" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="AN15" s="55"/>
       <c r="AO15" s="13">
         <v>0.01</v>
       </c>
       <c r="AQ15" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="AR15" s="41" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="AS15" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="AT15" s="41" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="AU15" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="AV15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AW15" t="s">
         <v>8</v>
@@ -5360,13 +5308,13 @@
         <v>10</v>
       </c>
       <c r="AZ15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA15" t="s">
         <v>11</v>
       </c>
       <c r="BB15" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD15">
         <v>250</v>
@@ -5382,7 +5330,7 @@
         <v>41227</v>
       </c>
       <c r="BM15" s="62" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="BN15" s="63">
         <v>31.94068</v>
@@ -5391,30 +5339,35 @@
         <v>34.687379999999997</v>
       </c>
       <c r="BP15" s="41" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="BQ15" s="64" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="BR15" s="60"/>
       <c r="BW15">
         <v>19</v>
       </c>
       <c r="BX15" s="66" t="s">
-        <v>364</v>
-      </c>
-      <c r="BY15" s="66">
-        <v>175.69</v>
-      </c>
-      <c r="BZ15"/>
-      <c r="CA15"/>
-      <c r="CB15"/>
-      <c r="CC15"/>
-      <c r="CD15"/>
-      <c r="CE15"/>
-      <c r="CF15"/>
+        <v>358</v>
+      </c>
+      <c r="BY15" s="65">
+        <v>130.54</v>
+      </c>
+      <c r="BZ15">
+        <v>40.5</v>
+      </c>
+      <c r="CA15">
+        <v>24.85</v>
+      </c>
+      <c r="CB15">
+        <v>163.64500000000001</v>
+      </c>
+      <c r="CC15">
+        <v>99.39</v>
+      </c>
     </row>
-    <row r="16" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5423,31 +5376,31 @@
         <v>14</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="I16" s="30" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="K16" s="29" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="L16" s="29" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="M16" s="29" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="N16" s="29"/>
       <c r="O16" s="36"/>
@@ -5455,75 +5408,75 @@
       <c r="Q16" s="53"/>
       <c r="R16" s="19"/>
       <c r="T16" s="16" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="U16" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="V16" s="1"/>
       <c r="W16" s="16" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="X16" s="16" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="Y16" s="32">
         <v>5</v>
       </c>
       <c r="Z16" s="1"/>
       <c r="AA16" s="32" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB16" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC16" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD16" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE16" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF16" s="56" t="s">
         <v>75</v>
-      </c>
-      <c r="AC16" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD16" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE16" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF16" s="56" t="s">
-        <v>81</v>
       </c>
       <c r="AG16" s="1"/>
       <c r="AH16" s="19" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="AI16" s="19" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="AJ16" s="19" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AK16" s="19" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="AL16" s="19"/>
       <c r="AM16" s="58" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="AN16" s="55"/>
       <c r="AO16" s="13">
         <v>0.01</v>
       </c>
       <c r="AQ16" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="AR16" s="41" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="AS16" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="AT16" s="41" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="AU16" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="AW16" t="s">
         <v>8</v>
@@ -5535,13 +5488,13 @@
         <v>10</v>
       </c>
       <c r="AZ16" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA16" t="s">
         <v>11</v>
       </c>
       <c r="BB16" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD16">
         <v>250</v>
@@ -5557,7 +5510,7 @@
         <v>41227</v>
       </c>
       <c r="BM16" s="62" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="BN16" s="63">
         <v>31.94068</v>
@@ -5566,30 +5519,35 @@
         <v>34.687379999999997</v>
       </c>
       <c r="BP16" s="41" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="BQ16" s="64" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="BR16" s="60"/>
       <c r="BW16">
         <v>19</v>
       </c>
       <c r="BX16" s="66" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="BY16" s="66">
-        <v>175.69</v>
-      </c>
-      <c r="BZ16"/>
-      <c r="CA16"/>
-      <c r="CB16"/>
-      <c r="CC16"/>
-      <c r="CD16"/>
-      <c r="CE16"/>
-      <c r="CF16"/>
+        <v>130.54</v>
+      </c>
+      <c r="BZ16">
+        <v>40.5</v>
+      </c>
+      <c r="CA16">
+        <v>24.85</v>
+      </c>
+      <c r="CB16">
+        <v>163.64500000000001</v>
+      </c>
+      <c r="CC16">
+        <v>99.39</v>
+      </c>
     </row>
-    <row r="17" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A17" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5598,31 +5556,31 @@
         <v>15</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G17" s="29" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="I17" s="30" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="K17" s="29" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="L17" s="29" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="M17" s="29" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="N17" s="29"/>
       <c r="O17" s="36"/>
@@ -5630,75 +5588,75 @@
       <c r="Q17" s="54"/>
       <c r="R17" s="19"/>
       <c r="T17" s="16" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="U17" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="V17" s="1"/>
       <c r="W17" s="16" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="X17" s="16" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="Y17" s="32">
         <v>5</v>
       </c>
       <c r="Z17" s="1"/>
       <c r="AA17" s="32" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB17" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC17" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD17" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE17" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF17" s="56" t="s">
         <v>75</v>
-      </c>
-      <c r="AC17" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD17" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE17" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF17" s="56" t="s">
-        <v>81</v>
       </c>
       <c r="AG17" s="1"/>
       <c r="AH17" s="19" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="AI17" s="19" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AJ17" s="19" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="AK17" s="19" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="AL17" s="19"/>
       <c r="AM17" s="58" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="AN17" s="55"/>
       <c r="AO17" s="13">
         <v>0.01</v>
       </c>
       <c r="AQ17" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="AR17" s="41" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="AS17" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="AT17" s="41" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="AU17" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="AW17" t="s">
         <v>8</v>
@@ -5710,13 +5668,13 @@
         <v>10</v>
       </c>
       <c r="AZ17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA17" t="s">
         <v>11</v>
       </c>
       <c r="BB17" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD17">
         <v>250</v>
@@ -5732,7 +5690,7 @@
         <v>41227</v>
       </c>
       <c r="BM17" s="62" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="BN17" s="63">
         <v>31.94068</v>
@@ -5741,30 +5699,35 @@
         <v>34.687379999999997</v>
       </c>
       <c r="BP17" s="41" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="BQ17" s="64" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="BR17" s="60"/>
       <c r="BW17">
         <v>19</v>
       </c>
       <c r="BX17" s="66" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="BY17" s="66">
-        <v>175.69</v>
-      </c>
-      <c r="BZ17"/>
-      <c r="CA17"/>
-      <c r="CB17"/>
-      <c r="CC17"/>
-      <c r="CD17"/>
-      <c r="CE17"/>
-      <c r="CF17"/>
+        <v>130.54</v>
+      </c>
+      <c r="BZ17">
+        <v>40.5</v>
+      </c>
+      <c r="CA17">
+        <v>24.85</v>
+      </c>
+      <c r="CB17">
+        <v>163.64500000000001</v>
+      </c>
+      <c r="CC17">
+        <v>99.39</v>
+      </c>
     </row>
-    <row r="18" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A18" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5773,31 +5736,31 @@
         <v>16</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G18" s="29" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H18" s="29" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="I18" s="30" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="K18" s="29" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="L18" s="29" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="M18" s="29" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="N18" s="29"/>
       <c r="O18" s="36"/>
@@ -5805,75 +5768,75 @@
       <c r="Q18" s="53"/>
       <c r="R18" s="19"/>
       <c r="T18" s="16" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="U18" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="V18" s="1"/>
       <c r="W18" s="16" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="X18" s="16" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="Y18" s="32">
         <v>6</v>
       </c>
       <c r="Z18" s="1"/>
       <c r="AA18" s="32" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB18" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC18" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD18" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE18" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF18" s="56" t="s">
         <v>75</v>
-      </c>
-      <c r="AC18" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD18" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE18" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF18" s="56" t="s">
-        <v>81</v>
       </c>
       <c r="AG18" s="1"/>
       <c r="AH18" s="19" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="AI18" s="19" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="AJ18" s="19" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AK18" s="19" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AL18" s="19"/>
       <c r="AM18" s="58" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AN18" s="55"/>
       <c r="AO18" s="13">
         <v>0.01</v>
       </c>
       <c r="AQ18" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="AR18" s="41" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="AS18" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="AT18" s="41" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="AU18" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="AW18" t="s">
         <v>8</v>
@@ -5885,13 +5848,13 @@
         <v>10</v>
       </c>
       <c r="AZ18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA18" t="s">
         <v>11</v>
       </c>
       <c r="BB18" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD18">
         <v>250</v>
@@ -5907,7 +5870,7 @@
         <v>41227</v>
       </c>
       <c r="BM18" s="62" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="BN18" s="63">
         <v>31.931660000000001</v>
@@ -5916,30 +5879,35 @@
         <v>34.68336</v>
       </c>
       <c r="BP18" s="41" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="BQ18" s="64" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="BR18" s="60"/>
       <c r="BW18">
         <v>18</v>
       </c>
       <c r="BX18" s="66" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="BY18" s="66">
-        <v>1235.56</v>
-      </c>
-      <c r="BZ18"/>
-      <c r="CA18"/>
-      <c r="CB18"/>
-      <c r="CC18"/>
-      <c r="CD18"/>
-      <c r="CE18"/>
-      <c r="CF18"/>
+        <v>1196.8399999999999</v>
+      </c>
+      <c r="BZ18">
+        <v>39.6</v>
+      </c>
+      <c r="CA18">
+        <v>24.45</v>
+      </c>
+      <c r="CB18">
+        <v>163.03299999999999</v>
+      </c>
+      <c r="CC18">
+        <v>99.2</v>
+      </c>
     </row>
-    <row r="19" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A19" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5948,31 +5916,31 @@
         <v>17</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G19" s="29" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H19" s="29" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="I19" s="30" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="K19" s="29" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="L19" s="29" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="M19" s="29" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="N19" s="29"/>
       <c r="O19" s="36"/>
@@ -5980,75 +5948,75 @@
       <c r="Q19" s="53"/>
       <c r="R19" s="19"/>
       <c r="T19" s="16" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="U19" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="V19" s="1"/>
       <c r="W19" s="16" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="X19" s="16" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="Y19" s="32">
         <v>6</v>
       </c>
       <c r="Z19" s="1"/>
       <c r="AA19" s="32" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB19" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC19" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD19" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE19" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF19" s="56" t="s">
         <v>75</v>
-      </c>
-      <c r="AC19" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD19" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE19" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF19" s="56" t="s">
-        <v>81</v>
       </c>
       <c r="AG19" s="1"/>
       <c r="AH19" s="19" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="AI19" s="19" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="AJ19" s="19" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AK19" s="19" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="AL19" s="19"/>
       <c r="AM19" s="58" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="AN19" s="55"/>
       <c r="AO19" s="13">
         <v>0.01</v>
       </c>
       <c r="AQ19" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="AR19" s="41" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="AS19" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="AT19" s="41" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="AU19" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="AW19" t="s">
         <v>8</v>
@@ -6060,13 +6028,13 @@
         <v>10</v>
       </c>
       <c r="AZ19" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA19" t="s">
         <v>11</v>
       </c>
       <c r="BB19" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD19">
         <v>250</v>
@@ -6082,7 +6050,7 @@
         <v>41227</v>
       </c>
       <c r="BM19" s="62" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="BN19" s="63">
         <v>31.931660000000001</v>
@@ -6091,30 +6059,35 @@
         <v>34.68336</v>
       </c>
       <c r="BP19" s="41" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="BQ19" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="BR19" s="59"/>
       <c r="BW19">
         <v>18</v>
       </c>
       <c r="BX19" s="66" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="BY19" s="66">
-        <v>1235.56</v>
-      </c>
-      <c r="BZ19"/>
-      <c r="CA19"/>
-      <c r="CB19"/>
-      <c r="CC19"/>
-      <c r="CD19"/>
-      <c r="CE19"/>
-      <c r="CF19"/>
+        <v>1196.8399999999999</v>
+      </c>
+      <c r="BZ19">
+        <v>39.6</v>
+      </c>
+      <c r="CA19">
+        <v>24.45</v>
+      </c>
+      <c r="CB19">
+        <v>163.03299999999999</v>
+      </c>
+      <c r="CC19">
+        <v>99.2</v>
+      </c>
     </row>
-    <row r="20" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A20" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -6123,31 +6096,31 @@
         <v>18</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G20" s="29" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="I20" s="30" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="K20" s="29" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="L20" s="29" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="M20" s="29" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="N20" s="29"/>
       <c r="O20" s="36"/>
@@ -6155,75 +6128,75 @@
       <c r="Q20" s="53"/>
       <c r="R20" s="19"/>
       <c r="T20" s="16" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="U20" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="V20" s="1"/>
       <c r="W20" s="16" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="X20" s="16" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="Y20" s="32">
         <v>6</v>
       </c>
       <c r="Z20" s="1"/>
       <c r="AA20" s="32" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB20" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC20" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD20" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE20" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF20" s="56" t="s">
         <v>75</v>
-      </c>
-      <c r="AC20" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD20" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE20" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF20" s="56" t="s">
-        <v>81</v>
       </c>
       <c r="AG20" s="1"/>
       <c r="AH20" s="19" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="AI20" s="19" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="AJ20" s="19" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="AK20" s="19" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="AL20" s="19"/>
       <c r="AM20" s="58" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="AN20" s="55"/>
       <c r="AO20" s="13">
         <v>0.01</v>
       </c>
       <c r="AQ20" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="AR20" s="41" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="AS20" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="AT20" s="41" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="AU20" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="AW20" t="s">
         <v>8</v>
@@ -6235,13 +6208,13 @@
         <v>10</v>
       </c>
       <c r="AZ20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA20" t="s">
         <v>11</v>
       </c>
       <c r="BB20" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD20">
         <v>250</v>
@@ -6257,7 +6230,7 @@
         <v>41227</v>
       </c>
       <c r="BM20" s="62" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="BN20" s="63">
         <v>31.931660000000001</v>
@@ -6266,30 +6239,35 @@
         <v>34.68336</v>
       </c>
       <c r="BP20" s="41" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="BQ20" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="BR20" s="59"/>
       <c r="BW20">
         <v>18</v>
       </c>
       <c r="BX20" s="66" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="BY20" s="66">
-        <v>1235.56</v>
-      </c>
-      <c r="BZ20"/>
-      <c r="CA20"/>
-      <c r="CB20"/>
-      <c r="CC20"/>
-      <c r="CD20"/>
-      <c r="CE20"/>
-      <c r="CF20"/>
+        <v>1196.8399999999999</v>
+      </c>
+      <c r="BZ20">
+        <v>39.6</v>
+      </c>
+      <c r="CA20">
+        <v>24.45</v>
+      </c>
+      <c r="CB20">
+        <v>163.03299999999999</v>
+      </c>
+      <c r="CC20">
+        <v>99.2</v>
+      </c>
     </row>
-    <row r="21" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A21" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -6298,31 +6276,31 @@
         <v>19</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G21" s="29" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H21" s="29" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="I21" s="30" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="K21" s="29" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="L21" s="29" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="M21" s="29" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="N21" s="29"/>
       <c r="O21" s="36"/>
@@ -6330,75 +6308,75 @@
       <c r="Q21" s="53"/>
       <c r="R21" s="19"/>
       <c r="T21" s="16" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="U21" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="V21" s="1"/>
       <c r="W21" s="16" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="X21" s="16" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="Y21" s="32">
         <v>7</v>
       </c>
       <c r="Z21" s="1"/>
       <c r="AA21" s="32" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB21" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC21" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD21" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE21" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF21" s="56" t="s">
         <v>75</v>
-      </c>
-      <c r="AC21" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD21" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE21" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF21" s="56" t="s">
-        <v>81</v>
       </c>
       <c r="AG21" s="1"/>
       <c r="AH21" s="19" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="AI21" s="19" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="AJ21" s="19" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="AK21" s="19" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="AL21" s="19"/>
       <c r="AM21" s="58" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="AN21" s="55"/>
       <c r="AO21" s="13">
         <v>0.01</v>
       </c>
       <c r="AQ21" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="AR21" s="41" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="AS21" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="AT21" s="41" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="AU21" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="AW21" t="s">
         <v>8</v>
@@ -6410,13 +6388,13 @@
         <v>10</v>
       </c>
       <c r="AZ21" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA21" t="s">
         <v>11</v>
       </c>
       <c r="BB21" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD21">
         <v>250</v>
@@ -6432,7 +6410,7 @@
         <v>41233</v>
       </c>
       <c r="BM21" s="62" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="BN21" s="63">
         <v>32.465020000000003</v>
@@ -6441,30 +6419,35 @@
         <v>34.882582999999997</v>
       </c>
       <c r="BP21" s="41" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="BQ21" s="64" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="BR21" s="60"/>
       <c r="BW21">
         <v>3.8</v>
       </c>
       <c r="BX21" s="41" t="s">
-        <v>363</v>
-      </c>
-      <c r="BY21" s="68">
+        <v>357</v>
+      </c>
+      <c r="BY21" s="41">
         <v>0</v>
       </c>
-      <c r="BZ21"/>
-      <c r="CA21"/>
-      <c r="CB21"/>
-      <c r="CC21"/>
-      <c r="CD21"/>
-      <c r="CE21"/>
-      <c r="CF21"/>
+      <c r="BZ21">
+        <v>41.04</v>
+      </c>
+      <c r="CA21">
+        <v>25.24</v>
+      </c>
+      <c r="CB21">
+        <v>237.71</v>
+      </c>
+      <c r="CC21">
+        <v>105.6</v>
+      </c>
     </row>
-    <row r="22" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -6473,31 +6456,31 @@
         <v>20</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G22" s="29" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H22" s="29" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="I22" s="30" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="K22" s="29" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="L22" s="29" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="M22" s="29" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="N22" s="29"/>
       <c r="O22" s="36"/>
@@ -6505,75 +6488,75 @@
       <c r="Q22" s="53"/>
       <c r="R22" s="19"/>
       <c r="T22" s="16" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="U22" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="V22" s="1"/>
       <c r="W22" s="16" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="X22" s="16" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="Y22" s="32">
         <v>7</v>
       </c>
       <c r="Z22" s="1"/>
       <c r="AA22" s="32" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB22" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC22" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD22" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE22" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF22" s="56" t="s">
         <v>75</v>
-      </c>
-      <c r="AC22" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD22" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE22" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF22" s="56" t="s">
-        <v>81</v>
       </c>
       <c r="AG22" s="1"/>
       <c r="AH22" s="19" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AI22" s="19" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AJ22" s="19" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="AK22" s="19" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="AL22" s="19"/>
       <c r="AM22" s="58" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="AN22" s="55"/>
       <c r="AO22" s="13">
         <v>0.01</v>
       </c>
       <c r="AQ22" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="AR22" s="41" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="AS22" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="AT22" s="41" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="AU22" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="AW22" t="s">
         <v>8</v>
@@ -6585,13 +6568,13 @@
         <v>10</v>
       </c>
       <c r="AZ22" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA22" t="s">
         <v>11</v>
       </c>
       <c r="BB22" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD22">
         <v>250</v>
@@ -6607,7 +6590,7 @@
         <v>41233</v>
       </c>
       <c r="BM22" s="62" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="BN22" s="63">
         <v>32.465020000000003</v>
@@ -6616,30 +6599,35 @@
         <v>34.882582999999997</v>
       </c>
       <c r="BP22" s="41" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="BQ22" s="64" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="BR22" s="60"/>
       <c r="BW22">
         <v>3.8</v>
       </c>
       <c r="BX22" s="41" t="s">
-        <v>363</v>
-      </c>
-      <c r="BY22" s="68">
+        <v>357</v>
+      </c>
+      <c r="BY22" s="41">
         <v>0</v>
       </c>
-      <c r="BZ22"/>
-      <c r="CA22"/>
-      <c r="CB22"/>
-      <c r="CC22"/>
-      <c r="CD22"/>
-      <c r="CE22"/>
-      <c r="CF22"/>
+      <c r="BZ22">
+        <v>41.04</v>
+      </c>
+      <c r="CA22">
+        <v>25.24</v>
+      </c>
+      <c r="CB22">
+        <v>237.71</v>
+      </c>
+      <c r="CC22">
+        <v>105.6</v>
+      </c>
     </row>
-    <row r="23" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -6648,31 +6636,31 @@
         <v>21</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G23" s="29" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H23" s="29" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="I23" s="30" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="K23" s="29" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="L23" s="29" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="M23" s="29" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="N23" s="29"/>
       <c r="O23" s="36"/>
@@ -6680,75 +6668,75 @@
       <c r="Q23" s="53"/>
       <c r="R23" s="19"/>
       <c r="T23" s="16" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="U23" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="V23" s="1"/>
       <c r="W23" s="16" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="X23" s="16" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="Y23" s="32">
         <v>7</v>
       </c>
       <c r="Z23" s="1"/>
       <c r="AA23" s="32" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB23" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC23" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD23" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE23" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF23" s="56" t="s">
         <v>75</v>
-      </c>
-      <c r="AC23" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD23" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE23" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF23" s="56" t="s">
-        <v>81</v>
       </c>
       <c r="AG23" s="1"/>
       <c r="AH23" s="19" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="AI23" s="19" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="AJ23" s="19" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="AK23" s="19" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="AL23" s="19"/>
       <c r="AM23" s="58" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="AN23" s="55"/>
       <c r="AO23" s="13">
         <v>0.01</v>
       </c>
       <c r="AQ23" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="AR23" s="41" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="AS23" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="AT23" s="41" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="AU23" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="AW23" t="s">
         <v>8</v>
@@ -6760,13 +6748,13 @@
         <v>10</v>
       </c>
       <c r="AZ23" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA23" t="s">
         <v>11</v>
       </c>
       <c r="BB23" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD23">
         <v>250</v>
@@ -6782,7 +6770,7 @@
         <v>41233</v>
       </c>
       <c r="BM23" s="62" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="BN23" s="63">
         <v>32.465020000000003</v>
@@ -6791,30 +6779,35 @@
         <v>34.882582999999997</v>
       </c>
       <c r="BP23" s="41" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="BQ23" s="64" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="BR23" s="60"/>
       <c r="BW23">
         <v>3.8</v>
       </c>
       <c r="BX23" s="41" t="s">
-        <v>363</v>
-      </c>
-      <c r="BY23" s="68">
+        <v>357</v>
+      </c>
+      <c r="BY23" s="41">
         <v>0</v>
       </c>
-      <c r="BZ23"/>
-      <c r="CA23"/>
-      <c r="CB23"/>
-      <c r="CC23"/>
-      <c r="CD23"/>
-      <c r="CE23"/>
-      <c r="CF23"/>
+      <c r="BZ23">
+        <v>41.04</v>
+      </c>
+      <c r="CA23">
+        <v>25.24</v>
+      </c>
+      <c r="CB23">
+        <v>237.71</v>
+      </c>
+      <c r="CC23">
+        <v>105.6</v>
+      </c>
     </row>
-    <row r="24" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -6823,31 +6816,31 @@
         <v>22</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G24" s="29" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H24" s="29" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="I24" s="30" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="K24" s="29" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="L24" s="29" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="M24" s="29" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="N24" s="29"/>
       <c r="O24" s="36"/>
@@ -6855,75 +6848,75 @@
       <c r="Q24" s="53"/>
       <c r="R24" s="19"/>
       <c r="T24" s="16" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="U24" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="V24" s="1"/>
       <c r="W24" s="16" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="X24" s="16" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="Y24" s="32">
         <v>8</v>
       </c>
       <c r="Z24" s="1"/>
       <c r="AA24" s="32" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB24" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC24" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD24" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE24" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF24" s="56" t="s">
         <v>75</v>
-      </c>
-      <c r="AC24" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD24" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE24" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF24" s="56" t="s">
-        <v>81</v>
       </c>
       <c r="AG24" s="1"/>
       <c r="AH24" s="19" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="AI24" s="19" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="AJ24" s="19" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="AK24" s="19" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="AL24" s="19"/>
       <c r="AM24" s="58" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="AN24" s="55"/>
       <c r="AO24" s="13">
         <v>0.01</v>
       </c>
       <c r="AQ24" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="AR24" s="41" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="AS24" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="AT24" s="41" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="AU24" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="AW24" t="s">
         <v>8</v>
@@ -6935,13 +6928,13 @@
         <v>10</v>
       </c>
       <c r="AZ24" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA24" t="s">
         <v>11</v>
       </c>
       <c r="BB24" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD24">
         <v>250</v>
@@ -6957,7 +6950,7 @@
         <v>41233</v>
       </c>
       <c r="BM24" s="62" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="BN24" s="63">
         <v>32.463700000000003</v>
@@ -6966,30 +6959,35 @@
         <v>34.879339999999999</v>
       </c>
       <c r="BP24" s="41" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="BQ24" s="64" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="BR24" s="60"/>
       <c r="BW24">
         <v>5.5</v>
       </c>
       <c r="BX24" s="66" t="s">
-        <v>364</v>
-      </c>
-      <c r="BY24" s="66">
+        <v>358</v>
+      </c>
+      <c r="BY24" s="65">
         <v>338.21</v>
       </c>
-      <c r="BZ24"/>
-      <c r="CA24"/>
-      <c r="CB24"/>
-      <c r="CC24"/>
-      <c r="CD24"/>
-      <c r="CE24"/>
-      <c r="CF24"/>
+      <c r="BZ24">
+        <v>39.4</v>
+      </c>
+      <c r="CA24">
+        <v>23.09</v>
+      </c>
+      <c r="CB24">
+        <v>197.125</v>
+      </c>
+      <c r="CC24">
+        <v>100.05</v>
+      </c>
     </row>
-    <row r="25" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -6998,31 +6996,31 @@
         <v>23</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G25" s="29" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H25" s="29" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="I25" s="30" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="K25" s="29" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="L25" s="29" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="M25" s="29" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="N25" s="29"/>
       <c r="O25" s="36"/>
@@ -7030,75 +7028,75 @@
       <c r="Q25" s="53"/>
       <c r="R25" s="19"/>
       <c r="T25" s="16" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="U25" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="V25" s="1"/>
       <c r="W25" s="16" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="X25" s="16" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="Y25" s="32">
         <v>8</v>
       </c>
       <c r="Z25" s="1"/>
       <c r="AA25" s="32" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB25" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC25" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD25" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE25" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF25" s="56" t="s">
         <v>75</v>
-      </c>
-      <c r="AC25" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD25" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE25" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF25" s="56" t="s">
-        <v>81</v>
       </c>
       <c r="AG25" s="1"/>
       <c r="AH25" s="19" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AI25" s="19" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="AJ25" s="19" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="AK25" s="19" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="AL25" s="19"/>
       <c r="AM25" s="58" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="AN25" s="55"/>
       <c r="AO25" s="13">
         <v>0.01</v>
       </c>
       <c r="AQ25" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="AR25" s="41" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="AS25" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="AT25" s="41" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="AU25" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="AW25" t="s">
         <v>8</v>
@@ -7110,13 +7108,13 @@
         <v>10</v>
       </c>
       <c r="AZ25" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA25" t="s">
         <v>11</v>
       </c>
       <c r="BB25" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD25">
         <v>250</v>
@@ -7132,7 +7130,7 @@
         <v>41233</v>
       </c>
       <c r="BM25" s="62" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="BN25" s="63">
         <v>32.463700000000003</v>
@@ -7141,30 +7139,35 @@
         <v>34.879339999999999</v>
       </c>
       <c r="BP25" s="41" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="BQ25" s="64" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="BR25" s="60"/>
       <c r="BW25">
         <v>5.5</v>
       </c>
       <c r="BX25" s="66" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="BY25" s="66">
         <v>338.21</v>
       </c>
-      <c r="BZ25"/>
-      <c r="CA25"/>
-      <c r="CB25"/>
-      <c r="CC25"/>
-      <c r="CD25"/>
-      <c r="CE25"/>
-      <c r="CF25"/>
+      <c r="BZ25">
+        <v>39.4</v>
+      </c>
+      <c r="CA25">
+        <v>23.09</v>
+      </c>
+      <c r="CB25">
+        <v>197.125</v>
+      </c>
+      <c r="CC25">
+        <v>100.05</v>
+      </c>
     </row>
-    <row r="26" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -7173,31 +7176,31 @@
         <v>24</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G26" s="29" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H26" s="29" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="I26" s="30" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="K26" s="29" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="L26" s="29" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="M26" s="29" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="N26" s="29"/>
       <c r="O26" s="36"/>
@@ -7205,75 +7208,75 @@
       <c r="Q26" s="53"/>
       <c r="R26" s="19"/>
       <c r="T26" s="16" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="U26" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="V26" s="1"/>
       <c r="W26" s="16" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="X26" s="16" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="Y26" s="32">
         <v>8</v>
       </c>
       <c r="Z26" s="1"/>
       <c r="AA26" s="32" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB26" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC26" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD26" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE26" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF26" s="56" t="s">
         <v>75</v>
-      </c>
-      <c r="AC26" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD26" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE26" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF26" s="56" t="s">
-        <v>81</v>
       </c>
       <c r="AG26" s="1"/>
       <c r="AH26" s="19" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="AI26" s="19" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="AJ26" s="19" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="AK26" s="19" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="AL26" s="19"/>
       <c r="AM26" s="58" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="AN26" s="55"/>
       <c r="AO26" s="13">
         <v>0.01</v>
       </c>
       <c r="AQ26" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="AR26" s="41" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="AS26" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="AT26" s="41" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="AU26" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="AW26" t="s">
         <v>8</v>
@@ -7285,13 +7288,13 @@
         <v>10</v>
       </c>
       <c r="AZ26" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA26" t="s">
         <v>11</v>
       </c>
       <c r="BB26" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD26">
         <v>250</v>
@@ -7307,7 +7310,7 @@
         <v>41233</v>
       </c>
       <c r="BM26" s="62" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="BN26" s="63">
         <v>32.463700000000003</v>
@@ -7316,30 +7319,35 @@
         <v>34.879339999999999</v>
       </c>
       <c r="BP26" s="41" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="BQ26" s="64" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="BR26" s="60"/>
       <c r="BW26">
         <v>5.5</v>
       </c>
       <c r="BX26" s="66" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="BY26" s="66">
         <v>338.21</v>
       </c>
-      <c r="BZ26"/>
-      <c r="CA26"/>
-      <c r="CB26"/>
-      <c r="CC26"/>
-      <c r="CD26"/>
-      <c r="CE26"/>
-      <c r="CF26"/>
+      <c r="BZ26">
+        <v>39.4</v>
+      </c>
+      <c r="CA26">
+        <v>23.09</v>
+      </c>
+      <c r="CB26">
+        <v>197.125</v>
+      </c>
+      <c r="CC26">
+        <v>100.05</v>
+      </c>
     </row>
-    <row r="27" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -7348,31 +7356,31 @@
         <v>25</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G27" s="29" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H27" s="29" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="I27" s="30" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="K27" s="29" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="L27" s="29" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="M27" s="29" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="N27" s="29"/>
       <c r="O27" s="36"/>
@@ -7380,75 +7388,75 @@
       <c r="Q27" s="53"/>
       <c r="R27" s="19"/>
       <c r="T27" s="16" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="U27" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="V27" s="1"/>
       <c r="W27" s="16" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="X27" s="16" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="Y27" s="32">
         <v>9</v>
       </c>
       <c r="Z27" s="1"/>
       <c r="AA27" s="32" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB27" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC27" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD27" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE27" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF27" s="56" t="s">
         <v>75</v>
-      </c>
-      <c r="AC27" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD27" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE27" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF27" s="56" t="s">
-        <v>81</v>
       </c>
       <c r="AG27" s="1"/>
       <c r="AH27" s="19" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="AI27" s="19" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="AJ27" s="19" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="AK27" s="19" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="AL27" s="19"/>
       <c r="AM27" s="58" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="AN27" s="55"/>
       <c r="AO27" s="13">
         <v>0.01</v>
       </c>
       <c r="AQ27" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="AR27" s="41" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="AS27" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="AT27" s="41" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="AU27" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="AW27" t="s">
         <v>8</v>
@@ -7460,13 +7468,13 @@
         <v>10</v>
       </c>
       <c r="AZ27" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA27" t="s">
         <v>11</v>
       </c>
       <c r="BB27" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD27">
         <v>250</v>
@@ -7482,7 +7490,7 @@
         <v>41233</v>
       </c>
       <c r="BM27" s="62" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="BN27" s="63">
         <v>32.42868</v>
@@ -7491,30 +7499,35 @@
         <v>34.870280000000001</v>
       </c>
       <c r="BP27" s="41" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="BQ27" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="BR27" s="59"/>
       <c r="BW27">
         <v>6.5</v>
       </c>
       <c r="BX27" s="66" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="BY27" s="66">
         <v>4192.68</v>
       </c>
-      <c r="BZ27"/>
-      <c r="CA27"/>
-      <c r="CB27"/>
-      <c r="CC27"/>
-      <c r="CD27"/>
-      <c r="CE27"/>
-      <c r="CF27"/>
+      <c r="BZ27">
+        <v>39.5</v>
+      </c>
+      <c r="CA27">
+        <v>22.5</v>
+      </c>
+      <c r="CB27">
+        <v>201.655</v>
+      </c>
+      <c r="CC27">
+        <v>98.32</v>
+      </c>
     </row>
-    <row r="28" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -7523,31 +7536,31 @@
         <v>26</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G28" s="29" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H28" s="29" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="I28" s="30" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="K28" s="29" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="L28" s="29" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="M28" s="29" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="N28" s="29"/>
       <c r="O28" s="36"/>
@@ -7555,75 +7568,75 @@
       <c r="Q28" s="53"/>
       <c r="R28" s="19"/>
       <c r="T28" s="16" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="U28" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="V28" s="1"/>
       <c r="W28" s="16" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="X28" s="16" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="Y28" s="32">
         <v>9</v>
       </c>
       <c r="Z28" s="1"/>
       <c r="AA28" s="32" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB28" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC28" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD28" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE28" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF28" s="56" t="s">
         <v>75</v>
-      </c>
-      <c r="AC28" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD28" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE28" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF28" s="56" t="s">
-        <v>81</v>
       </c>
       <c r="AG28" s="1"/>
       <c r="AH28" s="19" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="AI28" s="19" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="AJ28" s="19" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="AK28" s="19" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="AL28" s="19"/>
       <c r="AM28" s="58" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="AN28" s="55"/>
       <c r="AO28" s="13">
         <v>0.01</v>
       </c>
       <c r="AQ28" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="AR28" s="41" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="AS28" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="AT28" s="41" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="AU28" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="AW28" t="s">
         <v>8</v>
@@ -7635,13 +7648,13 @@
         <v>10</v>
       </c>
       <c r="AZ28" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA28" t="s">
         <v>11</v>
       </c>
       <c r="BB28" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD28">
         <v>250</v>
@@ -7657,7 +7670,7 @@
         <v>41233</v>
       </c>
       <c r="BM28" s="62" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="BN28" s="63">
         <v>32.42868</v>
@@ -7666,30 +7679,35 @@
         <v>34.870280000000001</v>
       </c>
       <c r="BP28" s="41" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="BQ28" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="BR28" s="59"/>
       <c r="BW28">
         <v>6.5</v>
       </c>
       <c r="BX28" s="66" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="BY28" s="66">
         <v>4192.68</v>
       </c>
-      <c r="BZ28"/>
-      <c r="CA28"/>
-      <c r="CB28"/>
-      <c r="CC28"/>
-      <c r="CD28"/>
-      <c r="CE28"/>
-      <c r="CF28"/>
+      <c r="BZ28">
+        <v>39.5</v>
+      </c>
+      <c r="CA28">
+        <v>22.5</v>
+      </c>
+      <c r="CB28">
+        <v>201.655</v>
+      </c>
+      <c r="CC28">
+        <v>98.32</v>
+      </c>
     </row>
-    <row r="29" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -7698,31 +7716,31 @@
         <v>27</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G29" s="29" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H29" s="29" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="I29" s="30" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="K29" s="29" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="L29" s="29" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="M29" s="29" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="N29" s="29"/>
       <c r="O29" s="36"/>
@@ -7730,75 +7748,75 @@
       <c r="Q29" s="53"/>
       <c r="R29" s="19"/>
       <c r="T29" s="16" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="U29" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="V29" s="1"/>
       <c r="W29" s="16" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="X29" s="16" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="Y29" s="32">
         <v>9</v>
       </c>
       <c r="Z29" s="1"/>
       <c r="AA29" s="32" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB29" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC29" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD29" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE29" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF29" s="56" t="s">
         <v>75</v>
-      </c>
-      <c r="AC29" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD29" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE29" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF29" s="56" t="s">
-        <v>81</v>
       </c>
       <c r="AG29" s="1"/>
       <c r="AH29" s="19" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="AI29" s="19" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="AJ29" s="19" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="AK29" s="19" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="AL29" s="19"/>
       <c r="AM29" s="58" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="AN29" s="55"/>
       <c r="AO29" s="13">
         <v>0.01</v>
       </c>
       <c r="AQ29" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="AR29" s="41" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="AS29" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="AT29" s="41" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="AU29" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="AW29" t="s">
         <v>8</v>
@@ -7810,13 +7828,13 @@
         <v>10</v>
       </c>
       <c r="AZ29" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BA29" t="s">
         <v>11</v>
       </c>
       <c r="BB29" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BD29">
         <v>250</v>
@@ -7832,7 +7850,7 @@
         <v>41233</v>
       </c>
       <c r="BM29" s="62" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="BN29" s="63">
         <v>32.42868</v>
@@ -7841,36 +7859,41 @@
         <v>34.870280000000001</v>
       </c>
       <c r="BP29" s="41" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="BQ29" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="BR29" s="59"/>
       <c r="BW29">
         <v>6.5</v>
       </c>
       <c r="BX29" s="66" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="BY29" s="66">
         <v>4192.68</v>
       </c>
-      <c r="BZ29"/>
-      <c r="CA29"/>
-      <c r="CB29"/>
-      <c r="CC29"/>
-      <c r="CD29"/>
-      <c r="CE29"/>
-      <c r="CF29"/>
+      <c r="BZ29">
+        <v>39.5</v>
+      </c>
+      <c r="CA29">
+        <v>22.5</v>
+      </c>
+      <c r="CB29">
+        <v>201.655</v>
+      </c>
+      <c r="CC29">
+        <v>98.32</v>
+      </c>
     </row>
-    <row r="30" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:81" x14ac:dyDescent="0.2">
       <c r="AO30" s="13"/>
     </row>
-    <row r="31" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:81" x14ac:dyDescent="0.2">
       <c r="AO31" s="13"/>
     </row>
-    <row r="32" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:81" x14ac:dyDescent="0.2">
       <c r="AO32" s="13"/>
     </row>
     <row r="33" spans="41:41" x14ac:dyDescent="0.2">
@@ -7932,9 +7955,19 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" topLeftCell="BD1">
-      <pane ySplit="2" topLeftCell="A273" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BG334" sqref="BG334"/>
+    <customSheetView guid="{06B92370-743D-804F-912C-658BE37B1274}" topLeftCell="X1">
+      <pane ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="AD344" sqref="AD344"/>
+      <rowBreaks count="2" manualBreakCount="2">
+        <brk id="1" max="16383" man="1"/>
+        <brk id="325" max="16383" man="1"/>
+      </rowBreaks>
+      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+    </customSheetView>
+    <customSheetView guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" topLeftCell="AP1">
+      <pane ySplit="2.03125" topLeftCell="A342" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BA367" sqref="BA367"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="1" max="16383" man="1"/>
         <brk id="325" max="16383" man="1"/>
@@ -7952,24 +7985,14 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" topLeftCell="AP1">
-      <pane ySplit="2.03125" topLeftCell="A342" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BA367" sqref="BA367"/>
+    <customSheetView guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" topLeftCell="BD1">
+      <pane ySplit="2" topLeftCell="A273" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BG334" sqref="BG334"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="1" max="16383" man="1"/>
         <brk id="325" max="16383" man="1"/>
       </rowBreaks>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-    </customSheetView>
-    <customSheetView guid="{06B92370-743D-804F-912C-658BE37B1274}" topLeftCell="X1">
-      <pane ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="AD344" sqref="AD344"/>
-      <rowBreaks count="2" manualBreakCount="2">
-        <brk id="1" max="16383" man="1"/>
-        <brk id="325" max="16383" man="1"/>
-      </rowBreaks>
-      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
   </customSheetViews>

--- a/metadata/excel/projects/sinclair/testproj/metadata.xlsx
+++ b/metadata/excel/projects/sinclair/testproj/metadata.xlsx
@@ -9,17 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12040" yWindow="5160" windowWidth="35600" windowHeight="22440" tabRatio="500"/>
+    <workbookView xWindow="12040" yWindow="5160" windowWidth="36620" windowHeight="22320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="micans_v6_ex1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Microsoft Office User - Personal View" guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Me - Personal View" guid="{22DA4066-82A0-D143-AA10-416CFBE3149D}" mergeInterval="0" personalView="1" xWindow="46" yWindow="23" windowWidth="1436" windowHeight="854" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
+    <customWorkbookView name="Kemal - Personal View" guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" mergeInterval="0" personalView="1" xWindow="184" yWindow="84" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
     <customWorkbookView name="LS - Personal View" guid="{06B92370-743D-804F-912C-658BE37B1274}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Kemal - Personal View" guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" mergeInterval="0" personalView="1" xWindow="184" yWindow="84" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Me - Personal View" guid="{22DA4066-82A0-D143-AA10-416CFBE3149D}" mergeInterval="0" personalView="1" xWindow="46" yWindow="23" windowWidth="1436" windowHeight="854" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
-    <customWorkbookView name="Microsoft Office User - Personal View" guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="389">
   <si>
     <t>Country</t>
   </si>
@@ -1147,6 +1147,84 @@
   </si>
   <si>
     <t>Luminescent Dissolved Oxygen [% Sat]</t>
+  </si>
+  <si>
+    <t>Label (less than 10 characters)</t>
+  </si>
+  <si>
+    <t>AS prox 1</t>
+  </si>
+  <si>
+    <t>AS prox 2</t>
+  </si>
+  <si>
+    <t>AS prox 3</t>
+  </si>
+  <si>
+    <t>AS mid 1</t>
+  </si>
+  <si>
+    <t>AS mid 2</t>
+  </si>
+  <si>
+    <t>AS mid 3</t>
+  </si>
+  <si>
+    <t>AS dist 1</t>
+  </si>
+  <si>
+    <t>SO prox 1</t>
+  </si>
+  <si>
+    <t>SO prox 2</t>
+  </si>
+  <si>
+    <t>SO prox 3</t>
+  </si>
+  <si>
+    <t>SO mid 1</t>
+  </si>
+  <si>
+    <t>SO mid 2</t>
+  </si>
+  <si>
+    <t>SO mid 3</t>
+  </si>
+  <si>
+    <t>SO dist 1</t>
+  </si>
+  <si>
+    <t>SO dist 2</t>
+  </si>
+  <si>
+    <t>SO dist 3</t>
+  </si>
+  <si>
+    <t>HA prox 1</t>
+  </si>
+  <si>
+    <t>HA prox 2</t>
+  </si>
+  <si>
+    <t>HA prox 3</t>
+  </si>
+  <si>
+    <t>HA mid 1</t>
+  </si>
+  <si>
+    <t>HA mid 2</t>
+  </si>
+  <si>
+    <t>HA mid 3</t>
+  </si>
+  <si>
+    <t>HA dist 1</t>
+  </si>
+  <si>
+    <t>HA dist 2</t>
+  </si>
+  <si>
+    <t>HA dist 3</t>
   </si>
 </sst>
 </file>
@@ -1812,13 +1890,13 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2505,12 +2583,12 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:CD51"/>
+  <dimension ref="A1:CE51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BQ1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="X1" sqref="X1"/>
-      <selection pane="bottomLeft" activeCell="CD1" sqref="CD1:CD1048576"/>
+      <selection pane="bottomLeft" activeCell="AD45" sqref="AD44:AD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2538,63 +2616,64 @@
     <col min="23" max="23" width="13.83203125" style="16" customWidth="1"/>
     <col min="24" max="24" width="13.1640625" style="16" customWidth="1"/>
     <col min="25" max="25" width="13.5" style="32" customWidth="1"/>
-    <col min="26" max="26" width="9.83203125" customWidth="1"/>
-    <col min="27" max="27" width="25.5" style="32" customWidth="1"/>
-    <col min="28" max="28" width="20.1640625" style="16" customWidth="1"/>
-    <col min="29" max="29" width="22" style="19" customWidth="1"/>
-    <col min="30" max="30" width="17.83203125" style="32" customWidth="1"/>
-    <col min="31" max="31" width="21.5" style="16" customWidth="1"/>
-    <col min="32" max="32" width="27.6640625" style="20" customWidth="1"/>
-    <col min="33" max="33" width="9.83203125" customWidth="1"/>
-    <col min="34" max="34" width="11" customWidth="1"/>
-    <col min="35" max="35" width="13.5" style="2" customWidth="1"/>
-    <col min="36" max="36" width="9.1640625" customWidth="1"/>
-    <col min="37" max="37" width="14.33203125" style="2" customWidth="1"/>
-    <col min="38" max="38" width="15.83203125" style="2" customWidth="1"/>
-    <col min="39" max="39" width="8.5" customWidth="1"/>
-    <col min="40" max="40" width="10.33203125" style="15" customWidth="1"/>
-    <col min="41" max="41" width="10.33203125" customWidth="1"/>
-    <col min="42" max="42" width="11.5" customWidth="1"/>
-    <col min="43" max="43" width="28.33203125" customWidth="1"/>
-    <col min="44" max="44" width="12.1640625" style="41" customWidth="1"/>
-    <col min="45" max="45" width="32.83203125" style="1" customWidth="1"/>
-    <col min="46" max="46" width="12.83203125" style="41" customWidth="1"/>
-    <col min="47" max="47" width="35.6640625" style="1" customWidth="1"/>
-    <col min="48" max="48" width="10.1640625" customWidth="1"/>
-    <col min="49" max="49" width="12.5" customWidth="1"/>
-    <col min="50" max="50" width="15" customWidth="1"/>
-    <col min="51" max="51" width="10.83203125" customWidth="1"/>
-    <col min="52" max="52" width="14" customWidth="1"/>
-    <col min="53" max="53" width="13.1640625" customWidth="1"/>
-    <col min="54" max="54" width="15.6640625" customWidth="1"/>
-    <col min="55" max="55" width="11.6640625" customWidth="1"/>
-    <col min="56" max="56" width="12.1640625" customWidth="1"/>
-    <col min="57" max="57" width="13" customWidth="1"/>
-    <col min="58" max="58" width="10.1640625" customWidth="1"/>
-    <col min="59" max="61" width="19.83203125" customWidth="1"/>
-    <col min="62" max="62" width="20.83203125" customWidth="1"/>
-    <col min="63" max="63" width="8.6640625" customWidth="1"/>
-    <col min="64" max="65" width="15.5" customWidth="1"/>
-    <col min="66" max="66" width="13.6640625" style="11" customWidth="1"/>
-    <col min="67" max="67" width="13.1640625" style="11" customWidth="1"/>
-    <col min="68" max="68" width="12.5" style="16" customWidth="1"/>
-    <col min="69" max="69" width="26" style="16" customWidth="1"/>
-    <col min="70" max="70" width="31.33203125" style="16" customWidth="1"/>
-    <col min="71" max="71" width="9" customWidth="1"/>
-    <col min="72" max="72" width="16.5" customWidth="1"/>
-    <col min="73" max="73" width="16" customWidth="1"/>
-    <col min="74" max="74" width="9.5" customWidth="1"/>
-    <col min="75" max="75" width="11" style="22" customWidth="1"/>
-    <col min="76" max="76" width="11" style="69" customWidth="1"/>
-    <col min="77" max="77" width="13" style="69" customWidth="1"/>
-    <col min="78" max="78" width="11.6640625" style="22" customWidth="1"/>
-    <col min="79" max="79" width="12.6640625" style="22" customWidth="1"/>
-    <col min="80" max="80" width="13.5" style="22" customWidth="1"/>
-    <col min="81" max="81" width="20.83203125" style="22" customWidth="1"/>
-    <col min="82" max="82" width="9.6640625" customWidth="1"/>
+    <col min="26" max="26" width="14.83203125" style="32" customWidth="1"/>
+    <col min="27" max="27" width="9.83203125" customWidth="1"/>
+    <col min="28" max="28" width="25.5" style="32" customWidth="1"/>
+    <col min="29" max="29" width="20.1640625" style="16" customWidth="1"/>
+    <col min="30" max="30" width="22" style="19" customWidth="1"/>
+    <col min="31" max="31" width="17.83203125" style="32" customWidth="1"/>
+    <col min="32" max="32" width="21.5" style="16" customWidth="1"/>
+    <col min="33" max="33" width="27.6640625" style="20" customWidth="1"/>
+    <col min="34" max="34" width="9.83203125" customWidth="1"/>
+    <col min="35" max="35" width="11" customWidth="1"/>
+    <col min="36" max="36" width="13.5" style="2" customWidth="1"/>
+    <col min="37" max="37" width="9.1640625" customWidth="1"/>
+    <col min="38" max="38" width="14.33203125" style="2" customWidth="1"/>
+    <col min="39" max="39" width="15.83203125" style="2" customWidth="1"/>
+    <col min="40" max="40" width="8.5" customWidth="1"/>
+    <col min="41" max="41" width="10.33203125" style="15" customWidth="1"/>
+    <col min="42" max="42" width="10.33203125" customWidth="1"/>
+    <col min="43" max="43" width="11.5" customWidth="1"/>
+    <col min="44" max="44" width="28.33203125" customWidth="1"/>
+    <col min="45" max="45" width="12.1640625" style="41" customWidth="1"/>
+    <col min="46" max="46" width="32.83203125" style="1" customWidth="1"/>
+    <col min="47" max="47" width="12.83203125" style="41" customWidth="1"/>
+    <col min="48" max="48" width="35.6640625" style="1" customWidth="1"/>
+    <col min="49" max="49" width="10.1640625" customWidth="1"/>
+    <col min="50" max="50" width="12.5" customWidth="1"/>
+    <col min="51" max="51" width="15" customWidth="1"/>
+    <col min="52" max="52" width="10.83203125" customWidth="1"/>
+    <col min="53" max="53" width="14" customWidth="1"/>
+    <col min="54" max="54" width="13.1640625" customWidth="1"/>
+    <col min="55" max="55" width="15.6640625" customWidth="1"/>
+    <col min="56" max="56" width="11.6640625" customWidth="1"/>
+    <col min="57" max="57" width="12.1640625" customWidth="1"/>
+    <col min="58" max="58" width="13" customWidth="1"/>
+    <col min="59" max="59" width="10.1640625" customWidth="1"/>
+    <col min="60" max="62" width="19.83203125" customWidth="1"/>
+    <col min="63" max="63" width="20.83203125" customWidth="1"/>
+    <col min="64" max="64" width="8.6640625" customWidth="1"/>
+    <col min="65" max="66" width="15.5" customWidth="1"/>
+    <col min="67" max="67" width="13.6640625" style="11" customWidth="1"/>
+    <col min="68" max="68" width="13.1640625" style="11" customWidth="1"/>
+    <col min="69" max="69" width="12.5" style="16" customWidth="1"/>
+    <col min="70" max="70" width="26" style="16" customWidth="1"/>
+    <col min="71" max="71" width="31.33203125" style="16" customWidth="1"/>
+    <col min="72" max="72" width="9" customWidth="1"/>
+    <col min="73" max="73" width="16.5" customWidth="1"/>
+    <col min="74" max="74" width="16" customWidth="1"/>
+    <col min="75" max="75" width="9.5" customWidth="1"/>
+    <col min="76" max="76" width="11" style="22" customWidth="1"/>
+    <col min="77" max="77" width="11" style="68" customWidth="1"/>
+    <col min="78" max="78" width="13" style="68" customWidth="1"/>
+    <col min="79" max="79" width="11.6640625" style="22" customWidth="1"/>
+    <col min="80" max="80" width="12.6640625" style="22" customWidth="1"/>
+    <col min="81" max="81" width="13.5" style="22" customWidth="1"/>
+    <col min="82" max="82" width="20.83203125" style="22" customWidth="1"/>
+    <col min="83" max="83" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>46</v>
       </c>
@@ -2618,26 +2697,26 @@
       <c r="W1" s="17"/>
       <c r="X1" s="17"/>
       <c r="Y1" s="33"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="3"/>
-      <c r="AH1" s="3"/>
-      <c r="AI1" s="5"/>
-      <c r="AJ1" s="3"/>
-      <c r="AK1" s="5"/>
+      <c r="Z1" s="33"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="5"/>
+      <c r="AK1" s="3"/>
       <c r="AL1" s="5"/>
-      <c r="AM1" s="3"/>
-      <c r="AN1" s="14"/>
-      <c r="AO1" s="3"/>
-      <c r="AQ1" s="8"/>
-      <c r="AR1" s="25"/>
-      <c r="AS1" s="9"/>
-      <c r="AT1" s="25"/>
-      <c r="AU1" s="7"/>
-      <c r="AW1" s="3"/>
+      <c r="AM1" s="5"/>
+      <c r="AN1" s="3"/>
+      <c r="AO1" s="14"/>
+      <c r="AP1" s="3"/>
+      <c r="AR1" s="8"/>
+      <c r="AS1" s="25"/>
+      <c r="AT1" s="9"/>
+      <c r="AU1" s="25"/>
+      <c r="AV1" s="7"/>
       <c r="AX1" s="3"/>
       <c r="AY1" s="3"/>
       <c r="AZ1" s="3"/>
@@ -2645,37 +2724,38 @@
       <c r="BB1" s="3"/>
       <c r="BC1" s="3"/>
       <c r="BD1" s="3"/>
-      <c r="BE1" s="10"/>
-      <c r="BG1" s="67" t="s">
+      <c r="BE1" s="3"/>
+      <c r="BF1" s="10"/>
+      <c r="BH1" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="BH1" s="67"/>
-      <c r="BI1" s="67"/>
-      <c r="BJ1" s="67"/>
-      <c r="BL1" s="67" t="s">
+      <c r="BI1" s="69"/>
+      <c r="BJ1" s="69"/>
+      <c r="BK1" s="69"/>
+      <c r="BM1" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="BM1" s="67"/>
-      <c r="BN1" s="67"/>
-      <c r="BO1" s="67"/>
-      <c r="BP1" s="67"/>
-      <c r="BQ1" s="67"/>
-      <c r="BR1" s="67"/>
-      <c r="BT1" s="67" t="s">
+      <c r="BN1" s="69"/>
+      <c r="BO1" s="69"/>
+      <c r="BP1" s="69"/>
+      <c r="BQ1" s="69"/>
+      <c r="BR1" s="69"/>
+      <c r="BS1" s="69"/>
+      <c r="BU1" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="BU1" s="67"/>
-      <c r="BW1" s="8" t="s">
+      <c r="BV1" s="69"/>
+      <c r="BX1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="BX1" s="68"/>
-      <c r="BY1" s="68"/>
-      <c r="BZ1" s="21"/>
+      <c r="BY1" s="67"/>
+      <c r="BZ1" s="67"/>
       <c r="CA1" s="21"/>
       <c r="CB1" s="21"/>
       <c r="CC1" s="21"/>
+      <c r="CD1" s="21"/>
     </row>
-    <row r="2" spans="1:82" s="52" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:83" s="52" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="42" t="s">
         <v>46</v>
       </c>
@@ -2743,163 +2823,166 @@
       <c r="Y2" s="42" t="s">
         <v>330</v>
       </c>
-      <c r="Z2" s="44"/>
-      <c r="AA2" s="42" t="s">
+      <c r="Z2" s="42" t="s">
+        <v>363</v>
+      </c>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="AB2" s="42" t="s">
+      <c r="AC2" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="AC2" s="42" t="s">
+      <c r="AD2" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AD2" s="42" t="s">
+      <c r="AE2" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="AE2" s="42" t="s">
+      <c r="AF2" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="AF2" s="42" t="s">
+      <c r="AG2" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="AG2" s="44"/>
-      <c r="AH2" s="42" t="s">
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="AI2" s="42" t="s">
+      <c r="AJ2" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="AJ2" s="42" t="s">
+      <c r="AK2" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="AK2" s="42" t="s">
+      <c r="AL2" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="AL2" s="42" t="s">
+      <c r="AM2" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="AM2" s="42" t="s">
+      <c r="AN2" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="AN2" s="46" t="s">
+      <c r="AO2" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="AO2" s="42" t="s">
+      <c r="AP2" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="AP2" s="44"/>
-      <c r="AQ2" s="42" t="s">
+      <c r="AQ2" s="44"/>
+      <c r="AR2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="AR2" s="42" t="s">
+      <c r="AS2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="AS2" s="42" t="s">
+      <c r="AT2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="AT2" s="42" t="s">
+      <c r="AU2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="AU2" s="42" t="s">
+      <c r="AV2" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="AV2" s="47"/>
-      <c r="AW2" s="42" t="s">
+      <c r="AW2" s="47"/>
+      <c r="AX2" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="AX2" s="42" t="s">
+      <c r="AY2" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="AY2" s="42" t="s">
+      <c r="AZ2" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="AZ2" s="42" t="s">
+      <c r="BA2" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="BA2" s="42" t="s">
+      <c r="BB2" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="BB2" s="42" t="s">
+      <c r="BC2" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="BC2" s="42" t="s">
+      <c r="BD2" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="BD2" s="42" t="s">
+      <c r="BE2" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="BE2" s="42" t="s">
+      <c r="BF2" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="BF2" s="47"/>
-      <c r="BG2" s="48" t="s">
+      <c r="BG2" s="47"/>
+      <c r="BH2" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="BH2" s="48" t="s">
+      <c r="BI2" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="BI2" s="48" t="s">
+      <c r="BJ2" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="BJ2" s="48" t="s">
+      <c r="BK2" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="BK2" s="47"/>
-      <c r="BL2" s="49" t="s">
+      <c r="BL2" s="47"/>
+      <c r="BM2" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="BM2" s="49" t="s">
+      <c r="BN2" s="49" t="s">
         <v>337</v>
       </c>
-      <c r="BN2" s="49" t="s">
+      <c r="BO2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="BO2" s="49" t="s">
+      <c r="BP2" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="BP2" s="49" t="s">
+      <c r="BQ2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="BQ2" s="49" t="s">
+      <c r="BR2" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="BR2" s="49" t="s">
+      <c r="BS2" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="BS2" s="47"/>
-      <c r="BT2" s="50" t="s">
+      <c r="BT2" s="47"/>
+      <c r="BU2" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="BU2" s="50" t="s">
+      <c r="BV2" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="BV2" s="47"/>
-      <c r="BW2" s="51" t="s">
+      <c r="BW2" s="47"/>
+      <c r="BX2" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="BX2" s="51" t="s">
+      <c r="BY2" s="51" t="s">
         <v>356</v>
       </c>
-      <c r="BY2" s="51" t="s">
+      <c r="BZ2" s="51" t="s">
         <v>359</v>
       </c>
-      <c r="BZ2" s="51" t="s">
+      <c r="CA2" s="51" t="s">
         <v>360</v>
       </c>
-      <c r="CA2" s="51" t="s">
+      <c r="CB2" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="CB2" s="51" t="s">
+      <c r="CC2" s="51" t="s">
         <v>361</v>
       </c>
-      <c r="CC2" s="51" t="s">
+      <c r="CD2" s="51" t="s">
         <v>362</v>
       </c>
-      <c r="CD2" s="47"/>
+      <c r="CE2" s="47"/>
     </row>
-    <row r="3" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
-        <f t="shared" ref="A3:A29" si="0">COUNTIF(D3,"&lt;&gt;"&amp;"")+COUNTIF(BR3,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" ref="A3:A29" si="0">COUNTIF(D3,"&lt;&gt;"&amp;"")+COUNTIF(BS3,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="B3" s="23">
@@ -2958,136 +3041,139 @@
       <c r="Y3" s="32">
         <v>1</v>
       </c>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="32" t="s">
+      <c r="Z3" s="32" t="s">
+        <v>364</v>
+      </c>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="AB3" s="16" t="s">
+      <c r="AC3" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC3" s="56" t="s">
+      <c r="AD3" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD3" s="32" t="s">
+      <c r="AE3" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="AE3" s="16" t="s">
+      <c r="AF3" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF3" s="56" t="s">
+      <c r="AG3" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG3" s="1" t="s">
+      <c r="AH3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AH3" s="19" t="s">
+      <c r="AI3" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="AI3" s="19" t="s">
+      <c r="AJ3" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="AJ3" s="19" t="s">
+      <c r="AK3" s="19" t="s">
         <v>301</v>
       </c>
-      <c r="AK3" s="19" t="s">
+      <c r="AL3" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="AL3" s="19"/>
-      <c r="AM3" s="58" t="s">
+      <c r="AM3" s="19"/>
+      <c r="AN3" s="58" t="s">
         <v>184</v>
       </c>
-      <c r="AN3" s="55"/>
-      <c r="AO3" s="13">
+      <c r="AO3" s="55"/>
+      <c r="AP3" s="13">
         <v>0.01</v>
       </c>
-      <c r="AQ3" t="s">
+      <c r="AR3" t="s">
         <v>243</v>
       </c>
-      <c r="AR3" s="41" t="s">
+      <c r="AS3" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="AS3" s="1" t="s">
+      <c r="AT3" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="AT3" s="41" t="s">
+      <c r="AU3" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="AU3" s="1" t="s">
+      <c r="AV3" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="AV3" t="s">
+      <c r="AW3" t="s">
         <v>46</v>
       </c>
-      <c r="AW3" t="s">
+      <c r="AX3" t="s">
         <v>8</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="AY3" t="s">
         <v>9</v>
       </c>
-      <c r="AY3" t="s">
+      <c r="AZ3" t="s">
         <v>10</v>
       </c>
-      <c r="AZ3" t="s">
+      <c r="BA3" t="s">
         <v>64</v>
       </c>
-      <c r="BA3" t="s">
+      <c r="BB3" t="s">
         <v>11</v>
       </c>
-      <c r="BB3" t="s">
+      <c r="BC3" t="s">
         <v>70</v>
-      </c>
-      <c r="BD3">
-        <v>250</v>
       </c>
       <c r="BE3">
         <v>250</v>
       </c>
-      <c r="BG3" s="57"/>
+      <c r="BF3">
+        <v>250</v>
+      </c>
       <c r="BH3" s="57"/>
       <c r="BI3" s="57"/>
       <c r="BJ3" s="57"/>
-      <c r="BL3" s="61">
+      <c r="BK3" s="57"/>
+      <c r="BM3" s="61">
         <v>41226</v>
       </c>
-      <c r="BM3" s="62" t="s">
+      <c r="BN3" s="62" t="s">
         <v>338</v>
       </c>
-      <c r="BN3" s="63">
+      <c r="BO3" s="63">
         <v>31.63212</v>
       </c>
-      <c r="BO3" s="63">
+      <c r="BP3" s="63">
         <v>34.5167</v>
       </c>
-      <c r="BP3" s="41" t="s">
+      <c r="BQ3" s="41" t="s">
         <v>339</v>
       </c>
-      <c r="BQ3" t="s">
+      <c r="BR3" t="s">
         <v>340</v>
       </c>
-      <c r="BR3" s="59"/>
-      <c r="BW3">
+      <c r="BS3" s="59"/>
+      <c r="BX3">
         <v>1.5</v>
       </c>
-      <c r="BX3" s="41" t="s">
+      <c r="BY3" s="41" t="s">
         <v>357</v>
       </c>
-      <c r="BY3" s="41">
+      <c r="BZ3" s="41">
         <v>0</v>
       </c>
-      <c r="BZ3">
+      <c r="CA3">
         <v>42.3</v>
       </c>
-      <c r="CA3">
+      <c r="CB3">
         <v>31.81</v>
       </c>
-      <c r="CB3">
+      <c r="CC3">
         <v>584.20399999999995</v>
       </c>
-      <c r="CC3">
+      <c r="CD3">
         <v>114.9</v>
       </c>
     </row>
-    <row r="4" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3148,136 +3234,139 @@
       <c r="Y4" s="32">
         <v>1</v>
       </c>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="32" t="s">
+      <c r="Z4" s="32" t="s">
+        <v>365</v>
+      </c>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="AB4" s="16" t="s">
+      <c r="AC4" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC4" s="56" t="s">
+      <c r="AD4" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD4" s="32" t="s">
+      <c r="AE4" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="AE4" s="16" t="s">
+      <c r="AF4" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF4" s="56" t="s">
+      <c r="AG4" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG4" s="1" t="s">
+      <c r="AH4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AH4" s="19" t="s">
+      <c r="AI4" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="AI4" s="19" t="s">
+      <c r="AJ4" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="AJ4" s="19" t="s">
+      <c r="AK4" s="19" t="s">
         <v>302</v>
       </c>
-      <c r="AK4" s="19" t="s">
+      <c r="AL4" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="AL4" s="19"/>
-      <c r="AM4" s="58" t="s">
+      <c r="AM4" s="19"/>
+      <c r="AN4" s="58" t="s">
         <v>185</v>
       </c>
-      <c r="AN4" s="55"/>
-      <c r="AO4" s="13">
+      <c r="AO4" s="55"/>
+      <c r="AP4" s="13">
         <v>0.01</v>
       </c>
-      <c r="AQ4" t="s">
+      <c r="AR4" t="s">
         <v>243</v>
       </c>
-      <c r="AR4" s="41" t="s">
+      <c r="AS4" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="AS4" s="1" t="s">
+      <c r="AT4" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="AT4" s="41" t="s">
+      <c r="AU4" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="AU4" s="1" t="s">
+      <c r="AV4" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="AV4" t="s">
+      <c r="AW4" t="s">
         <v>46</v>
       </c>
-      <c r="AW4" t="s">
+      <c r="AX4" t="s">
         <v>8</v>
       </c>
-      <c r="AX4" t="s">
+      <c r="AY4" t="s">
         <v>9</v>
       </c>
-      <c r="AY4" t="s">
+      <c r="AZ4" t="s">
         <v>10</v>
       </c>
-      <c r="AZ4" t="s">
+      <c r="BA4" t="s">
         <v>64</v>
       </c>
-      <c r="BA4" t="s">
+      <c r="BB4" t="s">
         <v>11</v>
       </c>
-      <c r="BB4" t="s">
+      <c r="BC4" t="s">
         <v>70</v>
-      </c>
-      <c r="BD4">
-        <v>250</v>
       </c>
       <c r="BE4">
         <v>250</v>
       </c>
-      <c r="BG4" s="57"/>
+      <c r="BF4">
+        <v>250</v>
+      </c>
       <c r="BH4" s="57"/>
       <c r="BI4" s="57"/>
       <c r="BJ4" s="57"/>
-      <c r="BL4" s="61">
+      <c r="BK4" s="57"/>
+      <c r="BM4" s="61">
         <v>41226</v>
       </c>
-      <c r="BM4" s="62" t="s">
+      <c r="BN4" s="62" t="s">
         <v>338</v>
       </c>
-      <c r="BN4" s="63">
+      <c r="BO4" s="63">
         <v>31.63212</v>
       </c>
-      <c r="BO4" s="63">
+      <c r="BP4" s="63">
         <v>34.5167</v>
       </c>
-      <c r="BP4" s="41" t="s">
+      <c r="BQ4" s="41" t="s">
         <v>339</v>
       </c>
-      <c r="BQ4" t="s">
+      <c r="BR4" t="s">
         <v>340</v>
       </c>
-      <c r="BR4" s="59"/>
-      <c r="BW4">
+      <c r="BS4" s="59"/>
+      <c r="BX4">
         <v>1.5</v>
       </c>
-      <c r="BX4" s="41" t="s">
+      <c r="BY4" s="41" t="s">
         <v>357</v>
       </c>
-      <c r="BY4" s="41">
+      <c r="BZ4" s="41">
         <v>0</v>
       </c>
-      <c r="BZ4">
+      <c r="CA4">
         <v>42.3</v>
       </c>
-      <c r="CA4">
+      <c r="CB4">
         <v>31.81</v>
       </c>
-      <c r="CB4">
+      <c r="CC4">
         <v>584.20399999999995</v>
       </c>
-      <c r="CC4">
+      <c r="CD4">
         <v>114.9</v>
       </c>
     </row>
-    <row r="5" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3338,136 +3427,139 @@
       <c r="Y5" s="32">
         <v>1</v>
       </c>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="32" t="s">
+      <c r="Z5" s="32" t="s">
+        <v>366</v>
+      </c>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="AB5" s="16" t="s">
+      <c r="AC5" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC5" s="56" t="s">
+      <c r="AD5" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD5" s="32" t="s">
+      <c r="AE5" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="AE5" s="16" t="s">
+      <c r="AF5" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF5" s="56" t="s">
+      <c r="AG5" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG5" s="1" t="s">
+      <c r="AH5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AH5" s="19" t="s">
+      <c r="AI5" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="AI5" s="19" t="s">
+      <c r="AJ5" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="AJ5" s="19" t="s">
+      <c r="AK5" s="19" t="s">
         <v>303</v>
       </c>
-      <c r="AK5" s="19" t="s">
+      <c r="AL5" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="AL5" s="19"/>
-      <c r="AM5" s="58" t="s">
+      <c r="AM5" s="19"/>
+      <c r="AN5" s="58" t="s">
         <v>186</v>
       </c>
-      <c r="AN5"/>
-      <c r="AO5" s="13">
+      <c r="AO5"/>
+      <c r="AP5" s="13">
         <v>0.01</v>
       </c>
-      <c r="AQ5" t="s">
+      <c r="AR5" t="s">
         <v>243</v>
       </c>
-      <c r="AR5" s="41" t="s">
+      <c r="AS5" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="AS5" s="1" t="s">
+      <c r="AT5" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="AT5" s="41" t="s">
+      <c r="AU5" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="AU5" s="1" t="s">
+      <c r="AV5" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="AV5" t="s">
+      <c r="AW5" t="s">
         <v>46</v>
       </c>
-      <c r="AW5" t="s">
+      <c r="AX5" t="s">
         <v>8</v>
       </c>
-      <c r="AX5" t="s">
+      <c r="AY5" t="s">
         <v>9</v>
       </c>
-      <c r="AY5" t="s">
+      <c r="AZ5" t="s">
         <v>10</v>
       </c>
-      <c r="AZ5" t="s">
+      <c r="BA5" t="s">
         <v>64</v>
       </c>
-      <c r="BA5" t="s">
+      <c r="BB5" t="s">
         <v>11</v>
       </c>
-      <c r="BB5" t="s">
+      <c r="BC5" t="s">
         <v>70</v>
-      </c>
-      <c r="BD5">
-        <v>250</v>
       </c>
       <c r="BE5">
         <v>250</v>
       </c>
-      <c r="BG5" s="57"/>
+      <c r="BF5">
+        <v>250</v>
+      </c>
       <c r="BH5" s="57"/>
       <c r="BI5" s="57"/>
       <c r="BJ5" s="57"/>
-      <c r="BL5" s="61">
+      <c r="BK5" s="57"/>
+      <c r="BM5" s="61">
         <v>41226</v>
       </c>
-      <c r="BM5" s="62" t="s">
+      <c r="BN5" s="62" t="s">
         <v>338</v>
       </c>
-      <c r="BN5" s="63">
+      <c r="BO5" s="63">
         <v>31.63212</v>
       </c>
-      <c r="BO5" s="63">
+      <c r="BP5" s="63">
         <v>34.5167</v>
       </c>
-      <c r="BP5" s="41" t="s">
+      <c r="BQ5" s="41" t="s">
         <v>339</v>
       </c>
-      <c r="BQ5" t="s">
+      <c r="BR5" t="s">
         <v>340</v>
       </c>
-      <c r="BR5" s="59"/>
-      <c r="BW5">
+      <c r="BS5" s="59"/>
+      <c r="BX5">
         <v>1.5</v>
       </c>
-      <c r="BX5" s="41" t="s">
+      <c r="BY5" s="41" t="s">
         <v>357</v>
       </c>
-      <c r="BY5" s="41">
+      <c r="BZ5" s="41">
         <v>0</v>
       </c>
-      <c r="BZ5">
+      <c r="CA5">
         <v>42.3</v>
       </c>
-      <c r="CA5">
+      <c r="CB5">
         <v>31.81</v>
       </c>
-      <c r="CB5">
+      <c r="CC5">
         <v>584.20399999999995</v>
       </c>
-      <c r="CC5">
+      <c r="CD5">
         <v>114.9</v>
       </c>
     </row>
-    <row r="6" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3528,136 +3620,139 @@
       <c r="Y6" s="32">
         <v>2</v>
       </c>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="32" t="s">
+      <c r="Z6" s="32" t="s">
+        <v>367</v>
+      </c>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="AB6" s="16" t="s">
+      <c r="AC6" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC6" s="56" t="s">
+      <c r="AD6" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD6" s="32" t="s">
+      <c r="AE6" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="AE6" s="16" t="s">
+      <c r="AF6" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF6" s="56" t="s">
+      <c r="AG6" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG6" s="1" t="s">
+      <c r="AH6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AH6" s="19" t="s">
+      <c r="AI6" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="AI6" s="19" t="s">
+      <c r="AJ6" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="AJ6" s="19" t="s">
+      <c r="AK6" s="19" t="s">
         <v>304</v>
       </c>
-      <c r="AK6" s="19" t="s">
+      <c r="AL6" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="AL6" s="19"/>
-      <c r="AM6" s="58" t="s">
+      <c r="AM6" s="19"/>
+      <c r="AN6" s="58" t="s">
         <v>187</v>
       </c>
-      <c r="AN6" s="55"/>
-      <c r="AO6" s="13">
+      <c r="AO6" s="55"/>
+      <c r="AP6" s="13">
         <v>0.01</v>
       </c>
-      <c r="AQ6" t="s">
+      <c r="AR6" t="s">
         <v>243</v>
       </c>
-      <c r="AR6" s="41" t="s">
+      <c r="AS6" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="AS6" s="1" t="s">
+      <c r="AT6" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="AT6" s="41" t="s">
+      <c r="AU6" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="AU6" s="1" t="s">
+      <c r="AV6" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="AV6" t="s">
+      <c r="AW6" t="s">
         <v>46</v>
       </c>
-      <c r="AW6" t="s">
+      <c r="AX6" t="s">
         <v>8</v>
       </c>
-      <c r="AX6" t="s">
+      <c r="AY6" t="s">
         <v>9</v>
       </c>
-      <c r="AY6" t="s">
+      <c r="AZ6" t="s">
         <v>10</v>
       </c>
-      <c r="AZ6" t="s">
+      <c r="BA6" t="s">
         <v>64</v>
       </c>
-      <c r="BA6" t="s">
+      <c r="BB6" t="s">
         <v>11</v>
       </c>
-      <c r="BB6" t="s">
+      <c r="BC6" t="s">
         <v>70</v>
-      </c>
-      <c r="BD6">
-        <v>250</v>
       </c>
       <c r="BE6">
         <v>250</v>
       </c>
-      <c r="BG6" s="57"/>
+      <c r="BF6">
+        <v>250</v>
+      </c>
       <c r="BH6" s="57"/>
       <c r="BI6" s="57"/>
       <c r="BJ6" s="57"/>
-      <c r="BL6" s="61">
+      <c r="BK6" s="57"/>
+      <c r="BM6" s="61">
         <v>41226</v>
       </c>
-      <c r="BM6" s="62" t="s">
+      <c r="BN6" s="62" t="s">
         <v>341</v>
       </c>
-      <c r="BN6" s="63">
+      <c r="BO6" s="63">
         <v>31.6341</v>
       </c>
-      <c r="BO6" s="63">
+      <c r="BP6" s="63">
         <v>34.51144</v>
       </c>
-      <c r="BP6" s="41" t="s">
+      <c r="BQ6" s="41" t="s">
         <v>339</v>
       </c>
-      <c r="BQ6" t="s">
+      <c r="BR6" t="s">
         <v>342</v>
       </c>
-      <c r="BR6" s="59"/>
-      <c r="BW6">
+      <c r="BS6" s="59"/>
+      <c r="BX6">
         <v>10</v>
       </c>
-      <c r="BX6" s="65" t="s">
+      <c r="BY6" s="65" t="s">
         <v>358</v>
       </c>
-      <c r="BY6" s="65">
+      <c r="BZ6" s="65">
         <v>545.16</v>
       </c>
-      <c r="BZ6">
+      <c r="CA6">
         <v>39.6</v>
       </c>
-      <c r="CA6">
+      <c r="CB6">
         <v>24.87</v>
       </c>
-      <c r="CB6">
+      <c r="CC6">
         <v>209.97499999999999</v>
       </c>
-      <c r="CC6">
+      <c r="CD6">
         <v>99.7</v>
       </c>
     </row>
-    <row r="7" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3718,136 +3813,139 @@
       <c r="Y7" s="32">
         <v>2</v>
       </c>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="32" t="s">
+      <c r="Z7" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="AB7" s="16" t="s">
+      <c r="AC7" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC7" s="56" t="s">
+      <c r="AD7" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD7" s="32" t="s">
+      <c r="AE7" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="AE7" s="16" t="s">
+      <c r="AF7" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF7" s="56" t="s">
+      <c r="AG7" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG7" s="1" t="s">
+      <c r="AH7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AH7" s="19" t="s">
+      <c r="AI7" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="AI7" s="19" t="s">
+      <c r="AJ7" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="AJ7" s="19" t="s">
+      <c r="AK7" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="AK7" s="19" t="s">
+      <c r="AL7" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="AL7" s="19"/>
-      <c r="AM7" s="58" t="s">
+      <c r="AM7" s="19"/>
+      <c r="AN7" s="58" t="s">
         <v>188</v>
       </c>
-      <c r="AN7" s="55"/>
-      <c r="AO7" s="13">
+      <c r="AO7" s="55"/>
+      <c r="AP7" s="13">
         <v>0.01</v>
       </c>
-      <c r="AQ7" t="s">
+      <c r="AR7" t="s">
         <v>243</v>
       </c>
-      <c r="AR7" s="41" t="s">
+      <c r="AS7" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="AS7" s="1" t="s">
+      <c r="AT7" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="AT7" s="41" t="s">
+      <c r="AU7" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="AU7" s="1" t="s">
+      <c r="AV7" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="AV7" t="s">
+      <c r="AW7" t="s">
         <v>46</v>
       </c>
-      <c r="AW7" t="s">
+      <c r="AX7" t="s">
         <v>8</v>
       </c>
-      <c r="AX7" t="s">
+      <c r="AY7" t="s">
         <v>9</v>
       </c>
-      <c r="AY7" t="s">
+      <c r="AZ7" t="s">
         <v>10</v>
       </c>
-      <c r="AZ7" t="s">
+      <c r="BA7" t="s">
         <v>64</v>
       </c>
-      <c r="BA7" t="s">
+      <c r="BB7" t="s">
         <v>11</v>
       </c>
-      <c r="BB7" t="s">
+      <c r="BC7" t="s">
         <v>70</v>
-      </c>
-      <c r="BD7">
-        <v>250</v>
       </c>
       <c r="BE7">
         <v>250</v>
       </c>
-      <c r="BG7" s="57"/>
+      <c r="BF7">
+        <v>250</v>
+      </c>
       <c r="BH7" s="57"/>
       <c r="BI7" s="57"/>
       <c r="BJ7" s="57"/>
-      <c r="BL7" s="61">
+      <c r="BK7" s="57"/>
+      <c r="BM7" s="61">
         <v>41226</v>
       </c>
-      <c r="BM7" s="62" t="s">
+      <c r="BN7" s="62" t="s">
         <v>341</v>
       </c>
-      <c r="BN7" s="63">
+      <c r="BO7" s="63">
         <v>31.6341</v>
       </c>
-      <c r="BO7" s="63">
+      <c r="BP7" s="63">
         <v>34.51144</v>
       </c>
-      <c r="BP7" s="41" t="s">
+      <c r="BQ7" s="41" t="s">
         <v>339</v>
       </c>
-      <c r="BQ7" t="s">
+      <c r="BR7" t="s">
         <v>342</v>
       </c>
-      <c r="BR7" s="59"/>
-      <c r="BW7">
+      <c r="BS7" s="59"/>
+      <c r="BX7">
         <v>10</v>
       </c>
-      <c r="BX7" s="66" t="s">
+      <c r="BY7" s="66" t="s">
         <v>358</v>
       </c>
-      <c r="BY7" s="66">
+      <c r="BZ7" s="66">
         <v>545.16</v>
       </c>
-      <c r="BZ7">
+      <c r="CA7">
         <v>39.6</v>
       </c>
-      <c r="CA7">
+      <c r="CB7">
         <v>24.87</v>
       </c>
-      <c r="CB7">
+      <c r="CC7">
         <v>209.97499999999999</v>
       </c>
-      <c r="CC7">
+      <c r="CD7">
         <v>99.7</v>
       </c>
     </row>
-    <row r="8" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3908,136 +4006,139 @@
       <c r="Y8" s="32">
         <v>2</v>
       </c>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="32" t="s">
+      <c r="Z8" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="AB8" s="16" t="s">
+      <c r="AC8" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC8" s="56" t="s">
+      <c r="AD8" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD8" s="32" t="s">
+      <c r="AE8" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="AE8" s="16" t="s">
+      <c r="AF8" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF8" s="56" t="s">
+      <c r="AG8" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG8" s="1" t="s">
+      <c r="AH8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AH8" s="19" t="s">
+      <c r="AI8" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="AI8" s="19" t="s">
+      <c r="AJ8" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="AJ8" s="19" t="s">
+      <c r="AK8" s="19" t="s">
         <v>306</v>
       </c>
-      <c r="AK8" s="19" t="s">
+      <c r="AL8" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="AL8" s="19"/>
-      <c r="AM8" s="58" t="s">
+      <c r="AM8" s="19"/>
+      <c r="AN8" s="58" t="s">
         <v>189</v>
       </c>
-      <c r="AN8" s="55"/>
-      <c r="AO8" s="13">
+      <c r="AO8" s="55"/>
+      <c r="AP8" s="13">
         <v>0.01</v>
       </c>
-      <c r="AQ8" t="s">
+      <c r="AR8" t="s">
         <v>243</v>
       </c>
-      <c r="AR8" s="41" t="s">
+      <c r="AS8" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="AS8" s="1" t="s">
+      <c r="AT8" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="AT8" s="41" t="s">
+      <c r="AU8" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="AU8" s="1" t="s">
+      <c r="AV8" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="AV8" t="s">
+      <c r="AW8" t="s">
         <v>46</v>
       </c>
-      <c r="AW8" t="s">
+      <c r="AX8" t="s">
         <v>8</v>
       </c>
-      <c r="AX8" t="s">
+      <c r="AY8" t="s">
         <v>9</v>
       </c>
-      <c r="AY8" t="s">
+      <c r="AZ8" t="s">
         <v>10</v>
       </c>
-      <c r="AZ8" t="s">
+      <c r="BA8" t="s">
         <v>64</v>
       </c>
-      <c r="BA8" t="s">
+      <c r="BB8" t="s">
         <v>11</v>
       </c>
-      <c r="BB8" t="s">
+      <c r="BC8" t="s">
         <v>70</v>
-      </c>
-      <c r="BD8">
-        <v>250</v>
       </c>
       <c r="BE8">
         <v>250</v>
       </c>
-      <c r="BG8" s="57"/>
+      <c r="BF8">
+        <v>250</v>
+      </c>
       <c r="BH8" s="57"/>
       <c r="BI8" s="57"/>
       <c r="BJ8" s="57"/>
-      <c r="BL8" s="61">
+      <c r="BK8" s="57"/>
+      <c r="BM8" s="61">
         <v>41226</v>
       </c>
-      <c r="BM8" s="62" t="s">
+      <c r="BN8" s="62" t="s">
         <v>341</v>
       </c>
-      <c r="BN8" s="63">
+      <c r="BO8" s="63">
         <v>31.6341</v>
       </c>
-      <c r="BO8" s="63">
+      <c r="BP8" s="63">
         <v>34.51144</v>
       </c>
-      <c r="BP8" s="41" t="s">
+      <c r="BQ8" s="41" t="s">
         <v>339</v>
       </c>
-      <c r="BQ8" t="s">
+      <c r="BR8" t="s">
         <v>342</v>
       </c>
-      <c r="BR8" s="59"/>
-      <c r="BW8">
+      <c r="BS8" s="59"/>
+      <c r="BX8">
         <v>10</v>
       </c>
-      <c r="BX8" s="66" t="s">
+      <c r="BY8" s="66" t="s">
         <v>358</v>
       </c>
-      <c r="BY8" s="66">
+      <c r="BZ8" s="66">
         <v>545.16</v>
       </c>
-      <c r="BZ8">
+      <c r="CA8">
         <v>39.6</v>
       </c>
-      <c r="CA8">
+      <c r="CB8">
         <v>24.87</v>
       </c>
-      <c r="CB8">
+      <c r="CC8">
         <v>209.97499999999999</v>
       </c>
-      <c r="CC8">
+      <c r="CD8">
         <v>99.7</v>
       </c>
     </row>
-    <row r="9" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4098,136 +4199,139 @@
       <c r="Y9" s="32">
         <v>3</v>
       </c>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="32" t="s">
+      <c r="Z9" s="32" t="s">
+        <v>370</v>
+      </c>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="AB9" s="16" t="s">
+      <c r="AC9" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC9" s="56" t="s">
+      <c r="AD9" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD9" s="32" t="s">
+      <c r="AE9" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="AE9" s="16" t="s">
+      <c r="AF9" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF9" s="56" t="s">
+      <c r="AG9" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG9" s="1" t="s">
+      <c r="AH9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AH9" s="19" t="s">
+      <c r="AI9" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="AI9" s="19" t="s">
+      <c r="AJ9" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="AJ9" s="19" t="s">
+      <c r="AK9" s="19" t="s">
         <v>307</v>
       </c>
-      <c r="AK9" s="19" t="s">
+      <c r="AL9" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="AL9" s="19"/>
-      <c r="AM9" s="58" t="s">
+      <c r="AM9" s="19"/>
+      <c r="AN9" s="58" t="s">
         <v>190</v>
       </c>
-      <c r="AN9" s="55"/>
-      <c r="AO9" s="13">
+      <c r="AO9" s="55"/>
+      <c r="AP9" s="13">
         <v>0.01</v>
       </c>
-      <c r="AQ9" t="s">
+      <c r="AR9" t="s">
         <v>243</v>
       </c>
-      <c r="AR9" s="41" t="s">
+      <c r="AS9" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="AS9" s="1" t="s">
+      <c r="AT9" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="AT9" s="41" t="s">
+      <c r="AU9" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="AU9" s="1" t="s">
+      <c r="AV9" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="AV9" t="s">
+      <c r="AW9" t="s">
         <v>46</v>
       </c>
-      <c r="AW9" t="s">
+      <c r="AX9" t="s">
         <v>8</v>
       </c>
-      <c r="AX9" t="s">
+      <c r="AY9" t="s">
         <v>9</v>
       </c>
-      <c r="AY9" t="s">
+      <c r="AZ9" t="s">
         <v>10</v>
       </c>
-      <c r="AZ9" t="s">
+      <c r="BA9" t="s">
         <v>64</v>
       </c>
-      <c r="BA9" t="s">
+      <c r="BB9" t="s">
         <v>11</v>
       </c>
-      <c r="BB9" t="s">
+      <c r="BC9" t="s">
         <v>70</v>
-      </c>
-      <c r="BD9">
-        <v>250</v>
       </c>
       <c r="BE9">
         <v>250</v>
       </c>
-      <c r="BG9" s="57"/>
+      <c r="BF9">
+        <v>250</v>
+      </c>
       <c r="BH9" s="57"/>
       <c r="BI9" s="57"/>
       <c r="BJ9" s="57"/>
-      <c r="BL9" s="61">
+      <c r="BK9" s="57"/>
+      <c r="BM9" s="61">
         <v>41226</v>
       </c>
-      <c r="BM9" s="62" t="s">
+      <c r="BN9" s="62" t="s">
         <v>343</v>
       </c>
-      <c r="BN9" s="63">
+      <c r="BO9" s="63">
         <v>31.671759999999999</v>
       </c>
-      <c r="BO9" s="63">
+      <c r="BP9" s="63">
         <v>34.543559999999999</v>
       </c>
-      <c r="BP9" s="41" t="s">
+      <c r="BQ9" s="41" t="s">
         <v>339</v>
       </c>
-      <c r="BQ9" t="s">
+      <c r="BR9" t="s">
         <v>344</v>
       </c>
-      <c r="BR9" s="59"/>
-      <c r="BW9">
+      <c r="BS9" s="59"/>
+      <c r="BX9">
         <v>5</v>
       </c>
-      <c r="BX9" s="66" t="s">
+      <c r="BY9" s="66" t="s">
         <v>358</v>
       </c>
-      <c r="BY9" s="66">
+      <c r="BZ9" s="66">
         <v>5080.2700000000004</v>
       </c>
-      <c r="BZ9">
+      <c r="CA9">
         <v>39.6</v>
       </c>
-      <c r="CA9">
+      <c r="CB9">
         <v>24.92</v>
       </c>
-      <c r="CB9">
+      <c r="CC9">
         <v>210.3</v>
       </c>
-      <c r="CC9">
+      <c r="CD9">
         <v>100.9</v>
       </c>
     </row>
-    <row r="10" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4288,136 +4392,139 @@
       <c r="Y10" s="32">
         <v>3</v>
       </c>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="32" t="s">
+      <c r="Z10" s="32" t="s">
+        <v>370</v>
+      </c>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="AB10" s="16" t="s">
+      <c r="AC10" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC10" s="56" t="s">
+      <c r="AD10" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD10" s="32" t="s">
+      <c r="AE10" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="AE10" s="16" t="s">
+      <c r="AF10" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF10" s="56" t="s">
+      <c r="AG10" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG10" s="1" t="s">
+      <c r="AH10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AH10" s="19" t="s">
+      <c r="AI10" s="19" t="s">
         <v>282</v>
       </c>
-      <c r="AI10" s="19" t="s">
+      <c r="AJ10" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="AJ10" s="19" t="s">
+      <c r="AK10" s="19" t="s">
         <v>308</v>
       </c>
-      <c r="AK10" s="19" t="s">
+      <c r="AL10" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="AL10" s="19"/>
-      <c r="AM10" s="58" t="s">
+      <c r="AM10" s="19"/>
+      <c r="AN10" s="58" t="s">
         <v>191</v>
       </c>
-      <c r="AN10" s="55"/>
-      <c r="AO10" s="13">
+      <c r="AO10" s="55"/>
+      <c r="AP10" s="13">
         <v>0.01</v>
       </c>
-      <c r="AQ10" t="s">
+      <c r="AR10" t="s">
         <v>243</v>
       </c>
-      <c r="AR10" s="41" t="s">
+      <c r="AS10" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="AS10" s="1" t="s">
+      <c r="AT10" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="AT10" s="41" t="s">
+      <c r="AU10" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="AU10" s="1" t="s">
+      <c r="AV10" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="AV10" t="s">
+      <c r="AW10" t="s">
         <v>46</v>
       </c>
-      <c r="AW10" t="s">
+      <c r="AX10" t="s">
         <v>8</v>
       </c>
-      <c r="AX10" t="s">
+      <c r="AY10" t="s">
         <v>9</v>
       </c>
-      <c r="AY10" t="s">
+      <c r="AZ10" t="s">
         <v>10</v>
       </c>
-      <c r="AZ10" t="s">
+      <c r="BA10" t="s">
         <v>64</v>
       </c>
-      <c r="BA10" t="s">
+      <c r="BB10" t="s">
         <v>11</v>
       </c>
-      <c r="BB10" t="s">
+      <c r="BC10" t="s">
         <v>70</v>
-      </c>
-      <c r="BD10">
-        <v>250</v>
       </c>
       <c r="BE10">
         <v>250</v>
       </c>
-      <c r="BG10" s="57"/>
+      <c r="BF10">
+        <v>250</v>
+      </c>
       <c r="BH10" s="57"/>
       <c r="BI10" s="57"/>
       <c r="BJ10" s="57"/>
-      <c r="BL10" s="61">
+      <c r="BK10" s="57"/>
+      <c r="BM10" s="61">
         <v>41226</v>
       </c>
-      <c r="BM10" s="62" t="s">
+      <c r="BN10" s="62" t="s">
         <v>343</v>
       </c>
-      <c r="BN10" s="63">
+      <c r="BO10" s="63">
         <v>31.671759999999999</v>
       </c>
-      <c r="BO10" s="63">
+      <c r="BP10" s="63">
         <v>34.543559999999999</v>
       </c>
-      <c r="BP10" s="41" t="s">
+      <c r="BQ10" s="41" t="s">
         <v>339</v>
       </c>
-      <c r="BQ10" t="s">
+      <c r="BR10" t="s">
         <v>344</v>
       </c>
-      <c r="BR10" s="59"/>
-      <c r="BW10">
+      <c r="BS10" s="59"/>
+      <c r="BX10">
         <v>5</v>
       </c>
-      <c r="BX10" s="66" t="s">
+      <c r="BY10" s="66" t="s">
         <v>358</v>
       </c>
-      <c r="BY10" s="66">
+      <c r="BZ10" s="66">
         <v>5080.2700000000004</v>
       </c>
-      <c r="BZ10">
+      <c r="CA10">
         <v>39.6</v>
       </c>
-      <c r="CA10">
+      <c r="CB10">
         <v>24.92</v>
       </c>
-      <c r="CB10">
+      <c r="CC10">
         <v>210.3</v>
       </c>
-      <c r="CC10">
+      <c r="CD10">
         <v>100.9</v>
       </c>
     </row>
-    <row r="11" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4478,136 +4585,139 @@
       <c r="Y11" s="32">
         <v>3</v>
       </c>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="32" t="s">
+      <c r="Z11" s="32" t="s">
+        <v>370</v>
+      </c>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="AB11" s="16" t="s">
+      <c r="AC11" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC11" s="56" t="s">
+      <c r="AD11" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD11" s="32" t="s">
+      <c r="AE11" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="AE11" s="16" t="s">
+      <c r="AF11" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF11" s="56" t="s">
+      <c r="AG11" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG11" s="1" t="s">
+      <c r="AH11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AH11" s="19" t="s">
+      <c r="AI11" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="AI11" s="19" t="s">
+      <c r="AJ11" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="AJ11" s="19" t="s">
+      <c r="AK11" s="19" t="s">
         <v>309</v>
       </c>
-      <c r="AK11" s="19" t="s">
+      <c r="AL11" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="AL11" s="19"/>
-      <c r="AM11" s="58" t="s">
+      <c r="AM11" s="19"/>
+      <c r="AN11" s="58" t="s">
         <v>192</v>
       </c>
-      <c r="AN11" s="55"/>
-      <c r="AO11" s="13">
+      <c r="AO11" s="55"/>
+      <c r="AP11" s="13">
         <v>0.01</v>
       </c>
-      <c r="AQ11" t="s">
+      <c r="AR11" t="s">
         <v>243</v>
       </c>
-      <c r="AR11" s="41" t="s">
+      <c r="AS11" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="AS11" s="1" t="s">
+      <c r="AT11" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="AT11" s="41" t="s">
+      <c r="AU11" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="AU11" s="1" t="s">
+      <c r="AV11" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="AV11" t="s">
+      <c r="AW11" t="s">
         <v>46</v>
       </c>
-      <c r="AW11" t="s">
+      <c r="AX11" t="s">
         <v>8</v>
       </c>
-      <c r="AX11" t="s">
+      <c r="AY11" t="s">
         <v>9</v>
       </c>
-      <c r="AY11" t="s">
+      <c r="AZ11" t="s">
         <v>10</v>
       </c>
-      <c r="AZ11" t="s">
+      <c r="BA11" t="s">
         <v>64</v>
       </c>
-      <c r="BA11" t="s">
+      <c r="BB11" t="s">
         <v>11</v>
       </c>
-      <c r="BB11" t="s">
+      <c r="BC11" t="s">
         <v>70</v>
-      </c>
-      <c r="BD11">
-        <v>250</v>
       </c>
       <c r="BE11">
         <v>250</v>
       </c>
-      <c r="BG11" s="57"/>
+      <c r="BF11">
+        <v>250</v>
+      </c>
       <c r="BH11" s="57"/>
       <c r="BI11" s="57"/>
       <c r="BJ11" s="57"/>
-      <c r="BL11" s="61">
+      <c r="BK11" s="57"/>
+      <c r="BM11" s="61">
         <v>41226</v>
       </c>
-      <c r="BM11" s="62" t="s">
+      <c r="BN11" s="62" t="s">
         <v>343</v>
       </c>
-      <c r="BN11" s="63">
+      <c r="BO11" s="63">
         <v>31.671759999999999</v>
       </c>
-      <c r="BO11" s="63">
+      <c r="BP11" s="63">
         <v>34.543559999999999</v>
       </c>
-      <c r="BP11" s="41" t="s">
+      <c r="BQ11" s="41" t="s">
         <v>339</v>
       </c>
-      <c r="BQ11" t="s">
+      <c r="BR11" t="s">
         <v>344</v>
       </c>
-      <c r="BR11" s="59"/>
-      <c r="BW11">
+      <c r="BS11" s="59"/>
+      <c r="BX11">
         <v>5</v>
       </c>
-      <c r="BX11" s="66" t="s">
+      <c r="BY11" s="66" t="s">
         <v>358</v>
       </c>
-      <c r="BY11" s="66">
+      <c r="BZ11" s="66">
         <v>5080.2700000000004</v>
       </c>
-      <c r="BZ11">
+      <c r="CA11">
         <v>39.6</v>
       </c>
-      <c r="CA11">
+      <c r="CB11">
         <v>24.92</v>
       </c>
-      <c r="CB11">
+      <c r="CC11">
         <v>210.3</v>
       </c>
-      <c r="CC11">
+      <c r="CD11">
         <v>100.9</v>
       </c>
     </row>
-    <row r="12" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4668,136 +4778,139 @@
       <c r="Y12" s="32">
         <v>4</v>
       </c>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="32" t="s">
+      <c r="Z12" s="32" t="s">
+        <v>371</v>
+      </c>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="AB12" s="16" t="s">
+      <c r="AC12" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC12" s="56" t="s">
+      <c r="AD12" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD12" s="32" t="s">
+      <c r="AE12" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="AE12" s="16" t="s">
+      <c r="AF12" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF12" s="56" t="s">
+      <c r="AG12" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG12" s="1" t="s">
+      <c r="AH12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AH12" s="19" t="s">
+      <c r="AI12" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="AI12" s="19" t="s">
+      <c r="AJ12" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="AJ12" s="19" t="s">
+      <c r="AK12" s="19" t="s">
         <v>310</v>
       </c>
-      <c r="AK12" s="19" t="s">
+      <c r="AL12" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="AL12" s="19"/>
-      <c r="AM12" s="58" t="s">
+      <c r="AM12" s="19"/>
+      <c r="AN12" s="58" t="s">
         <v>193</v>
       </c>
-      <c r="AN12" s="55"/>
-      <c r="AO12" s="13">
+      <c r="AO12" s="55"/>
+      <c r="AP12" s="13">
         <v>0.01</v>
       </c>
-      <c r="AQ12" t="s">
+      <c r="AR12" t="s">
         <v>243</v>
       </c>
-      <c r="AR12" s="41" t="s">
+      <c r="AS12" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="AS12" s="1" t="s">
+      <c r="AT12" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="AT12" s="41" t="s">
+      <c r="AU12" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="AU12" s="1" t="s">
+      <c r="AV12" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="AV12" t="s">
+      <c r="AW12" t="s">
         <v>46</v>
       </c>
-      <c r="AW12" t="s">
+      <c r="AX12" t="s">
         <v>8</v>
       </c>
-      <c r="AX12" t="s">
+      <c r="AY12" t="s">
         <v>9</v>
       </c>
-      <c r="AY12" t="s">
+      <c r="AZ12" t="s">
         <v>10</v>
       </c>
-      <c r="AZ12" t="s">
+      <c r="BA12" t="s">
         <v>64</v>
       </c>
-      <c r="BA12" t="s">
+      <c r="BB12" t="s">
         <v>11</v>
       </c>
-      <c r="BB12" t="s">
+      <c r="BC12" t="s">
         <v>70</v>
-      </c>
-      <c r="BD12">
-        <v>250</v>
       </c>
       <c r="BE12">
         <v>250</v>
       </c>
-      <c r="BG12" s="57"/>
+      <c r="BF12">
+        <v>250</v>
+      </c>
       <c r="BH12" s="57"/>
       <c r="BI12" s="57"/>
       <c r="BJ12" s="57"/>
-      <c r="BL12" s="61">
+      <c r="BK12" s="57"/>
+      <c r="BM12" s="61">
         <v>41227</v>
       </c>
-      <c r="BM12" s="62" t="s">
+      <c r="BN12" s="62" t="s">
         <v>345</v>
       </c>
-      <c r="BN12" s="63">
+      <c r="BO12" s="63">
         <v>31.941859999999998</v>
       </c>
-      <c r="BO12" s="63">
+      <c r="BP12" s="63">
         <v>34.68862</v>
       </c>
-      <c r="BP12" s="41" t="s">
+      <c r="BQ12" s="41" t="s">
         <v>339</v>
       </c>
-      <c r="BQ12" s="64" t="s">
+      <c r="BR12" s="64" t="s">
         <v>346</v>
       </c>
-      <c r="BR12" s="60"/>
-      <c r="BW12">
+      <c r="BS12" s="60"/>
+      <c r="BX12">
         <v>18</v>
       </c>
-      <c r="BX12" s="66" t="s">
+      <c r="BY12" s="66" t="s">
         <v>358</v>
       </c>
-      <c r="BY12" s="41">
+      <c r="BZ12" s="41">
         <v>102.78</v>
       </c>
-      <c r="BZ12">
+      <c r="CA12">
         <v>40.799999999999997</v>
       </c>
-      <c r="CA12">
+      <c r="CB12">
         <v>24.88</v>
       </c>
-      <c r="CB12">
+      <c r="CC12">
         <v>160.36000000000001</v>
       </c>
-      <c r="CC12">
+      <c r="CD12">
         <v>99.74</v>
       </c>
     </row>
-    <row r="13" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4858,136 +4971,139 @@
       <c r="Y13" s="32">
         <v>4</v>
       </c>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="32" t="s">
+      <c r="Z13" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="AB13" s="16" t="s">
+      <c r="AC13" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC13" s="56" t="s">
+      <c r="AD13" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD13" s="32" t="s">
+      <c r="AE13" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="AE13" s="16" t="s">
+      <c r="AF13" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF13" s="56" t="s">
+      <c r="AG13" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG13" s="1" t="s">
+      <c r="AH13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AH13" s="19" t="s">
+      <c r="AI13" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="AI13" s="19" t="s">
+      <c r="AJ13" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="AJ13" s="19" t="s">
+      <c r="AK13" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="AK13" s="19" t="s">
+      <c r="AL13" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="AL13" s="19"/>
-      <c r="AM13" s="58" t="s">
+      <c r="AM13" s="19"/>
+      <c r="AN13" s="58" t="s">
         <v>194</v>
       </c>
-      <c r="AN13" s="55"/>
-      <c r="AO13" s="13">
+      <c r="AO13" s="55"/>
+      <c r="AP13" s="13">
         <v>0.01</v>
       </c>
-      <c r="AQ13" t="s">
+      <c r="AR13" t="s">
         <v>243</v>
       </c>
-      <c r="AR13" s="41" t="s">
+      <c r="AS13" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="AS13" s="1" t="s">
+      <c r="AT13" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="AT13" s="41" t="s">
+      <c r="AU13" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="AU13" s="1" t="s">
+      <c r="AV13" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="AV13" t="s">
+      <c r="AW13" t="s">
         <v>46</v>
       </c>
-      <c r="AW13" t="s">
+      <c r="AX13" t="s">
         <v>8</v>
       </c>
-      <c r="AX13" t="s">
+      <c r="AY13" t="s">
         <v>9</v>
       </c>
-      <c r="AY13" t="s">
+      <c r="AZ13" t="s">
         <v>10</v>
       </c>
-      <c r="AZ13" t="s">
+      <c r="BA13" t="s">
         <v>64</v>
       </c>
-      <c r="BA13" t="s">
+      <c r="BB13" t="s">
         <v>11</v>
       </c>
-      <c r="BB13" t="s">
+      <c r="BC13" t="s">
         <v>70</v>
-      </c>
-      <c r="BD13">
-        <v>250</v>
       </c>
       <c r="BE13">
         <v>250</v>
       </c>
-      <c r="BG13" s="57"/>
+      <c r="BF13">
+        <v>250</v>
+      </c>
       <c r="BH13" s="57"/>
       <c r="BI13" s="57"/>
       <c r="BJ13" s="57"/>
-      <c r="BL13" s="61">
+      <c r="BK13" s="57"/>
+      <c r="BM13" s="61">
         <v>41227</v>
       </c>
-      <c r="BM13" s="62" t="s">
+      <c r="BN13" s="62" t="s">
         <v>345</v>
       </c>
-      <c r="BN13" s="63">
+      <c r="BO13" s="63">
         <v>31.941859999999998</v>
       </c>
-      <c r="BO13" s="63">
+      <c r="BP13" s="63">
         <v>34.68862</v>
       </c>
-      <c r="BP13" s="41" t="s">
+      <c r="BQ13" s="41" t="s">
         <v>339</v>
       </c>
-      <c r="BQ13" s="64" t="s">
+      <c r="BR13" s="64" t="s">
         <v>346</v>
       </c>
-      <c r="BR13" s="60"/>
-      <c r="BW13">
+      <c r="BS13" s="60"/>
+      <c r="BX13">
         <v>18</v>
       </c>
-      <c r="BX13" s="66" t="s">
+      <c r="BY13" s="66" t="s">
         <v>358</v>
       </c>
-      <c r="BY13" s="41">
+      <c r="BZ13" s="41">
         <v>102.78</v>
       </c>
-      <c r="BZ13">
+      <c r="CA13">
         <v>40.799999999999997</v>
       </c>
-      <c r="CA13">
+      <c r="CB13">
         <v>24.88</v>
       </c>
-      <c r="CB13">
+      <c r="CC13">
         <v>160.36000000000001</v>
       </c>
-      <c r="CC13">
+      <c r="CD13">
         <v>99.74</v>
       </c>
     </row>
-    <row r="14" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5048,136 +5164,139 @@
       <c r="Y14" s="32">
         <v>4</v>
       </c>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="32" t="s">
+      <c r="Z14" s="32" t="s">
+        <v>373</v>
+      </c>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="AB14" s="16" t="s">
+      <c r="AC14" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC14" s="56" t="s">
+      <c r="AD14" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD14" s="32" t="s">
+      <c r="AE14" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="AE14" s="16" t="s">
+      <c r="AF14" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF14" s="56" t="s">
+      <c r="AG14" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG14" s="1" t="s">
+      <c r="AH14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AH14" s="19" t="s">
+      <c r="AI14" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="AI14" s="19" t="s">
+      <c r="AJ14" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="AJ14" s="19" t="s">
+      <c r="AK14" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="AK14" s="19" t="s">
+      <c r="AL14" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="AL14" s="19"/>
-      <c r="AM14" s="58" t="s">
+      <c r="AM14" s="19"/>
+      <c r="AN14" s="58" t="s">
         <v>195</v>
       </c>
-      <c r="AN14" s="55"/>
-      <c r="AO14" s="13">
+      <c r="AO14" s="55"/>
+      <c r="AP14" s="13">
         <v>0.01</v>
       </c>
-      <c r="AQ14" t="s">
+      <c r="AR14" t="s">
         <v>243</v>
       </c>
-      <c r="AR14" s="41" t="s">
+      <c r="AS14" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="AS14" s="1" t="s">
+      <c r="AT14" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="AT14" s="41" t="s">
+      <c r="AU14" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="AU14" s="1" t="s">
+      <c r="AV14" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="AV14" t="s">
+      <c r="AW14" t="s">
         <v>46</v>
       </c>
-      <c r="AW14" t="s">
+      <c r="AX14" t="s">
         <v>8</v>
       </c>
-      <c r="AX14" t="s">
+      <c r="AY14" t="s">
         <v>9</v>
       </c>
-      <c r="AY14" t="s">
+      <c r="AZ14" t="s">
         <v>10</v>
       </c>
-      <c r="AZ14" t="s">
+      <c r="BA14" t="s">
         <v>64</v>
       </c>
-      <c r="BA14" t="s">
+      <c r="BB14" t="s">
         <v>11</v>
       </c>
-      <c r="BB14" t="s">
+      <c r="BC14" t="s">
         <v>70</v>
-      </c>
-      <c r="BD14">
-        <v>250</v>
       </c>
       <c r="BE14">
         <v>250</v>
       </c>
-      <c r="BG14" s="57"/>
+      <c r="BF14">
+        <v>250</v>
+      </c>
       <c r="BH14" s="57"/>
       <c r="BI14" s="57"/>
       <c r="BJ14" s="57"/>
-      <c r="BL14" s="61">
+      <c r="BK14" s="57"/>
+      <c r="BM14" s="61">
         <v>41227</v>
       </c>
-      <c r="BM14" s="62" t="s">
+      <c r="BN14" s="62" t="s">
         <v>345</v>
       </c>
-      <c r="BN14" s="63">
+      <c r="BO14" s="63">
         <v>31.941859999999998</v>
       </c>
-      <c r="BO14" s="63">
+      <c r="BP14" s="63">
         <v>34.68862</v>
       </c>
-      <c r="BP14" s="41" t="s">
+      <c r="BQ14" s="41" t="s">
         <v>339</v>
       </c>
-      <c r="BQ14" s="64" t="s">
+      <c r="BR14" s="64" t="s">
         <v>346</v>
       </c>
-      <c r="BR14" s="60"/>
-      <c r="BW14">
+      <c r="BS14" s="60"/>
+      <c r="BX14">
         <v>18</v>
       </c>
-      <c r="BX14" s="66" t="s">
+      <c r="BY14" s="66" t="s">
         <v>358</v>
       </c>
-      <c r="BY14" s="41">
+      <c r="BZ14" s="41">
         <v>102.78</v>
       </c>
-      <c r="BZ14">
+      <c r="CA14">
         <v>40.799999999999997</v>
       </c>
-      <c r="CA14">
+      <c r="CB14">
         <v>24.88</v>
       </c>
-      <c r="CB14">
+      <c r="CC14">
         <v>160.36000000000001</v>
       </c>
-      <c r="CC14">
+      <c r="CD14">
         <v>99.74</v>
       </c>
     </row>
-    <row r="15" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A15" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5238,136 +5357,139 @@
       <c r="Y15" s="32">
         <v>5</v>
       </c>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="32" t="s">
+      <c r="Z15" s="32" t="s">
+        <v>374</v>
+      </c>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="AB15" s="16" t="s">
+      <c r="AC15" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC15" s="56" t="s">
+      <c r="AD15" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD15" s="32" t="s">
+      <c r="AE15" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="AE15" s="16" t="s">
+      <c r="AF15" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF15" s="56" t="s">
+      <c r="AG15" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG15" s="1" t="s">
+      <c r="AH15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AH15" s="19" t="s">
+      <c r="AI15" s="19" t="s">
         <v>287</v>
       </c>
-      <c r="AI15" s="19" t="s">
+      <c r="AJ15" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="AJ15" s="19" t="s">
+      <c r="AK15" s="19" t="s">
         <v>313</v>
       </c>
-      <c r="AK15" s="19" t="s">
+      <c r="AL15" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="AL15" s="19"/>
-      <c r="AM15" s="58" t="s">
+      <c r="AM15" s="19"/>
+      <c r="AN15" s="58" t="s">
         <v>196</v>
       </c>
-      <c r="AN15" s="55"/>
-      <c r="AO15" s="13">
+      <c r="AO15" s="55"/>
+      <c r="AP15" s="13">
         <v>0.01</v>
       </c>
-      <c r="AQ15" t="s">
+      <c r="AR15" t="s">
         <v>243</v>
       </c>
-      <c r="AR15" s="41" t="s">
+      <c r="AS15" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="AS15" s="1" t="s">
+      <c r="AT15" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="AT15" s="41" t="s">
+      <c r="AU15" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="AU15" s="1" t="s">
+      <c r="AV15" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="AV15" t="s">
+      <c r="AW15" t="s">
         <v>46</v>
       </c>
-      <c r="AW15" t="s">
+      <c r="AX15" t="s">
         <v>8</v>
       </c>
-      <c r="AX15" t="s">
+      <c r="AY15" t="s">
         <v>9</v>
       </c>
-      <c r="AY15" t="s">
+      <c r="AZ15" t="s">
         <v>10</v>
       </c>
-      <c r="AZ15" t="s">
+      <c r="BA15" t="s">
         <v>64</v>
       </c>
-      <c r="BA15" t="s">
+      <c r="BB15" t="s">
         <v>11</v>
       </c>
-      <c r="BB15" t="s">
+      <c r="BC15" t="s">
         <v>70</v>
-      </c>
-      <c r="BD15">
-        <v>250</v>
       </c>
       <c r="BE15">
         <v>250</v>
       </c>
-      <c r="BG15" s="57"/>
+      <c r="BF15">
+        <v>250</v>
+      </c>
       <c r="BH15" s="57"/>
       <c r="BI15" s="57"/>
       <c r="BJ15" s="57"/>
-      <c r="BL15" s="61">
+      <c r="BK15" s="57"/>
+      <c r="BM15" s="61">
         <v>41227</v>
       </c>
-      <c r="BM15" s="62" t="s">
+      <c r="BN15" s="62" t="s">
         <v>347</v>
       </c>
-      <c r="BN15" s="63">
+      <c r="BO15" s="63">
         <v>31.94068</v>
       </c>
-      <c r="BO15" s="63">
+      <c r="BP15" s="63">
         <v>34.687379999999997</v>
       </c>
-      <c r="BP15" s="41" t="s">
+      <c r="BQ15" s="41" t="s">
         <v>339</v>
       </c>
-      <c r="BQ15" s="64" t="s">
+      <c r="BR15" s="64" t="s">
         <v>346</v>
       </c>
-      <c r="BR15" s="60"/>
-      <c r="BW15">
+      <c r="BS15" s="60"/>
+      <c r="BX15">
         <v>19</v>
       </c>
-      <c r="BX15" s="66" t="s">
+      <c r="BY15" s="66" t="s">
         <v>358</v>
       </c>
-      <c r="BY15" s="65">
+      <c r="BZ15" s="65">
         <v>130.54</v>
       </c>
-      <c r="BZ15">
+      <c r="CA15">
         <v>40.5</v>
       </c>
-      <c r="CA15">
+      <c r="CB15">
         <v>24.85</v>
       </c>
-      <c r="CB15">
+      <c r="CC15">
         <v>163.64500000000001</v>
       </c>
-      <c r="CC15">
+      <c r="CD15">
         <v>99.39</v>
       </c>
     </row>
-    <row r="16" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5423,131 +5545,134 @@
       <c r="Y16" s="32">
         <v>5</v>
       </c>
-      <c r="Z16" s="1"/>
-      <c r="AA16" s="32" t="s">
+      <c r="Z16" s="32" t="s">
+        <v>375</v>
+      </c>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="AB16" s="16" t="s">
+      <c r="AC16" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC16" s="56" t="s">
+      <c r="AD16" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD16" s="32" t="s">
+      <c r="AE16" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="AE16" s="16" t="s">
+      <c r="AF16" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF16" s="56" t="s">
+      <c r="AG16" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG16" s="1"/>
-      <c r="AH16" s="19" t="s">
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="19" t="s">
         <v>288</v>
       </c>
-      <c r="AI16" s="19" t="s">
+      <c r="AJ16" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="AJ16" s="19" t="s">
+      <c r="AK16" s="19" t="s">
         <v>314</v>
       </c>
-      <c r="AK16" s="19" t="s">
+      <c r="AL16" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="AL16" s="19"/>
-      <c r="AM16" s="58" t="s">
+      <c r="AM16" s="19"/>
+      <c r="AN16" s="58" t="s">
         <v>197</v>
       </c>
-      <c r="AN16" s="55"/>
-      <c r="AO16" s="13">
+      <c r="AO16" s="55"/>
+      <c r="AP16" s="13">
         <v>0.01</v>
       </c>
-      <c r="AQ16" t="s">
+      <c r="AR16" t="s">
         <v>243</v>
       </c>
-      <c r="AR16" s="41" t="s">
+      <c r="AS16" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="AS16" s="1" t="s">
+      <c r="AT16" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="AT16" s="41" t="s">
+      <c r="AU16" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="AU16" s="1" t="s">
+      <c r="AV16" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="AW16" t="s">
+      <c r="AX16" t="s">
         <v>8</v>
       </c>
-      <c r="AX16" t="s">
+      <c r="AY16" t="s">
         <v>9</v>
       </c>
-      <c r="AY16" t="s">
+      <c r="AZ16" t="s">
         <v>10</v>
       </c>
-      <c r="AZ16" t="s">
+      <c r="BA16" t="s">
         <v>64</v>
       </c>
-      <c r="BA16" t="s">
+      <c r="BB16" t="s">
         <v>11</v>
       </c>
-      <c r="BB16" t="s">
+      <c r="BC16" t="s">
         <v>70</v>
-      </c>
-      <c r="BD16">
-        <v>250</v>
       </c>
       <c r="BE16">
         <v>250</v>
       </c>
-      <c r="BG16" s="57"/>
+      <c r="BF16">
+        <v>250</v>
+      </c>
       <c r="BH16" s="57"/>
       <c r="BI16" s="57"/>
       <c r="BJ16" s="57"/>
-      <c r="BL16" s="61">
+      <c r="BK16" s="57"/>
+      <c r="BM16" s="61">
         <v>41227</v>
       </c>
-      <c r="BM16" s="62" t="s">
+      <c r="BN16" s="62" t="s">
         <v>347</v>
       </c>
-      <c r="BN16" s="63">
+      <c r="BO16" s="63">
         <v>31.94068</v>
       </c>
-      <c r="BO16" s="63">
+      <c r="BP16" s="63">
         <v>34.687379999999997</v>
       </c>
-      <c r="BP16" s="41" t="s">
+      <c r="BQ16" s="41" t="s">
         <v>339</v>
       </c>
-      <c r="BQ16" s="64" t="s">
+      <c r="BR16" s="64" t="s">
         <v>346</v>
       </c>
-      <c r="BR16" s="60"/>
-      <c r="BW16">
+      <c r="BS16" s="60"/>
+      <c r="BX16">
         <v>19</v>
       </c>
-      <c r="BX16" s="66" t="s">
+      <c r="BY16" s="66" t="s">
         <v>358</v>
       </c>
-      <c r="BY16" s="66">
+      <c r="BZ16" s="66">
         <v>130.54</v>
       </c>
-      <c r="BZ16">
+      <c r="CA16">
         <v>40.5</v>
       </c>
-      <c r="CA16">
+      <c r="CB16">
         <v>24.85</v>
       </c>
-      <c r="CB16">
+      <c r="CC16">
         <v>163.64500000000001</v>
       </c>
-      <c r="CC16">
+      <c r="CD16">
         <v>99.39</v>
       </c>
     </row>
-    <row r="17" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A17" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5603,131 +5728,134 @@
       <c r="Y17" s="32">
         <v>5</v>
       </c>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="32" t="s">
+      <c r="Z17" s="32" t="s">
+        <v>376</v>
+      </c>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="AB17" s="16" t="s">
+      <c r="AC17" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC17" s="56" t="s">
+      <c r="AD17" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD17" s="32" t="s">
+      <c r="AE17" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="AE17" s="16" t="s">
+      <c r="AF17" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF17" s="56" t="s">
+      <c r="AG17" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG17" s="1"/>
-      <c r="AH17" s="19" t="s">
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="AI17" s="19" t="s">
+      <c r="AJ17" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="AJ17" s="19" t="s">
+      <c r="AK17" s="19" t="s">
         <v>315</v>
       </c>
-      <c r="AK17" s="19" t="s">
+      <c r="AL17" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="AL17" s="19"/>
-      <c r="AM17" s="58" t="s">
+      <c r="AM17" s="19"/>
+      <c r="AN17" s="58" t="s">
         <v>198</v>
       </c>
-      <c r="AN17" s="55"/>
-      <c r="AO17" s="13">
+      <c r="AO17" s="55"/>
+      <c r="AP17" s="13">
         <v>0.01</v>
       </c>
-      <c r="AQ17" t="s">
+      <c r="AR17" t="s">
         <v>243</v>
       </c>
-      <c r="AR17" s="41" t="s">
+      <c r="AS17" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="AS17" s="1" t="s">
+      <c r="AT17" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="AT17" s="41" t="s">
+      <c r="AU17" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="AU17" s="1" t="s">
+      <c r="AV17" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="AW17" t="s">
+      <c r="AX17" t="s">
         <v>8</v>
       </c>
-      <c r="AX17" t="s">
+      <c r="AY17" t="s">
         <v>9</v>
       </c>
-      <c r="AY17" t="s">
+      <c r="AZ17" t="s">
         <v>10</v>
       </c>
-      <c r="AZ17" t="s">
+      <c r="BA17" t="s">
         <v>64</v>
       </c>
-      <c r="BA17" t="s">
+      <c r="BB17" t="s">
         <v>11</v>
       </c>
-      <c r="BB17" t="s">
+      <c r="BC17" t="s">
         <v>70</v>
-      </c>
-      <c r="BD17">
-        <v>250</v>
       </c>
       <c r="BE17">
         <v>250</v>
       </c>
-      <c r="BG17" s="57"/>
+      <c r="BF17">
+        <v>250</v>
+      </c>
       <c r="BH17" s="57"/>
       <c r="BI17" s="57"/>
       <c r="BJ17" s="57"/>
-      <c r="BL17" s="61">
+      <c r="BK17" s="57"/>
+      <c r="BM17" s="61">
         <v>41227</v>
       </c>
-      <c r="BM17" s="62" t="s">
+      <c r="BN17" s="62" t="s">
         <v>347</v>
       </c>
-      <c r="BN17" s="63">
+      <c r="BO17" s="63">
         <v>31.94068</v>
       </c>
-      <c r="BO17" s="63">
+      <c r="BP17" s="63">
         <v>34.687379999999997</v>
       </c>
-      <c r="BP17" s="41" t="s">
+      <c r="BQ17" s="41" t="s">
         <v>339</v>
       </c>
-      <c r="BQ17" s="64" t="s">
+      <c r="BR17" s="64" t="s">
         <v>346</v>
       </c>
-      <c r="BR17" s="60"/>
-      <c r="BW17">
+      <c r="BS17" s="60"/>
+      <c r="BX17">
         <v>19</v>
       </c>
-      <c r="BX17" s="66" t="s">
+      <c r="BY17" s="66" t="s">
         <v>358</v>
       </c>
-      <c r="BY17" s="66">
+      <c r="BZ17" s="66">
         <v>130.54</v>
       </c>
-      <c r="BZ17">
+      <c r="CA17">
         <v>40.5</v>
       </c>
-      <c r="CA17">
+      <c r="CB17">
         <v>24.85</v>
       </c>
-      <c r="CB17">
+      <c r="CC17">
         <v>163.64500000000001</v>
       </c>
-      <c r="CC17">
+      <c r="CD17">
         <v>99.39</v>
       </c>
     </row>
-    <row r="18" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A18" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5783,131 +5911,134 @@
       <c r="Y18" s="32">
         <v>6</v>
       </c>
-      <c r="Z18" s="1"/>
-      <c r="AA18" s="32" t="s">
+      <c r="Z18" s="32" t="s">
+        <v>377</v>
+      </c>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="AB18" s="16" t="s">
+      <c r="AC18" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC18" s="56" t="s">
+      <c r="AD18" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD18" s="32" t="s">
+      <c r="AE18" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="AE18" s="16" t="s">
+      <c r="AF18" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF18" s="56" t="s">
+      <c r="AG18" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG18" s="1"/>
-      <c r="AH18" s="19" t="s">
+      <c r="AH18" s="1"/>
+      <c r="AI18" s="19" t="s">
         <v>290</v>
       </c>
-      <c r="AI18" s="19" t="s">
+      <c r="AJ18" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="AJ18" s="19" t="s">
+      <c r="AK18" s="19" t="s">
         <v>316</v>
       </c>
-      <c r="AK18" s="19" t="s">
+      <c r="AL18" s="19" t="s">
         <v>264</v>
       </c>
-      <c r="AL18" s="19"/>
-      <c r="AM18" s="58" t="s">
+      <c r="AM18" s="19"/>
+      <c r="AN18" s="58" t="s">
         <v>199</v>
       </c>
-      <c r="AN18" s="55"/>
-      <c r="AO18" s="13">
+      <c r="AO18" s="55"/>
+      <c r="AP18" s="13">
         <v>0.01</v>
       </c>
-      <c r="AQ18" t="s">
+      <c r="AR18" t="s">
         <v>243</v>
       </c>
-      <c r="AR18" s="41" t="s">
+      <c r="AS18" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="AS18" s="1" t="s">
+      <c r="AT18" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="AT18" s="41" t="s">
+      <c r="AU18" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="AU18" s="1" t="s">
+      <c r="AV18" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="AW18" t="s">
+      <c r="AX18" t="s">
         <v>8</v>
       </c>
-      <c r="AX18" t="s">
+      <c r="AY18" t="s">
         <v>9</v>
       </c>
-      <c r="AY18" t="s">
+      <c r="AZ18" t="s">
         <v>10</v>
       </c>
-      <c r="AZ18" t="s">
+      <c r="BA18" t="s">
         <v>64</v>
       </c>
-      <c r="BA18" t="s">
+      <c r="BB18" t="s">
         <v>11</v>
       </c>
-      <c r="BB18" t="s">
+      <c r="BC18" t="s">
         <v>70</v>
-      </c>
-      <c r="BD18">
-        <v>250</v>
       </c>
       <c r="BE18">
         <v>250</v>
       </c>
-      <c r="BG18" s="57"/>
+      <c r="BF18">
+        <v>250</v>
+      </c>
       <c r="BH18" s="57"/>
       <c r="BI18" s="57"/>
       <c r="BJ18" s="57"/>
-      <c r="BL18" s="61">
+      <c r="BK18" s="57"/>
+      <c r="BM18" s="61">
         <v>41227</v>
       </c>
-      <c r="BM18" s="62" t="s">
+      <c r="BN18" s="62" t="s">
         <v>348</v>
       </c>
-      <c r="BN18" s="63">
+      <c r="BO18" s="63">
         <v>31.931660000000001</v>
       </c>
-      <c r="BO18" s="63">
+      <c r="BP18" s="63">
         <v>34.68336</v>
       </c>
-      <c r="BP18" s="41" t="s">
+      <c r="BQ18" s="41" t="s">
         <v>339</v>
       </c>
-      <c r="BQ18" s="64" t="s">
+      <c r="BR18" s="64" t="s">
         <v>349</v>
       </c>
-      <c r="BR18" s="60"/>
-      <c r="BW18">
+      <c r="BS18" s="60"/>
+      <c r="BX18">
         <v>18</v>
       </c>
-      <c r="BX18" s="66" t="s">
+      <c r="BY18" s="66" t="s">
         <v>358</v>
       </c>
-      <c r="BY18" s="66">
+      <c r="BZ18" s="66">
         <v>1196.8399999999999</v>
       </c>
-      <c r="BZ18">
+      <c r="CA18">
         <v>39.6</v>
       </c>
-      <c r="CA18">
+      <c r="CB18">
         <v>24.45</v>
       </c>
-      <c r="CB18">
+      <c r="CC18">
         <v>163.03299999999999</v>
       </c>
-      <c r="CC18">
+      <c r="CD18">
         <v>99.2</v>
       </c>
     </row>
-    <row r="19" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A19" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5963,131 +6094,134 @@
       <c r="Y19" s="32">
         <v>6</v>
       </c>
-      <c r="Z19" s="1"/>
-      <c r="AA19" s="32" t="s">
+      <c r="Z19" s="32" t="s">
+        <v>378</v>
+      </c>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="AB19" s="16" t="s">
+      <c r="AC19" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC19" s="56" t="s">
+      <c r="AD19" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD19" s="32" t="s">
+      <c r="AE19" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="AE19" s="16" t="s">
+      <c r="AF19" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF19" s="56" t="s">
+      <c r="AG19" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG19" s="1"/>
-      <c r="AH19" s="19" t="s">
+      <c r="AH19" s="1"/>
+      <c r="AI19" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="AI19" s="19" t="s">
+      <c r="AJ19" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="AJ19" s="19" t="s">
+      <c r="AK19" s="19" t="s">
         <v>317</v>
       </c>
-      <c r="AK19" s="19" t="s">
+      <c r="AL19" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="AL19" s="19"/>
-      <c r="AM19" s="58" t="s">
+      <c r="AM19" s="19"/>
+      <c r="AN19" s="58" t="s">
         <v>200</v>
       </c>
-      <c r="AN19" s="55"/>
-      <c r="AO19" s="13">
+      <c r="AO19" s="55"/>
+      <c r="AP19" s="13">
         <v>0.01</v>
       </c>
-      <c r="AQ19" t="s">
+      <c r="AR19" t="s">
         <v>243</v>
       </c>
-      <c r="AR19" s="41" t="s">
+      <c r="AS19" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="AS19" s="1" t="s">
+      <c r="AT19" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="AT19" s="41" t="s">
+      <c r="AU19" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="AU19" s="1" t="s">
+      <c r="AV19" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="AW19" t="s">
+      <c r="AX19" t="s">
         <v>8</v>
       </c>
-      <c r="AX19" t="s">
+      <c r="AY19" t="s">
         <v>9</v>
       </c>
-      <c r="AY19" t="s">
+      <c r="AZ19" t="s">
         <v>10</v>
       </c>
-      <c r="AZ19" t="s">
+      <c r="BA19" t="s">
         <v>64</v>
       </c>
-      <c r="BA19" t="s">
+      <c r="BB19" t="s">
         <v>11</v>
       </c>
-      <c r="BB19" t="s">
+      <c r="BC19" t="s">
         <v>70</v>
-      </c>
-      <c r="BD19">
-        <v>250</v>
       </c>
       <c r="BE19">
         <v>250</v>
       </c>
-      <c r="BG19" s="57"/>
+      <c r="BF19">
+        <v>250</v>
+      </c>
       <c r="BH19" s="57"/>
       <c r="BI19" s="57"/>
       <c r="BJ19" s="57"/>
-      <c r="BL19" s="61">
+      <c r="BK19" s="57"/>
+      <c r="BM19" s="61">
         <v>41227</v>
       </c>
-      <c r="BM19" s="62" t="s">
+      <c r="BN19" s="62" t="s">
         <v>348</v>
       </c>
-      <c r="BN19" s="63">
+      <c r="BO19" s="63">
         <v>31.931660000000001</v>
       </c>
-      <c r="BO19" s="63">
+      <c r="BP19" s="63">
         <v>34.68336</v>
       </c>
-      <c r="BP19" s="41" t="s">
+      <c r="BQ19" s="41" t="s">
         <v>339</v>
       </c>
-      <c r="BQ19" t="s">
+      <c r="BR19" t="s">
         <v>349</v>
       </c>
-      <c r="BR19" s="59"/>
-      <c r="BW19">
+      <c r="BS19" s="59"/>
+      <c r="BX19">
         <v>18</v>
       </c>
-      <c r="BX19" s="66" t="s">
+      <c r="BY19" s="66" t="s">
         <v>358</v>
       </c>
-      <c r="BY19" s="66">
+      <c r="BZ19" s="66">
         <v>1196.8399999999999</v>
       </c>
-      <c r="BZ19">
+      <c r="CA19">
         <v>39.6</v>
       </c>
-      <c r="CA19">
+      <c r="CB19">
         <v>24.45</v>
       </c>
-      <c r="CB19">
+      <c r="CC19">
         <v>163.03299999999999</v>
       </c>
-      <c r="CC19">
+      <c r="CD19">
         <v>99.2</v>
       </c>
     </row>
-    <row r="20" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A20" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -6143,131 +6277,134 @@
       <c r="Y20" s="32">
         <v>6</v>
       </c>
-      <c r="Z20" s="1"/>
-      <c r="AA20" s="32" t="s">
+      <c r="Z20" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="AB20" s="16" t="s">
+      <c r="AC20" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC20" s="56" t="s">
+      <c r="AD20" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD20" s="32" t="s">
+      <c r="AE20" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="AE20" s="16" t="s">
+      <c r="AF20" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF20" s="56" t="s">
+      <c r="AG20" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG20" s="1"/>
-      <c r="AH20" s="19" t="s">
+      <c r="AH20" s="1"/>
+      <c r="AI20" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="AI20" s="19" t="s">
+      <c r="AJ20" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="AJ20" s="19" t="s">
+      <c r="AK20" s="19" t="s">
         <v>318</v>
       </c>
-      <c r="AK20" s="19" t="s">
+      <c r="AL20" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="AL20" s="19"/>
-      <c r="AM20" s="58" t="s">
+      <c r="AM20" s="19"/>
+      <c r="AN20" s="58" t="s">
         <v>201</v>
       </c>
-      <c r="AN20" s="55"/>
-      <c r="AO20" s="13">
+      <c r="AO20" s="55"/>
+      <c r="AP20" s="13">
         <v>0.01</v>
       </c>
-      <c r="AQ20" t="s">
+      <c r="AR20" t="s">
         <v>243</v>
       </c>
-      <c r="AR20" s="41" t="s">
+      <c r="AS20" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="AS20" s="1" t="s">
+      <c r="AT20" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="AT20" s="41" t="s">
+      <c r="AU20" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="AU20" s="1" t="s">
+      <c r="AV20" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="AW20" t="s">
+      <c r="AX20" t="s">
         <v>8</v>
       </c>
-      <c r="AX20" t="s">
+      <c r="AY20" t="s">
         <v>9</v>
       </c>
-      <c r="AY20" t="s">
+      <c r="AZ20" t="s">
         <v>10</v>
       </c>
-      <c r="AZ20" t="s">
+      <c r="BA20" t="s">
         <v>64</v>
       </c>
-      <c r="BA20" t="s">
+      <c r="BB20" t="s">
         <v>11</v>
       </c>
-      <c r="BB20" t="s">
+      <c r="BC20" t="s">
         <v>70</v>
-      </c>
-      <c r="BD20">
-        <v>250</v>
       </c>
       <c r="BE20">
         <v>250</v>
       </c>
-      <c r="BG20" s="57"/>
+      <c r="BF20">
+        <v>250</v>
+      </c>
       <c r="BH20" s="57"/>
       <c r="BI20" s="57"/>
       <c r="BJ20" s="57"/>
-      <c r="BL20" s="61">
+      <c r="BK20" s="57"/>
+      <c r="BM20" s="61">
         <v>41227</v>
       </c>
-      <c r="BM20" s="62" t="s">
+      <c r="BN20" s="62" t="s">
         <v>348</v>
       </c>
-      <c r="BN20" s="63">
+      <c r="BO20" s="63">
         <v>31.931660000000001</v>
       </c>
-      <c r="BO20" s="63">
+      <c r="BP20" s="63">
         <v>34.68336</v>
       </c>
-      <c r="BP20" s="41" t="s">
+      <c r="BQ20" s="41" t="s">
         <v>339</v>
       </c>
-      <c r="BQ20" t="s">
+      <c r="BR20" t="s">
         <v>349</v>
       </c>
-      <c r="BR20" s="59"/>
-      <c r="BW20">
+      <c r="BS20" s="59"/>
+      <c r="BX20">
         <v>18</v>
       </c>
-      <c r="BX20" s="66" t="s">
+      <c r="BY20" s="66" t="s">
         <v>358</v>
       </c>
-      <c r="BY20" s="66">
+      <c r="BZ20" s="66">
         <v>1196.8399999999999</v>
       </c>
-      <c r="BZ20">
+      <c r="CA20">
         <v>39.6</v>
       </c>
-      <c r="CA20">
+      <c r="CB20">
         <v>24.45</v>
       </c>
-      <c r="CB20">
+      <c r="CC20">
         <v>163.03299999999999</v>
       </c>
-      <c r="CC20">
+      <c r="CD20">
         <v>99.2</v>
       </c>
     </row>
-    <row r="21" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A21" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -6323,131 +6460,134 @@
       <c r="Y21" s="32">
         <v>7</v>
       </c>
-      <c r="Z21" s="1"/>
-      <c r="AA21" s="32" t="s">
+      <c r="Z21" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="AB21" s="16" t="s">
+      <c r="AC21" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC21" s="56" t="s">
+      <c r="AD21" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD21" s="32" t="s">
+      <c r="AE21" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="AE21" s="16" t="s">
+      <c r="AF21" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF21" s="56" t="s">
+      <c r="AG21" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG21" s="1"/>
-      <c r="AH21" s="19" t="s">
+      <c r="AH21" s="1"/>
+      <c r="AI21" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="AI21" s="19" t="s">
+      <c r="AJ21" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="AJ21" s="19" t="s">
+      <c r="AK21" s="19" t="s">
         <v>319</v>
       </c>
-      <c r="AK21" s="19" t="s">
+      <c r="AL21" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="AL21" s="19"/>
-      <c r="AM21" s="58" t="s">
+      <c r="AM21" s="19"/>
+      <c r="AN21" s="58" t="s">
         <v>202</v>
       </c>
-      <c r="AN21" s="55"/>
-      <c r="AO21" s="13">
+      <c r="AO21" s="55"/>
+      <c r="AP21" s="13">
         <v>0.01</v>
       </c>
-      <c r="AQ21" t="s">
+      <c r="AR21" t="s">
         <v>243</v>
       </c>
-      <c r="AR21" s="41" t="s">
+      <c r="AS21" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="AS21" s="1" t="s">
+      <c r="AT21" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="AT21" s="41" t="s">
+      <c r="AU21" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="AU21" s="1" t="s">
+      <c r="AV21" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="AW21" t="s">
+      <c r="AX21" t="s">
         <v>8</v>
       </c>
-      <c r="AX21" t="s">
+      <c r="AY21" t="s">
         <v>9</v>
       </c>
-      <c r="AY21" t="s">
+      <c r="AZ21" t="s">
         <v>10</v>
       </c>
-      <c r="AZ21" t="s">
+      <c r="BA21" t="s">
         <v>64</v>
       </c>
-      <c r="BA21" t="s">
+      <c r="BB21" t="s">
         <v>11</v>
       </c>
-      <c r="BB21" t="s">
+      <c r="BC21" t="s">
         <v>70</v>
-      </c>
-      <c r="BD21">
-        <v>250</v>
       </c>
       <c r="BE21">
         <v>250</v>
       </c>
-      <c r="BG21" s="57"/>
+      <c r="BF21">
+        <v>250</v>
+      </c>
       <c r="BH21" s="57"/>
       <c r="BI21" s="57"/>
       <c r="BJ21" s="57"/>
-      <c r="BL21" s="61">
+      <c r="BK21" s="57"/>
+      <c r="BM21" s="61">
         <v>41233</v>
       </c>
-      <c r="BM21" s="62" t="s">
+      <c r="BN21" s="62" t="s">
         <v>350</v>
       </c>
-      <c r="BN21" s="63">
+      <c r="BO21" s="63">
         <v>32.465020000000003</v>
       </c>
-      <c r="BO21" s="63">
+      <c r="BP21" s="63">
         <v>34.882582999999997</v>
       </c>
-      <c r="BP21" s="41" t="s">
+      <c r="BQ21" s="41" t="s">
         <v>339</v>
       </c>
-      <c r="BQ21" s="64" t="s">
+      <c r="BR21" s="64" t="s">
         <v>351</v>
       </c>
-      <c r="BR21" s="60"/>
-      <c r="BW21">
+      <c r="BS21" s="60"/>
+      <c r="BX21">
         <v>3.8</v>
       </c>
-      <c r="BX21" s="41" t="s">
+      <c r="BY21" s="41" t="s">
         <v>357</v>
       </c>
-      <c r="BY21" s="41">
+      <c r="BZ21" s="41">
         <v>0</v>
       </c>
-      <c r="BZ21">
+      <c r="CA21">
         <v>41.04</v>
       </c>
-      <c r="CA21">
+      <c r="CB21">
         <v>25.24</v>
       </c>
-      <c r="CB21">
+      <c r="CC21">
         <v>237.71</v>
       </c>
-      <c r="CC21">
+      <c r="CD21">
         <v>105.6</v>
       </c>
     </row>
-    <row r="22" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A22" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -6503,131 +6643,134 @@
       <c r="Y22" s="32">
         <v>7</v>
       </c>
-      <c r="Z22" s="1"/>
-      <c r="AA22" s="32" t="s">
+      <c r="Z22" s="32" t="s">
+        <v>381</v>
+      </c>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="AB22" s="16" t="s">
+      <c r="AC22" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC22" s="56" t="s">
+      <c r="AD22" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD22" s="32" t="s">
+      <c r="AE22" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="AE22" s="16" t="s">
+      <c r="AF22" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF22" s="56" t="s">
+      <c r="AG22" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG22" s="1"/>
-      <c r="AH22" s="19" t="s">
+      <c r="AH22" s="1"/>
+      <c r="AI22" s="19" t="s">
         <v>294</v>
       </c>
-      <c r="AI22" s="19" t="s">
+      <c r="AJ22" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="AJ22" s="19" t="s">
+      <c r="AK22" s="19" t="s">
         <v>320</v>
       </c>
-      <c r="AK22" s="19" t="s">
+      <c r="AL22" s="19" t="s">
         <v>268</v>
       </c>
-      <c r="AL22" s="19"/>
-      <c r="AM22" s="58" t="s">
+      <c r="AM22" s="19"/>
+      <c r="AN22" s="58" t="s">
         <v>203</v>
       </c>
-      <c r="AN22" s="55"/>
-      <c r="AO22" s="13">
+      <c r="AO22" s="55"/>
+      <c r="AP22" s="13">
         <v>0.01</v>
       </c>
-      <c r="AQ22" t="s">
+      <c r="AR22" t="s">
         <v>243</v>
       </c>
-      <c r="AR22" s="41" t="s">
+      <c r="AS22" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="AS22" s="1" t="s">
+      <c r="AT22" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="AT22" s="41" t="s">
+      <c r="AU22" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="AU22" s="1" t="s">
+      <c r="AV22" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="AW22" t="s">
+      <c r="AX22" t="s">
         <v>8</v>
       </c>
-      <c r="AX22" t="s">
+      <c r="AY22" t="s">
         <v>9</v>
       </c>
-      <c r="AY22" t="s">
+      <c r="AZ22" t="s">
         <v>10</v>
       </c>
-      <c r="AZ22" t="s">
+      <c r="BA22" t="s">
         <v>64</v>
       </c>
-      <c r="BA22" t="s">
+      <c r="BB22" t="s">
         <v>11</v>
       </c>
-      <c r="BB22" t="s">
+      <c r="BC22" t="s">
         <v>70</v>
-      </c>
-      <c r="BD22">
-        <v>250</v>
       </c>
       <c r="BE22">
         <v>250</v>
       </c>
-      <c r="BG22" s="57"/>
+      <c r="BF22">
+        <v>250</v>
+      </c>
       <c r="BH22" s="57"/>
       <c r="BI22" s="57"/>
       <c r="BJ22" s="57"/>
-      <c r="BL22" s="61">
+      <c r="BK22" s="57"/>
+      <c r="BM22" s="61">
         <v>41233</v>
       </c>
-      <c r="BM22" s="62" t="s">
+      <c r="BN22" s="62" t="s">
         <v>350</v>
       </c>
-      <c r="BN22" s="63">
+      <c r="BO22" s="63">
         <v>32.465020000000003</v>
       </c>
-      <c r="BO22" s="63">
+      <c r="BP22" s="63">
         <v>34.882582999999997</v>
       </c>
-      <c r="BP22" s="41" t="s">
+      <c r="BQ22" s="41" t="s">
         <v>339</v>
       </c>
-      <c r="BQ22" s="64" t="s">
+      <c r="BR22" s="64" t="s">
         <v>351</v>
       </c>
-      <c r="BR22" s="60"/>
-      <c r="BW22">
+      <c r="BS22" s="60"/>
+      <c r="BX22">
         <v>3.8</v>
       </c>
-      <c r="BX22" s="41" t="s">
+      <c r="BY22" s="41" t="s">
         <v>357</v>
       </c>
-      <c r="BY22" s="41">
+      <c r="BZ22" s="41">
         <v>0</v>
       </c>
-      <c r="BZ22">
+      <c r="CA22">
         <v>41.04</v>
       </c>
-      <c r="CA22">
+      <c r="CB22">
         <v>25.24</v>
       </c>
-      <c r="CB22">
+      <c r="CC22">
         <v>237.71</v>
       </c>
-      <c r="CC22">
+      <c r="CD22">
         <v>105.6</v>
       </c>
     </row>
-    <row r="23" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A23" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -6683,131 +6826,134 @@
       <c r="Y23" s="32">
         <v>7</v>
       </c>
-      <c r="Z23" s="1"/>
-      <c r="AA23" s="32" t="s">
+      <c r="Z23" s="32" t="s">
+        <v>382</v>
+      </c>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="AB23" s="16" t="s">
+      <c r="AC23" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC23" s="56" t="s">
+      <c r="AD23" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD23" s="32" t="s">
+      <c r="AE23" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="AE23" s="16" t="s">
+      <c r="AF23" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF23" s="56" t="s">
+      <c r="AG23" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG23" s="1"/>
-      <c r="AH23" s="19" t="s">
+      <c r="AH23" s="1"/>
+      <c r="AI23" s="19" t="s">
         <v>295</v>
       </c>
-      <c r="AI23" s="19" t="s">
+      <c r="AJ23" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="AJ23" s="19" t="s">
+      <c r="AK23" s="19" t="s">
         <v>321</v>
       </c>
-      <c r="AK23" s="19" t="s">
+      <c r="AL23" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="AL23" s="19"/>
-      <c r="AM23" s="58" t="s">
+      <c r="AM23" s="19"/>
+      <c r="AN23" s="58" t="s">
         <v>204</v>
       </c>
-      <c r="AN23" s="55"/>
-      <c r="AO23" s="13">
+      <c r="AO23" s="55"/>
+      <c r="AP23" s="13">
         <v>0.01</v>
       </c>
-      <c r="AQ23" t="s">
+      <c r="AR23" t="s">
         <v>243</v>
       </c>
-      <c r="AR23" s="41" t="s">
+      <c r="AS23" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="AS23" s="1" t="s">
+      <c r="AT23" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="AT23" s="41" t="s">
+      <c r="AU23" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="AU23" s="1" t="s">
+      <c r="AV23" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="AW23" t="s">
+      <c r="AX23" t="s">
         <v>8</v>
       </c>
-      <c r="AX23" t="s">
+      <c r="AY23" t="s">
         <v>9</v>
       </c>
-      <c r="AY23" t="s">
+      <c r="AZ23" t="s">
         <v>10</v>
       </c>
-      <c r="AZ23" t="s">
+      <c r="BA23" t="s">
         <v>64</v>
       </c>
-      <c r="BA23" t="s">
+      <c r="BB23" t="s">
         <v>11</v>
       </c>
-      <c r="BB23" t="s">
+      <c r="BC23" t="s">
         <v>70</v>
-      </c>
-      <c r="BD23">
-        <v>250</v>
       </c>
       <c r="BE23">
         <v>250</v>
       </c>
-      <c r="BG23" s="57"/>
+      <c r="BF23">
+        <v>250</v>
+      </c>
       <c r="BH23" s="57"/>
       <c r="BI23" s="57"/>
       <c r="BJ23" s="57"/>
-      <c r="BL23" s="61">
+      <c r="BK23" s="57"/>
+      <c r="BM23" s="61">
         <v>41233</v>
       </c>
-      <c r="BM23" s="62" t="s">
+      <c r="BN23" s="62" t="s">
         <v>350</v>
       </c>
-      <c r="BN23" s="63">
+      <c r="BO23" s="63">
         <v>32.465020000000003</v>
       </c>
-      <c r="BO23" s="63">
+      <c r="BP23" s="63">
         <v>34.882582999999997</v>
       </c>
-      <c r="BP23" s="41" t="s">
+      <c r="BQ23" s="41" t="s">
         <v>339</v>
       </c>
-      <c r="BQ23" s="64" t="s">
+      <c r="BR23" s="64" t="s">
         <v>351</v>
       </c>
-      <c r="BR23" s="60"/>
-      <c r="BW23">
+      <c r="BS23" s="60"/>
+      <c r="BX23">
         <v>3.8</v>
       </c>
-      <c r="BX23" s="41" t="s">
+      <c r="BY23" s="41" t="s">
         <v>357</v>
       </c>
-      <c r="BY23" s="41">
+      <c r="BZ23" s="41">
         <v>0</v>
       </c>
-      <c r="BZ23">
+      <c r="CA23">
         <v>41.04</v>
       </c>
-      <c r="CA23">
+      <c r="CB23">
         <v>25.24</v>
       </c>
-      <c r="CB23">
+      <c r="CC23">
         <v>237.71</v>
       </c>
-      <c r="CC23">
+      <c r="CD23">
         <v>105.6</v>
       </c>
     </row>
-    <row r="24" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A24" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -6863,131 +7009,134 @@
       <c r="Y24" s="32">
         <v>8</v>
       </c>
-      <c r="Z24" s="1"/>
-      <c r="AA24" s="32" t="s">
+      <c r="Z24" s="32" t="s">
+        <v>383</v>
+      </c>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="AB24" s="16" t="s">
+      <c r="AC24" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC24" s="56" t="s">
+      <c r="AD24" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD24" s="32" t="s">
+      <c r="AE24" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="AE24" s="16" t="s">
+      <c r="AF24" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF24" s="56" t="s">
+      <c r="AG24" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG24" s="1"/>
-      <c r="AH24" s="19" t="s">
+      <c r="AH24" s="1"/>
+      <c r="AI24" s="19" t="s">
         <v>296</v>
       </c>
-      <c r="AI24" s="19" t="s">
+      <c r="AJ24" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="AJ24" s="19" t="s">
+      <c r="AK24" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="AK24" s="19" t="s">
+      <c r="AL24" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="AL24" s="19"/>
-      <c r="AM24" s="58" t="s">
+      <c r="AM24" s="19"/>
+      <c r="AN24" s="58" t="s">
         <v>205</v>
       </c>
-      <c r="AN24" s="55"/>
-      <c r="AO24" s="13">
+      <c r="AO24" s="55"/>
+      <c r="AP24" s="13">
         <v>0.01</v>
       </c>
-      <c r="AQ24" t="s">
+      <c r="AR24" t="s">
         <v>243</v>
       </c>
-      <c r="AR24" s="41" t="s">
+      <c r="AS24" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="AS24" s="1" t="s">
+      <c r="AT24" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="AT24" s="41" t="s">
+      <c r="AU24" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="AU24" s="1" t="s">
+      <c r="AV24" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="AW24" t="s">
+      <c r="AX24" t="s">
         <v>8</v>
       </c>
-      <c r="AX24" t="s">
+      <c r="AY24" t="s">
         <v>9</v>
       </c>
-      <c r="AY24" t="s">
+      <c r="AZ24" t="s">
         <v>10</v>
       </c>
-      <c r="AZ24" t="s">
+      <c r="BA24" t="s">
         <v>64</v>
       </c>
-      <c r="BA24" t="s">
+      <c r="BB24" t="s">
         <v>11</v>
       </c>
-      <c r="BB24" t="s">
+      <c r="BC24" t="s">
         <v>70</v>
-      </c>
-      <c r="BD24">
-        <v>250</v>
       </c>
       <c r="BE24">
         <v>250</v>
       </c>
-      <c r="BG24" s="57"/>
+      <c r="BF24">
+        <v>250</v>
+      </c>
       <c r="BH24" s="57"/>
       <c r="BI24" s="57"/>
       <c r="BJ24" s="57"/>
-      <c r="BL24" s="61">
+      <c r="BK24" s="57"/>
+      <c r="BM24" s="61">
         <v>41233</v>
       </c>
-      <c r="BM24" s="62" t="s">
+      <c r="BN24" s="62" t="s">
         <v>352</v>
       </c>
-      <c r="BN24" s="63">
+      <c r="BO24" s="63">
         <v>32.463700000000003</v>
       </c>
-      <c r="BO24" s="63">
+      <c r="BP24" s="63">
         <v>34.879339999999999</v>
       </c>
-      <c r="BP24" s="41" t="s">
+      <c r="BQ24" s="41" t="s">
         <v>339</v>
       </c>
-      <c r="BQ24" s="64" t="s">
+      <c r="BR24" s="64" t="s">
         <v>353</v>
       </c>
-      <c r="BR24" s="60"/>
-      <c r="BW24">
+      <c r="BS24" s="60"/>
+      <c r="BX24">
         <v>5.5</v>
       </c>
-      <c r="BX24" s="66" t="s">
+      <c r="BY24" s="66" t="s">
         <v>358</v>
       </c>
-      <c r="BY24" s="65">
+      <c r="BZ24" s="65">
         <v>338.21</v>
       </c>
-      <c r="BZ24">
+      <c r="CA24">
         <v>39.4</v>
       </c>
-      <c r="CA24">
+      <c r="CB24">
         <v>23.09</v>
       </c>
-      <c r="CB24">
+      <c r="CC24">
         <v>197.125</v>
       </c>
-      <c r="CC24">
+      <c r="CD24">
         <v>100.05</v>
       </c>
     </row>
-    <row r="25" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A25" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -7043,131 +7192,134 @@
       <c r="Y25" s="32">
         <v>8</v>
       </c>
-      <c r="Z25" s="1"/>
-      <c r="AA25" s="32" t="s">
+      <c r="Z25" s="32" t="s">
+        <v>384</v>
+      </c>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="AB25" s="16" t="s">
+      <c r="AC25" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC25" s="56" t="s">
+      <c r="AD25" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD25" s="32" t="s">
+      <c r="AE25" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="AE25" s="16" t="s">
+      <c r="AF25" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF25" s="56" t="s">
+      <c r="AG25" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG25" s="1"/>
-      <c r="AH25" s="19" t="s">
+      <c r="AH25" s="1"/>
+      <c r="AI25" s="19" t="s">
         <v>297</v>
       </c>
-      <c r="AI25" s="19" t="s">
+      <c r="AJ25" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="AJ25" s="19" t="s">
+      <c r="AK25" s="19" t="s">
         <v>323</v>
       </c>
-      <c r="AK25" s="19" t="s">
+      <c r="AL25" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="AL25" s="19"/>
-      <c r="AM25" s="58" t="s">
+      <c r="AM25" s="19"/>
+      <c r="AN25" s="58" t="s">
         <v>206</v>
       </c>
-      <c r="AN25" s="55"/>
-      <c r="AO25" s="13">
+      <c r="AO25" s="55"/>
+      <c r="AP25" s="13">
         <v>0.01</v>
       </c>
-      <c r="AQ25" t="s">
+      <c r="AR25" t="s">
         <v>243</v>
       </c>
-      <c r="AR25" s="41" t="s">
+      <c r="AS25" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="AS25" s="1" t="s">
+      <c r="AT25" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="AT25" s="41" t="s">
+      <c r="AU25" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="AU25" s="1" t="s">
+      <c r="AV25" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="AW25" t="s">
+      <c r="AX25" t="s">
         <v>8</v>
       </c>
-      <c r="AX25" t="s">
+      <c r="AY25" t="s">
         <v>9</v>
       </c>
-      <c r="AY25" t="s">
+      <c r="AZ25" t="s">
         <v>10</v>
       </c>
-      <c r="AZ25" t="s">
+      <c r="BA25" t="s">
         <v>64</v>
       </c>
-      <c r="BA25" t="s">
+      <c r="BB25" t="s">
         <v>11</v>
       </c>
-      <c r="BB25" t="s">
+      <c r="BC25" t="s">
         <v>70</v>
-      </c>
-      <c r="BD25">
-        <v>250</v>
       </c>
       <c r="BE25">
         <v>250</v>
       </c>
-      <c r="BG25" s="57"/>
+      <c r="BF25">
+        <v>250</v>
+      </c>
       <c r="BH25" s="57"/>
       <c r="BI25" s="57"/>
       <c r="BJ25" s="57"/>
-      <c r="BL25" s="61">
+      <c r="BK25" s="57"/>
+      <c r="BM25" s="61">
         <v>41233</v>
       </c>
-      <c r="BM25" s="62" t="s">
+      <c r="BN25" s="62" t="s">
         <v>352</v>
       </c>
-      <c r="BN25" s="63">
+      <c r="BO25" s="63">
         <v>32.463700000000003</v>
       </c>
-      <c r="BO25" s="63">
+      <c r="BP25" s="63">
         <v>34.879339999999999</v>
       </c>
-      <c r="BP25" s="41" t="s">
+      <c r="BQ25" s="41" t="s">
         <v>339</v>
       </c>
-      <c r="BQ25" s="64" t="s">
+      <c r="BR25" s="64" t="s">
         <v>353</v>
       </c>
-      <c r="BR25" s="60"/>
-      <c r="BW25">
+      <c r="BS25" s="60"/>
+      <c r="BX25">
         <v>5.5</v>
       </c>
-      <c r="BX25" s="66" t="s">
+      <c r="BY25" s="66" t="s">
         <v>358</v>
       </c>
-      <c r="BY25" s="66">
+      <c r="BZ25" s="66">
         <v>338.21</v>
       </c>
-      <c r="BZ25">
+      <c r="CA25">
         <v>39.4</v>
       </c>
-      <c r="CA25">
+      <c r="CB25">
         <v>23.09</v>
       </c>
-      <c r="CB25">
+      <c r="CC25">
         <v>197.125</v>
       </c>
-      <c r="CC25">
+      <c r="CD25">
         <v>100.05</v>
       </c>
     </row>
-    <row r="26" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -7223,131 +7375,134 @@
       <c r="Y26" s="32">
         <v>8</v>
       </c>
-      <c r="Z26" s="1"/>
-      <c r="AA26" s="32" t="s">
+      <c r="Z26" s="32" t="s">
+        <v>385</v>
+      </c>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="AB26" s="16" t="s">
+      <c r="AC26" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC26" s="56" t="s">
+      <c r="AD26" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD26" s="32" t="s">
+      <c r="AE26" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="AE26" s="16" t="s">
+      <c r="AF26" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF26" s="56" t="s">
+      <c r="AG26" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG26" s="1"/>
-      <c r="AH26" s="19" t="s">
+      <c r="AH26" s="1"/>
+      <c r="AI26" s="19" t="s">
         <v>298</v>
       </c>
-      <c r="AI26" s="19" t="s">
+      <c r="AJ26" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="AJ26" s="19" t="s">
+      <c r="AK26" s="19" t="s">
         <v>324</v>
       </c>
-      <c r="AK26" s="19" t="s">
+      <c r="AL26" s="19" t="s">
         <v>272</v>
       </c>
-      <c r="AL26" s="19"/>
-      <c r="AM26" s="58" t="s">
+      <c r="AM26" s="19"/>
+      <c r="AN26" s="58" t="s">
         <v>207</v>
       </c>
-      <c r="AN26" s="55"/>
-      <c r="AO26" s="13">
+      <c r="AO26" s="55"/>
+      <c r="AP26" s="13">
         <v>0.01</v>
       </c>
-      <c r="AQ26" t="s">
+      <c r="AR26" t="s">
         <v>243</v>
       </c>
-      <c r="AR26" s="41" t="s">
+      <c r="AS26" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="AS26" s="1" t="s">
+      <c r="AT26" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="AT26" s="41" t="s">
+      <c r="AU26" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="AU26" s="1" t="s">
+      <c r="AV26" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="AW26" t="s">
+      <c r="AX26" t="s">
         <v>8</v>
       </c>
-      <c r="AX26" t="s">
+      <c r="AY26" t="s">
         <v>9</v>
       </c>
-      <c r="AY26" t="s">
+      <c r="AZ26" t="s">
         <v>10</v>
       </c>
-      <c r="AZ26" t="s">
+      <c r="BA26" t="s">
         <v>64</v>
       </c>
-      <c r="BA26" t="s">
+      <c r="BB26" t="s">
         <v>11</v>
       </c>
-      <c r="BB26" t="s">
+      <c r="BC26" t="s">
         <v>70</v>
-      </c>
-      <c r="BD26">
-        <v>250</v>
       </c>
       <c r="BE26">
         <v>250</v>
       </c>
-      <c r="BG26" s="57"/>
+      <c r="BF26">
+        <v>250</v>
+      </c>
       <c r="BH26" s="57"/>
       <c r="BI26" s="57"/>
       <c r="BJ26" s="57"/>
-      <c r="BL26" s="61">
+      <c r="BK26" s="57"/>
+      <c r="BM26" s="61">
         <v>41233</v>
       </c>
-      <c r="BM26" s="62" t="s">
+      <c r="BN26" s="62" t="s">
         <v>352</v>
       </c>
-      <c r="BN26" s="63">
+      <c r="BO26" s="63">
         <v>32.463700000000003</v>
       </c>
-      <c r="BO26" s="63">
+      <c r="BP26" s="63">
         <v>34.879339999999999</v>
       </c>
-      <c r="BP26" s="41" t="s">
+      <c r="BQ26" s="41" t="s">
         <v>339</v>
       </c>
-      <c r="BQ26" s="64" t="s">
+      <c r="BR26" s="64" t="s">
         <v>353</v>
       </c>
-      <c r="BR26" s="60"/>
-      <c r="BW26">
+      <c r="BS26" s="60"/>
+      <c r="BX26">
         <v>5.5</v>
       </c>
-      <c r="BX26" s="66" t="s">
+      <c r="BY26" s="66" t="s">
         <v>358</v>
       </c>
-      <c r="BY26" s="66">
+      <c r="BZ26" s="66">
         <v>338.21</v>
       </c>
-      <c r="BZ26">
+      <c r="CA26">
         <v>39.4</v>
       </c>
-      <c r="CA26">
+      <c r="CB26">
         <v>23.09</v>
       </c>
-      <c r="CB26">
+      <c r="CC26">
         <v>197.125</v>
       </c>
-      <c r="CC26">
+      <c r="CD26">
         <v>100.05</v>
       </c>
     </row>
-    <row r="27" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -7403,131 +7558,134 @@
       <c r="Y27" s="32">
         <v>9</v>
       </c>
-      <c r="Z27" s="1"/>
-      <c r="AA27" s="32" t="s">
+      <c r="Z27" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="AB27" s="16" t="s">
+      <c r="AC27" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC27" s="56" t="s">
+      <c r="AD27" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD27" s="32" t="s">
+      <c r="AE27" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="AE27" s="16" t="s">
+      <c r="AF27" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF27" s="56" t="s">
+      <c r="AG27" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG27" s="1"/>
-      <c r="AH27" s="19" t="s">
+      <c r="AH27" s="1"/>
+      <c r="AI27" s="19" t="s">
         <v>299</v>
       </c>
-      <c r="AI27" s="19" t="s">
+      <c r="AJ27" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="AJ27" s="19" t="s">
+      <c r="AK27" s="19" t="s">
         <v>325</v>
       </c>
-      <c r="AK27" s="19" t="s">
+      <c r="AL27" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="AL27" s="19"/>
-      <c r="AM27" s="58" t="s">
+      <c r="AM27" s="19"/>
+      <c r="AN27" s="58" t="s">
         <v>208</v>
       </c>
-      <c r="AN27" s="55"/>
-      <c r="AO27" s="13">
+      <c r="AO27" s="55"/>
+      <c r="AP27" s="13">
         <v>0.01</v>
       </c>
-      <c r="AQ27" t="s">
+      <c r="AR27" t="s">
         <v>243</v>
       </c>
-      <c r="AR27" s="41" t="s">
+      <c r="AS27" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="AS27" s="1" t="s">
+      <c r="AT27" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="AT27" s="41" t="s">
+      <c r="AU27" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="AU27" s="1" t="s">
+      <c r="AV27" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="AW27" t="s">
+      <c r="AX27" t="s">
         <v>8</v>
       </c>
-      <c r="AX27" t="s">
+      <c r="AY27" t="s">
         <v>9</v>
       </c>
-      <c r="AY27" t="s">
+      <c r="AZ27" t="s">
         <v>10</v>
       </c>
-      <c r="AZ27" t="s">
+      <c r="BA27" t="s">
         <v>64</v>
       </c>
-      <c r="BA27" t="s">
+      <c r="BB27" t="s">
         <v>11</v>
       </c>
-      <c r="BB27" t="s">
+      <c r="BC27" t="s">
         <v>70</v>
-      </c>
-      <c r="BD27">
-        <v>250</v>
       </c>
       <c r="BE27">
         <v>250</v>
       </c>
-      <c r="BG27" s="57"/>
+      <c r="BF27">
+        <v>250</v>
+      </c>
       <c r="BH27" s="57"/>
       <c r="BI27" s="57"/>
       <c r="BJ27" s="57"/>
-      <c r="BL27" s="61">
+      <c r="BK27" s="57"/>
+      <c r="BM27" s="61">
         <v>41233</v>
       </c>
-      <c r="BM27" s="62" t="s">
+      <c r="BN27" s="62" t="s">
         <v>354</v>
       </c>
-      <c r="BN27" s="63">
+      <c r="BO27" s="63">
         <v>32.42868</v>
       </c>
-      <c r="BO27" s="63">
+      <c r="BP27" s="63">
         <v>34.870280000000001</v>
       </c>
-      <c r="BP27" s="41" t="s">
+      <c r="BQ27" s="41" t="s">
         <v>339</v>
       </c>
-      <c r="BQ27" t="s">
+      <c r="BR27" t="s">
         <v>355</v>
       </c>
-      <c r="BR27" s="59"/>
-      <c r="BW27">
+      <c r="BS27" s="59"/>
+      <c r="BX27">
         <v>6.5</v>
       </c>
-      <c r="BX27" s="66" t="s">
+      <c r="BY27" s="66" t="s">
         <v>358</v>
       </c>
-      <c r="BY27" s="66">
+      <c r="BZ27" s="66">
         <v>4192.68</v>
       </c>
-      <c r="BZ27">
+      <c r="CA27">
         <v>39.5</v>
       </c>
-      <c r="CA27">
+      <c r="CB27">
         <v>22.5</v>
       </c>
-      <c r="CB27">
+      <c r="CC27">
         <v>201.655</v>
       </c>
-      <c r="CC27">
+      <c r="CD27">
         <v>98.32</v>
       </c>
     </row>
-    <row r="28" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -7583,131 +7741,134 @@
       <c r="Y28" s="32">
         <v>9</v>
       </c>
-      <c r="Z28" s="1"/>
-      <c r="AA28" s="32" t="s">
+      <c r="Z28" s="32" t="s">
+        <v>387</v>
+      </c>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="AB28" s="16" t="s">
+      <c r="AC28" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC28" s="56" t="s">
+      <c r="AD28" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD28" s="32" t="s">
+      <c r="AE28" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="AE28" s="16" t="s">
+      <c r="AF28" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF28" s="56" t="s">
+      <c r="AG28" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG28" s="1"/>
-      <c r="AH28" s="19" t="s">
+      <c r="AH28" s="1"/>
+      <c r="AI28" s="19" t="s">
         <v>300</v>
       </c>
-      <c r="AI28" s="19" t="s">
+      <c r="AJ28" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="AJ28" s="19" t="s">
+      <c r="AK28" s="19" t="s">
         <v>326</v>
       </c>
-      <c r="AK28" s="19" t="s">
+      <c r="AL28" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="AL28" s="19"/>
-      <c r="AM28" s="58" t="s">
+      <c r="AM28" s="19"/>
+      <c r="AN28" s="58" t="s">
         <v>209</v>
       </c>
-      <c r="AN28" s="55"/>
-      <c r="AO28" s="13">
+      <c r="AO28" s="55"/>
+      <c r="AP28" s="13">
         <v>0.01</v>
       </c>
-      <c r="AQ28" t="s">
+      <c r="AR28" t="s">
         <v>243</v>
       </c>
-      <c r="AR28" s="41" t="s">
+      <c r="AS28" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="AS28" s="1" t="s">
+      <c r="AT28" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="AT28" s="41" t="s">
+      <c r="AU28" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="AU28" s="1" t="s">
+      <c r="AV28" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="AW28" t="s">
+      <c r="AX28" t="s">
         <v>8</v>
       </c>
-      <c r="AX28" t="s">
+      <c r="AY28" t="s">
         <v>9</v>
       </c>
-      <c r="AY28" t="s">
+      <c r="AZ28" t="s">
         <v>10</v>
       </c>
-      <c r="AZ28" t="s">
+      <c r="BA28" t="s">
         <v>64</v>
       </c>
-      <c r="BA28" t="s">
+      <c r="BB28" t="s">
         <v>11</v>
       </c>
-      <c r="BB28" t="s">
+      <c r="BC28" t="s">
         <v>70</v>
-      </c>
-      <c r="BD28">
-        <v>250</v>
       </c>
       <c r="BE28">
         <v>250</v>
       </c>
-      <c r="BG28" s="57"/>
+      <c r="BF28">
+        <v>250</v>
+      </c>
       <c r="BH28" s="57"/>
       <c r="BI28" s="57"/>
       <c r="BJ28" s="57"/>
-      <c r="BL28" s="61">
+      <c r="BK28" s="57"/>
+      <c r="BM28" s="61">
         <v>41233</v>
       </c>
-      <c r="BM28" s="62" t="s">
+      <c r="BN28" s="62" t="s">
         <v>354</v>
       </c>
-      <c r="BN28" s="63">
+      <c r="BO28" s="63">
         <v>32.42868</v>
       </c>
-      <c r="BO28" s="63">
+      <c r="BP28" s="63">
         <v>34.870280000000001</v>
       </c>
-      <c r="BP28" s="41" t="s">
+      <c r="BQ28" s="41" t="s">
         <v>339</v>
       </c>
-      <c r="BQ28" t="s">
+      <c r="BR28" t="s">
         <v>355</v>
       </c>
-      <c r="BR28" s="59"/>
-      <c r="BW28">
+      <c r="BS28" s="59"/>
+      <c r="BX28">
         <v>6.5</v>
       </c>
-      <c r="BX28" s="66" t="s">
+      <c r="BY28" s="66" t="s">
         <v>358</v>
       </c>
-      <c r="BY28" s="66">
+      <c r="BZ28" s="66">
         <v>4192.68</v>
       </c>
-      <c r="BZ28">
+      <c r="CA28">
         <v>39.5</v>
       </c>
-      <c r="CA28">
+      <c r="CB28">
         <v>22.5</v>
       </c>
-      <c r="CB28">
+      <c r="CC28">
         <v>201.655</v>
       </c>
-      <c r="CC28">
+      <c r="CD28">
         <v>98.32</v>
       </c>
     </row>
-    <row r="29" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A29" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -7763,211 +7924,204 @@
       <c r="Y29" s="32">
         <v>9</v>
       </c>
-      <c r="Z29" s="1"/>
-      <c r="AA29" s="32" t="s">
+      <c r="Z29" s="32" t="s">
+        <v>388</v>
+      </c>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="AB29" s="16" t="s">
+      <c r="AC29" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AC29" s="56" t="s">
+      <c r="AD29" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AD29" s="32" t="s">
+      <c r="AE29" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="AE29" s="16" t="s">
+      <c r="AF29" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AF29" s="56" t="s">
+      <c r="AG29" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AG29" s="1"/>
-      <c r="AH29" s="19" t="s">
+      <c r="AH29" s="1"/>
+      <c r="AI29" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="AI29" s="19" t="s">
+      <c r="AJ29" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="AJ29" s="19" t="s">
+      <c r="AK29" s="19" t="s">
         <v>326</v>
       </c>
-      <c r="AK29" s="19" t="s">
+      <c r="AL29" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="AL29" s="19"/>
-      <c r="AM29" s="58" t="s">
+      <c r="AM29" s="19"/>
+      <c r="AN29" s="58" t="s">
         <v>210</v>
       </c>
-      <c r="AN29" s="55"/>
-      <c r="AO29" s="13">
+      <c r="AO29" s="55"/>
+      <c r="AP29" s="13">
         <v>0.01</v>
       </c>
-      <c r="AQ29" t="s">
+      <c r="AR29" t="s">
         <v>243</v>
       </c>
-      <c r="AR29" s="41" t="s">
+      <c r="AS29" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="AS29" s="1" t="s">
+      <c r="AT29" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="AT29" s="41" t="s">
+      <c r="AU29" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="AU29" s="1" t="s">
+      <c r="AV29" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="AW29" t="s">
+      <c r="AX29" t="s">
         <v>8</v>
       </c>
-      <c r="AX29" t="s">
+      <c r="AY29" t="s">
         <v>9</v>
       </c>
-      <c r="AY29" t="s">
+      <c r="AZ29" t="s">
         <v>10</v>
       </c>
-      <c r="AZ29" t="s">
+      <c r="BA29" t="s">
         <v>64</v>
       </c>
-      <c r="BA29" t="s">
+      <c r="BB29" t="s">
         <v>11</v>
       </c>
-      <c r="BB29" t="s">
+      <c r="BC29" t="s">
         <v>70</v>
-      </c>
-      <c r="BD29">
-        <v>250</v>
       </c>
       <c r="BE29">
         <v>250</v>
       </c>
-      <c r="BG29" s="57"/>
+      <c r="BF29">
+        <v>250</v>
+      </c>
       <c r="BH29" s="57"/>
       <c r="BI29" s="57"/>
       <c r="BJ29" s="57"/>
-      <c r="BL29" s="61">
+      <c r="BK29" s="57"/>
+      <c r="BM29" s="61">
         <v>41233</v>
       </c>
-      <c r="BM29" s="62" t="s">
+      <c r="BN29" s="62" t="s">
         <v>354</v>
       </c>
-      <c r="BN29" s="63">
+      <c r="BO29" s="63">
         <v>32.42868</v>
       </c>
-      <c r="BO29" s="63">
+      <c r="BP29" s="63">
         <v>34.870280000000001</v>
       </c>
-      <c r="BP29" s="41" t="s">
+      <c r="BQ29" s="41" t="s">
         <v>339</v>
       </c>
-      <c r="BQ29" t="s">
+      <c r="BR29" t="s">
         <v>355</v>
       </c>
-      <c r="BR29" s="59"/>
-      <c r="BW29">
+      <c r="BS29" s="59"/>
+      <c r="BX29">
         <v>6.5</v>
       </c>
-      <c r="BX29" s="66" t="s">
+      <c r="BY29" s="66" t="s">
         <v>358</v>
       </c>
-      <c r="BY29" s="66">
+      <c r="BZ29" s="66">
         <v>4192.68</v>
       </c>
-      <c r="BZ29">
+      <c r="CA29">
         <v>39.5</v>
       </c>
-      <c r="CA29">
+      <c r="CB29">
         <v>22.5</v>
       </c>
-      <c r="CB29">
+      <c r="CC29">
         <v>201.655</v>
       </c>
-      <c r="CC29">
+      <c r="CD29">
         <v>98.32</v>
       </c>
     </row>
-    <row r="30" spans="1:81" x14ac:dyDescent="0.2">
-      <c r="AO30" s="13"/>
+    <row r="30" spans="1:82" x14ac:dyDescent="0.2">
+      <c r="AP30" s="13"/>
     </row>
-    <row r="31" spans="1:81" x14ac:dyDescent="0.2">
-      <c r="AO31" s="13"/>
+    <row r="31" spans="1:82" x14ac:dyDescent="0.2">
+      <c r="AP31" s="13"/>
     </row>
-    <row r="32" spans="1:81" x14ac:dyDescent="0.2">
-      <c r="AO32" s="13"/>
+    <row r="32" spans="1:82" x14ac:dyDescent="0.2">
+      <c r="AP32" s="13"/>
     </row>
-    <row r="33" spans="41:41" x14ac:dyDescent="0.2">
-      <c r="AO33" s="13"/>
+    <row r="33" spans="42:42" x14ac:dyDescent="0.2">
+      <c r="AP33" s="13"/>
     </row>
-    <row r="34" spans="41:41" x14ac:dyDescent="0.2">
-      <c r="AO34" s="13"/>
+    <row r="34" spans="42:42" x14ac:dyDescent="0.2">
+      <c r="AP34" s="13"/>
     </row>
-    <row r="35" spans="41:41" x14ac:dyDescent="0.2">
-      <c r="AO35" s="13"/>
+    <row r="35" spans="42:42" x14ac:dyDescent="0.2">
+      <c r="AP35" s="13"/>
     </row>
-    <row r="36" spans="41:41" x14ac:dyDescent="0.2">
-      <c r="AO36" s="13"/>
+    <row r="36" spans="42:42" x14ac:dyDescent="0.2">
+      <c r="AP36" s="13"/>
     </row>
-    <row r="37" spans="41:41" x14ac:dyDescent="0.2">
-      <c r="AO37" s="13"/>
+    <row r="37" spans="42:42" x14ac:dyDescent="0.2">
+      <c r="AP37" s="13"/>
     </row>
-    <row r="38" spans="41:41" x14ac:dyDescent="0.2">
-      <c r="AO38" s="13"/>
+    <row r="38" spans="42:42" x14ac:dyDescent="0.2">
+      <c r="AP38" s="13"/>
     </row>
-    <row r="39" spans="41:41" x14ac:dyDescent="0.2">
-      <c r="AO39" s="13"/>
+    <row r="39" spans="42:42" x14ac:dyDescent="0.2">
+      <c r="AP39" s="13"/>
     </row>
-    <row r="40" spans="41:41" x14ac:dyDescent="0.2">
-      <c r="AO40" s="13"/>
+    <row r="40" spans="42:42" x14ac:dyDescent="0.2">
+      <c r="AP40" s="13"/>
     </row>
-    <row r="41" spans="41:41" x14ac:dyDescent="0.2">
-      <c r="AO41" s="13"/>
+    <row r="41" spans="42:42" x14ac:dyDescent="0.2">
+      <c r="AP41" s="13"/>
     </row>
-    <row r="42" spans="41:41" x14ac:dyDescent="0.2">
-      <c r="AO42" s="13"/>
+    <row r="42" spans="42:42" x14ac:dyDescent="0.2">
+      <c r="AP42" s="13"/>
     </row>
-    <row r="43" spans="41:41" x14ac:dyDescent="0.2">
-      <c r="AO43" s="13"/>
+    <row r="43" spans="42:42" x14ac:dyDescent="0.2">
+      <c r="AP43" s="13"/>
     </row>
-    <row r="44" spans="41:41" x14ac:dyDescent="0.2">
-      <c r="AO44" s="13"/>
+    <row r="44" spans="42:42" x14ac:dyDescent="0.2">
+      <c r="AP44" s="13"/>
     </row>
-    <row r="45" spans="41:41" x14ac:dyDescent="0.2">
-      <c r="AO45" s="13"/>
+    <row r="45" spans="42:42" x14ac:dyDescent="0.2">
+      <c r="AP45" s="13"/>
     </row>
-    <row r="46" spans="41:41" x14ac:dyDescent="0.2">
-      <c r="AO46" s="13"/>
+    <row r="46" spans="42:42" x14ac:dyDescent="0.2">
+      <c r="AP46" s="13"/>
     </row>
-    <row r="47" spans="41:41" x14ac:dyDescent="0.2">
-      <c r="AO47" s="13"/>
+    <row r="47" spans="42:42" x14ac:dyDescent="0.2">
+      <c r="AP47" s="13"/>
     </row>
-    <row r="48" spans="41:41" x14ac:dyDescent="0.2">
-      <c r="AO48" s="13"/>
+    <row r="48" spans="42:42" x14ac:dyDescent="0.2">
+      <c r="AP48" s="13"/>
     </row>
-    <row r="49" spans="41:41" x14ac:dyDescent="0.2">
-      <c r="AO49" s="13"/>
+    <row r="49" spans="42:42" x14ac:dyDescent="0.2">
+      <c r="AP49" s="13"/>
     </row>
-    <row r="50" spans="41:41" x14ac:dyDescent="0.2">
-      <c r="AO50" s="13"/>
+    <row r="50" spans="42:42" x14ac:dyDescent="0.2">
+      <c r="AP50" s="13"/>
     </row>
-    <row r="51" spans="41:41" x14ac:dyDescent="0.2">
-      <c r="AO51" s="13"/>
+    <row r="51" spans="42:42" x14ac:dyDescent="0.2">
+      <c r="AP51" s="13"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{06B92370-743D-804F-912C-658BE37B1274}" topLeftCell="X1">
-      <pane ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="AD344" sqref="AD344"/>
-      <rowBreaks count="2" manualBreakCount="2">
-        <brk id="1" max="16383" man="1"/>
-        <brk id="325" max="16383" man="1"/>
-      </rowBreaks>
-      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-    </customSheetView>
-    <customSheetView guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" topLeftCell="AP1">
-      <pane ySplit="2.03125" topLeftCell="A342" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BA367" sqref="BA367"/>
+    <customSheetView guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" topLeftCell="BD1">
+      <pane ySplit="2" topLeftCell="A273" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BG334" sqref="BG334"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="1" max="16383" man="1"/>
         <brk id="325" max="16383" man="1"/>
@@ -7985,9 +8139,9 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" topLeftCell="BD1">
-      <pane ySplit="2" topLeftCell="A273" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BG334" sqref="BG334"/>
+    <customSheetView guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" topLeftCell="AP1">
+      <pane ySplit="2.03125" topLeftCell="A342" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BA367" sqref="BA367"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="1" max="16383" man="1"/>
         <brk id="325" max="16383" man="1"/>
@@ -7995,16 +8149,26 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
+    <customSheetView guid="{06B92370-743D-804F-912C-658BE37B1274}" topLeftCell="X1">
+      <pane ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="AD344" sqref="AD344"/>
+      <rowBreaks count="2" manualBreakCount="2">
+        <brk id="1" max="16383" man="1"/>
+        <brk id="325" max="16383" man="1"/>
+      </rowBreaks>
+      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+    </customSheetView>
   </customSheetViews>
   <mergeCells count="3">
-    <mergeCell ref="BG1:BJ1"/>
-    <mergeCell ref="BL1:BR1"/>
-    <mergeCell ref="BT1:BU1"/>
+    <mergeCell ref="BH1:BK1"/>
+    <mergeCell ref="BM1:BS1"/>
+    <mergeCell ref="BU1:BV1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="AN3:AN29">
+  <conditionalFormatting sqref="AO3:AO29">
     <cfRule type="containsBlanks" dxfId="4" priority="9" stopIfTrue="1">
-      <formula>LEN(TRIM(AN3))=0</formula>
+      <formula>LEN(TRIM(AO3))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="10" operator="lessThan">
       <formula>0.02</formula>
@@ -8033,10 +8197,10 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="AC3" r:id="rId1"/>
-    <hyperlink ref="AF3" r:id="rId2"/>
-    <hyperlink ref="AF4:AF29" r:id="rId3" display="jan.pawlowski@unige.ch"/>
-    <hyperlink ref="AC4:AC29" r:id="rId4" display="lucas@sinclair.bio"/>
+    <hyperlink ref="AD3" r:id="rId1"/>
+    <hyperlink ref="AG3" r:id="rId2"/>
+    <hyperlink ref="AG4:AG29" r:id="rId3" display="jan.pawlowski@unige.ch"/>
+    <hyperlink ref="AD4:AD29" r:id="rId4" display="lucas@sinclair.bio"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/metadata/excel/projects/sinclair/testproj/metadata.xlsx
+++ b/metadata/excel/projects/sinclair/testproj/metadata.xlsx
@@ -16,10 +16,10 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="LS - Personal View" guid="{06B92370-743D-804F-912C-658BE37B1274}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Kemal - Personal View" guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" mergeInterval="0" personalView="1" xWindow="184" yWindow="84" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Me - Personal View" guid="{22DA4066-82A0-D143-AA10-416CFBE3149D}" mergeInterval="0" personalView="1" xWindow="46" yWindow="23" windowWidth="1436" windowHeight="854" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
     <customWorkbookView name="Microsoft Office User - Personal View" guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Me - Personal View" guid="{22DA4066-82A0-D143-AA10-416CFBE3149D}" mergeInterval="0" personalView="1" xWindow="46" yWindow="23" windowWidth="1436" windowHeight="854" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
-    <customWorkbookView name="Kemal - Personal View" guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" mergeInterval="0" personalView="1" xWindow="184" yWindow="84" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="LS - Personal View" guid="{06B92370-743D-804F-912C-658BE37B1274}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="391">
   <si>
     <t>Country</t>
   </si>
@@ -1225,6 +1225,12 @@
   </si>
   <si>
     <t>HA dist 3</t>
+  </si>
+  <si>
+    <t>AS dist 2</t>
+  </si>
+  <si>
+    <t>AS dist 3</t>
   </si>
 </sst>
 </file>
@@ -2588,7 +2594,7 @@
     <sheetView tabSelected="1" topLeftCell="P1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="X1" sqref="X1"/>
-      <selection pane="bottomLeft" activeCell="AD45" sqref="AD44:AD45"/>
+      <selection pane="bottomLeft" activeCell="AA7" sqref="AA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2755,7 +2761,7 @@
       <c r="CC1" s="21"/>
       <c r="CD1" s="21"/>
     </row>
-    <row r="2" spans="1:83" s="52" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:83" s="52" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="42" t="s">
         <v>46</v>
       </c>
@@ -4393,7 +4399,7 @@
         <v>3</v>
       </c>
       <c r="Z10" s="32" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="AA10" s="1"/>
       <c r="AB10" s="32" t="s">
@@ -4586,7 +4592,7 @@
         <v>3</v>
       </c>
       <c r="Z11" s="32" t="s">
-        <v>370</v>
+        <v>390</v>
       </c>
       <c r="AA11" s="1"/>
       <c r="AB11" s="32" t="s">
@@ -8119,9 +8125,19 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" topLeftCell="BD1">
-      <pane ySplit="2" topLeftCell="A273" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BG334" sqref="BG334"/>
+    <customSheetView guid="{06B92370-743D-804F-912C-658BE37B1274}" topLeftCell="X1">
+      <pane ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="AD344" sqref="AD344"/>
+      <rowBreaks count="2" manualBreakCount="2">
+        <brk id="1" max="16383" man="1"/>
+        <brk id="325" max="16383" man="1"/>
+      </rowBreaks>
+      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+    </customSheetView>
+    <customSheetView guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" topLeftCell="AP1">
+      <pane ySplit="2.03125" topLeftCell="A342" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BA367" sqref="BA367"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="1" max="16383" man="1"/>
         <brk id="325" max="16383" man="1"/>
@@ -8139,24 +8155,14 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" topLeftCell="AP1">
-      <pane ySplit="2.03125" topLeftCell="A342" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BA367" sqref="BA367"/>
+    <customSheetView guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" topLeftCell="BD1">
+      <pane ySplit="2" topLeftCell="A273" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BG334" sqref="BG334"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="1" max="16383" man="1"/>
         <brk id="325" max="16383" man="1"/>
       </rowBreaks>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-    </customSheetView>
-    <customSheetView guid="{06B92370-743D-804F-912C-658BE37B1274}" topLeftCell="X1">
-      <pane ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="AD344" sqref="AD344"/>
-      <rowBreaks count="2" manualBreakCount="2">
-        <brk id="1" max="16383" man="1"/>
-        <brk id="325" max="16383" man="1"/>
-      </rowBreaks>
-      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
   </customSheetViews>

--- a/metadata/excel/projects/sinclair/testproj/metadata.xlsx
+++ b/metadata/excel/projects/sinclair/testproj/metadata.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,22 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12040" yWindow="5160" windowWidth="36620" windowHeight="22320" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51120" windowHeight="28340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="micans_v6_ex1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Microsoft Office User - Personal View" guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Me - Personal View" guid="{22DA4066-82A0-D143-AA10-416CFBE3149D}" mergeInterval="0" personalView="1" xWindow="46" yWindow="23" windowWidth="1436" windowHeight="854" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
+    <customWorkbookView name="Kemal - Personal View" guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" mergeInterval="0" personalView="1" xWindow="184" yWindow="84" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
     <customWorkbookView name="LS - Personal View" guid="{06B92370-743D-804F-912C-658BE37B1274}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Kemal - Personal View" guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" mergeInterval="0" personalView="1" xWindow="184" yWindow="84" windowWidth="1280" windowHeight="749" tabRatio="500" activeSheetId="1"/>
-    <customWorkbookView name="Me - Personal View" guid="{22DA4066-82A0-D143-AA10-416CFBE3149D}" mergeInterval="0" personalView="1" xWindow="46" yWindow="23" windowWidth="1436" windowHeight="854" tabRatio="500" activeSheetId="1" showStatusbar="0"/>
-    <customWorkbookView name="Microsoft Office User - Personal View" guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" mergeInterval="0" personalView="1" maximized="1" windowWidth="2556" windowHeight="1244" tabRatio="500" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -1754,7 +1751,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1903,6 +1900,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2591,10 +2591,10 @@
   </sheetPr>
   <dimension ref="A1:CE51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="BS1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="X1" sqref="X1"/>
-      <selection pane="bottomLeft" activeCell="AA7" sqref="AA7"/>
+      <selection pane="bottomLeft" activeCell="CG15" sqref="CG15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3163,8 +3163,8 @@
       <c r="BY3" s="41" t="s">
         <v>357</v>
       </c>
-      <c r="BZ3" s="41">
-        <v>0</v>
+      <c r="BZ3" s="70">
+        <v>154.41999999999999</v>
       </c>
       <c r="CA3">
         <v>42.3</v>
@@ -3356,8 +3356,8 @@
       <c r="BY4" s="41" t="s">
         <v>357</v>
       </c>
-      <c r="BZ4" s="41">
-        <v>0</v>
+      <c r="BZ4" s="70">
+        <v>154.41999999999999</v>
       </c>
       <c r="CA4">
         <v>42.3</v>
@@ -3549,8 +3549,8 @@
       <c r="BY5" s="41" t="s">
         <v>357</v>
       </c>
-      <c r="BZ5" s="41">
-        <v>0</v>
+      <c r="BZ5" s="70">
+        <v>154.41999999999999</v>
       </c>
       <c r="CA5">
         <v>42.3</v>
@@ -3742,8 +3742,8 @@
       <c r="BY6" s="65" t="s">
         <v>358</v>
       </c>
-      <c r="BZ6" s="65">
-        <v>545.16</v>
+      <c r="BZ6" s="66">
+        <v>694.57</v>
       </c>
       <c r="CA6">
         <v>39.6</v>
@@ -3936,7 +3936,7 @@
         <v>358</v>
       </c>
       <c r="BZ7" s="66">
-        <v>545.16</v>
+        <v>694.57</v>
       </c>
       <c r="CA7">
         <v>39.6</v>
@@ -4129,7 +4129,7 @@
         <v>358</v>
       </c>
       <c r="BZ8" s="66">
-        <v>545.16</v>
+        <v>694.57</v>
       </c>
       <c r="CA8">
         <v>39.6</v>
@@ -4322,7 +4322,7 @@
         <v>358</v>
       </c>
       <c r="BZ9" s="66">
-        <v>5080.2700000000004</v>
+        <v>5022.16</v>
       </c>
       <c r="CA9">
         <v>39.6</v>
@@ -4515,7 +4515,7 @@
         <v>358</v>
       </c>
       <c r="BZ10" s="66">
-        <v>5080.2700000000004</v>
+        <v>5022.16</v>
       </c>
       <c r="CA10">
         <v>39.6</v>
@@ -4708,7 +4708,7 @@
         <v>358</v>
       </c>
       <c r="BZ11" s="66">
-        <v>5080.2700000000004</v>
+        <v>5022.16</v>
       </c>
       <c r="CA11">
         <v>39.6</v>
@@ -4900,7 +4900,7 @@
       <c r="BY12" s="66" t="s">
         <v>358</v>
       </c>
-      <c r="BZ12" s="41">
+      <c r="BZ12" s="70">
         <v>102.78</v>
       </c>
       <c r="CA12">
@@ -5093,7 +5093,7 @@
       <c r="BY13" s="66" t="s">
         <v>358</v>
       </c>
-      <c r="BZ13" s="41">
+      <c r="BZ13" s="70">
         <v>102.78</v>
       </c>
       <c r="CA13">
@@ -5286,7 +5286,7 @@
       <c r="BY14" s="66" t="s">
         <v>358</v>
       </c>
-      <c r="BZ14" s="41">
+      <c r="BZ14" s="70">
         <v>102.78</v>
       </c>
       <c r="CA14">
@@ -5479,7 +5479,7 @@
       <c r="BY15" s="66" t="s">
         <v>358</v>
       </c>
-      <c r="BZ15" s="65">
+      <c r="BZ15" s="66">
         <v>130.54</v>
       </c>
       <c r="CA15">
@@ -6577,8 +6577,8 @@
       <c r="BY21" s="41" t="s">
         <v>357</v>
       </c>
-      <c r="BZ21" s="41">
-        <v>0</v>
+      <c r="BZ21" s="70">
+        <v>118.45</v>
       </c>
       <c r="CA21">
         <v>41.04</v>
@@ -6760,8 +6760,8 @@
       <c r="BY22" s="41" t="s">
         <v>357</v>
       </c>
-      <c r="BZ22" s="41">
-        <v>0</v>
+      <c r="BZ22" s="70">
+        <v>118.45</v>
       </c>
       <c r="CA22">
         <v>41.04</v>
@@ -6943,8 +6943,8 @@
       <c r="BY23" s="41" t="s">
         <v>357</v>
       </c>
-      <c r="BZ23" s="41">
-        <v>0</v>
+      <c r="BZ23" s="70">
+        <v>118.45</v>
       </c>
       <c r="CA23">
         <v>41.04</v>
@@ -7126,8 +7126,8 @@
       <c r="BY24" s="66" t="s">
         <v>358</v>
       </c>
-      <c r="BZ24" s="65">
-        <v>338.21</v>
+      <c r="BZ24" s="66">
+        <v>454.75</v>
       </c>
       <c r="CA24">
         <v>39.4</v>
@@ -7310,7 +7310,7 @@
         <v>358</v>
       </c>
       <c r="BZ25" s="66">
-        <v>338.21</v>
+        <v>454.75</v>
       </c>
       <c r="CA25">
         <v>39.4</v>
@@ -7493,7 +7493,7 @@
         <v>358</v>
       </c>
       <c r="BZ26" s="66">
-        <v>338.21</v>
+        <v>454.75</v>
       </c>
       <c r="CA26">
         <v>39.4</v>
@@ -7676,7 +7676,7 @@
         <v>358</v>
       </c>
       <c r="BZ27" s="66">
-        <v>4192.68</v>
+        <v>4288.6400000000003</v>
       </c>
       <c r="CA27">
         <v>39.5</v>
@@ -7859,7 +7859,7 @@
         <v>358</v>
       </c>
       <c r="BZ28" s="66">
-        <v>4192.68</v>
+        <v>4288.6400000000003</v>
       </c>
       <c r="CA28">
         <v>39.5</v>
@@ -8042,7 +8042,7 @@
         <v>358</v>
       </c>
       <c r="BZ29" s="66">
-        <v>4192.68</v>
+        <v>4288.6400000000003</v>
       </c>
       <c r="CA29">
         <v>39.5</v>
@@ -8125,19 +8125,9 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{06B92370-743D-804F-912C-658BE37B1274}" topLeftCell="X1">
-      <pane ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="AD344" sqref="AD344"/>
-      <rowBreaks count="2" manualBreakCount="2">
-        <brk id="1" max="16383" man="1"/>
-        <brk id="325" max="16383" man="1"/>
-      </rowBreaks>
-      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-    </customSheetView>
-    <customSheetView guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" topLeftCell="AP1">
-      <pane ySplit="2.03125" topLeftCell="A342" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BA367" sqref="BA367"/>
+    <customSheetView guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" topLeftCell="BD1">
+      <pane ySplit="2" topLeftCell="A273" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BG334" sqref="BG334"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="1" max="16383" man="1"/>
         <brk id="325" max="16383" man="1"/>
@@ -8155,14 +8145,24 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
-    <customSheetView guid="{31EA8456-A0B1-A842-BBBA-1FCBF1E560D2}" topLeftCell="BD1">
-      <pane ySplit="2" topLeftCell="A273" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="BG334" sqref="BG334"/>
+    <customSheetView guid="{CB40A2B6-4618-A74E-89AF-8E1F0A1F3C2E}" topLeftCell="AP1">
+      <pane ySplit="2.03125" topLeftCell="A342" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="BA367" sqref="BA367"/>
       <rowBreaks count="2" manualBreakCount="2">
         <brk id="1" max="16383" man="1"/>
         <brk id="325" max="16383" man="1"/>
       </rowBreaks>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+    </customSheetView>
+    <customSheetView guid="{06B92370-743D-804F-912C-658BE37B1274}" topLeftCell="X1">
+      <pane ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="AD344" sqref="AD344"/>
+      <rowBreaks count="2" manualBreakCount="2">
+        <brk id="1" max="16383" man="1"/>
+        <brk id="325" max="16383" man="1"/>
+      </rowBreaks>
+      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
     </customSheetView>
   </customSheetViews>
